--- a/Collections/Russia/#Russia#Russian_Federation#Commemorative#[1999-present]#circulation_quality.xlsx
+++ b/Collections/Russia/#Russia#Russian_Federation#Commemorative#[1999-present]#circulation_quality.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\РФ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\Russia\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10340" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10335" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1₽ " sheetId="1" r:id="rId1"/>
@@ -2470,18 +2470,18 @@
       <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="48.7265625" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="23" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="22" customWidth="1"/>
+    <col min="3" max="3" width="48.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" customWidth="1"/>
+    <col min="5" max="6" width="12.42578125" style="23" customWidth="1"/>
+    <col min="7" max="8" width="3.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
         <v>1</v>
       </c>
@@ -2502,7 +2502,7 @@
       <c r="H1" s="55"/>
       <c r="I1" s="33"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="51"/>
       <c r="B2" s="51"/>
       <c r="C2" s="1" t="s">
@@ -2525,7 +2525,7 @@
       </c>
       <c r="I2" s="33"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1999</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2001</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2014</v>
       </c>
@@ -2605,7 +2605,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E6"/>
       <c r="F6"/>
     </row>
@@ -2702,18 +2702,18 @@
       <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="24" customWidth="1"/>
-    <col min="2" max="2" width="36.7265625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="48.7265625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="22" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="25" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="22" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="22" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" style="22" customWidth="1"/>
+    <col min="3" max="3" width="48.7109375" style="22" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="22" customWidth="1"/>
+    <col min="5" max="6" width="12.42578125" style="25" customWidth="1"/>
+    <col min="7" max="8" width="3.85546875" style="22" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
         <v>1</v>
       </c>
@@ -2734,7 +2734,7 @@
       <c r="H1" s="61"/>
       <c r="I1" s="26"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="57"/>
       <c r="B2" s="57"/>
       <c r="C2" s="27" t="s">
@@ -2757,7 +2757,7 @@
       </c>
       <c r="I2" s="26"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2000</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2000</v>
       </c>
@@ -2813,7 +2813,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2000</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2000</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2000</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2000</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2000</v>
       </c>
@@ -2953,7 +2953,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2001</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2001</v>
       </c>
@@ -3004,7 +3004,7 @@
       </c>
       <c r="I11" s="33"/>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2012</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>2012</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>2012</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>2012</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>2012</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>2012</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>2012</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>2012</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>2012</v>
       </c>
@@ -3256,7 +3256,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>2012</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>2012</v>
       </c>
@@ -3312,7 +3312,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>2012</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>2012</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>2012</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>2012</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>2012</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>2012</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>2017</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>2017</v>
       </c>
@@ -3565,25 +3565,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J36" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="9" ySplit="2" topLeftCell="J21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K54" sqref="K54"/>
+      <selection pane="bottomRight" activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="24" customWidth="1"/>
-    <col min="2" max="2" width="48.7265625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="22" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="25" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="22" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="22" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="48.7109375" style="22" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="22" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="22" customWidth="1"/>
+    <col min="5" max="6" width="12.42578125" style="25" customWidth="1"/>
+    <col min="7" max="8" width="3.85546875" style="22" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
         <v>1</v>
       </c>
@@ -3604,7 +3604,7 @@
       <c r="H1" s="61"/>
       <c r="I1" s="26"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="62"/>
       <c r="B2" s="57"/>
       <c r="C2" s="27" t="s">
@@ -3627,7 +3627,7 @@
       </c>
       <c r="I2" s="26"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>2012</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>2012</v>
       </c>
@@ -3683,7 +3683,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>2012</v>
       </c>
@@ -3711,7 +3711,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>2012</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>2012</v>
       </c>
@@ -3767,7 +3767,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>2012</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>2012</v>
       </c>
@@ -3823,7 +3823,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>2012</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>2012</v>
       </c>
@@ -3879,7 +3879,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>2012</v>
       </c>
@@ -3907,7 +3907,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>2014</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>2014</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>2014</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>2014</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>2014</v>
       </c>
@@ -4047,7 +4047,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>2014</v>
       </c>
@@ -4075,7 +4075,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>2015</v>
       </c>
@@ -4103,7 +4103,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>2014</v>
       </c>
@@ -4131,7 +4131,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>2014</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>2014</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>2014</v>
       </c>
@@ -4215,7 +4215,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>2014</v>
       </c>
@@ -4243,7 +4243,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>2014</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>2014</v>
       </c>
@@ -4299,7 +4299,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>2014</v>
       </c>
@@ -4327,7 +4327,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>2014</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>2014</v>
       </c>
@@ -4383,7 +4383,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>2014</v>
       </c>
@@ -4411,7 +4411,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>2015</v>
       </c>
@@ -4427,17 +4427,17 @@
         <v>0</v>
       </c>
       <c r="G31" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31" s="32" t="s">
         <v>0</v>
       </c>
       <c r="I31" s="33" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>Can exchange</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>2015</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <v>2015</v>
       </c>
@@ -4493,7 +4493,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
         <v>2015</v>
       </c>
@@ -4521,7 +4521,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>2015</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>2015</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>2016</v>
       </c>
@@ -4605,7 +4605,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>2016</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>2016</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>2016</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
         <v>2016</v>
       </c>
@@ -4717,7 +4717,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
         <v>2016</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
         <v>2016</v>
       </c>
@@ -4773,7 +4773,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="15">
         <v>2016</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
         <v>2016</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="15">
         <v>2016</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="15">
         <v>2016</v>
       </c>
@@ -4885,7 +4885,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="15">
         <v>2016</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="15">
         <v>2016</v>
       </c>
@@ -4941,7 +4941,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="15">
         <v>2016</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="15">
         <v>2016</v>
       </c>
@@ -4985,7 +4985,7 @@
         <v>0</v>
       </c>
       <c r="G51" s="31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H51" s="32" t="s">
         <v>0</v>
@@ -4995,7 +4995,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="15">
         <v>2019</v>
       </c>
@@ -5021,43 +5021,43 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C58" s="16"/>
     </row>
-    <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C59" s="16"/>
     </row>
-    <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C60" s="16"/>
     </row>
-    <row r="61" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C61" s="16"/>
     </row>
-    <row r="62" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C62" s="16"/>
     </row>
-    <row r="63" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C63" s="16"/>
     </row>
-    <row r="64" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C64" s="16"/>
     </row>
-    <row r="65" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C65" s="16"/>
     </row>
-    <row r="66" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C66" s="16"/>
     </row>
-    <row r="67" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C67" s="16"/>
     </row>
-    <row r="68" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C68" s="16"/>
     </row>
-    <row r="69" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C69" s="16"/>
     </row>
-    <row r="70" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C70" s="16"/>
     </row>
   </sheetData>
@@ -5093,24 +5093,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I165"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="24" customWidth="1"/>
-    <col min="2" max="4" width="36.7265625" style="22" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="25" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="22" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="22" customWidth="1"/>
-    <col min="10" max="18" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="24" customWidth="1"/>
+    <col min="2" max="4" width="36.7109375" style="22" customWidth="1"/>
+    <col min="5" max="6" width="12.42578125" style="25" customWidth="1"/>
+    <col min="7" max="8" width="3.85546875" style="22" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="22" customWidth="1"/>
+    <col min="10" max="18" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
         <v>1</v>
       </c>
@@ -5131,7 +5131,7 @@
       <c r="H1" s="61"/>
       <c r="I1" s="26"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="57"/>
       <c r="B2" s="57"/>
       <c r="C2" s="43" t="s">
@@ -5154,7 +5154,7 @@
       </c>
       <c r="I2" s="26"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30">
         <v>2000</v>
       </c>
@@ -5182,7 +5182,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30">
         <v>2001</v>
       </c>
@@ -5210,7 +5210,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="30">
         <v>2002</v>
       </c>
@@ -5240,7 +5240,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="30">
         <v>2002</v>
       </c>
@@ -5270,7 +5270,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30">
         <v>2002</v>
       </c>
@@ -5300,7 +5300,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30">
         <v>2002</v>
       </c>
@@ -5330,7 +5330,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30">
         <v>2002</v>
       </c>
@@ -5360,7 +5360,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="30">
         <v>2002</v>
       </c>
@@ -5390,7 +5390,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="30">
         <v>2002</v>
       </c>
@@ -5420,7 +5420,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30">
         <v>2002</v>
       </c>
@@ -5450,7 +5450,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="30">
         <v>2002</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="30">
         <v>2002</v>
       </c>
@@ -5510,7 +5510,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="30">
         <v>2003</v>
       </c>
@@ -5540,7 +5540,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30">
         <v>2003</v>
       </c>
@@ -5570,7 +5570,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="30">
         <v>2003</v>
       </c>
@@ -5600,7 +5600,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="30">
         <v>2003</v>
       </c>
@@ -5630,7 +5630,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="30">
         <v>2004</v>
       </c>
@@ -5660,7 +5660,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="30">
         <v>2004</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="30">
         <v>2004</v>
       </c>
@@ -5720,7 +5720,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="30">
         <v>2005</v>
       </c>
@@ -5750,7 +5750,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="30">
         <v>2005</v>
       </c>
@@ -5780,7 +5780,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="30">
         <v>2005</v>
       </c>
@@ -5810,7 +5810,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="30">
         <v>2005</v>
       </c>
@@ -5840,7 +5840,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="30">
         <v>2005</v>
       </c>
@@ -5870,7 +5870,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="30">
         <v>2005</v>
       </c>
@@ -5900,7 +5900,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="30">
         <v>2005</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="30">
         <v>2005</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="30">
         <v>2005</v>
       </c>
@@ -5990,7 +5990,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="30">
         <v>2005</v>
       </c>
@@ -6020,7 +6020,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="30">
         <v>2005</v>
       </c>
@@ -6050,7 +6050,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="30">
         <v>2006</v>
       </c>
@@ -6080,7 +6080,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="30">
         <v>2006</v>
       </c>
@@ -6110,7 +6110,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="30">
         <v>2006</v>
       </c>
@@ -6140,7 +6140,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="30">
         <v>2006</v>
       </c>
@@ -6170,7 +6170,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="30">
         <v>2006</v>
       </c>
@@ -6200,7 +6200,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="30">
         <v>2006</v>
       </c>
@@ -6230,7 +6230,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="30">
         <v>2006</v>
       </c>
@@ -6260,7 +6260,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="30">
         <v>2006</v>
       </c>
@@ -6290,7 +6290,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="30">
         <v>2007</v>
       </c>
@@ -6320,7 +6320,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="30">
         <v>2007</v>
       </c>
@@ -6350,7 +6350,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="30">
         <v>2007</v>
       </c>
@@ -6380,7 +6380,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="30">
         <v>2007</v>
       </c>
@@ -6410,7 +6410,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="30">
         <v>2007</v>
       </c>
@@ -6440,7 +6440,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="30">
         <v>2007</v>
       </c>
@@ -6470,7 +6470,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="30">
         <v>2007</v>
       </c>
@@ -6500,7 +6500,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="30">
         <v>2007</v>
       </c>
@@ -6530,7 +6530,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="30">
         <v>2007</v>
       </c>
@@ -6560,7 +6560,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="30">
         <v>2008</v>
       </c>
@@ -6590,7 +6590,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="30">
         <v>2008</v>
       </c>
@@ -6620,7 +6620,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="30">
         <v>2008</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="30">
         <v>2008</v>
       </c>
@@ -6680,7 +6680,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="30">
         <v>2008</v>
       </c>
@@ -6710,7 +6710,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="30">
         <v>2008</v>
       </c>
@@ -6740,7 +6740,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="30">
         <v>2008</v>
       </c>
@@ -6770,7 +6770,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="30">
         <v>2008</v>
       </c>
@@ -6800,7 +6800,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="30">
         <v>2009</v>
       </c>
@@ -6830,7 +6830,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="30">
         <v>2009</v>
       </c>
@@ -6860,7 +6860,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="30">
         <v>2009</v>
       </c>
@@ -6890,7 +6890,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="30">
         <v>2009</v>
       </c>
@@ -6920,7 +6920,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="30">
         <v>2009</v>
       </c>
@@ -6950,7 +6950,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="30">
         <v>2009</v>
       </c>
@@ -6980,7 +6980,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="30">
         <v>2009</v>
       </c>
@@ -7010,7 +7010,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="30">
         <v>2009</v>
       </c>
@@ -7040,7 +7040,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="30">
         <v>2009</v>
       </c>
@@ -7070,7 +7070,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="30">
         <v>2010</v>
       </c>
@@ -7098,7 +7098,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="30">
         <v>2010</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="30">
         <v>2010</v>
       </c>
@@ -7158,7 +7158,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="30">
         <v>2010</v>
       </c>
@@ -7186,7 +7186,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="30">
         <v>2010</v>
       </c>
@@ -7216,7 +7216,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="30">
         <v>2010</v>
       </c>
@@ -7246,7 +7246,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="30">
         <v>2010</v>
       </c>
@@ -7276,7 +7276,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="30">
         <v>2010</v>
       </c>
@@ -7306,7 +7306,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="30">
         <v>2011</v>
       </c>
@@ -7336,7 +7336,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="30">
         <v>2011</v>
       </c>
@@ -7366,7 +7366,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="30">
         <v>2011</v>
       </c>
@@ -7396,7 +7396,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="30">
         <v>2011</v>
       </c>
@@ -7426,7 +7426,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="30">
         <v>2011</v>
       </c>
@@ -7456,7 +7456,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="30">
         <v>2011</v>
       </c>
@@ -7486,7 +7486,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="30">
         <v>2011</v>
       </c>
@@ -7516,7 +7516,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="30">
         <v>2011</v>
       </c>
@@ -7546,7 +7546,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="30">
         <v>2011</v>
       </c>
@@ -7574,7 +7574,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="30">
         <v>2011</v>
       </c>
@@ -7604,7 +7604,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="30">
         <v>2011</v>
       </c>
@@ -7634,7 +7634,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="30">
         <v>2011</v>
       </c>
@@ -7664,7 +7664,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="30">
         <v>2011</v>
       </c>
@@ -7694,7 +7694,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="30">
         <v>2012</v>
       </c>
@@ -7724,7 +7724,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="30">
         <v>2012</v>
       </c>
@@ -7754,7 +7754,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="30">
         <v>2012</v>
       </c>
@@ -7784,7 +7784,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="30">
         <v>2012</v>
       </c>
@@ -7814,7 +7814,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="30">
         <v>2012</v>
       </c>
@@ -7844,7 +7844,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="30">
         <v>2012</v>
       </c>
@@ -7874,7 +7874,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="30">
         <v>2012</v>
       </c>
@@ -7904,7 +7904,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="30">
         <v>2012</v>
       </c>
@@ -7934,7 +7934,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="30">
         <v>2012</v>
       </c>
@@ -7964,7 +7964,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="30">
         <v>2012</v>
       </c>
@@ -7994,7 +7994,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="30">
         <v>2012</v>
       </c>
@@ -8024,7 +8024,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:9" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="30">
         <v>2013</v>
       </c>
@@ -8054,7 +8054,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="30">
         <v>2013</v>
       </c>
@@ -8084,7 +8084,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="30">
         <v>2013</v>
       </c>
@@ -8114,7 +8114,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="30">
         <v>2013</v>
       </c>
@@ -8144,7 +8144,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="30">
         <v>2013</v>
       </c>
@@ -8174,7 +8174,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="30">
         <v>2013</v>
       </c>
@@ -8204,7 +8204,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="30">
         <v>2013</v>
       </c>
@@ -8234,7 +8234,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="30">
         <v>2013</v>
       </c>
@@ -8264,7 +8264,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="30">
         <v>2013</v>
       </c>
@@ -8294,7 +8294,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="30">
         <v>2013</v>
       </c>
@@ -8324,7 +8324,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="30">
         <v>2013</v>
       </c>
@@ -8354,7 +8354,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="30">
         <v>2013</v>
       </c>
@@ -8384,7 +8384,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="30">
         <v>2013</v>
       </c>
@@ -8414,7 +8414,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="30">
         <v>2013</v>
       </c>
@@ -8444,7 +8444,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="30">
         <v>2014</v>
       </c>
@@ -8474,7 +8474,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="30">
         <v>2014</v>
       </c>
@@ -8504,7 +8504,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="30">
         <v>2014</v>
       </c>
@@ -8534,7 +8534,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="30">
         <v>2014</v>
       </c>
@@ -8564,7 +8564,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="30">
         <v>2014</v>
       </c>
@@ -8594,7 +8594,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="30">
         <v>2014</v>
       </c>
@@ -8624,7 +8624,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="30">
         <v>2014</v>
       </c>
@@ -8654,7 +8654,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="30">
         <v>2014</v>
       </c>
@@ -8684,7 +8684,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="30">
         <v>2014</v>
       </c>
@@ -8714,7 +8714,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="30">
         <v>2014</v>
       </c>
@@ -8744,7 +8744,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="30">
         <v>2014</v>
       </c>
@@ -8774,7 +8774,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="30">
         <v>2014</v>
       </c>
@@ -8804,7 +8804,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="30">
         <v>2014</v>
       </c>
@@ -8834,7 +8834,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="30">
         <v>2014</v>
       </c>
@@ -8864,7 +8864,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="30">
         <v>2014</v>
       </c>
@@ -8894,7 +8894,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="30">
         <v>2014</v>
       </c>
@@ -8924,7 +8924,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="30">
         <v>2015</v>
       </c>
@@ -8954,7 +8954,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="30">
         <v>2015</v>
       </c>
@@ -8984,7 +8984,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="30">
         <v>2015</v>
       </c>
@@ -9014,7 +9014,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="30">
         <v>2015</v>
       </c>
@@ -9044,7 +9044,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="30">
         <v>2015</v>
       </c>
@@ -9074,7 +9074,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="30">
         <v>2015</v>
       </c>
@@ -9104,7 +9104,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="30">
         <v>2015</v>
       </c>
@@ -9134,7 +9134,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="30">
         <v>2015</v>
       </c>
@@ -9164,7 +9164,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="30">
         <v>2015</v>
       </c>
@@ -9194,7 +9194,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="30">
         <v>2015</v>
       </c>
@@ -9224,7 +9224,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="30">
         <v>2015</v>
       </c>
@@ -9254,7 +9254,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="30">
         <v>2015</v>
       </c>
@@ -9284,7 +9284,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="30">
         <v>2016</v>
       </c>
@@ -9314,7 +9314,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="30">
         <v>2016</v>
       </c>
@@ -9344,7 +9344,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="30">
         <v>2016</v>
       </c>
@@ -9374,7 +9374,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="30">
         <v>2016</v>
       </c>
@@ -9404,7 +9404,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="30">
         <v>2016</v>
       </c>
@@ -9434,7 +9434,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="30">
         <v>2016</v>
       </c>
@@ -9464,7 +9464,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="30">
         <v>2016</v>
       </c>
@@ -9494,7 +9494,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="30">
         <v>2016</v>
       </c>
@@ -9524,7 +9524,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="30">
         <v>2016</v>
       </c>
@@ -9554,7 +9554,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="30">
         <v>2016</v>
       </c>
@@ -9584,7 +9584,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="30">
         <v>2017</v>
       </c>
@@ -9614,7 +9614,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="30">
         <v>2017</v>
       </c>
@@ -9644,7 +9644,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="30">
         <v>2017</v>
       </c>
@@ -9674,7 +9674,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="30">
         <v>2018</v>
       </c>
@@ -9704,7 +9704,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="30">
         <v>2018</v>
       </c>
@@ -9734,7 +9734,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="30">
         <v>2018</v>
       </c>
@@ -9764,7 +9764,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="30">
         <v>2019</v>
       </c>
@@ -9794,7 +9794,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="30">
         <v>2019</v>
       </c>
@@ -9824,7 +9824,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="30">
         <v>2019</v>
       </c>
@@ -9854,7 +9854,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="30">
         <v>2020</v>
       </c>
@@ -9876,7 +9876,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="30">
         <v>2020</v>
       </c>
@@ -9898,7 +9898,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="30">
         <v>2020</v>
       </c>
@@ -9928,7 +9928,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="30">
         <v>2020</v>
       </c>
@@ -9950,7 +9950,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="30">
         <v>2020</v>
       </c>
@@ -9972,7 +9972,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="30">
         <v>2020</v>
       </c>
@@ -10034,17 +10034,17 @@
       <selection pane="bottomRight" activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="24" customWidth="1"/>
-    <col min="2" max="3" width="48.7265625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="12.7265625" style="22" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="25" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="22" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="22" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="24" customWidth="1"/>
+    <col min="2" max="3" width="48.7109375" style="22" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="22" customWidth="1"/>
+    <col min="5" max="6" width="12.42578125" style="25" customWidth="1"/>
+    <col min="7" max="8" width="3.85546875" style="22" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
         <v>1</v>
       </c>
@@ -10065,7 +10065,7 @@
       <c r="H1" s="61"/>
       <c r="I1" s="26"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="57"/>
       <c r="B2" s="57"/>
       <c r="C2" s="27" t="s">
@@ -10088,7 +10088,7 @@
       </c>
       <c r="I2" s="26"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30">
         <v>2011</v>
       </c>
@@ -10116,7 +10116,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30">
         <v>2012</v>
       </c>
@@ -10144,7 +10144,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="30">
         <v>2013</v>
       </c>
@@ -10172,7 +10172,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="30">
         <v>2014</v>
       </c>
@@ -10200,7 +10200,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30">
         <v>2014</v>
       </c>
@@ -10228,7 +10228,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30">
         <v>2014</v>
       </c>
@@ -10256,7 +10256,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30">
         <v>2014</v>
       </c>
@@ -10284,7 +10284,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="30">
         <v>2017</v>
       </c>
@@ -10312,7 +10312,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="30">
         <v>2017</v>
       </c>
@@ -10340,7 +10340,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30">
         <v>2017</v>
       </c>
@@ -10366,7 +10366,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="30">
         <v>2017</v>
       </c>
@@ -10392,7 +10392,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="30">
         <v>2018</v>
       </c>
@@ -10418,7 +10418,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="30">
         <v>2018</v>
       </c>
@@ -10444,7 +10444,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30">
         <v>2018</v>
       </c>
@@ -10472,7 +10472,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="30">
         <v>2018</v>
       </c>
@@ -10500,7 +10500,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="30">
         <v>2018</v>
       </c>
@@ -10528,7 +10528,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="30">
         <v>2018</v>
       </c>
@@ -10556,7 +10556,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="30">
         <v>2019</v>
       </c>
@@ -10584,7 +10584,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="30">
         <v>2019</v>
       </c>
@@ -10612,7 +10612,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="30">
         <v>2019</v>
       </c>
@@ -10640,7 +10640,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="30">
         <v>2019</v>
       </c>
@@ -10668,7 +10668,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="30">
         <v>2019</v>
       </c>
@@ -10696,7 +10696,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="30">
         <v>2019</v>
       </c>
@@ -10724,7 +10724,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="30">
         <v>2019</v>
       </c>
@@ -10752,7 +10752,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="30">
         <v>2019</v>
       </c>
@@ -10780,7 +10780,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="30">
         <v>2019</v>
       </c>
@@ -10808,7 +10808,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="30">
         <v>2019</v>
       </c>
@@ -10836,7 +10836,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="30">
         <v>2019</v>
       </c>
@@ -10864,7 +10864,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="30">
         <v>2019</v>
       </c>
@@ -10892,7 +10892,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="30">
         <v>2020</v>
       </c>
@@ -10910,7 +10910,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="30">
         <v>2020</v>
       </c>
@@ -10934,7 +10934,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="30">
         <v>2020</v>
       </c>
@@ -10958,7 +10958,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="30">
         <v>2020</v>
       </c>
@@ -10982,7 +10982,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="30">
         <v>2020</v>
       </c>
@@ -11006,7 +11006,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="30">
         <v>2020</v>
       </c>
@@ -11030,7 +11030,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="30">
         <v>2020</v>
       </c>
@@ -11054,7 +11054,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="30">
         <v>2020</v>
       </c>
@@ -11078,7 +11078,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="30">
         <v>2020</v>
       </c>
@@ -11102,7 +11102,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="30">
         <v>2020</v>
       </c>
@@ -11126,7 +11126,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="30">
         <v>2020</v>
       </c>
@@ -11338,7 +11338,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H18 H16">
+  <conditionalFormatting sqref="H16 H18">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11370,7 +11370,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17 H15 H19">
+  <conditionalFormatting sqref="H15 H17 H19">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11498,7 +11498,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H23))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23 H25 H27 H29 H31">
+  <conditionalFormatting sqref="H25 H23 H27 H29 H31">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11530,7 +11530,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H24))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H26 H24 H28 H30">
+  <conditionalFormatting sqref="H24 H26 H28 H30">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11716,16 +11716,16 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
     <col min="3" max="3" width="62" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" customWidth="1"/>
-    <col min="7" max="7" width="50.81640625" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="50.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>323</v>
       </c>
@@ -11736,7 +11736,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -11747,7 +11747,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -11758,7 +11758,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -11769,12 +11769,12 @@
         <v>331</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="48"/>
       <c r="C5" s="49"/>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="22"/>
     </row>
   </sheetData>

--- a/Collections/Russia/#Russia#Russian_Federation#Commemorative#[1999-present]#circulation_quality.xlsx
+++ b/Collections/Russia/#Russia#Russian_Federation#Commemorative#[1999-present]#circulation_quality.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10335" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10335" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1₽ " sheetId="1" r:id="rId1"/>
@@ -385,7 +385,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1493" uniqueCount="332">
   <si>
     <t>-</t>
   </si>
@@ -3565,8 +3565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J21" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="9" ySplit="2" topLeftCell="J12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="I41" sqref="I41"/>
@@ -5093,11 +5093,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I165"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J60" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="9" ySplit="2" topLeftCell="J144" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C72" sqref="C72"/>
+      <selection pane="bottomRight" activeCell="I167" sqref="I167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9965,8 +9965,12 @@
       </c>
       <c r="E164" s="39"/>
       <c r="F164" s="39"/>
-      <c r="G164" s="11"/>
-      <c r="H164" s="14"/>
+      <c r="G164" s="11">
+        <v>1</v>
+      </c>
+      <c r="H164" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="I164" s="33" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -11338,7 +11342,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H16 H18">
+  <conditionalFormatting sqref="H18 H16">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11370,7 +11374,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15 H17 H19">
+  <conditionalFormatting sqref="H17 H15 H19">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11498,7 +11502,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H23))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H25 H23 H27 H29 H31">
+  <conditionalFormatting sqref="H23 H25 H27 H29 H31">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11530,7 +11534,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H24))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24 H26 H28 H30">
+  <conditionalFormatting sqref="H26 H24 H28 H30">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/Russia/#Russia#Russian_Federation#Commemorative#[1999-present]#circulation_quality.xlsx
+++ b/Collections/Russia/#Russia#Russian_Federation#Commemorative#[1999-present]#circulation_quality.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\Russia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\Russia\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C339A1-9691-4F28-A936-FA788D7119C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10335" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1₽ " sheetId="1" r:id="rId1"/>
@@ -22,25 +23,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'10₽ '!$A$1:$H$165</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -55,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -70,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -85,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -105,12 +98,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -125,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -140,7 +133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -155,7 +148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -175,12 +168,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -195,7 +188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -210,7 +203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -225,7 +218,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -245,12 +238,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -265,7 +258,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -280,7 +273,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -295,7 +288,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -315,12 +308,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -335,7 +328,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -350,7 +343,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -365,7 +358,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
         <r>
           <rPr>
@@ -385,7 +378,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1493" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="347">
   <si>
     <t>-</t>
   </si>
@@ -1206,12 +1199,6 @@
     <t>Labor man</t>
   </si>
   <si>
-    <t>Labor man 1</t>
-  </si>
-  <si>
-    <t>Labor man 2</t>
-  </si>
-  <si>
     <t xml:space="preserve">The 29th Winter Universiade of 2019 in Krasnoyarsk </t>
   </si>
   <si>
@@ -1381,13 +1368,64 @@
   </si>
   <si>
     <t>Low convenience set of actual tables in English</t>
+  </si>
+  <si>
+    <t>Gena the Crocodile</t>
+  </si>
+  <si>
+    <t>Barboskins</t>
+  </si>
+  <si>
+    <t>Work of medical workers during the COVID-19 epidemic</t>
+  </si>
+  <si>
+    <t>60 years of the first manned space flight</t>
+  </si>
+  <si>
+    <t>Umka</t>
+  </si>
+  <si>
+    <t>Creativity of Yuri Nikulin</t>
+  </si>
+  <si>
+    <t>Kuril landing operation</t>
+  </si>
+  <si>
+    <t>75th anniversary of Victory in the Great Patriotic War of 1941-1945</t>
+  </si>
+  <si>
+    <t>Metallurgist</t>
+  </si>
+  <si>
+    <t>Transport worker</t>
+  </si>
+  <si>
+    <t>Nizhny Novgorod</t>
+  </si>
+  <si>
+    <t>Oil and gas worker</t>
+  </si>
+  <si>
+    <t>Cities of Labor Valor</t>
+  </si>
+  <si>
+    <t>Borovichi</t>
+  </si>
+  <si>
+    <t>Yekaterinburg</t>
+  </si>
+  <si>
+    <t>Ivanovo</t>
+  </si>
+  <si>
+    <t>Omsk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1495,6 +1533,10 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1820,17 +1862,16 @@
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="2"/>
+    <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="44">
+  <dxfs count="63">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2160,6 +2201,159 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2183,16 +2377,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C4" totalsRowShown="0">
-  <autoFilter ref="A1:C4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица4" displayName="Таблица4" ref="A1:C4" totalsRowShown="0">
+  <autoFilter ref="A1:C4" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="62"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="61" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2460,14 +2654,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2618,7 +2812,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H3">
-    <cfRule type="containsText" dxfId="43" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2635,7 +2829,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="42" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2652,7 +2846,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="41" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2669,7 +2863,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:H5">
-    <cfRule type="containsText" dxfId="40" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2692,7 +2886,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3541,7 +3735,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H30">
-    <cfRule type="containsText" dxfId="39" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -3562,14 +3756,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I41" sqref="I41"/>
+      <selection pane="bottomRight" activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5021,6 +5215,32 @@
         <v>Can exchange</v>
       </c>
     </row>
+    <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="15">
+        <v>2019</v>
+      </c>
+      <c r="B53" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C53" s="38" t="s">
+        <v>336</v>
+      </c>
+      <c r="D53" s="38"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G53" s="31">
+        <v>0</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I53" s="33" t="str">
+        <f t="shared" ref="I53" si="2">IF(OR(AND(G53&gt;1,G53&lt;&gt;"-"),AND(H53&gt;1,H53&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
     <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C58" s="16"/>
     </row>
@@ -5069,8 +5289,23 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H52">
-    <cfRule type="containsText" dxfId="38" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G53:H53">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G53))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -5090,14 +5325,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I165"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:I171"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J144" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I167" sqref="I167"/>
+      <selection pane="bottomRight" activeCell="C174" sqref="C174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9682,10 +9917,10 @@
         <v>106</v>
       </c>
       <c r="C154" s="38" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D154" s="38" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E154" s="44">
         <v>5000000</v>
@@ -9865,12 +10100,20 @@
         <v>272</v>
       </c>
       <c r="D160" s="38" t="s">
-        <v>273</v>
-      </c>
-      <c r="E160" s="39"/>
-      <c r="F160" s="39"/>
-      <c r="G160" s="21"/>
-      <c r="H160" s="9"/>
+        <v>338</v>
+      </c>
+      <c r="E160" s="44">
+        <v>5000000</v>
+      </c>
+      <c r="F160" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G160" s="11">
+        <v>0</v>
+      </c>
+      <c r="H160" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="I160" s="33" t="str">
         <f>IF(OR(AND(G160&gt;1,G160&lt;&gt;"-"),AND(H160&gt;1,H160&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
@@ -9887,12 +10130,20 @@
         <v>272</v>
       </c>
       <c r="D161" s="38" t="s">
-        <v>274</v>
-      </c>
-      <c r="E161" s="39"/>
-      <c r="F161" s="39"/>
-      <c r="G161" s="21"/>
-      <c r="H161" s="9"/>
+        <v>339</v>
+      </c>
+      <c r="E161" s="44">
+        <v>5000000</v>
+      </c>
+      <c r="F161" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G161" s="11">
+        <v>0</v>
+      </c>
+      <c r="H161" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="I161" s="33" t="str">
         <f>IF(OR(AND(G161&gt;1,G161&lt;&gt;"-"),AND(H161&gt;1,H161&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
@@ -9941,10 +10192,18 @@
       <c r="D163" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="E163" s="39"/>
-      <c r="F163" s="39"/>
-      <c r="G163" s="11"/>
-      <c r="H163" s="14"/>
+      <c r="E163" s="44">
+        <v>5000000</v>
+      </c>
+      <c r="F163" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G163" s="11">
+        <v>0</v>
+      </c>
+      <c r="H163" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="I163" s="33" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -9963,8 +10222,12 @@
       <c r="D164" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="E164" s="39"/>
-      <c r="F164" s="39"/>
+      <c r="E164" s="44">
+        <v>5000000</v>
+      </c>
+      <c r="F164" s="40" t="s">
+        <v>0</v>
+      </c>
       <c r="G164" s="11">
         <v>1</v>
       </c>
@@ -9989,12 +10252,190 @@
       <c r="D165" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="E165" s="39"/>
-      <c r="F165" s="39"/>
-      <c r="G165" s="11"/>
-      <c r="H165" s="14"/>
+      <c r="E165" s="44">
+        <v>5000000</v>
+      </c>
+      <c r="F165" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G165" s="11">
+        <v>0</v>
+      </c>
+      <c r="H165" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="I165" s="33" t="str">
         <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="30">
+        <v>2021</v>
+      </c>
+      <c r="B166" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="C166" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="D166" s="38" t="s">
+        <v>340</v>
+      </c>
+      <c r="E166" s="44">
+        <v>1000000</v>
+      </c>
+      <c r="F166" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G166" s="11">
+        <v>0</v>
+      </c>
+      <c r="H166" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I166" s="33" t="str">
+        <f t="shared" ref="I166" si="7">IF(OR(AND(G166&gt;1,G166&lt;&gt;"-"),AND(H166&gt;1,H166&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="30">
+        <v>2021</v>
+      </c>
+      <c r="B167" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="C167" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="D167" s="38" t="s">
+        <v>341</v>
+      </c>
+      <c r="E167" s="44"/>
+      <c r="F167" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G167" s="11">
+        <v>0</v>
+      </c>
+      <c r="H167" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I167" s="33" t="str">
+        <f t="shared" ref="I167:I171" si="8">IF(OR(AND(G167&gt;1,G167&lt;&gt;"-"),AND(H167&gt;1,H167&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="30">
+        <v>2021</v>
+      </c>
+      <c r="B168" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="C168" s="38" t="s">
+        <v>342</v>
+      </c>
+      <c r="D168" s="38" t="s">
+        <v>343</v>
+      </c>
+      <c r="E168" s="44"/>
+      <c r="F168" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G168" s="11">
+        <v>0</v>
+      </c>
+      <c r="H168" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I168" s="33" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="30">
+        <v>2021</v>
+      </c>
+      <c r="B169" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="C169" s="38" t="s">
+        <v>342</v>
+      </c>
+      <c r="D169" s="38" t="s">
+        <v>344</v>
+      </c>
+      <c r="E169" s="44"/>
+      <c r="F169" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G169" s="11">
+        <v>0</v>
+      </c>
+      <c r="H169" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I169" s="33" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="30">
+        <v>2021</v>
+      </c>
+      <c r="B170" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="C170" s="38" t="s">
+        <v>342</v>
+      </c>
+      <c r="D170" s="38" t="s">
+        <v>345</v>
+      </c>
+      <c r="E170" s="44"/>
+      <c r="F170" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G170" s="11">
+        <v>0</v>
+      </c>
+      <c r="H170" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I170" s="33" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="30">
+        <v>2021</v>
+      </c>
+      <c r="B171" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="C171" s="38" t="s">
+        <v>342</v>
+      </c>
+      <c r="D171" s="38" t="s">
+        <v>346</v>
+      </c>
+      <c r="E171" s="44"/>
+      <c r="F171" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G171" s="11">
+        <v>0</v>
+      </c>
+      <c r="H171" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I171" s="33" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -10007,8 +10448,98 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H165">
-    <cfRule type="containsText" dxfId="37" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G166:H166">
+    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G166))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G167:H167">
+    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G167))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G168:H168">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G168))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G169:H169">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G169))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G170:H170">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G170))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G171:H171">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G171))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -10028,14 +10559,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E44" sqref="E44"/>
+      <selection pane="bottomRight" activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10064,7 +10595,7 @@
       </c>
       <c r="F1" s="59"/>
       <c r="G1" s="60" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H1" s="61"/>
       <c r="I1" s="26"/>
@@ -10097,17 +10628,17 @@
         <v>2011</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D3" s="38"/>
       <c r="E3" s="40" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>0</v>
@@ -10125,17 +10656,17 @@
         <v>2012</v>
       </c>
       <c r="B4" s="37" t="s">
+        <v>274</v>
+      </c>
+      <c r="C4" s="38" t="s">
         <v>276</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>278</v>
       </c>
       <c r="D4" s="38"/>
       <c r="E4" s="40" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>0</v>
@@ -10153,17 +10684,17 @@
         <v>2013</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D5" s="38"/>
       <c r="E5" s="40" t="s">
         <v>0</v>
       </c>
       <c r="F5" s="39" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>0</v>
@@ -10181,10 +10712,10 @@
         <v>2014</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D6" s="38"/>
       <c r="E6" s="40" t="s">
@@ -10209,10 +10740,10 @@
         <v>2014</v>
       </c>
       <c r="B7" s="37" t="s">
+        <v>274</v>
+      </c>
+      <c r="C7" s="38" t="s">
         <v>276</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>278</v>
       </c>
       <c r="D7" s="38"/>
       <c r="E7" s="40" t="s">
@@ -10237,10 +10768,10 @@
         <v>2014</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D8" s="38"/>
       <c r="E8" s="40" t="s">
@@ -10265,17 +10796,17 @@
         <v>2014</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D9" s="38"/>
       <c r="E9" s="40" t="s">
         <v>0</v>
       </c>
       <c r="F9" s="39" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>0</v>
@@ -10293,14 +10824,14 @@
         <v>2017</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D10" s="38"/>
       <c r="E10" s="39" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F10" s="40" t="s">
         <v>0</v>
@@ -10321,14 +10852,14 @@
         <v>2017</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D11" s="38"/>
       <c r="E11" s="39" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F11" s="40" t="s">
         <v>0</v>
@@ -10350,11 +10881,11 @@
       </c>
       <c r="B12" s="37"/>
       <c r="C12" s="38" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D12" s="38"/>
       <c r="E12" s="39" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F12" s="40" t="s">
         <v>0</v>
@@ -10376,11 +10907,11 @@
       </c>
       <c r="B13" s="37"/>
       <c r="C13" s="38" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D13" s="38"/>
       <c r="E13" s="39" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F13" s="40" t="s">
         <v>0</v>
@@ -10402,11 +10933,11 @@
       </c>
       <c r="B14" s="37"/>
       <c r="C14" s="38" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D14" s="38"/>
       <c r="E14" s="39" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F14" s="40" t="s">
         <v>0</v>
@@ -10428,11 +10959,11 @@
       </c>
       <c r="B15" s="37"/>
       <c r="C15" s="38" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D15" s="38"/>
       <c r="E15" s="39" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F15" s="40" t="s">
         <v>0</v>
@@ -10453,14 +10984,14 @@
         <v>2018</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D16" s="38"/>
       <c r="E16" s="39" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F16" s="40" t="s">
         <v>0</v>
@@ -10481,14 +11012,14 @@
         <v>2018</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D17" s="38"/>
       <c r="E17" s="39" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F17" s="40" t="s">
         <v>0</v>
@@ -10509,14 +11040,14 @@
         <v>2018</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D18" s="38"/>
       <c r="E18" s="39" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F18" s="40" t="s">
         <v>0</v>
@@ -10537,14 +11068,14 @@
         <v>2018</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D19" s="38"/>
       <c r="E19" s="39" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F19" s="40" t="s">
         <v>0</v>
@@ -10565,10 +11096,10 @@
         <v>2019</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D20" s="38"/>
       <c r="E20" s="39" t="s">
@@ -10593,14 +11124,14 @@
         <v>2019</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D21" s="38"/>
       <c r="E21" s="39" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F21" s="40" t="s">
         <v>0</v>
@@ -10621,14 +11152,14 @@
         <v>2019</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D22" s="38"/>
       <c r="E22" s="39" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F22" s="40" t="s">
         <v>0</v>
@@ -10649,14 +11180,14 @@
         <v>2019</v>
       </c>
       <c r="B23" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="C23" s="38" t="s">
         <v>303</v>
-      </c>
-      <c r="C23" s="38" t="s">
-        <v>305</v>
       </c>
       <c r="D23" s="38"/>
       <c r="E23" s="39" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F23" s="40" t="s">
         <v>0</v>
@@ -10677,14 +11208,14 @@
         <v>2019</v>
       </c>
       <c r="B24" s="37" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D24" s="38"/>
       <c r="E24" s="39" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F24" s="40" t="s">
         <v>0</v>
@@ -10705,14 +11236,14 @@
         <v>2019</v>
       </c>
       <c r="B25" s="37" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D25" s="38"/>
       <c r="E25" s="39" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F25" s="40" t="s">
         <v>0</v>
@@ -10733,14 +11264,14 @@
         <v>2019</v>
       </c>
       <c r="B26" s="37" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D26" s="38"/>
       <c r="E26" s="39" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F26" s="40" t="s">
         <v>0</v>
@@ -10752,7 +11283,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="33" t="str">
-        <f t="shared" ref="I26:I42" si="7">IF(OR(AND(G26&gt;1,G26&lt;&gt;"-"),AND(H26&gt;1,H26&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="I26:I43" si="7">IF(OR(AND(G26&gt;1,G26&lt;&gt;"-"),AND(H26&gt;1,H26&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -10761,14 +11292,14 @@
         <v>2019</v>
       </c>
       <c r="B27" s="37" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D27" s="38"/>
       <c r="E27" s="39" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F27" s="40" t="s">
         <v>0</v>
@@ -10789,14 +11320,14 @@
         <v>2019</v>
       </c>
       <c r="B28" s="37" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D28" s="38"/>
       <c r="E28" s="39" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F28" s="40" t="s">
         <v>0</v>
@@ -10817,14 +11348,14 @@
         <v>2019</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D29" s="38"/>
       <c r="E29" s="39" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F29" s="40" t="s">
         <v>0</v>
@@ -10845,14 +11376,14 @@
         <v>2019</v>
       </c>
       <c r="B30" s="37" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D30" s="38"/>
       <c r="E30" s="39" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F30" s="40" t="s">
         <v>0</v>
@@ -10873,14 +11404,14 @@
         <v>2019</v>
       </c>
       <c r="B31" s="37" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D31" s="38"/>
       <c r="E31" s="39" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F31" s="40" t="s">
         <v>0</v>
@@ -10901,14 +11432,20 @@
         <v>2020</v>
       </c>
       <c r="B32" s="37" t="s">
-        <v>284</v>
-      </c>
-      <c r="C32" s="38"/>
+        <v>282</v>
+      </c>
+      <c r="C32" s="38" t="s">
+        <v>330</v>
+      </c>
       <c r="D32" s="38"/>
       <c r="E32" s="39"/>
       <c r="F32" s="40"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="12"/>
+      <c r="G32" s="46">
+        <v>0</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>0</v>
+      </c>
       <c r="I32" s="33" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -10919,20 +11456,20 @@
         <v>2020</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="D33" s="38"/>
-      <c r="E33" s="39" t="s">
-        <v>293</v>
-      </c>
-      <c r="F33" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="G33" s="46"/>
-      <c r="H33" s="12"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="46">
+        <v>0</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>0</v>
+      </c>
       <c r="I33" s="33" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -10943,20 +11480,24 @@
         <v>2020</v>
       </c>
       <c r="B34" s="37" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D34" s="38"/>
       <c r="E34" s="39" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F34" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G34" s="46"/>
-      <c r="H34" s="12"/>
+      <c r="G34" s="46">
+        <v>0</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>0</v>
+      </c>
       <c r="I34" s="33" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -10967,20 +11508,24 @@
         <v>2020</v>
       </c>
       <c r="B35" s="37" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C35" s="38" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D35" s="38"/>
       <c r="E35" s="39" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F35" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G35" s="46"/>
-      <c r="H35" s="12"/>
+      <c r="G35" s="46">
+        <v>0</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>0</v>
+      </c>
       <c r="I35" s="33" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -10991,20 +11536,24 @@
         <v>2020</v>
       </c>
       <c r="B36" s="37" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C36" s="38" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D36" s="38"/>
       <c r="E36" s="39" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F36" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G36" s="46"/>
-      <c r="H36" s="12"/>
+      <c r="G36" s="46">
+        <v>0</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>0</v>
+      </c>
       <c r="I36" s="33" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -11015,20 +11564,24 @@
         <v>2020</v>
       </c>
       <c r="B37" s="37" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C37" s="38" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D37" s="38"/>
       <c r="E37" s="39" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F37" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G37" s="46"/>
-      <c r="H37" s="12"/>
+      <c r="G37" s="46">
+        <v>0</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>0</v>
+      </c>
       <c r="I37" s="33" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -11039,20 +11592,24 @@
         <v>2020</v>
       </c>
       <c r="B38" s="37" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C38" s="38" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D38" s="38"/>
       <c r="E38" s="39" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F38" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G38" s="46"/>
-      <c r="H38" s="12"/>
+      <c r="G38" s="46">
+        <v>0</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>0</v>
+      </c>
       <c r="I38" s="33" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -11063,20 +11620,24 @@
         <v>2020</v>
       </c>
       <c r="B39" s="37" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C39" s="38" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D39" s="38"/>
       <c r="E39" s="39" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F39" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G39" s="46"/>
-      <c r="H39" s="12"/>
+      <c r="G39" s="46">
+        <v>0</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>0</v>
+      </c>
       <c r="I39" s="33" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -11087,20 +11648,24 @@
         <v>2020</v>
       </c>
       <c r="B40" s="37" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C40" s="38" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D40" s="38"/>
       <c r="E40" s="39" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F40" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G40" s="46"/>
-      <c r="H40" s="12"/>
+      <c r="G40" s="46">
+        <v>0</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>0</v>
+      </c>
       <c r="I40" s="33" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -11111,20 +11676,24 @@
         <v>2020</v>
       </c>
       <c r="B41" s="37" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C41" s="38" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D41" s="38"/>
       <c r="E41" s="39" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F41" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G41" s="46"/>
-      <c r="H41" s="12"/>
+      <c r="G41" s="46">
+        <v>0</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>0</v>
+      </c>
       <c r="I41" s="33" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -11135,22 +11704,164 @@
         <v>2020</v>
       </c>
       <c r="B42" s="37" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C42" s="38" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D42" s="38"/>
       <c r="E42" s="39" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F42" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G42" s="46"/>
-      <c r="H42" s="12"/>
+      <c r="G42" s="46">
+        <v>0</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>0</v>
+      </c>
       <c r="I42" s="33" t="str">
         <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="30">
+        <v>2020</v>
+      </c>
+      <c r="B43" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="C43" s="38" t="s">
+        <v>319</v>
+      </c>
+      <c r="D43" s="38"/>
+      <c r="E43" s="39" t="s">
+        <v>291</v>
+      </c>
+      <c r="F43" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G43" s="46">
+        <v>0</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I43" s="33" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="30">
+        <v>2020</v>
+      </c>
+      <c r="B44" s="37"/>
+      <c r="C44" s="38" t="s">
+        <v>332</v>
+      </c>
+      <c r="D44" s="38"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G44" s="46">
+        <v>0</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I44" s="33" t="str">
+        <f t="shared" ref="I44:I45" si="8">IF(OR(AND(G44&gt;1,G44&lt;&gt;"-"),AND(H44&gt;1,H44&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="30">
+        <v>2021</v>
+      </c>
+      <c r="B45" s="37"/>
+      <c r="C45" s="38" t="s">
+        <v>333</v>
+      </c>
+      <c r="D45" s="38"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G45" s="46">
+        <v>0</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I45" s="33" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="30">
+        <v>2021</v>
+      </c>
+      <c r="B46" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="C46" s="38" t="s">
+        <v>334</v>
+      </c>
+      <c r="D46" s="38"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G46" s="46">
+        <v>0</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I46" s="33" t="str">
+        <f t="shared" ref="I46" si="9">IF(OR(AND(G46&gt;1,G46&lt;&gt;"-"),AND(H46&gt;1,H46&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="30">
+        <v>2021</v>
+      </c>
+      <c r="B47" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="33" t="str">
+        <f t="shared" ref="I47:I48" si="10">IF(OR(AND(G47&gt;1,G47&lt;&gt;"-"),AND(H47&gt;1,H47&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="30">
+        <v>2021</v>
+      </c>
+      <c r="B48" s="37"/>
+      <c r="C48" s="38" t="s">
+        <v>335</v>
+      </c>
+      <c r="D48" s="38"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="33" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -11162,11 +11873,12 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
+  <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="G3:H10">
-    <cfRule type="containsText" dxfId="36" priority="84" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="108" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="85">
+    <cfRule type="colorScale" priority="109">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -11178,11 +11890,203 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="containsText" dxfId="35" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="89" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H10))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
+    <cfRule type="colorScale" priority="90">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11:H11">
+    <cfRule type="containsText" dxfId="50" priority="87" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G11))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="88">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="containsText" dxfId="49" priority="85" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="colorScale" priority="86">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12:H12">
+    <cfRule type="containsText" dxfId="48" priority="83" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="84">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="containsText" dxfId="47" priority="81" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="colorScale" priority="82">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13:H13">
+    <cfRule type="containsText" dxfId="46" priority="79" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G13))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="containsText" dxfId="45" priority="77" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="colorScale" priority="78">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14:H14">
+    <cfRule type="containsText" dxfId="44" priority="75" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G14))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="containsText" dxfId="43" priority="73" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16:H16 G18:H18">
+    <cfRule type="containsText" dxfId="42" priority="71" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G16))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16 H18">
+    <cfRule type="containsText" dxfId="41" priority="69" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16 H18">
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15:H15 G17:H17 G19:H19">
+    <cfRule type="containsText" dxfId="40" priority="67" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15 H17 H19">
+    <cfRule type="containsText" dxfId="39" priority="65" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15 H17 H19">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11194,9 +12098,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G11:H11">
-    <cfRule type="containsText" dxfId="34" priority="63" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G11))))</formula>
+  <conditionalFormatting sqref="G20:H20">
+    <cfRule type="containsText" dxfId="38" priority="63" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G20))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="64">
       <colorScale>
@@ -11209,12 +12113,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="containsText" dxfId="33" priority="61" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H11))))</formula>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="containsText" dxfId="37" priority="61" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H20))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
+  <conditionalFormatting sqref="H20">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11226,9 +12130,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12:H12">
-    <cfRule type="containsText" dxfId="32" priority="59" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
+  <conditionalFormatting sqref="G21:H21">
+    <cfRule type="containsText" dxfId="36" priority="59" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="60">
       <colorScale>
@@ -11241,12 +12145,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="containsText" dxfId="31" priority="57" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
+  <conditionalFormatting sqref="H21">
+    <cfRule type="containsText" dxfId="35" priority="57" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
+  <conditionalFormatting sqref="H21">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11258,9 +12162,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13:H13">
-    <cfRule type="containsText" dxfId="30" priority="55" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G13))))</formula>
+  <conditionalFormatting sqref="G22:H22">
+    <cfRule type="containsText" dxfId="34" priority="55" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="56">
       <colorScale>
@@ -11273,12 +12177,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
-    <cfRule type="containsText" dxfId="29" priority="53" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
+  <conditionalFormatting sqref="H22">
+    <cfRule type="containsText" dxfId="33" priority="53" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
+  <conditionalFormatting sqref="H22">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11290,9 +12194,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14:H14">
-    <cfRule type="containsText" dxfId="28" priority="51" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G14))))</formula>
+  <conditionalFormatting sqref="G23:H23 G25:H25 G27:H27 G29:H29 G31:H32">
+    <cfRule type="containsText" dxfId="32" priority="51" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="52">
       <colorScale>
@@ -11305,12 +12209,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
-    <cfRule type="containsText" dxfId="27" priority="49" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H14))))</formula>
+  <conditionalFormatting sqref="H23 H25 H27 H29 H31:H32">
+    <cfRule type="containsText" dxfId="31" priority="49" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H23))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
+  <conditionalFormatting sqref="H23 H25 H27 H29 H31:H32">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11322,9 +12226,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G16:H16 G18:H18">
-    <cfRule type="containsText" dxfId="26" priority="47" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G16))))</formula>
+  <conditionalFormatting sqref="G24:H24 G26:H26 G28:H28 G30:H30">
+    <cfRule type="containsText" dxfId="30" priority="47" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="48">
       <colorScale>
@@ -11337,12 +12241,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H16 H18">
-    <cfRule type="containsText" dxfId="25" priority="45" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
+  <conditionalFormatting sqref="H24 H26 H28 H30">
+    <cfRule type="containsText" dxfId="29" priority="45" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H24))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H18 H16">
+  <conditionalFormatting sqref="H24 H26 H28 H30">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11354,169 +12258,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G15:H15 G17:H17 G19:H19">
-    <cfRule type="containsText" dxfId="24" priority="43" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="44">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15 H17 H19">
-    <cfRule type="containsText" dxfId="23" priority="41" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17 H15 H19">
-    <cfRule type="colorScale" priority="42">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20:H20">
-    <cfRule type="containsText" dxfId="22" priority="39" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G20))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="40">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="containsText" dxfId="21" priority="37" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G21:H21">
-    <cfRule type="containsText" dxfId="20" priority="35" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G21))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
-    <cfRule type="containsText" dxfId="19" priority="33" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H21))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22:H22">
-    <cfRule type="containsText" dxfId="18" priority="31" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="containsText" dxfId="17" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23:H23 G25:H25 G27:H27 G29:H29 G31:H31">
-    <cfRule type="containsText" dxfId="16" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23 H25 H27 H29 H31">
-    <cfRule type="containsText" dxfId="15" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H23))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23 H25 H27 H29 H31">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G24:H24 G26:H26 G28:H28 G30:H30">
-    <cfRule type="containsText" dxfId="14" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
+  <conditionalFormatting sqref="G35:H35 G37:H37 G39:H39 G41:H41 G43:H43">
+    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G35))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
       <colorScale>
@@ -11529,12 +12273,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24 H26 H28 H30">
-    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H24))))</formula>
+  <conditionalFormatting sqref="H35 H37 H39 H41 H43">
+    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H35))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H26 H24 H28 H30">
+  <conditionalFormatting sqref="H37 H35 H39 H41 H43">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11546,9 +12290,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G35:H37">
-    <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G35))))</formula>
+  <conditionalFormatting sqref="G34:H34 G36:H36 G38:H38 G40:H40 G42:H42 G44:H44 G46:H46 G48:H48">
+    <cfRule type="containsText" dxfId="20" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G34))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
       <colorScale>
@@ -11561,12 +12305,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H35:H37">
-    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H35))))</formula>
+  <conditionalFormatting sqref="H34 H36 H38 H40 H42 H44 H46 H48">
+    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H34))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H35:H37">
+  <conditionalFormatting sqref="H36 H34 H38 H40 H42 H44 H46 H48">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11578,9 +12322,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G38:H42">
-    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G38))))</formula>
+  <conditionalFormatting sqref="G33:H33">
+    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G33))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
       <colorScale>
@@ -11593,12 +12337,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H38:H42">
-    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H38))))</formula>
+  <conditionalFormatting sqref="H33">
+    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H33))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H38:H42">
+  <conditionalFormatting sqref="H33">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11610,9 +12354,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G32:H32">
-    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
+  <conditionalFormatting sqref="G45:H45">
+    <cfRule type="containsText" dxfId="12" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G45))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
       <colorScale>
@@ -11625,12 +12369,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
+  <conditionalFormatting sqref="H45">
+    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H45))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
+  <conditionalFormatting sqref="H45">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11642,41 +12386,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G34:H34">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G34))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G33:H33">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G33))))</formula>
+  <conditionalFormatting sqref="G47:H47">
+    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G47))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -11689,12 +12401,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H33))))</formula>
+  <conditionalFormatting sqref="H47">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H47))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
+  <conditionalFormatting sqref="H47">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11713,11 +12425,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11731,13 +12443,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>323</v>
-      </c>
-      <c r="B1" s="47" t="s">
-        <v>324</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11745,10 +12457,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11756,10 +12468,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11767,10 +12479,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11783,9 +12495,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/Collections/Russia/#Russia#Russian_Federation#Commemorative#[1999-present]#circulation_quality.xlsx
+++ b/Collections/Russia/#Russia#Russian_Federation#Commemorative#[1999-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\Russia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C339A1-9691-4F28-A936-FA788D7119C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716F3DD9-7A92-4620-B8D3-E49436AF30CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1₽ " sheetId="1" r:id="rId1"/>
@@ -378,7 +378,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="348">
   <si>
     <t>-</t>
   </si>
@@ -1419,6 +1419,9 @@
   </si>
   <si>
     <t>Omsk</t>
+  </si>
+  <si>
+    <t>Weapons Designer Vladimir Petlyakov</t>
   </si>
 </sst>
 </file>
@@ -1682,7 +1685,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1823,6 +1826,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1864,14 +1870,15 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="63">
+  <dxfs count="51">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -2257,103 +2264,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2384,9 +2294,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="62"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="61" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="60"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2657,7 +2567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -2676,29 +2586,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="50" t="s">
+      <c r="A1" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="52" t="s">
+      <c r="D1" s="54"/>
+      <c r="E1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="53"/>
-      <c r="G1" s="54" t="s">
+      <c r="F1" s="54"/>
+      <c r="G1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="55"/>
+      <c r="H1" s="56"/>
       <c r="I1" s="33"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2812,7 +2722,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H3">
-    <cfRule type="containsText" dxfId="59" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2829,7 +2739,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="58" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2846,7 +2756,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="57" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2863,7 +2773,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:H5">
-    <cfRule type="containsText" dxfId="56" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2908,29 +2818,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="56" t="s">
+      <c r="A1" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="59"/>
-      <c r="E1" s="58" t="s">
+      <c r="D1" s="60"/>
+      <c r="E1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="59"/>
-      <c r="G1" s="60" t="s">
+      <c r="F1" s="60"/>
+      <c r="G1" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="61"/>
+      <c r="H1" s="62"/>
       <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
       <c r="C2" s="27" t="s">
         <v>5</v>
       </c>
@@ -3735,7 +3645,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H30">
-    <cfRule type="containsText" dxfId="55" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -3763,7 +3673,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B49" sqref="B49"/>
+      <selection pane="bottomRight" activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3778,29 +3688,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="56" t="s">
+      <c r="A1" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="59"/>
-      <c r="E1" s="58" t="s">
+      <c r="D1" s="60"/>
+      <c r="E1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="59"/>
-      <c r="G1" s="60" t="s">
+      <c r="F1" s="60"/>
+      <c r="G1" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="H1" s="61"/>
+      <c r="H1" s="62"/>
       <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
-      <c r="B2" s="57"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="58"/>
       <c r="C2" s="27" t="s">
         <v>5</v>
       </c>
@@ -5230,8 +5140,8 @@
       <c r="F53" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G53" s="31">
-        <v>0</v>
+      <c r="G53" s="50">
+        <v>1</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>0</v>
@@ -5289,7 +5199,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H52">
-    <cfRule type="containsText" dxfId="54" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -5304,7 +5214,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G53:H53">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G53))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -5332,7 +5242,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J144" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C174" sqref="C174"/>
+      <selection pane="bottomRight" activeCell="G165" sqref="G165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5346,29 +5256,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="56" t="s">
+      <c r="A1" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="59"/>
-      <c r="E1" s="58" t="s">
+      <c r="D1" s="60"/>
+      <c r="E1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="59"/>
-      <c r="G1" s="60" t="s">
+      <c r="F1" s="60"/>
+      <c r="G1" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="61"/>
+      <c r="H1" s="62"/>
       <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
       <c r="C2" s="43" t="s">
         <v>5</v>
       </c>
@@ -10109,7 +10019,7 @@
         <v>0</v>
       </c>
       <c r="G160" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H160" s="14" t="s">
         <v>0</v>
@@ -10169,14 +10079,14 @@
         <v>0</v>
       </c>
       <c r="G162" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H162" s="14" t="s">
         <v>0</v>
       </c>
       <c r="I162" s="33" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10199,14 +10109,14 @@
         <v>0</v>
       </c>
       <c r="G163" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H163" s="14" t="s">
         <v>0</v>
       </c>
       <c r="I163" s="33" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10229,14 +10139,14 @@
         <v>0</v>
       </c>
       <c r="G164" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H164" s="14" t="s">
         <v>0</v>
       </c>
       <c r="I164" s="33" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10259,7 +10169,7 @@
         <v>0</v>
       </c>
       <c r="G165" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H165" s="14" t="s">
         <v>0</v>
@@ -10448,7 +10358,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H165">
-    <cfRule type="containsText" dxfId="53" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -10463,7 +10373,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G166:H166">
-    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G166))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -10478,7 +10388,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G167:H167">
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G167))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -10493,7 +10403,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G168:H168">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G168))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -10508,7 +10418,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G169:H169">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G169))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -10523,7 +10433,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G170:H170">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G170))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -10538,7 +10448,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G171:H171">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G171))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -10562,11 +10472,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J18" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="9" ySplit="2" topLeftCell="J15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I47" sqref="I47"/>
+      <selection pane="bottomRight" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10580,29 +10490,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="56" t="s">
+      <c r="A1" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="59"/>
-      <c r="E1" s="58" t="s">
+      <c r="D1" s="60"/>
+      <c r="E1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="59"/>
-      <c r="G1" s="60" t="s">
+      <c r="F1" s="60"/>
+      <c r="G1" s="61" t="s">
         <v>320</v>
       </c>
-      <c r="H1" s="61"/>
+      <c r="H1" s="62"/>
       <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
       <c r="C2" s="27" t="s">
         <v>5</v>
       </c>
@@ -11193,7 +11103,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="12" t="s">
         <v>0</v>
@@ -11221,7 +11131,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="12" t="s">
         <v>0</v>
@@ -11249,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="12" t="s">
         <v>0</v>
@@ -11277,7 +11187,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" s="12" t="s">
         <v>0</v>
@@ -11295,7 +11205,7 @@
         <v>301</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>305</v>
+        <v>347</v>
       </c>
       <c r="D27" s="38"/>
       <c r="E27" s="39" t="s">
@@ -11305,7 +11215,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="12" t="s">
         <v>0</v>
@@ -11333,7 +11243,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="12" t="s">
         <v>0</v>
@@ -11361,7 +11271,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" s="12" t="s">
         <v>0</v>
@@ -11389,7 +11299,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="12" t="s">
         <v>0</v>
@@ -11417,7 +11327,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" s="12" t="s">
         <v>0</v>
@@ -11465,7 +11375,7 @@
       <c r="E33" s="39"/>
       <c r="F33" s="40"/>
       <c r="G33" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" s="12" t="s">
         <v>0</v>
@@ -11875,7 +11785,7 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="G3:H10">
-    <cfRule type="containsText" dxfId="52" priority="108" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="108" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="109">
@@ -11890,7 +11800,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="containsText" dxfId="51" priority="89" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="89" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11907,7 +11817,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:H11">
-    <cfRule type="containsText" dxfId="50" priority="87" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="87" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G11))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="88">
@@ -11922,7 +11832,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="containsText" dxfId="49" priority="85" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="85" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11939,7 +11849,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:H12">
-    <cfRule type="containsText" dxfId="48" priority="83" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="83" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="84">
@@ -11954,7 +11864,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="containsText" dxfId="47" priority="81" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="81" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11971,7 +11881,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13:H13">
-    <cfRule type="containsText" dxfId="46" priority="79" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="79" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G13))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="80">
@@ -11986,7 +11896,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="containsText" dxfId="45" priority="77" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="77" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12003,7 +11913,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:H14">
-    <cfRule type="containsText" dxfId="44" priority="75" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="75" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="76">
@@ -12018,7 +11928,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="containsText" dxfId="43" priority="73" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="73" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12035,7 +11945,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:H16 G18:H18">
-    <cfRule type="containsText" dxfId="42" priority="71" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="71" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="72">
@@ -12050,7 +11960,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16 H18">
-    <cfRule type="containsText" dxfId="41" priority="69" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="69" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12067,7 +11977,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:H15 G17:H17 G19:H19">
-    <cfRule type="containsText" dxfId="40" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="68">
@@ -12082,7 +11992,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15 H17 H19">
-    <cfRule type="containsText" dxfId="39" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12099,7 +12009,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:H20">
-    <cfRule type="containsText" dxfId="38" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G20))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="64">
@@ -12114,7 +12024,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="containsText" dxfId="37" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12131,7 +12041,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21:H21">
-    <cfRule type="containsText" dxfId="36" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="60">
@@ -12146,7 +12056,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="containsText" dxfId="35" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12163,7 +12073,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22:H22">
-    <cfRule type="containsText" dxfId="34" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="56">
@@ -12178,7 +12088,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="containsText" dxfId="33" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12194,8 +12104,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23:H23 G25:H25 G27:H27 G29:H29 G31:H32">
-    <cfRule type="containsText" dxfId="32" priority="51" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G23:H23 G25:H25 G27:H27 G29:H29 G31:H32 G30">
+    <cfRule type="containsText" dxfId="16" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="52">
@@ -12210,7 +12120,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23 H25 H27 H29 H31:H32">
-    <cfRule type="containsText" dxfId="31" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12226,8 +12136,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24:H24 G26:H26 G28:H28 G30:H30">
-    <cfRule type="containsText" dxfId="30" priority="47" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G24:H24 G26:H26 G28:H28 H30">
+    <cfRule type="containsText" dxfId="14" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="48">
@@ -12242,7 +12152,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24 H26 H28 H30">
-    <cfRule type="containsText" dxfId="29" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12259,7 +12169,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35:H35 G37:H37 G39:H39 G41:H41 G43:H43">
-    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G35))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
@@ -12274,7 +12184,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35 H37 H39 H41 H43">
-    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12291,7 +12201,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:H34 G36:H36 G38:H38 G40:H40 G42:H42 G44:H44 G46:H46 G48:H48">
-    <cfRule type="containsText" dxfId="20" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G34))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -12306,7 +12216,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34 H36 H38 H40 H42 H44 H46 H48">
-    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H34))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12323,7 +12233,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33:H33">
-    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G33))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -12338,7 +12248,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H33))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12355,7 +12265,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45:H45">
-    <cfRule type="containsText" dxfId="12" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G45))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -12370,7 +12280,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H45))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12387,7 +12297,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47:H47">
-    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G47))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -12402,7 +12312,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H47))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/Russia/#Russia#Russian_Federation#Commemorative#[1999-present]#circulation_quality.xlsx
+++ b/Collections/Russia/#Russia#Russian_Federation#Commemorative#[1999-present]#circulation_quality.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Russia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48221776-A1EE-4EE6-BF8B-68396CEC7EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE47ED1-7E98-45D4-97A0-A683605BCFC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -389,7 +389,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1828" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="370">
   <si>
     <t>-</t>
   </si>
@@ -1916,6 +1916,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1931,7 +1935,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1947,23 +1950,21 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="125">
+  <dxfs count="123">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -2925,23 +2926,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2972,9 +2956,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="124"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="123" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="122"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -3266,26 +3250,26 @@
       <c r="A1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="53" t="s">
         <v>341</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="53" t="s">
+      <c r="D1" s="56"/>
+      <c r="E1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="54"/>
-      <c r="G1" s="55" t="s">
+      <c r="F1" s="56"/>
+      <c r="G1" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="56"/>
+      <c r="H1" s="58"/>
       <c r="I1" s="33"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="52"/>
-      <c r="B2" s="58"/>
+      <c r="B2" s="54"/>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
@@ -3397,7 +3381,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H3">
-    <cfRule type="containsText" dxfId="121" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="122" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3414,7 +3398,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="120" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="121" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3431,7 +3415,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="119" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="120" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3448,7 +3432,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:H5">
-    <cfRule type="containsText" dxfId="118" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="119" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3493,29 +3477,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="64" t="s">
+      <c r="A1" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="53" t="s">
         <v>341</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="59" t="s">
+      <c r="D1" s="61"/>
+      <c r="E1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="60"/>
-      <c r="G1" s="61" t="s">
+      <c r="F1" s="61"/>
+      <c r="G1" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="62"/>
+      <c r="H1" s="63"/>
       <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
       <c r="C2" s="27" t="s">
         <v>4</v>
       </c>
@@ -4320,7 +4304,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H30">
-    <cfRule type="containsText" dxfId="117" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="118" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -4363,29 +4347,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="64" t="s">
+      <c r="A1" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="53" t="s">
         <v>341</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="59" t="s">
+      <c r="D1" s="61"/>
+      <c r="E1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="60"/>
-      <c r="G1" s="61" t="s">
+      <c r="F1" s="61"/>
+      <c r="G1" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="H1" s="62"/>
+      <c r="H1" s="63"/>
       <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="63"/>
-      <c r="B2" s="58"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="54"/>
       <c r="C2" s="27" t="s">
         <v>4</v>
       </c>
@@ -5836,7 +5820,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H52">
-    <cfRule type="containsText" dxfId="116" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="117" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -5851,7 +5835,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G53:H53">
-    <cfRule type="containsText" dxfId="115" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="116" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G53))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -5876,10 +5860,10 @@
   <dimension ref="A1:I189"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J153" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D171" sqref="D171"/>
+      <selection pane="bottomRight" activeCell="G89" sqref="G89:G100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5893,29 +5877,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="64" t="s">
+      <c r="A1" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="53" t="s">
         <v>341</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="59" t="s">
+      <c r="D1" s="61"/>
+      <c r="E1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="60"/>
-      <c r="G1" s="61" t="s">
+      <c r="F1" s="61"/>
+      <c r="G1" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="62"/>
+      <c r="H1" s="63"/>
       <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
       <c r="C2" s="43" t="s">
         <v>4</v>
       </c>
@@ -9447,11 +9431,11 @@
         <v>0</v>
       </c>
       <c r="H120" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I120" s="33" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9476,12 +9460,12 @@
       <c r="G121" s="10">
         <v>1</v>
       </c>
-      <c r="H121" s="9" t="s">
-        <v>0</v>
+      <c r="H121" s="5">
+        <v>2</v>
       </c>
       <c r="I121" s="33" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -10730,7 +10714,7 @@
         <v>0</v>
       </c>
       <c r="G163" s="11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H163" s="14" t="s">
         <v>0</v>
@@ -11216,7 +11200,7 @@
         <v>0</v>
       </c>
       <c r="I179" s="33" t="str">
-        <f t="shared" ref="I179:I183" si="12">IF(OR(AND(G179&gt;1,G179&lt;&gt;"-"),AND(H179&gt;1,H179&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="I179:I182" si="12">IF(OR(AND(G179&gt;1,G179&lt;&gt;"-"),AND(H179&gt;1,H179&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -11530,7 +11514,7 @@
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="G3:H165">
-    <cfRule type="containsText" dxfId="114" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="115" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="54">
@@ -11545,7 +11529,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G166:H166">
-    <cfRule type="containsText" dxfId="113" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="114" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G166))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="52">
@@ -11560,7 +11544,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G167:H167">
-    <cfRule type="containsText" dxfId="112" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="113" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G167))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="50">
@@ -11575,7 +11559,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G168:H168">
-    <cfRule type="containsText" dxfId="111" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="112" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G168))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="48">
@@ -11590,7 +11574,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G169:H169">
-    <cfRule type="containsText" dxfId="110" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="111" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G169))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="46">
@@ -11605,7 +11589,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G170:H170">
-    <cfRule type="containsText" dxfId="109" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="110" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G170))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
@@ -11620,7 +11604,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G171:H171">
-    <cfRule type="containsText" dxfId="108" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="109" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G171))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="42">
@@ -11635,7 +11619,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G172:H172">
-    <cfRule type="containsText" dxfId="19" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="108" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G172))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
@@ -11650,7 +11634,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G173:H173">
-    <cfRule type="containsText" dxfId="18" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="107" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G173))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="38">
@@ -11665,7 +11649,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G174:H174">
-    <cfRule type="containsText" dxfId="17" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="106" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G174))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="36">
@@ -11680,7 +11664,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G175:H175">
-    <cfRule type="containsText" dxfId="16" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="105" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G175))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="34">
@@ -11695,7 +11679,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G176:H176">
-    <cfRule type="containsText" dxfId="15" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="104" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G176))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="32">
@@ -11710,7 +11694,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G177:H177">
-    <cfRule type="containsText" dxfId="14" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="103" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G177))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -11725,7 +11709,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G178:H178">
-    <cfRule type="containsText" dxfId="13" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="102" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G178))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="28">
@@ -11740,7 +11724,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G179:H179">
-    <cfRule type="containsText" dxfId="12" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="101" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G179))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="26">
@@ -11755,7 +11739,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G180:H180">
-    <cfRule type="containsText" dxfId="10" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="100" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G180))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -11770,7 +11754,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G181:H181">
-    <cfRule type="containsText" dxfId="9" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="99" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G181))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -11785,7 +11769,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G182:H182">
-    <cfRule type="containsText" dxfId="8" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="98" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G182))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -11800,7 +11784,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G184:H184">
-    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="97" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G184))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -11815,7 +11799,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G185:H185">
-    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="96" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G185))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -11830,7 +11814,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G186:H186">
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="95" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G186))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -11845,7 +11829,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G183:H183">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="94" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G183))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -11860,7 +11844,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G187:H187">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="93" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G187))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -11875,7 +11859,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G188:H188">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="92" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G188))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -11890,7 +11874,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G189:H189">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="91" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G189))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -11932,29 +11916,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="64" t="s">
+      <c r="A1" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="53" t="s">
         <v>341</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="59" t="s">
+      <c r="D1" s="61"/>
+      <c r="E1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="60"/>
-      <c r="G1" s="61" t="s">
+      <c r="F1" s="61"/>
+      <c r="G1" s="62" t="s">
         <v>306</v>
       </c>
-      <c r="H1" s="62"/>
+      <c r="H1" s="63"/>
       <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
       <c r="C2" s="27" t="s">
         <v>4</v>
       </c>
@@ -14011,7 +13995,7 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="G3:H3 G5:H5 G14:H14 G7:H8 G10:H12">
-    <cfRule type="containsText" dxfId="107" priority="224" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="90" priority="224" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="225">
@@ -14026,7 +14010,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="containsText" dxfId="106" priority="205" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="89" priority="205" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14043,7 +14027,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:H16">
-    <cfRule type="containsText" dxfId="105" priority="203" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="88" priority="203" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="204">
@@ -14058,7 +14042,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="104" priority="201" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="87" priority="201" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14075,7 +14059,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:H18">
-    <cfRule type="containsText" dxfId="103" priority="199" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="86" priority="199" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G18))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="200">
@@ -14090,7 +14074,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="containsText" dxfId="102" priority="197" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="85" priority="197" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14107,7 +14091,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:H19">
-    <cfRule type="containsText" dxfId="101" priority="195" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="84" priority="195" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G19))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="196">
@@ -14122,7 +14106,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="containsText" dxfId="100" priority="193" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="83" priority="193" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14139,7 +14123,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:H20">
-    <cfRule type="containsText" dxfId="99" priority="191" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="82" priority="191" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G20))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="192">
@@ -14154,7 +14138,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="containsText" dxfId="98" priority="189" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="81" priority="189" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14171,7 +14155,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22:H22 G26:H26">
-    <cfRule type="containsText" dxfId="97" priority="187" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="80" priority="187" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="188">
@@ -14186,7 +14170,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22 H26">
-    <cfRule type="containsText" dxfId="96" priority="185" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="79" priority="185" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14203,7 +14187,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21:H21 G24:H24 G28:H28">
-    <cfRule type="containsText" dxfId="95" priority="183" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="78" priority="183" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="184">
@@ -14218,7 +14202,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21 H24 H28">
-    <cfRule type="containsText" dxfId="94" priority="181" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="77" priority="181" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14235,7 +14219,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:H30">
-    <cfRule type="containsText" dxfId="93" priority="179" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="76" priority="179" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G30))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="180">
@@ -14250,7 +14234,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="containsText" dxfId="92" priority="177" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="75" priority="177" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14267,7 +14251,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:H31">
-    <cfRule type="containsText" dxfId="91" priority="175" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="74" priority="175" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G31))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="176">
@@ -14282,7 +14266,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="containsText" dxfId="90" priority="173" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="73" priority="173" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H31))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14299,7 +14283,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33:H33">
-    <cfRule type="containsText" dxfId="89" priority="171" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="72" priority="171" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G33))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="172">
@@ -14314,7 +14298,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="containsText" dxfId="88" priority="169" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="71" priority="169" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H33))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14331,7 +14315,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35:H35 G37:H37 G39:H39 G41:H41 G43:H44 G42">
-    <cfRule type="containsText" dxfId="87" priority="167" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="70" priority="167" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G35))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="168">
@@ -14346,7 +14330,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35 H37 H39 H41 H43:H44">
-    <cfRule type="containsText" dxfId="86" priority="165" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="69" priority="165" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14363,7 +14347,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36:H36 G38:H38 G40:H40 H42">
-    <cfRule type="containsText" dxfId="85" priority="163" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="68" priority="163" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G36))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="164">
@@ -14378,7 +14362,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36 H38 H40 H42">
-    <cfRule type="containsText" dxfId="84" priority="161" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="67" priority="161" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H36))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14395,7 +14379,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49:H49 G51:H51 G53:H53 G55:H55 G57:H57">
-    <cfRule type="containsText" dxfId="83" priority="139" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="66" priority="139" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G49))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="140">
@@ -14410,7 +14394,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49 H51 H53 H55 H57">
-    <cfRule type="containsText" dxfId="82" priority="137" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="65" priority="137" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H49))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14427,7 +14411,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G48:H48 G50:H50 G52:H52 G54:H54 G56:H56 G58:H58 G61:H61">
-    <cfRule type="containsText" dxfId="81" priority="135" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="64" priority="135" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G48))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="136">
@@ -14442,7 +14426,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48 H50 H52 H54 H56 H58 H61">
-    <cfRule type="containsText" dxfId="80" priority="133" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="63" priority="133" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H48))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14459,7 +14443,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46:H46">
-    <cfRule type="containsText" dxfId="79" priority="131" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="62" priority="131" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G46))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="132">
@@ -14474,7 +14458,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="containsText" dxfId="78" priority="129" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="61" priority="129" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H46))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14491,7 +14475,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G59:H59">
-    <cfRule type="containsText" dxfId="77" priority="127" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="60" priority="127" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G59))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="128">
@@ -14506,7 +14490,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="containsText" dxfId="76" priority="125" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="125" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H59))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14523,7 +14507,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:H4">
-    <cfRule type="containsText" dxfId="75" priority="115" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="115" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="116">
@@ -14538,7 +14522,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="74" priority="85" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="85" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14555,7 +14539,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="73" priority="87" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="87" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="88">
@@ -14570,7 +14554,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:H6">
-    <cfRule type="containsText" dxfId="72" priority="113" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="113" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="114">
@@ -14585,7 +14569,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:G10">
-    <cfRule type="containsText" dxfId="71" priority="111" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="111" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="112">
@@ -14600,7 +14584,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H10">
-    <cfRule type="containsText" dxfId="70" priority="109" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="109" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="110">
@@ -14615,7 +14599,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="containsText" dxfId="69" priority="107" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="107" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G13))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="108">
@@ -14630,7 +14614,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="containsText" dxfId="68" priority="105" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="105" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="106">
@@ -14645,7 +14629,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:H15">
-    <cfRule type="containsText" dxfId="67" priority="99" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="99" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="100">
@@ -14660,7 +14644,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="containsText" dxfId="66" priority="97" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="97" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14677,7 +14661,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17:H17">
-    <cfRule type="containsText" dxfId="65" priority="95" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="95" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G17))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="96">
@@ -14692,7 +14676,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="containsText" dxfId="64" priority="93" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="93" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14709,7 +14693,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:H23">
-    <cfRule type="containsText" dxfId="63" priority="91" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="91" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="92">
@@ -14724,7 +14708,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="containsText" dxfId="62" priority="89" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="89" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14741,7 +14725,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="containsText" dxfId="61" priority="83" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="83" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="84">
@@ -14756,7 +14740,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:H27">
-    <cfRule type="containsText" dxfId="60" priority="81" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="81" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="82">
@@ -14771,7 +14755,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="59" priority="79" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="79" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14788,7 +14772,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25:H25">
-    <cfRule type="containsText" dxfId="58" priority="77" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="77" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G25))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="78">
@@ -14803,7 +14787,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="containsText" dxfId="57" priority="75" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="75" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14820,7 +14804,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:H32">
-    <cfRule type="containsText" dxfId="56" priority="73" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="73" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="74">
@@ -14835,7 +14819,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="containsText" dxfId="55" priority="71" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="71" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14852,7 +14836,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:H34">
-    <cfRule type="containsText" dxfId="54" priority="69" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="69" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G34))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="70">
@@ -14867,7 +14851,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="containsText" dxfId="53" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H34))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14884,7 +14868,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45:H45">
-    <cfRule type="containsText" dxfId="52" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G45))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="66">
@@ -14899,7 +14883,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="containsText" dxfId="51" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H45))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14916,7 +14900,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="containsText" dxfId="50" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H47))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="62">
@@ -14931,7 +14915,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="containsText" dxfId="49" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H47))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14948,7 +14932,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47">
-    <cfRule type="containsText" dxfId="48" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G47))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="58">
@@ -14963,7 +14947,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G60:H60">
-    <cfRule type="containsText" dxfId="47" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G60))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="56">
@@ -14978,7 +14962,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60">
-    <cfRule type="containsText" dxfId="46" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H60))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14995,7 +14979,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G62:H62">
-    <cfRule type="containsText" dxfId="45" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G62))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="52">
@@ -15010,7 +14994,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62">
-    <cfRule type="containsText" dxfId="44" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H62))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15027,7 +15011,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G63:H63">
-    <cfRule type="containsText" dxfId="43" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G63))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="48">
@@ -15042,7 +15026,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="containsText" dxfId="42" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H63))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15059,7 +15043,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G64:H64">
-    <cfRule type="containsText" dxfId="41" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G64))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
@@ -15074,7 +15058,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H64))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15091,7 +15075,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G65:H65">
-    <cfRule type="containsText" dxfId="39" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G65))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
@@ -15106,7 +15090,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H65">
-    <cfRule type="containsText" dxfId="38" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H65))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15123,7 +15107,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G66:H66">
-    <cfRule type="containsText" dxfId="37" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G66))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="36">
@@ -15138,7 +15122,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66">
-    <cfRule type="containsText" dxfId="36" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H66))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15155,7 +15139,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G67:H67">
-    <cfRule type="containsText" dxfId="35" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G67))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="32">
@@ -15170,7 +15154,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H67">
-    <cfRule type="containsText" dxfId="34" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H67))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15187,7 +15171,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G69:H69">
-    <cfRule type="containsText" dxfId="33" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G69))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="28">
@@ -15202,7 +15186,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H69">
-    <cfRule type="containsText" dxfId="32" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H69))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15219,7 +15203,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G71:H71">
-    <cfRule type="containsText" dxfId="31" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G71))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
@@ -15234,7 +15218,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="containsText" dxfId="30" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H71))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15251,7 +15235,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G73:H73">
-    <cfRule type="containsText" dxfId="29" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G73))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -15266,7 +15250,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H73">
-    <cfRule type="containsText" dxfId="28" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H73))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15283,7 +15267,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G68:H68">
-    <cfRule type="containsText" dxfId="27" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G68))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -15298,7 +15282,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H68">
-    <cfRule type="containsText" dxfId="26" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H68))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15315,7 +15299,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G74:H74">
-    <cfRule type="containsText" dxfId="25" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G74))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -15330,7 +15314,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H74">
-    <cfRule type="containsText" dxfId="24" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H74))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15347,7 +15331,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G72:H72">
-    <cfRule type="containsText" dxfId="23" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G72))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -15362,7 +15346,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H72">
-    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H72))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15379,7 +15363,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70:H70">
-    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G70))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -15394,7 +15378,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70">
-    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H70))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/Russia/#Russia#Russian_Federation#Commemorative#[1999-present]#circulation_quality.xlsx
+++ b/Collections/Russia/#Russia#Russian_Federation#Commemorative#[1999-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Russia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE47ED1-7E98-45D4-97A0-A683605BCFC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49201F17-CCCD-4DDF-8389-A0CBC0D023B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7540" yWindow="2540" windowWidth="28800" windowHeight="17740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1₽ " sheetId="1" r:id="rId1"/>
@@ -389,7 +389,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1854" uniqueCount="371">
   <si>
     <t>-</t>
   </si>
@@ -1499,6 +1499,9 @@
   </si>
   <si>
     <t>Khanty-Mansi Autonomous Area — Yugra</t>
+  </si>
+  <si>
+    <t>en.ucoin.net</t>
   </si>
 </sst>
 </file>
@@ -1906,9 +1909,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1950,13 +1950,520 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="123">
+  <dxfs count="186">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2949,16 +3456,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица4" displayName="Таблица4" ref="A1:C4" totalsRowShown="0">
-  <autoFilter ref="A1:C4" xr:uid="{00000000-0009-0000-0100-000002000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица4" displayName="Таблица4" ref="A1:C5" totalsRowShown="0">
+  <autoFilter ref="A1:C5" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="65"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="64" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="63"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -3247,29 +3754,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="52" t="s">
         <v>341</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="55" t="s">
+      <c r="D1" s="55"/>
+      <c r="E1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="56"/>
-      <c r="G1" s="57" t="s">
+      <c r="F1" s="55"/>
+      <c r="G1" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="58"/>
+      <c r="H1" s="57"/>
       <c r="I1" s="33"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="52"/>
-      <c r="B2" s="54"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
@@ -3381,7 +3888,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H3">
-    <cfRule type="containsText" dxfId="122" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="185" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3398,7 +3905,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="121" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="184" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3415,7 +3922,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="120" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="183" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3432,7 +3939,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:H5">
-    <cfRule type="containsText" dxfId="119" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="182" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3458,11 +3965,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B27" sqref="B10:C27"/>
+      <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3477,29 +3984,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="52" t="s">
         <v>341</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="60" t="s">
+      <c r="D1" s="60"/>
+      <c r="E1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="61"/>
-      <c r="G1" s="62" t="s">
+      <c r="F1" s="60"/>
+      <c r="G1" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="63"/>
+      <c r="H1" s="62"/>
       <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="27" t="s">
         <v>4</v>
       </c>
@@ -3759,7 +4266,7 @@
       <c r="F11" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G11" s="41">
+      <c r="G11" s="42" t="s">
         <v>0</v>
       </c>
       <c r="H11" s="42" t="s">
@@ -4304,7 +4811,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H30">
-    <cfRule type="containsText" dxfId="118" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="181" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -4332,7 +4839,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B51" sqref="B33:C51"/>
+      <selection pane="bottomRight" activeCell="B53" sqref="B44:H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4347,29 +4854,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="52" t="s">
         <v>341</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="60" t="s">
+      <c r="D1" s="60"/>
+      <c r="E1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="61"/>
-      <c r="G1" s="62" t="s">
+      <c r="F1" s="60"/>
+      <c r="G1" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="H1" s="63"/>
+      <c r="H1" s="62"/>
       <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="64"/>
-      <c r="B2" s="54"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="27" t="s">
         <v>4</v>
       </c>
@@ -5797,7 +6304,7 @@
       <c r="F53" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G53" s="50">
+      <c r="G53" s="49">
         <v>1</v>
       </c>
       <c r="H53" s="6" t="s">
@@ -5820,7 +6327,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H52">
-    <cfRule type="containsText" dxfId="117" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="180" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -5835,7 +6342,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G53:H53">
-    <cfRule type="containsText" dxfId="116" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="179" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G53))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -5859,11 +6366,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I189"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J99" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="9" ySplit="2" topLeftCell="J156" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G89" sqref="G89:G100"/>
+      <selection pane="bottomRight" activeCell="I64" sqref="B12:I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5877,29 +6384,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="52" t="s">
         <v>341</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="60" t="s">
+      <c r="D1" s="60"/>
+      <c r="E1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="61"/>
-      <c r="G1" s="62" t="s">
+      <c r="F1" s="60"/>
+      <c r="G1" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="63"/>
+      <c r="H1" s="62"/>
       <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="43" t="s">
         <v>4</v>
       </c>
@@ -7841,7 +8348,7 @@
       </c>
       <c r="C67" s="38"/>
       <c r="D67" s="38" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E67" s="40" t="s">
         <v>0</v>
@@ -11505,6 +12012,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I189" xr:uid="{00000000-0001-0000-0300-000000000000}">
+    <filterColumn colId="2" showButton="0"/>
+    <filterColumn colId="4" showButton="0"/>
+    <filterColumn colId="6" showButton="0"/>
+  </autoFilter>
   <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -11514,7 +12026,7 @@
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="G3:H165">
-    <cfRule type="containsText" dxfId="115" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="178" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="54">
@@ -11529,7 +12041,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G166:H166">
-    <cfRule type="containsText" dxfId="114" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="177" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G166))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="52">
@@ -11544,7 +12056,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G167:H167">
-    <cfRule type="containsText" dxfId="113" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="176" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G167))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="50">
@@ -11559,7 +12071,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G168:H168">
-    <cfRule type="containsText" dxfId="112" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="175" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G168))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="48">
@@ -11574,7 +12086,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G169:H169">
-    <cfRule type="containsText" dxfId="111" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="174" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G169))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="46">
@@ -11589,7 +12101,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G170:H170">
-    <cfRule type="containsText" dxfId="110" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="173" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G170))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
@@ -11604,7 +12116,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G171:H171">
-    <cfRule type="containsText" dxfId="109" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="172" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G171))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="42">
@@ -11619,7 +12131,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G172:H172">
-    <cfRule type="containsText" dxfId="108" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="171" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G172))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
@@ -11634,7 +12146,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G173:H173">
-    <cfRule type="containsText" dxfId="107" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="170" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G173))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="38">
@@ -11649,7 +12161,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G174:H174">
-    <cfRule type="containsText" dxfId="106" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="169" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G174))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="36">
@@ -11664,7 +12176,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G175:H175">
-    <cfRule type="containsText" dxfId="105" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="168" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G175))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="34">
@@ -11679,7 +12191,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G176:H176">
-    <cfRule type="containsText" dxfId="104" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="167" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G176))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="32">
@@ -11694,7 +12206,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G177:H177">
-    <cfRule type="containsText" dxfId="103" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="166" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G177))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -11709,7 +12221,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G178:H178">
-    <cfRule type="containsText" dxfId="102" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="165" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G178))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="28">
@@ -11724,7 +12236,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G179:H179">
-    <cfRule type="containsText" dxfId="101" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="164" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G179))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="26">
@@ -11739,7 +12251,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G180:H180">
-    <cfRule type="containsText" dxfId="100" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="163" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G180))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -11754,7 +12266,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G181:H181">
-    <cfRule type="containsText" dxfId="99" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="162" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G181))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -11769,7 +12281,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G182:H182">
-    <cfRule type="containsText" dxfId="98" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="161" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G182))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -11784,7 +12296,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G184:H184">
-    <cfRule type="containsText" dxfId="97" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="160" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G184))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -11799,7 +12311,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G185:H185">
-    <cfRule type="containsText" dxfId="96" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="159" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G185))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -11814,7 +12326,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G186:H186">
-    <cfRule type="containsText" dxfId="95" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="158" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G186))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -11829,7 +12341,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G183:H183">
-    <cfRule type="containsText" dxfId="94" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="157" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G183))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -11844,7 +12356,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G187:H187">
-    <cfRule type="containsText" dxfId="93" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="156" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G187))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -11859,7 +12371,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G188:H188">
-    <cfRule type="containsText" dxfId="92" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="155" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G188))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -11874,7 +12386,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G189:H189">
-    <cfRule type="containsText" dxfId="91" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="154" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G189))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -11899,10 +12411,10 @@
   <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K50" sqref="K50"/>
+      <selection pane="bottomRight" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11916,29 +12428,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="52" t="s">
         <v>341</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="60" t="s">
+      <c r="D1" s="60"/>
+      <c r="E1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="61"/>
-      <c r="G1" s="62" t="s">
+      <c r="F1" s="60"/>
+      <c r="G1" s="61" t="s">
         <v>306</v>
       </c>
-      <c r="H1" s="63"/>
+      <c r="H1" s="62"/>
       <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="27" t="s">
         <v>4</v>
       </c>
@@ -12003,13 +12515,13 @@
       <c r="E4" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="64" t="s">
         <v>332</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="12" t="s">
         <v>0</v>
       </c>
       <c r="I4" s="33"/>
@@ -12058,13 +12570,13 @@
       <c r="E6" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="39" t="s">
+      <c r="F6" s="64" t="s">
         <v>332</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="12" t="s">
         <v>0</v>
       </c>
       <c r="I6" s="33"/>
@@ -12141,13 +12653,13 @@
       <c r="E9" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="F9" s="39" t="s">
+      <c r="F9" s="64" t="s">
         <v>332</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="12" t="s">
         <v>0</v>
       </c>
       <c r="I9" s="33"/>
@@ -12249,14 +12761,16 @@
       <c r="D13" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="39" t="s">
+      <c r="E13" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="64" t="s">
         <v>332</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="12" t="s">
         <v>0</v>
       </c>
       <c r="I13" s="33" t="str">
@@ -12305,13 +12819,13 @@
       <c r="D15" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="64" t="s">
         <v>273</v>
       </c>
       <c r="F15" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G15" s="46">
+      <c r="G15" s="12" t="s">
         <v>0</v>
       </c>
       <c r="H15" s="12" t="s">
@@ -12363,13 +12877,13 @@
       <c r="D17" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E17" s="39" t="s">
+      <c r="E17" s="64" t="s">
         <v>273</v>
       </c>
       <c r="F17" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G17" s="46">
+      <c r="G17" s="12" t="s">
         <v>0</v>
       </c>
       <c r="H17" s="12" t="s">
@@ -12389,13 +12903,13 @@
       </c>
       <c r="C18" s="38"/>
       <c r="D18" s="38"/>
-      <c r="E18" s="39" t="s">
+      <c r="E18" s="64" t="s">
         <v>273</v>
       </c>
       <c r="F18" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G18" s="46">
+      <c r="G18" s="12" t="s">
         <v>0</v>
       </c>
       <c r="H18" s="12" t="s">
@@ -12415,13 +12929,13 @@
       </c>
       <c r="C19" s="38"/>
       <c r="D19" s="38"/>
-      <c r="E19" s="39" t="s">
+      <c r="E19" s="64" t="s">
         <v>275</v>
       </c>
       <c r="F19" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G19" s="46">
+      <c r="G19" s="12" t="s">
         <v>0</v>
       </c>
       <c r="H19" s="12" t="s">
@@ -12525,13 +13039,13 @@
       <c r="D23" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E23" s="39" t="s">
+      <c r="E23" s="64" t="s">
         <v>273</v>
       </c>
       <c r="F23" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G23" s="46">
+      <c r="G23" s="12" t="s">
         <v>0</v>
       </c>
       <c r="H23" s="12" t="s">
@@ -12583,13 +13097,13 @@
       <c r="D25" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E25" s="39" t="s">
+      <c r="E25" s="64" t="s">
         <v>332</v>
       </c>
       <c r="F25" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G25" s="46">
+      <c r="G25" s="12" t="s">
         <v>0</v>
       </c>
       <c r="H25" s="12" t="s">
@@ -12641,13 +13155,13 @@
       <c r="D27" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E27" s="39" t="s">
+      <c r="E27" s="64" t="s">
         <v>332</v>
       </c>
       <c r="F27" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G27" s="46">
+      <c r="G27" s="12" t="s">
         <v>0</v>
       </c>
       <c r="H27" s="12" t="s">
@@ -12699,13 +13213,13 @@
       <c r="D29" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E29" s="39" t="s">
+      <c r="E29" s="64" t="s">
         <v>332</v>
       </c>
       <c r="F29" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G29" s="46">
+      <c r="G29" s="12" t="s">
         <v>0</v>
       </c>
       <c r="H29" s="12" t="s">
@@ -12783,13 +13297,13 @@
       <c r="D32" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E32" s="39" t="s">
+      <c r="E32" s="64" t="s">
         <v>273</v>
       </c>
       <c r="F32" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G32" s="46">
+      <c r="G32" s="12" t="s">
         <v>0</v>
       </c>
       <c r="H32" s="12" t="s">
@@ -12841,13 +13355,13 @@
       <c r="D34" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E34" s="39" t="s">
+      <c r="E34" s="64" t="s">
         <v>273</v>
       </c>
       <c r="F34" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G34" s="46">
+      <c r="G34" s="12" t="s">
         <v>0</v>
       </c>
       <c r="H34" s="12" t="s">
@@ -13151,13 +13665,13 @@
       <c r="D45" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E45" s="39" t="s">
+      <c r="E45" s="64" t="s">
         <v>275</v>
       </c>
       <c r="F45" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G45" s="46">
+      <c r="G45" s="12" t="s">
         <v>0</v>
       </c>
       <c r="H45" s="12" t="s">
@@ -13209,13 +13723,13 @@
       <c r="D47" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E47" s="39" t="s">
+      <c r="E47" s="64" t="s">
         <v>275</v>
       </c>
       <c r="F47" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G47" s="46">
+      <c r="G47" s="12" t="s">
         <v>0</v>
       </c>
       <c r="H47" s="12" t="s">
@@ -13569,13 +14083,13 @@
       <c r="D60" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E60" s="39" t="s">
+      <c r="E60" s="64" t="s">
         <v>275</v>
       </c>
       <c r="F60" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G60" s="46">
+      <c r="G60" s="12" t="s">
         <v>0</v>
       </c>
       <c r="H60" s="12" t="s">
@@ -13620,13 +14134,13 @@
       <c r="D62" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E62" s="39" t="s">
+      <c r="E62" s="64" t="s">
         <v>275</v>
       </c>
       <c r="F62" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G62" s="46">
+      <c r="G62" s="12" t="s">
         <v>0</v>
       </c>
       <c r="H62" s="12" t="s">
@@ -13678,13 +14192,13 @@
       <c r="D64" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E64" s="39" t="s">
+      <c r="E64" s="64" t="s">
         <v>275</v>
       </c>
       <c r="F64" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G64" s="46">
+      <c r="G64" s="12" t="s">
         <v>0</v>
       </c>
       <c r="H64" s="12" t="s">
@@ -13736,13 +14250,13 @@
       <c r="D66" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E66" s="39" t="s">
+      <c r="E66" s="64" t="s">
         <v>275</v>
       </c>
       <c r="F66" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G66" s="46">
+      <c r="G66" s="12" t="s">
         <v>0</v>
       </c>
       <c r="H66" s="12" t="s">
@@ -13794,13 +14308,13 @@
       <c r="D68" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E68" s="39" t="s">
+      <c r="E68" s="64" t="s">
         <v>275</v>
       </c>
       <c r="F68" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G68" s="46">
+      <c r="G68" s="12" t="s">
         <v>0</v>
       </c>
       <c r="H68" s="12" t="s">
@@ -13852,13 +14366,13 @@
       <c r="D70" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E70" s="39" t="s">
+      <c r="E70" s="64" t="s">
         <v>275</v>
       </c>
       <c r="F70" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G70" s="46">
+      <c r="G70" s="12" t="s">
         <v>0</v>
       </c>
       <c r="H70" s="12" t="s">
@@ -13910,13 +14424,13 @@
       <c r="D72" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E72" s="39" t="s">
+      <c r="E72" s="64" t="s">
         <v>275</v>
       </c>
       <c r="F72" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G72" s="46">
+      <c r="G72" s="12" t="s">
         <v>0</v>
       </c>
       <c r="H72" s="12" t="s">
@@ -13968,13 +14482,13 @@
       <c r="D74" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E74" s="39" t="s">
+      <c r="E74" s="64" t="s">
         <v>275</v>
       </c>
       <c r="F74" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G74" s="46">
+      <c r="G74" s="12" t="s">
         <v>0</v>
       </c>
       <c r="H74" s="12" t="s">
@@ -13995,10 +14509,10 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="G3:H3 G5:H5 G14:H14 G7:H8 G10:H12">
-    <cfRule type="containsText" dxfId="90" priority="224" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="153" priority="350" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="225">
+    <cfRule type="colorScale" priority="351">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -14010,12 +14524,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="containsText" dxfId="89" priority="205" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="152" priority="331" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H14))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="colorScale" priority="206">
+    <cfRule type="colorScale" priority="332">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -14027,10 +14541,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:H16">
-    <cfRule type="containsText" dxfId="88" priority="203" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="151" priority="329" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G16))))</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="204">
+    <cfRule type="colorScale" priority="330">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -14042,12 +14556,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="87" priority="201" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="150" priority="327" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="colorScale" priority="202">
+    <cfRule type="colorScale" priority="328">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -14059,10 +14573,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:H18">
-    <cfRule type="containsText" dxfId="86" priority="199" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="149" priority="325" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G18))))</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="200">
+    <cfRule type="colorScale" priority="326">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -14074,12 +14588,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="containsText" dxfId="85" priority="197" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="148" priority="323" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="colorScale" priority="198">
+    <cfRule type="colorScale" priority="324">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -14090,11 +14604,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G19:H19">
-    <cfRule type="containsText" dxfId="84" priority="195" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G19))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="196">
+  <conditionalFormatting sqref="G20:H20">
+    <cfRule type="containsText" dxfId="145" priority="317" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G20))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="318">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -14105,13 +14619,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
-    <cfRule type="containsText" dxfId="83" priority="193" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H19))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
-    <cfRule type="colorScale" priority="194">
+  <conditionalFormatting sqref="H20">
+    <cfRule type="containsText" dxfId="144" priority="315" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="colorScale" priority="316">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -14122,11 +14636,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G20:H20">
-    <cfRule type="containsText" dxfId="82" priority="191" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G20))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="192">
+  <conditionalFormatting sqref="G22:H22 G26:H26">
+    <cfRule type="containsText" dxfId="143" priority="313" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="314">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -14137,13 +14651,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="containsText" dxfId="81" priority="189" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="colorScale" priority="190">
+  <conditionalFormatting sqref="H22 H26">
+    <cfRule type="containsText" dxfId="142" priority="311" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22 H26">
+    <cfRule type="colorScale" priority="312">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -14154,11 +14668,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22:H22 G26:H26">
-    <cfRule type="containsText" dxfId="80" priority="187" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="188">
+  <conditionalFormatting sqref="G21:H21 G24:H24 G28:H28">
+    <cfRule type="containsText" dxfId="141" priority="309" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G21))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="310">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -14169,13 +14683,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22 H26">
-    <cfRule type="containsText" dxfId="79" priority="185" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22 H26">
-    <cfRule type="colorScale" priority="186">
+  <conditionalFormatting sqref="H21 H24 H28">
+    <cfRule type="containsText" dxfId="140" priority="307" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H21))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21 H24 H28">
+    <cfRule type="colorScale" priority="308">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -14186,11 +14700,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G21:H21 G24:H24 G28:H28">
-    <cfRule type="containsText" dxfId="78" priority="183" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G21))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="184">
+  <conditionalFormatting sqref="G30:H30">
+    <cfRule type="containsText" dxfId="139" priority="305" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G30))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="306">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -14201,13 +14715,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H21 H24 H28">
-    <cfRule type="containsText" dxfId="77" priority="181" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H21))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H21 H24 H28">
-    <cfRule type="colorScale" priority="182">
+  <conditionalFormatting sqref="H30">
+    <cfRule type="containsText" dxfId="138" priority="303" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30">
+    <cfRule type="colorScale" priority="304">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -14218,11 +14732,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G30:H30">
-    <cfRule type="containsText" dxfId="76" priority="179" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G30))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="180">
+  <conditionalFormatting sqref="G31:H31">
+    <cfRule type="containsText" dxfId="137" priority="301" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G31))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="302">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -14233,13 +14747,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
-    <cfRule type="containsText" dxfId="75" priority="177" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
-    <cfRule type="colorScale" priority="178">
+  <conditionalFormatting sqref="H31">
+    <cfRule type="containsText" dxfId="136" priority="299" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H31))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31">
+    <cfRule type="colorScale" priority="300">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -14250,11 +14764,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G31:H31">
-    <cfRule type="containsText" dxfId="74" priority="175" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G31))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="176">
+  <conditionalFormatting sqref="G33:H33">
+    <cfRule type="containsText" dxfId="135" priority="297" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G33))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="298">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -14265,12 +14779,296 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
-    <cfRule type="containsText" dxfId="73" priority="173" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H31))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
+  <conditionalFormatting sqref="H33">
+    <cfRule type="containsText" dxfId="134" priority="295" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H33))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33">
+    <cfRule type="colorScale" priority="296">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G35:H35 G37:H37 G39:H39 G41:H41 G43:H44 G42">
+    <cfRule type="containsText" dxfId="133" priority="293" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G35))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="294">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35 H37 H39 H41 H43:H44">
+    <cfRule type="containsText" dxfId="132" priority="291" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H35))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35 H37 H39 H41 H43:H44">
+    <cfRule type="colorScale" priority="292">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G36:H36 G38:H38 G40:H40 H42">
+    <cfRule type="containsText" dxfId="131" priority="289" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G36))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="290">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36 H38 H40 H42">
+    <cfRule type="containsText" dxfId="130" priority="287" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H36))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38 H36 H40 H42">
+    <cfRule type="colorScale" priority="288">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G49:H49 G51:H51 G53:H53 G55:H55 G57:H57">
+    <cfRule type="containsText" dxfId="129" priority="265" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G49))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="266">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H49 H51 H53 H55 H57">
+    <cfRule type="containsText" dxfId="128" priority="263" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H49))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H51 H49 H53 H55 H57">
+    <cfRule type="colorScale" priority="264">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G48:H48 G50:H50 G52:H52 G54:H54 G56:H56 G58:H58 G61:H61">
+    <cfRule type="containsText" dxfId="127" priority="261" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G48))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="262">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H48 H50 H52 H54 H56 H58 H61">
+    <cfRule type="containsText" dxfId="126" priority="259" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H48))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H50 H48 H52 H54 H56 H58 H61">
+    <cfRule type="colorScale" priority="260">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G46:H46">
+    <cfRule type="containsText" dxfId="125" priority="257" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G46))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="258">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H46">
+    <cfRule type="containsText" dxfId="124" priority="255" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H46))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H46">
+    <cfRule type="colorScale" priority="256">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G59:H59">
+    <cfRule type="containsText" dxfId="123" priority="253" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G59))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="254">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H59">
+    <cfRule type="containsText" dxfId="122" priority="251" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H59))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H59">
+    <cfRule type="colorScale" priority="252">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10">
+    <cfRule type="containsText" dxfId="117" priority="237" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G10))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="238">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="containsText" dxfId="116" priority="235" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H10))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="236">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13">
+    <cfRule type="containsText" dxfId="115" priority="233" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G13))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="234">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15:H15">
+    <cfRule type="containsText" dxfId="113" priority="225" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="226">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="containsText" dxfId="112" priority="223" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="colorScale" priority="224">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G63:H63">
+    <cfRule type="containsText" dxfId="89" priority="173" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G63))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="174">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14282,10 +15080,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G33:H33">
-    <cfRule type="containsText" dxfId="72" priority="171" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G33))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="H63">
+    <cfRule type="containsText" dxfId="88" priority="171" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H63))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H63">
     <cfRule type="colorScale" priority="172">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14297,44 +15097,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
-    <cfRule type="containsText" dxfId="71" priority="169" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H33))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
-    <cfRule type="colorScale" priority="170">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G35:H35 G37:H37 G39:H39 G41:H41 G43:H44 G42">
-    <cfRule type="containsText" dxfId="70" priority="167" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G35))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="168">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H35 H37 H39 H41 H43:H44">
-    <cfRule type="containsText" dxfId="69" priority="165" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H35))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H35 H37 H39 H41 H43:H44">
+  <conditionalFormatting sqref="G65:H65">
+    <cfRule type="containsText" dxfId="85" priority="165" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G65))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="166">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14346,10 +15112,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G36:H36 G38:H38 G40:H40 H42">
-    <cfRule type="containsText" dxfId="68" priority="163" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G36))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="H65">
+    <cfRule type="containsText" dxfId="84" priority="163" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H65))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H65">
     <cfRule type="colorScale" priority="164">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14361,13 +15129,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H36 H38 H40 H42">
-    <cfRule type="containsText" dxfId="67" priority="161" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H36))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H38 H36 H40 H42">
-    <cfRule type="colorScale" priority="162">
+  <conditionalFormatting sqref="G67:H67">
+    <cfRule type="containsText" dxfId="81" priority="157" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G67))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="158">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -14378,11 +15144,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G49:H49 G51:H51 G53:H53 G55:H55 G57:H57">
-    <cfRule type="containsText" dxfId="66" priority="139" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G49))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="140">
+  <conditionalFormatting sqref="H67">
+    <cfRule type="containsText" dxfId="80" priority="155" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H67))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H67">
+    <cfRule type="colorScale" priority="156">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -14393,13 +15161,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H49 H51 H53 H55 H57">
-    <cfRule type="containsText" dxfId="65" priority="137" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H49))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H51 H49 H53 H55 H57">
-    <cfRule type="colorScale" priority="138">
+  <conditionalFormatting sqref="G69:H69">
+    <cfRule type="containsText" dxfId="79" priority="153" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G69))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="154">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -14410,11 +15176,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G48:H48 G50:H50 G52:H52 G54:H54 G56:H56 G58:H58 G61:H61">
-    <cfRule type="containsText" dxfId="64" priority="135" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G48))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="136">
+  <conditionalFormatting sqref="H69">
+    <cfRule type="containsText" dxfId="78" priority="151" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H69))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H69">
+    <cfRule type="colorScale" priority="152">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -14425,13 +15193,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H48 H50 H52 H54 H56 H58 H61">
-    <cfRule type="containsText" dxfId="63" priority="133" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H48))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H50 H48 H52 H54 H56 H58 H61">
-    <cfRule type="colorScale" priority="134">
+  <conditionalFormatting sqref="G71:H71">
+    <cfRule type="containsText" dxfId="77" priority="149" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G71))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="150">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -14442,11 +15208,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G46:H46">
-    <cfRule type="containsText" dxfId="62" priority="131" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G46))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="132">
+  <conditionalFormatting sqref="H71">
+    <cfRule type="containsText" dxfId="76" priority="147" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H71))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H71">
+    <cfRule type="colorScale" priority="148">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -14457,13 +15225,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H46">
-    <cfRule type="containsText" dxfId="61" priority="129" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H46))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H46">
-    <cfRule type="colorScale" priority="130">
+  <conditionalFormatting sqref="G73:H73">
+    <cfRule type="containsText" dxfId="75" priority="145" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G73))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="146">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -14474,11 +15240,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G59:H59">
-    <cfRule type="containsText" dxfId="60" priority="127" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G59))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="128">
+  <conditionalFormatting sqref="H73">
+    <cfRule type="containsText" dxfId="74" priority="143" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H73))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H73">
+    <cfRule type="colorScale" priority="144">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -14489,12 +15257,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H59">
-    <cfRule type="containsText" dxfId="59" priority="125" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H59))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H59">
+  <conditionalFormatting sqref="G15">
+    <cfRule type="containsText" dxfId="62" priority="125" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
     <cfRule type="colorScale" priority="126">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14506,10 +15274,76 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:H4">
-    <cfRule type="containsText" dxfId="58" priority="115" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="G17:H17">
+    <cfRule type="containsText" dxfId="61" priority="123" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G17))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="124">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17">
+    <cfRule type="containsText" dxfId="60" priority="121" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17">
+    <cfRule type="colorScale" priority="122">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17">
+    <cfRule type="containsText" dxfId="59" priority="119" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17">
+    <cfRule type="colorScale" priority="120">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23:H23">
+    <cfRule type="containsText" dxfId="58" priority="117" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="118">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23">
+    <cfRule type="containsText" dxfId="57" priority="115" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23">
     <cfRule type="colorScale" priority="116">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14521,12 +15355,240 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="57" priority="85" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
+  <conditionalFormatting sqref="G23">
+    <cfRule type="containsText" dxfId="56" priority="113" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="colorScale" priority="114">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32:H32">
+    <cfRule type="containsText" dxfId="55" priority="111" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="112">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32">
+    <cfRule type="containsText" dxfId="54" priority="109" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32">
+    <cfRule type="colorScale" priority="110">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32">
+    <cfRule type="containsText" dxfId="53" priority="107" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32">
+    <cfRule type="colorScale" priority="108">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34:H34">
+    <cfRule type="containsText" dxfId="52" priority="105" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G34))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="106">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34">
+    <cfRule type="containsText" dxfId="51" priority="103" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34">
+    <cfRule type="colorScale" priority="104">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34">
+    <cfRule type="containsText" dxfId="50" priority="101" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34">
+    <cfRule type="colorScale" priority="102">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G47:H47">
+    <cfRule type="containsText" dxfId="49" priority="99" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G47))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="100">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47">
+    <cfRule type="containsText" dxfId="48" priority="97" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H47))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47">
+    <cfRule type="colorScale" priority="98">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G47">
+    <cfRule type="containsText" dxfId="47" priority="95" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G47))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G47">
+    <cfRule type="colorScale" priority="96">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G45:H45">
+    <cfRule type="containsText" dxfId="46" priority="93" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G45))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="94">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H45">
+    <cfRule type="containsText" dxfId="45" priority="91" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H45))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H45">
+    <cfRule type="colorScale" priority="92">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G45">
+    <cfRule type="containsText" dxfId="44" priority="89" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G45))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G45">
+    <cfRule type="colorScale" priority="90">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G68:H68">
+    <cfRule type="containsText" dxfId="43" priority="87" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G68))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="88">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H68">
+    <cfRule type="containsText" dxfId="42" priority="85" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H68))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H68">
     <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14538,196 +15600,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="56" priority="87" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="88">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6:H6">
-    <cfRule type="containsText" dxfId="55" priority="113" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="114">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9:G10">
-    <cfRule type="containsText" dxfId="54" priority="111" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="112">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9:H10">
-    <cfRule type="containsText" dxfId="53" priority="109" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="110">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G13">
-    <cfRule type="containsText" dxfId="52" priority="107" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G13))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="108">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
-    <cfRule type="containsText" dxfId="51" priority="105" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="106">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15:H15">
-    <cfRule type="containsText" dxfId="50" priority="99" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="100">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="containsText" dxfId="49" priority="97" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="colorScale" priority="98">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G17:H17">
-    <cfRule type="containsText" dxfId="48" priority="95" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G17))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="96">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
-    <cfRule type="containsText" dxfId="47" priority="93" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H17))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
-    <cfRule type="colorScale" priority="94">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23:H23">
-    <cfRule type="containsText" dxfId="46" priority="91" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="92">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
-    <cfRule type="containsText" dxfId="45" priority="89" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H23))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
-    <cfRule type="colorScale" priority="90">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
-    <cfRule type="containsText" dxfId="44" priority="83" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="G68">
+    <cfRule type="containsText" dxfId="41" priority="83" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G68))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G68">
     <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14739,9 +15617,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G27:H27">
-    <cfRule type="containsText" dxfId="43" priority="81" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
+  <conditionalFormatting sqref="G66:H66">
+    <cfRule type="containsText" dxfId="40" priority="81" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G66))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="82">
       <colorScale>
@@ -14754,12 +15632,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="42" priority="79" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
+  <conditionalFormatting sqref="H66">
+    <cfRule type="containsText" dxfId="39" priority="79" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H66))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H66">
     <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14771,10 +15649,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25:H25">
-    <cfRule type="containsText" dxfId="41" priority="77" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G25))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="G66">
+    <cfRule type="containsText" dxfId="38" priority="77" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G66))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G66">
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14786,12 +15666,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
-    <cfRule type="containsText" dxfId="40" priority="75" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H25))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
+  <conditionalFormatting sqref="G64:H64">
+    <cfRule type="containsText" dxfId="37" priority="75" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G64))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14803,10 +15681,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G32:H32">
-    <cfRule type="containsText" dxfId="39" priority="73" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="H64">
+    <cfRule type="containsText" dxfId="36" priority="73" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H64))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H64">
     <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14818,12 +15698,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
-    <cfRule type="containsText" dxfId="38" priority="71" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
+  <conditionalFormatting sqref="G64">
+    <cfRule type="containsText" dxfId="35" priority="71" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G64))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G64">
     <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14835,9 +15715,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G34:H34">
-    <cfRule type="containsText" dxfId="37" priority="69" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G34))))</formula>
+  <conditionalFormatting sqref="G62:H62">
+    <cfRule type="containsText" dxfId="34" priority="69" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G62))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="70">
       <colorScale>
@@ -14850,12 +15730,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
-    <cfRule type="containsText" dxfId="36" priority="67" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
+  <conditionalFormatting sqref="H62">
+    <cfRule type="containsText" dxfId="33" priority="67" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H62))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H62">
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14867,10 +15747,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G45:H45">
-    <cfRule type="containsText" dxfId="35" priority="65" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G45))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="G62">
+    <cfRule type="containsText" dxfId="32" priority="65" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G62))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G62">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14882,12 +15764,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
-    <cfRule type="containsText" dxfId="34" priority="63" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H45))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
+  <conditionalFormatting sqref="G60:H60">
+    <cfRule type="containsText" dxfId="31" priority="63" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G60))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14899,10 +15779,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
-    <cfRule type="containsText" dxfId="33" priority="61" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H47))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="H60">
+    <cfRule type="containsText" dxfId="30" priority="61" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H60))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H60">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14914,12 +15796,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
-    <cfRule type="containsText" dxfId="32" priority="59" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H47))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
+  <conditionalFormatting sqref="G60">
+    <cfRule type="containsText" dxfId="29" priority="59" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G60))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G60">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14931,9 +15813,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G47">
-    <cfRule type="containsText" dxfId="31" priority="57" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G47))))</formula>
+  <conditionalFormatting sqref="G70:H70">
+    <cfRule type="containsText" dxfId="28" priority="57" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G70))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="58">
       <colorScale>
@@ -14946,10 +15828,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G60:H60">
-    <cfRule type="containsText" dxfId="30" priority="55" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G60))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="H70">
+    <cfRule type="containsText" dxfId="27" priority="55" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H70))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H70">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14961,12 +15845,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H60">
-    <cfRule type="containsText" dxfId="29" priority="53" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H60))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H60">
+  <conditionalFormatting sqref="G70">
+    <cfRule type="containsText" dxfId="26" priority="53" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G70))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G70">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14978,9 +15862,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G62:H62">
-    <cfRule type="containsText" dxfId="28" priority="51" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G62))))</formula>
+  <conditionalFormatting sqref="G74:H74">
+    <cfRule type="containsText" dxfId="25" priority="51" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G74))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="52">
       <colorScale>
@@ -14993,12 +15877,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H62">
-    <cfRule type="containsText" dxfId="27" priority="49" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H62))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H62">
+  <conditionalFormatting sqref="H74">
+    <cfRule type="containsText" dxfId="24" priority="49" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H74))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H74">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -15010,10 +15894,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G63:H63">
-    <cfRule type="containsText" dxfId="26" priority="47" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G63))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="G74">
+    <cfRule type="containsText" dxfId="23" priority="47" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G74))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G74">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -15025,12 +15911,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H63">
-    <cfRule type="containsText" dxfId="25" priority="45" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H63))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H63">
+  <conditionalFormatting sqref="G72:H72">
+    <cfRule type="containsText" dxfId="22" priority="45" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G72))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -15042,10 +15926,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G64:H64">
-    <cfRule type="containsText" dxfId="24" priority="43" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G64))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="H72">
+    <cfRule type="containsText" dxfId="21" priority="43" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H72))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H72">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -15057,12 +15943,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H64">
-    <cfRule type="containsText" dxfId="23" priority="41" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H64))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H64">
+  <conditionalFormatting sqref="G72">
+    <cfRule type="containsText" dxfId="20" priority="41" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G72))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G72">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -15074,9 +15960,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G65:H65">
-    <cfRule type="containsText" dxfId="22" priority="39" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G65))))</formula>
+  <conditionalFormatting sqref="G25:H25">
+    <cfRule type="containsText" dxfId="19" priority="39" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G25))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
       <colorScale>
@@ -15089,12 +15975,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H65">
-    <cfRule type="containsText" dxfId="21" priority="37" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H65))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H65">
+  <conditionalFormatting sqref="H25">
+    <cfRule type="containsText" dxfId="18" priority="37" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H25))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -15106,10 +15992,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G66:H66">
-    <cfRule type="containsText" dxfId="20" priority="35" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G66))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="G25">
+    <cfRule type="containsText" dxfId="17" priority="35" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G25))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -15121,12 +16009,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H66">
-    <cfRule type="containsText" dxfId="19" priority="33" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H66))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H66">
+  <conditionalFormatting sqref="G29:H29">
+    <cfRule type="containsText" dxfId="16" priority="33" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -15138,10 +16024,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G67:H67">
-    <cfRule type="containsText" dxfId="18" priority="31" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G67))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="containsText" dxfId="15" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -15153,12 +16041,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H67">
-    <cfRule type="containsText" dxfId="17" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H67))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H67">
+  <conditionalFormatting sqref="G29">
+    <cfRule type="containsText" dxfId="14" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -15170,9 +16058,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G69:H69">
-    <cfRule type="containsText" dxfId="16" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G69))))</formula>
+  <conditionalFormatting sqref="G27:H27">
+    <cfRule type="containsText" dxfId="13" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="28">
       <colorScale>
@@ -15185,12 +16073,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H69">
-    <cfRule type="containsText" dxfId="15" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H69))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H69">
+  <conditionalFormatting sqref="H27">
+    <cfRule type="containsText" dxfId="12" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -15202,10 +16090,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G71:H71">
-    <cfRule type="containsText" dxfId="14" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G71))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="G27">
+    <cfRule type="containsText" dxfId="11" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -15217,12 +16107,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H71">
-    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H71))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H71">
+  <conditionalFormatting sqref="H13">
+    <cfRule type="containsText" dxfId="10" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -15234,9 +16122,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G73:H73">
-    <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G73))))</formula>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="containsText" dxfId="9" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
       <colorScale>
@@ -15249,12 +16137,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H73">
-    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H73))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H73">
+  <conditionalFormatting sqref="H9">
+    <cfRule type="containsText" dxfId="8" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -15266,9 +16152,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G68:H68">
-    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G68))))</formula>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
       <colorScale>
@@ -15281,12 +16167,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H68">
-    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H68))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H68">
+  <conditionalFormatting sqref="H6">
+    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -15298,9 +16182,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G74:H74">
-    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G74))))</formula>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
       <colorScale>
@@ -15313,12 +16197,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H74">
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H74))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H74">
+  <conditionalFormatting sqref="H4">
+    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -15330,10 +16212,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G72:H72">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G72))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="G18">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -15345,12 +16229,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H72">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H72))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H72">
+  <conditionalFormatting sqref="G19:H19">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G19))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -15362,10 +16244,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G70:H70">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G70))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="H19">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H19))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -15377,12 +16261,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H70">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H70))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H70">
+  <conditionalFormatting sqref="G19">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G19))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -15405,7 +16289,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -15462,9 +16346,13 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="49"/>
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>370</v>
+      </c>
+      <c r="C5" s="17"/>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="22"/>
@@ -15474,11 +16362,12 @@
     <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{D1175CAA-5028-4A1A-ABE3-1806D7E404FD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Collections/Russia/#Russia#Russian_Federation#Commemorative#[1999-present]#circulation_quality.xlsx
+++ b/Collections/Russia/#Russia#Russian_Federation#Commemorative#[1999-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Russia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49201F17-CCCD-4DDF-8389-A0CBC0D023B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF5D5DC-D022-428D-A9AD-5A369CBF03D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7540" yWindow="2540" windowWidth="28800" windowHeight="17740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1₽ " sheetId="1" r:id="rId1"/>
@@ -252,6 +252,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
+    <author>Lord_Alexator</author>
   </authors>
   <commentList>
     <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
@@ -311,6 +312,21 @@
             <charset val="204"/>
           </rPr>
           <t>Saint Petersburg Mint</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H108" authorId="1" shapeId="0" xr:uid="{BE232F62-4331-4EE0-B20A-59187D3B810D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">Дубли не UNC
+</t>
         </r>
       </text>
     </comment>
@@ -1508,7 +1524,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1624,6 +1640,19 @@
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
@@ -1771,7 +1800,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1912,6 +1941,9 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1950,8 +1982,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1959,7 +1991,7 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="186">
+  <dxfs count="146">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1967,6 +1999,15 @@
           <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -2143,335 +2184,6 @@
           <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -3463,9 +3175,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="65"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="64" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="63"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -3754,29 +3466,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="52" t="s">
+      <c r="A1" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="53" t="s">
         <v>341</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="54" t="s">
+      <c r="D1" s="56"/>
+      <c r="E1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="55"/>
-      <c r="G1" s="56" t="s">
+      <c r="F1" s="56"/>
+      <c r="G1" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="57"/>
+      <c r="H1" s="58"/>
       <c r="I1" s="33"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="51"/>
-      <c r="B2" s="53"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="54"/>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
@@ -3888,7 +3600,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H3">
-    <cfRule type="containsText" dxfId="185" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="145" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3905,7 +3617,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="184" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="144" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3922,7 +3634,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="183" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="143" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3939,7 +3651,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:H5">
-    <cfRule type="containsText" dxfId="182" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="142" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3965,7 +3677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -3984,29 +3696,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="52" t="s">
+      <c r="A1" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="53" t="s">
         <v>341</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="59" t="s">
+      <c r="D1" s="61"/>
+      <c r="E1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="60"/>
-      <c r="G1" s="61" t="s">
+      <c r="F1" s="61"/>
+      <c r="G1" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="62"/>
+      <c r="H1" s="63"/>
       <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
       <c r="C2" s="27" t="s">
         <v>4</v>
       </c>
@@ -4811,7 +4523,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H30">
-    <cfRule type="containsText" dxfId="181" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="141" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -4839,7 +4551,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B53" sqref="B44:H53"/>
+      <selection pane="bottomRight" activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4854,29 +4566,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="52" t="s">
+      <c r="A1" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="53" t="s">
         <v>341</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="59" t="s">
+      <c r="D1" s="61"/>
+      <c r="E1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="60"/>
-      <c r="G1" s="61" t="s">
+      <c r="F1" s="61"/>
+      <c r="G1" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="H1" s="62"/>
+      <c r="H1" s="63"/>
       <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="63"/>
-      <c r="B2" s="53"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="54"/>
       <c r="C2" s="27" t="s">
         <v>4</v>
       </c>
@@ -6327,7 +6039,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H52">
-    <cfRule type="containsText" dxfId="180" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="140" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -6342,7 +6054,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G53:H53">
-    <cfRule type="containsText" dxfId="179" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="139" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G53))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -6366,11 +6078,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I189"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J156" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="9" ySplit="2" topLeftCell="J141" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I64" sqref="B12:I64"/>
+      <selection pane="bottomRight" activeCell="J186" sqref="J186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6384,29 +6096,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="52" t="s">
+      <c r="A1" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="53" t="s">
         <v>341</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="59" t="s">
+      <c r="D1" s="61"/>
+      <c r="E1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="60"/>
-      <c r="G1" s="61" t="s">
+      <c r="F1" s="61"/>
+      <c r="G1" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="62"/>
+      <c r="H1" s="63"/>
       <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
       <c r="C2" s="43" t="s">
         <v>4</v>
       </c>
@@ -8028,8 +7740,8 @@
       <c r="F56" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="G56" s="11">
-        <v>0</v>
+      <c r="G56" s="10">
+        <v>1</v>
       </c>
       <c r="H56" s="11">
         <v>0</v>
@@ -8301,8 +8013,8 @@
       <c r="G65" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="H65" s="11">
-        <v>0</v>
+      <c r="H65" s="13">
+        <v>1</v>
       </c>
       <c r="I65" s="33" t="str">
         <f t="shared" si="1"/>
@@ -8598,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="H75" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" s="33" t="str">
         <f t="shared" ref="I75:I83" si="2">IF(OR(AND(G75&gt;1,G75&lt;&gt;"-"),AND(H75&gt;1,H75&lt;&gt;"-")),"Can exchange","")</f>
@@ -8866,7 +8578,7 @@
         <v>0</v>
       </c>
       <c r="H84" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" s="33" t="str">
         <f t="shared" si="1"/>
@@ -8956,7 +8668,7 @@
         <v>0</v>
       </c>
       <c r="H87" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" s="33" t="str">
         <f t="shared" si="1"/>
@@ -9074,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="H91" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" s="33" t="str">
         <f t="shared" si="3"/>
@@ -9104,7 +8816,7 @@
         <v>0</v>
       </c>
       <c r="H92" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" s="33" t="str">
         <f t="shared" si="3"/>
@@ -9224,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="H96" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" s="33" t="str">
         <f t="shared" si="3"/>
@@ -9282,7 +8994,7 @@
         <v>0</v>
       </c>
       <c r="H98" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" s="33" t="str">
         <f t="shared" si="1"/>
@@ -9432,7 +9144,7 @@
         <v>0</v>
       </c>
       <c r="H103" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" s="33" t="str">
         <f t="shared" si="4"/>
@@ -9462,7 +9174,7 @@
         <v>0</v>
       </c>
       <c r="H104" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" s="33" t="str">
         <f t="shared" si="4"/>
@@ -9492,7 +9204,7 @@
         <v>0</v>
       </c>
       <c r="H105" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" s="33" t="str">
         <f t="shared" si="4"/>
@@ -9552,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="H107" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" s="33" t="str">
         <f t="shared" si="4"/>
@@ -9581,12 +9293,12 @@
       <c r="G108" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H108" s="10">
-        <v>1</v>
+      <c r="H108" s="65">
+        <v>2</v>
       </c>
       <c r="I108" s="33" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9698,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="H112" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" s="33" t="str">
         <f t="shared" si="1"/>
@@ -9728,7 +9440,7 @@
         <v>0</v>
       </c>
       <c r="H113" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" s="33" t="str">
         <f t="shared" si="1"/>
@@ -9758,7 +9470,7 @@
         <v>0</v>
       </c>
       <c r="H114" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" s="33" t="str">
         <f t="shared" si="1"/>
@@ -9788,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="H115" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" s="33" t="str">
         <f t="shared" si="1"/>
@@ -10118,7 +9830,7 @@
         <v>0</v>
       </c>
       <c r="H126" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126" s="33" t="str">
         <f t="shared" si="5"/>
@@ -11163,7 +10875,7 @@
         <v>0</v>
       </c>
       <c r="G161" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H161" s="14" t="s">
         <v>0</v>
@@ -11341,7 +11053,7 @@
         <v>0</v>
       </c>
       <c r="G167" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H167" s="14" t="s">
         <v>0</v>
@@ -11371,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="G168" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H168" s="14" t="s">
         <v>0</v>
@@ -11401,7 +11113,7 @@
         <v>0</v>
       </c>
       <c r="G169" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H169" s="14" t="s">
         <v>0</v>
@@ -11431,7 +11143,7 @@
         <v>0</v>
       </c>
       <c r="G170" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H170" s="14" t="s">
         <v>0</v>
@@ -11701,7 +11413,7 @@
         <v>0</v>
       </c>
       <c r="G179" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H179" s="14" t="s">
         <v>0</v>
@@ -11731,7 +11443,7 @@
         <v>0</v>
       </c>
       <c r="G180" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H180" s="14" t="s">
         <v>0</v>
@@ -11821,7 +11533,7 @@
         <v>0</v>
       </c>
       <c r="G183" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H183" s="14" t="s">
         <v>0</v>
@@ -12001,14 +11713,14 @@
         <v>0</v>
       </c>
       <c r="G189" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H189" s="14" t="s">
         <v>0</v>
       </c>
       <c r="I189" s="33" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
   </sheetData>
@@ -12025,9 +11737,24 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
-  <conditionalFormatting sqref="G3:H165">
-    <cfRule type="containsText" dxfId="178" priority="53" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G109:H165 G108 G3:H107">
+    <cfRule type="containsText" dxfId="138" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G166:H166">
+    <cfRule type="containsText" dxfId="137" priority="53" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G166))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="54">
       <colorScale>
@@ -12040,9 +11767,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G166:H166">
-    <cfRule type="containsText" dxfId="177" priority="51" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G166))))</formula>
+  <conditionalFormatting sqref="G167:H167">
+    <cfRule type="containsText" dxfId="136" priority="51" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G167))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="52">
       <colorScale>
@@ -12055,9 +11782,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G167:H167">
-    <cfRule type="containsText" dxfId="176" priority="49" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G167))))</formula>
+  <conditionalFormatting sqref="G168:H168">
+    <cfRule type="containsText" dxfId="135" priority="49" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G168))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="50">
       <colorScale>
@@ -12070,9 +11797,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G168:H168">
-    <cfRule type="containsText" dxfId="175" priority="47" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G168))))</formula>
+  <conditionalFormatting sqref="G169:H169">
+    <cfRule type="containsText" dxfId="134" priority="47" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G169))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="48">
       <colorScale>
@@ -12085,9 +11812,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G169:H169">
-    <cfRule type="containsText" dxfId="174" priority="45" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G169))))</formula>
+  <conditionalFormatting sqref="G170:H170">
+    <cfRule type="containsText" dxfId="133" priority="45" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G170))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="46">
       <colorScale>
@@ -12100,9 +11827,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G170:H170">
-    <cfRule type="containsText" dxfId="173" priority="43" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G170))))</formula>
+  <conditionalFormatting sqref="G171:H171">
+    <cfRule type="containsText" dxfId="132" priority="43" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G171))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
       <colorScale>
@@ -12115,9 +11842,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G171:H171">
-    <cfRule type="containsText" dxfId="172" priority="41" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G171))))</formula>
+  <conditionalFormatting sqref="G172:H172">
+    <cfRule type="containsText" dxfId="131" priority="41" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G172))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="42">
       <colorScale>
@@ -12130,9 +11857,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G172:H172">
-    <cfRule type="containsText" dxfId="171" priority="39" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G172))))</formula>
+  <conditionalFormatting sqref="G173:H173">
+    <cfRule type="containsText" dxfId="130" priority="39" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G173))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
       <colorScale>
@@ -12145,9 +11872,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G173:H173">
-    <cfRule type="containsText" dxfId="170" priority="37" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G173))))</formula>
+  <conditionalFormatting sqref="G174:H174">
+    <cfRule type="containsText" dxfId="129" priority="37" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G174))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="38">
       <colorScale>
@@ -12160,9 +11887,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G174:H174">
-    <cfRule type="containsText" dxfId="169" priority="35" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G174))))</formula>
+  <conditionalFormatting sqref="G175:H175">
+    <cfRule type="containsText" dxfId="128" priority="35" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G175))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="36">
       <colorScale>
@@ -12175,9 +11902,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G175:H175">
-    <cfRule type="containsText" dxfId="168" priority="33" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G175))))</formula>
+  <conditionalFormatting sqref="G176:H176">
+    <cfRule type="containsText" dxfId="127" priority="33" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G176))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="34">
       <colorScale>
@@ -12190,9 +11917,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G176:H176">
-    <cfRule type="containsText" dxfId="167" priority="31" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G176))))</formula>
+  <conditionalFormatting sqref="G177:H177">
+    <cfRule type="containsText" dxfId="126" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G177))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="32">
       <colorScale>
@@ -12205,9 +11932,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G177:H177">
-    <cfRule type="containsText" dxfId="166" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G177))))</formula>
+  <conditionalFormatting sqref="G178:H178">
+    <cfRule type="containsText" dxfId="125" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G178))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
       <colorScale>
@@ -12220,9 +11947,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G178:H178">
-    <cfRule type="containsText" dxfId="165" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G178))))</formula>
+  <conditionalFormatting sqref="G179:H179">
+    <cfRule type="containsText" dxfId="124" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G179))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="28">
       <colorScale>
@@ -12235,11 +11962,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G179:H179">
-    <cfRule type="containsText" dxfId="164" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G179))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="26">
+  <conditionalFormatting sqref="G180:H180">
+    <cfRule type="containsText" dxfId="123" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G180))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -12250,9 +11977,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G180:H180">
-    <cfRule type="containsText" dxfId="163" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G180))))</formula>
+  <conditionalFormatting sqref="G181:H181">
+    <cfRule type="containsText" dxfId="122" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G181))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
       <colorScale>
@@ -12265,9 +11992,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G181:H181">
-    <cfRule type="containsText" dxfId="162" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G181))))</formula>
+  <conditionalFormatting sqref="G182:H182">
+    <cfRule type="containsText" dxfId="121" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G182))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
       <colorScale>
@@ -12280,11 +12007,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G182:H182">
-    <cfRule type="containsText" dxfId="161" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G182))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="18">
+  <conditionalFormatting sqref="G184:H184">
+    <cfRule type="containsText" dxfId="120" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G184))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -12295,9 +12022,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G184:H184">
-    <cfRule type="containsText" dxfId="160" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G184))))</formula>
+  <conditionalFormatting sqref="G185:H185">
+    <cfRule type="containsText" dxfId="119" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G185))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
       <colorScale>
@@ -12310,9 +12037,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G185:H185">
-    <cfRule type="containsText" dxfId="159" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G185))))</formula>
+  <conditionalFormatting sqref="G186:H186">
+    <cfRule type="containsText" dxfId="118" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G186))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
       <colorScale>
@@ -12325,9 +12052,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G186:H186">
-    <cfRule type="containsText" dxfId="158" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G186))))</formula>
+  <conditionalFormatting sqref="G183:H183">
+    <cfRule type="containsText" dxfId="117" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G183))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
       <colorScale>
@@ -12340,9 +12067,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G183:H183">
-    <cfRule type="containsText" dxfId="157" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G183))))</formula>
+  <conditionalFormatting sqref="G187:H187">
+    <cfRule type="containsText" dxfId="116" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G187))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
       <colorScale>
@@ -12355,9 +12082,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G187:H187">
-    <cfRule type="containsText" dxfId="156" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G187))))</formula>
+  <conditionalFormatting sqref="G188:H188">
+    <cfRule type="containsText" dxfId="115" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G188))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
       <colorScale>
@@ -12370,9 +12097,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G188:H188">
-    <cfRule type="containsText" dxfId="155" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G188))))</formula>
+  <conditionalFormatting sqref="G189:H189">
+    <cfRule type="containsText" dxfId="114" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G189))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -12385,10 +12112,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G189:H189">
-    <cfRule type="containsText" dxfId="154" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G189))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="H108">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H108))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H108">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -12411,10 +12140,10 @@
   <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F28" sqref="F28"/>
+      <selection pane="bottomRight" activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -12428,29 +12157,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="52" t="s">
+      <c r="A1" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="53" t="s">
         <v>341</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="59" t="s">
+      <c r="D1" s="61"/>
+      <c r="E1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="60"/>
-      <c r="G1" s="61" t="s">
+      <c r="F1" s="61"/>
+      <c r="G1" s="62" t="s">
         <v>306</v>
       </c>
-      <c r="H1" s="62"/>
+      <c r="H1" s="63"/>
       <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
       <c r="C2" s="27" t="s">
         <v>4</v>
       </c>
@@ -12515,7 +12244,7 @@
       <c r="E4" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="64" t="s">
+      <c r="F4" s="50" t="s">
         <v>332</v>
       </c>
       <c r="G4" s="12" t="s">
@@ -12570,7 +12299,7 @@
       <c r="E6" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="64" t="s">
+      <c r="F6" s="50" t="s">
         <v>332</v>
       </c>
       <c r="G6" s="12" t="s">
@@ -12653,7 +12382,7 @@
       <c r="E9" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="F9" s="64" t="s">
+      <c r="F9" s="50" t="s">
         <v>332</v>
       </c>
       <c r="G9" s="12" t="s">
@@ -12764,7 +12493,7 @@
       <c r="E13" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="F13" s="64" t="s">
+      <c r="F13" s="50" t="s">
         <v>332</v>
       </c>
       <c r="G13" s="12" t="s">
@@ -12819,7 +12548,7 @@
       <c r="D15" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E15" s="64" t="s">
+      <c r="E15" s="50" t="s">
         <v>273</v>
       </c>
       <c r="F15" s="40" t="s">
@@ -12877,7 +12606,7 @@
       <c r="D17" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E17" s="64" t="s">
+      <c r="E17" s="50" t="s">
         <v>273</v>
       </c>
       <c r="F17" s="40" t="s">
@@ -12903,7 +12632,7 @@
       </c>
       <c r="C18" s="38"/>
       <c r="D18" s="38"/>
-      <c r="E18" s="64" t="s">
+      <c r="E18" s="50" t="s">
         <v>273</v>
       </c>
       <c r="F18" s="40" t="s">
@@ -12929,7 +12658,7 @@
       </c>
       <c r="C19" s="38"/>
       <c r="D19" s="38"/>
-      <c r="E19" s="64" t="s">
+      <c r="E19" s="50" t="s">
         <v>275</v>
       </c>
       <c r="F19" s="40" t="s">
@@ -13039,7 +12768,7 @@
       <c r="D23" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E23" s="64" t="s">
+      <c r="E23" s="50" t="s">
         <v>273</v>
       </c>
       <c r="F23" s="40" t="s">
@@ -13097,7 +12826,7 @@
       <c r="D25" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E25" s="64" t="s">
+      <c r="E25" s="50" t="s">
         <v>332</v>
       </c>
       <c r="F25" s="40" t="s">
@@ -13155,7 +12884,7 @@
       <c r="D27" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E27" s="64" t="s">
+      <c r="E27" s="50" t="s">
         <v>332</v>
       </c>
       <c r="F27" s="40" t="s">
@@ -13213,7 +12942,7 @@
       <c r="D29" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E29" s="64" t="s">
+      <c r="E29" s="50" t="s">
         <v>332</v>
       </c>
       <c r="F29" s="40" t="s">
@@ -13246,7 +12975,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="12" t="s">
         <v>0</v>
@@ -13297,7 +13026,7 @@
       <c r="D32" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E32" s="64" t="s">
+      <c r="E32" s="50" t="s">
         <v>273</v>
       </c>
       <c r="F32" s="40" t="s">
@@ -13355,7 +13084,7 @@
       <c r="D34" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E34" s="64" t="s">
+      <c r="E34" s="50" t="s">
         <v>273</v>
       </c>
       <c r="F34" s="40" t="s">
@@ -13665,7 +13394,7 @@
       <c r="D45" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E45" s="64" t="s">
+      <c r="E45" s="50" t="s">
         <v>275</v>
       </c>
       <c r="F45" s="40" t="s">
@@ -13723,7 +13452,7 @@
       <c r="D47" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E47" s="64" t="s">
+      <c r="E47" s="50" t="s">
         <v>275</v>
       </c>
       <c r="F47" s="40" t="s">
@@ -14036,7 +13765,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" s="12" t="s">
         <v>0</v>
@@ -14062,7 +13791,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" s="12" t="s">
         <v>0</v>
@@ -14083,7 +13812,7 @@
       <c r="D60" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E60" s="64" t="s">
+      <c r="E60" s="50" t="s">
         <v>275</v>
       </c>
       <c r="F60" s="40" t="s">
@@ -14134,7 +13863,7 @@
       <c r="D62" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E62" s="64" t="s">
+      <c r="E62" s="50" t="s">
         <v>275</v>
       </c>
       <c r="F62" s="40" t="s">
@@ -14192,7 +13921,7 @@
       <c r="D64" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E64" s="64" t="s">
+      <c r="E64" s="50" t="s">
         <v>275</v>
       </c>
       <c r="F64" s="40" t="s">
@@ -14250,7 +13979,7 @@
       <c r="D66" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E66" s="64" t="s">
+      <c r="E66" s="50" t="s">
         <v>275</v>
       </c>
       <c r="F66" s="40" t="s">
@@ -14308,7 +14037,7 @@
       <c r="D68" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E68" s="64" t="s">
+      <c r="E68" s="50" t="s">
         <v>275</v>
       </c>
       <c r="F68" s="40" t="s">
@@ -14366,7 +14095,7 @@
       <c r="D70" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E70" s="64" t="s">
+      <c r="E70" s="50" t="s">
         <v>275</v>
       </c>
       <c r="F70" s="40" t="s">
@@ -14401,7 +14130,7 @@
         <v>0</v>
       </c>
       <c r="G71" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71" s="12" t="s">
         <v>0</v>
@@ -14424,7 +14153,7 @@
       <c r="D72" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E72" s="64" t="s">
+      <c r="E72" s="50" t="s">
         <v>275</v>
       </c>
       <c r="F72" s="40" t="s">
@@ -14482,7 +14211,7 @@
       <c r="D74" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E74" s="64" t="s">
+      <c r="E74" s="50" t="s">
         <v>275</v>
       </c>
       <c r="F74" s="40" t="s">
@@ -14509,7 +14238,7 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="G3:H3 G5:H5 G14:H14 G7:H8 G10:H12">
-    <cfRule type="containsText" dxfId="153" priority="350" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="113" priority="350" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="351">
@@ -14524,7 +14253,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="containsText" dxfId="152" priority="331" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="112" priority="331" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14541,7 +14270,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:H16">
-    <cfRule type="containsText" dxfId="151" priority="329" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="111" priority="329" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="330">
@@ -14556,7 +14285,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="150" priority="327" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="110" priority="327" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14573,7 +14302,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:H18">
-    <cfRule type="containsText" dxfId="149" priority="325" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="109" priority="325" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G18))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="326">
@@ -14588,7 +14317,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="containsText" dxfId="148" priority="323" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="108" priority="323" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14605,7 +14334,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:H20">
-    <cfRule type="containsText" dxfId="145" priority="317" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="107" priority="317" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G20))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="318">
@@ -14620,7 +14349,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="containsText" dxfId="144" priority="315" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="106" priority="315" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14637,7 +14366,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22:H22 G26:H26">
-    <cfRule type="containsText" dxfId="143" priority="313" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="105" priority="313" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="314">
@@ -14652,7 +14381,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22 H26">
-    <cfRule type="containsText" dxfId="142" priority="311" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="104" priority="311" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14669,7 +14398,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21:H21 G24:H24 G28:H28">
-    <cfRule type="containsText" dxfId="141" priority="309" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="103" priority="309" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="310">
@@ -14684,7 +14413,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21 H24 H28">
-    <cfRule type="containsText" dxfId="140" priority="307" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="102" priority="307" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14701,7 +14430,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:H30">
-    <cfRule type="containsText" dxfId="139" priority="305" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="101" priority="305" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G30))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="306">
@@ -14716,7 +14445,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="containsText" dxfId="138" priority="303" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="100" priority="303" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14733,7 +14462,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:H31">
-    <cfRule type="containsText" dxfId="137" priority="301" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="99" priority="301" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G31))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="302">
@@ -14748,7 +14477,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="containsText" dxfId="136" priority="299" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="98" priority="299" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H31))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14765,7 +14494,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33:H33">
-    <cfRule type="containsText" dxfId="135" priority="297" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="97" priority="297" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G33))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="298">
@@ -14780,7 +14509,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="containsText" dxfId="134" priority="295" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="96" priority="295" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H33))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14797,7 +14526,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35:H35 G37:H37 G39:H39 G41:H41 G43:H44 G42">
-    <cfRule type="containsText" dxfId="133" priority="293" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="95" priority="293" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G35))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="294">
@@ -14812,7 +14541,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35 H37 H39 H41 H43:H44">
-    <cfRule type="containsText" dxfId="132" priority="291" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="94" priority="291" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14829,7 +14558,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36:H36 G38:H38 G40:H40 H42">
-    <cfRule type="containsText" dxfId="131" priority="289" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="93" priority="289" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G36))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="290">
@@ -14844,7 +14573,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36 H38 H40 H42">
-    <cfRule type="containsText" dxfId="130" priority="287" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="92" priority="287" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H36))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14861,7 +14590,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49:H49 G51:H51 G53:H53 G55:H55 G57:H57">
-    <cfRule type="containsText" dxfId="129" priority="265" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="91" priority="265" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G49))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="266">
@@ -14876,7 +14605,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49 H51 H53 H55 H57">
-    <cfRule type="containsText" dxfId="128" priority="263" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="90" priority="263" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H49))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14893,7 +14622,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G48:H48 G50:H50 G52:H52 G54:H54 G56:H56 G58:H58 G61:H61">
-    <cfRule type="containsText" dxfId="127" priority="261" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="89" priority="261" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G48))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="262">
@@ -14908,7 +14637,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48 H50 H52 H54 H56 H58 H61">
-    <cfRule type="containsText" dxfId="126" priority="259" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="88" priority="259" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H48))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14925,7 +14654,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46:H46">
-    <cfRule type="containsText" dxfId="125" priority="257" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="87" priority="257" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G46))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="258">
@@ -14940,7 +14669,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="containsText" dxfId="124" priority="255" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="86" priority="255" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H46))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14957,7 +14686,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G59:H59">
-    <cfRule type="containsText" dxfId="123" priority="253" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="85" priority="253" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G59))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="254">
@@ -14972,7 +14701,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="containsText" dxfId="122" priority="251" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="84" priority="251" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H59))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14989,7 +14718,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="containsText" dxfId="117" priority="237" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="83" priority="237" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G10))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="238">
@@ -15004,7 +14733,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="containsText" dxfId="116" priority="235" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="82" priority="235" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H10))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="236">
@@ -15019,7 +14748,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="containsText" dxfId="115" priority="233" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="81" priority="233" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G13))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="234">
@@ -15034,7 +14763,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:H15">
-    <cfRule type="containsText" dxfId="113" priority="225" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="80" priority="225" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="226">
@@ -15049,7 +14778,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="containsText" dxfId="112" priority="223" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="79" priority="223" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15066,7 +14795,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G63:H63">
-    <cfRule type="containsText" dxfId="89" priority="173" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="78" priority="173" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G63))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="174">
@@ -15081,7 +14810,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="containsText" dxfId="88" priority="171" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="77" priority="171" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H63))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15098,7 +14827,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G65:H65">
-    <cfRule type="containsText" dxfId="85" priority="165" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="76" priority="165" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G65))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="166">
@@ -15113,7 +14842,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H65">
-    <cfRule type="containsText" dxfId="84" priority="163" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="75" priority="163" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H65))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15130,7 +14859,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G67:H67">
-    <cfRule type="containsText" dxfId="81" priority="157" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="74" priority="157" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G67))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="158">
@@ -15145,7 +14874,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H67">
-    <cfRule type="containsText" dxfId="80" priority="155" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="73" priority="155" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H67))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15162,7 +14891,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G69:H69">
-    <cfRule type="containsText" dxfId="79" priority="153" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="72" priority="153" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G69))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="154">
@@ -15177,7 +14906,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H69">
-    <cfRule type="containsText" dxfId="78" priority="151" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="71" priority="151" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H69))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15194,7 +14923,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G71:H71">
-    <cfRule type="containsText" dxfId="77" priority="149" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="70" priority="149" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G71))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="150">
@@ -15209,7 +14938,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="containsText" dxfId="76" priority="147" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="69" priority="147" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H71))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15226,7 +14955,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G73:H73">
-    <cfRule type="containsText" dxfId="75" priority="145" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="68" priority="145" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G73))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="146">
@@ -15241,7 +14970,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H73">
-    <cfRule type="containsText" dxfId="74" priority="143" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="67" priority="143" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H73))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15258,7 +14987,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="containsText" dxfId="62" priority="125" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="66" priority="125" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15275,7 +15004,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17:H17">
-    <cfRule type="containsText" dxfId="61" priority="123" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="65" priority="123" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G17))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="124">
@@ -15290,7 +15019,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="containsText" dxfId="60" priority="121" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="64" priority="121" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15307,7 +15036,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="containsText" dxfId="59" priority="119" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="63" priority="119" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15324,7 +15053,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:H23">
-    <cfRule type="containsText" dxfId="58" priority="117" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="62" priority="117" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="118">
@@ -15339,7 +15068,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="containsText" dxfId="57" priority="115" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="61" priority="115" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15356,7 +15085,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="56" priority="113" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="60" priority="113" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15373,7 +15102,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:H32">
-    <cfRule type="containsText" dxfId="55" priority="111" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="111" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="112">
@@ -15388,7 +15117,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="containsText" dxfId="54" priority="109" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="109" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15405,7 +15134,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="containsText" dxfId="53" priority="107" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="107" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15422,7 +15151,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:H34">
-    <cfRule type="containsText" dxfId="52" priority="105" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="105" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G34))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="106">
@@ -15437,7 +15166,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="containsText" dxfId="51" priority="103" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="103" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H34))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15454,7 +15183,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="containsText" dxfId="50" priority="101" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="101" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G34))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15471,7 +15200,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47:H47">
-    <cfRule type="containsText" dxfId="49" priority="99" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="99" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G47))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="100">
@@ -15486,7 +15215,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="containsText" dxfId="48" priority="97" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="97" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H47))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15503,7 +15232,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47">
-    <cfRule type="containsText" dxfId="47" priority="95" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="95" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G47))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15520,7 +15249,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45:H45">
-    <cfRule type="containsText" dxfId="46" priority="93" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="93" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G45))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="94">
@@ -15535,7 +15264,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="containsText" dxfId="45" priority="91" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="91" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H45))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15552,7 +15281,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45">
-    <cfRule type="containsText" dxfId="44" priority="89" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="89" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G45))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15569,7 +15298,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G68:H68">
-    <cfRule type="containsText" dxfId="43" priority="87" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="87" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G68))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="88">
@@ -15584,7 +15313,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H68">
-    <cfRule type="containsText" dxfId="42" priority="85" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="85" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H68))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15601,7 +15330,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G68">
-    <cfRule type="containsText" dxfId="41" priority="83" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="83" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G68))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15618,7 +15347,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G66:H66">
-    <cfRule type="containsText" dxfId="40" priority="81" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="81" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G66))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="82">
@@ -15633,7 +15362,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66">
-    <cfRule type="containsText" dxfId="39" priority="79" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="79" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H66))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15650,7 +15379,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G66">
-    <cfRule type="containsText" dxfId="38" priority="77" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="77" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G66))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15667,7 +15396,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G64:H64">
-    <cfRule type="containsText" dxfId="37" priority="75" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="75" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G64))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="76">
@@ -15682,7 +15411,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="containsText" dxfId="36" priority="73" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="73" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H64))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15699,7 +15428,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G64">
-    <cfRule type="containsText" dxfId="35" priority="71" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="71" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G64))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15716,7 +15445,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G62:H62">
-    <cfRule type="containsText" dxfId="34" priority="69" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="69" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G62))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="70">
@@ -15731,7 +15460,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62">
-    <cfRule type="containsText" dxfId="33" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H62))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15748,7 +15477,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G62">
-    <cfRule type="containsText" dxfId="32" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G62))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15765,7 +15494,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G60:H60">
-    <cfRule type="containsText" dxfId="31" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G60))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="64">
@@ -15780,7 +15509,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60">
-    <cfRule type="containsText" dxfId="30" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H60))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15797,7 +15526,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G60">
-    <cfRule type="containsText" dxfId="29" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G60))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15814,7 +15543,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70:H70">
-    <cfRule type="containsText" dxfId="28" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G70))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="58">
@@ -15829,7 +15558,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70">
-    <cfRule type="containsText" dxfId="27" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H70))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15846,7 +15575,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70">
-    <cfRule type="containsText" dxfId="26" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G70))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15863,7 +15592,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G74:H74">
-    <cfRule type="containsText" dxfId="25" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G74))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="52">
@@ -15878,7 +15607,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H74">
-    <cfRule type="containsText" dxfId="24" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H74))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15895,7 +15624,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G74">
-    <cfRule type="containsText" dxfId="23" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G74))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15912,7 +15641,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G72:H72">
-    <cfRule type="containsText" dxfId="22" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G72))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="46">
@@ -15927,7 +15656,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H72">
-    <cfRule type="containsText" dxfId="21" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H72))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15944,7 +15673,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G72">
-    <cfRule type="containsText" dxfId="20" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G72))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15961,7 +15690,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25:H25">
-    <cfRule type="containsText" dxfId="19" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G25))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
@@ -15976,7 +15705,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="containsText" dxfId="18" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15993,7 +15722,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="containsText" dxfId="17" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16010,7 +15739,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:H29">
-    <cfRule type="containsText" dxfId="16" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="34">
@@ -16025,7 +15754,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="15" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16042,7 +15771,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="containsText" dxfId="14" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16059,7 +15788,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:H27">
-    <cfRule type="containsText" dxfId="13" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="28">
@@ -16074,7 +15803,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="12" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16091,7 +15820,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="containsText" dxfId="11" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16108,7 +15837,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="containsText" dxfId="10" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -16123,7 +15852,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="containsText" dxfId="9" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -16138,7 +15867,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="containsText" dxfId="8" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -16153,7 +15882,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -16168,7 +15897,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -16183,7 +15912,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -16198,7 +15927,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -16213,7 +15942,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16230,7 +15959,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:H19">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G19))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -16245,7 +15974,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16262,7 +15991,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G19))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/Russia/#Russia#Russian_Federation#Commemorative#[1999-present]#circulation_quality.xlsx
+++ b/Collections/Russia/#Russia#Russian_Federation#Commemorative#[1999-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Russia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C31E0E2-5EA9-4618-8999-D2F1444D2E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC4BD02-DCCB-4B6F-A74E-9A281A461B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4160" yWindow="1450" windowWidth="28720" windowHeight="19550" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1₽ " sheetId="1" r:id="rId1"/>
@@ -1968,6 +1968,9 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2007,9 +2010,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3695,7 +3695,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3709,29 +3709,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="54" t="s">
+      <c r="A1" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="55" t="s">
         <v>341</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="57"/>
-      <c r="E1" s="56" t="s">
+      <c r="D1" s="58"/>
+      <c r="E1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="57"/>
-      <c r="G1" s="58" t="s">
+      <c r="F1" s="58"/>
+      <c r="G1" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="59"/>
+      <c r="H1" s="60"/>
       <c r="I1" s="33"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="53"/>
-      <c r="B2" s="55"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
@@ -4658,29 +4658,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="54" t="s">
+      <c r="A1" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="55" t="s">
         <v>341</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="62"/>
-      <c r="E1" s="61" t="s">
+      <c r="D1" s="63"/>
+      <c r="E1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="62"/>
-      <c r="G1" s="63" t="s">
+      <c r="F1" s="63"/>
+      <c r="G1" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="64"/>
+      <c r="H1" s="65"/>
       <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="27" t="s">
         <v>4</v>
       </c>
@@ -5810,10 +5810,10 @@
   <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A15" sqref="A3:XFD15"/>
+      <selection pane="bottomRight" activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5828,29 +5828,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="54" t="s">
+      <c r="A1" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="55" t="s">
         <v>341</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="62"/>
-      <c r="E1" s="61" t="s">
+      <c r="D1" s="63"/>
+      <c r="E1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="62"/>
-      <c r="G1" s="63" t="s">
+      <c r="F1" s="63"/>
+      <c r="G1" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="H1" s="64"/>
+      <c r="H1" s="65"/>
       <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="65"/>
-      <c r="B2" s="55"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="27" t="s">
         <v>4</v>
       </c>
@@ -7937,11 +7937,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I196"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J168" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="9" ySplit="2" topLeftCell="J144" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A196" sqref="A196:I196"/>
+      <selection pane="bottomRight" activeCell="J103" sqref="J103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7955,29 +7955,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="54" t="s">
+      <c r="A1" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="55" t="s">
         <v>341</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="62"/>
-      <c r="E1" s="61" t="s">
+      <c r="D1" s="63"/>
+      <c r="E1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="62"/>
-      <c r="G1" s="63" t="s">
+      <c r="F1" s="63"/>
+      <c r="G1" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="64"/>
+      <c r="H1" s="65"/>
       <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="43" t="s">
         <v>4</v>
       </c>
@@ -13793,11 +13793,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I190" xr:uid="{00000000-0001-0000-0300-000000000000}">
-    <filterColumn colId="2" showButton="0"/>
-    <filterColumn colId="4" showButton="0"/>
-    <filterColumn colId="6" showButton="0"/>
-  </autoFilter>
   <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -14283,8 +14278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J57" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="9" ySplit="2" topLeftCell="J30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="C75" sqref="C75"/>
@@ -14301,29 +14296,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="54" t="s">
+      <c r="A1" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="55" t="s">
         <v>341</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="61" t="s">
+      <c r="D1" s="67"/>
+      <c r="E1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="62"/>
-      <c r="G1" s="63" t="s">
+      <c r="F1" s="63"/>
+      <c r="G1" s="64" t="s">
         <v>306</v>
       </c>
-      <c r="H1" s="64"/>
+      <c r="H1" s="65"/>
       <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="27" t="s">
         <v>4</v>
       </c>
@@ -14333,7 +14328,7 @@
       <c r="E2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="67" t="s">
+      <c r="F2" s="52" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="29" t="s">
@@ -16947,7 +16942,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H34))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H34 H38">
+  <conditionalFormatting sqref="H38 H34">
     <cfRule type="colorScale" priority="328">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -16979,7 +16974,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H33))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H33 H36 H40">
+  <conditionalFormatting sqref="H36 H33 H40">
     <cfRule type="colorScale" priority="324">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17107,7 +17102,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H47))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H49 H47 H51 H53 H55:H56">
+  <conditionalFormatting sqref="H47 H49 H51 H53 H55:H56">
     <cfRule type="colorScale" priority="308">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17139,7 +17134,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H48))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H48 H50 H52 H54">
+  <conditionalFormatting sqref="H50 H48 H52 H54">
     <cfRule type="colorScale" priority="304">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17171,7 +17166,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H61))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H63 H61 H65 H67 H69">
+  <conditionalFormatting sqref="H61 H63 H65 H67 H69">
     <cfRule type="colorScale" priority="280">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17203,7 +17198,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H60))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H62 H60 H64 H66 H68 H70 H73">
+  <conditionalFormatting sqref="H60 H62 H64 H66 H68 H70 H73">
     <cfRule type="colorScale" priority="276">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/Russia/#Russia#Russian_Federation#Commemorative#[1999-present]#circulation_quality.xlsx
+++ b/Collections/Russia/#Russia#Russian_Federation#Commemorative#[1999-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Russia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC4BD02-DCCB-4B6F-A74E-9A281A461B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCD5560-D9CF-4716-B12C-8507824AD82C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4160" yWindow="1450" windowWidth="28720" windowHeight="19550" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1₽ " sheetId="1" r:id="rId1"/>
@@ -7938,10 +7938,10 @@
   <dimension ref="A1:I196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J144" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J150" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J103" sqref="J103"/>
+      <selection pane="bottomRight" activeCell="J121" sqref="J121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10765,7 +10765,7 @@
         <v>0</v>
       </c>
       <c r="H95" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" s="33" t="str">
         <f t="shared" si="4"/>
@@ -11123,7 +11123,7 @@
         <v>0</v>
       </c>
       <c r="H107" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" s="33" t="str">
         <f t="shared" si="5"/>
@@ -11419,7 +11419,7 @@
         <v>0</v>
       </c>
       <c r="H117" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" s="33" t="str">
         <f t="shared" si="2"/>
@@ -11449,7 +11449,7 @@
         <v>0</v>
       </c>
       <c r="H118" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" s="33" t="str">
         <f t="shared" si="2"/>
@@ -11479,7 +11479,7 @@
         <v>0</v>
       </c>
       <c r="H119" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" s="33" t="str">
         <f t="shared" si="2"/>
@@ -11629,7 +11629,7 @@
         <v>0</v>
       </c>
       <c r="H124" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124" s="33" t="str">
         <f t="shared" si="6"/>
@@ -13182,7 +13182,7 @@
         <v>0</v>
       </c>
       <c r="G176" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H176" s="14" t="s">
         <v>0</v>
@@ -13212,7 +13212,7 @@
         <v>0</v>
       </c>
       <c r="G177" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H177" s="14" t="s">
         <v>0</v>
@@ -13242,7 +13242,7 @@
         <v>0</v>
       </c>
       <c r="G178" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H178" s="14" t="s">
         <v>0</v>
@@ -13272,7 +13272,7 @@
         <v>0</v>
       </c>
       <c r="G179" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H179" s="14" t="s">
         <v>0</v>
@@ -14279,10 +14279,10 @@
   <dimension ref="A1:I88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C75" sqref="C75"/>
+      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -14720,7 +14720,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="33" t="str">
         <f t="shared" ref="I15:I34" si="1">IF(OR(AND(G15&gt;1,G15&lt;&gt;"-"),AND(H15&gt;1,H15&lt;&gt;"-")),"Can exchange","")</f>
@@ -14775,7 +14775,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="33" t="str">
         <f t="shared" si="1"/>
@@ -14830,7 +14830,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="33" t="str">
         <f t="shared" si="1"/>
@@ -15302,7 +15302,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" s="12" t="s">
         <v>0</v>
@@ -15342,7 +15342,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="30">
         <v>2018</v>
       </c>
@@ -15360,7 +15360,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" s="12" t="s">
         <v>0</v>
@@ -15870,7 +15870,7 @@
         <v>0</v>
       </c>
       <c r="G56" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" s="12" t="s">
         <v>0</v>
@@ -16397,7 +16397,7 @@
         <v>0</v>
       </c>
       <c r="G75" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75" s="12" t="s">
         <v>0</v>
@@ -16455,7 +16455,7 @@
         <v>0</v>
       </c>
       <c r="G77" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" s="12" t="s">
         <v>0</v>
@@ -16513,7 +16513,7 @@
         <v>0</v>
       </c>
       <c r="G79" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" s="12" t="s">
         <v>0</v>
@@ -16525,7 +16525,7 @@
     </row>
     <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="30">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B80" s="37" t="s">
         <v>337</v>
@@ -16571,7 +16571,7 @@
         <v>0</v>
       </c>
       <c r="G81" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" s="12" t="s">
         <v>0</v>
@@ -16687,7 +16687,7 @@
         <v>0</v>
       </c>
       <c r="G85" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85" s="12" t="s">
         <v>0</v>
@@ -16942,7 +16942,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H34))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H38 H34">
+  <conditionalFormatting sqref="H34 H38">
     <cfRule type="colorScale" priority="328">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -16974,7 +16974,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H33))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H36 H33 H40">
+  <conditionalFormatting sqref="H33 H36 H40">
     <cfRule type="colorScale" priority="324">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17102,7 +17102,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H47))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47 H49 H51 H53 H55:H56">
+  <conditionalFormatting sqref="H49 H47 H51 H53 H55:H56">
     <cfRule type="colorScale" priority="308">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17134,7 +17134,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H48))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H50 H48 H52 H54">
+  <conditionalFormatting sqref="H48 H50 H52 H54">
     <cfRule type="colorScale" priority="304">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17166,7 +17166,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H61))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H61 H63 H65 H67 H69">
+  <conditionalFormatting sqref="H63 H61 H65 H67 H69">
     <cfRule type="colorScale" priority="280">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17198,7 +17198,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H60))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H60 H62 H64 H66 H68 H70 H73">
+  <conditionalFormatting sqref="H62 H60 H64 H66 H68 H70 H73">
     <cfRule type="colorScale" priority="276">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/Russia/#Russia#Russian_Federation#Commemorative#[1999-present]#circulation_quality.xlsx
+++ b/Collections/Russia/#Russia#Russian_Federation#Commemorative#[1999-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Russia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCD5560-D9CF-4716-B12C-8507824AD82C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF12F08-1C3E-494E-A344-5965CB545C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1₽ " sheetId="1" r:id="rId1"/>
@@ -182,6 +182,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
+    <author>Lord_Alexator</author>
   </authors>
   <commentList>
     <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
@@ -241,6 +242,22 @@
             <charset val="204"/>
           </rPr>
           <t>Saint Petersburg Mint</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G66" authorId="1" shapeId="0" xr:uid="{EEB2FB7B-BFD9-4433-B33A-0A3D195FFA80}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">Дубли не UNC
+Дубль пока что в Краснодаре
+</t>
         </r>
       </text>
     </comment>
@@ -1821,7 +1838,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1959,9 +1976,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="3" fillId="4" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2018,7 +2032,15 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="173">
+  <dxfs count="174">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -3418,9 +3440,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -3709,29 +3731,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="55" t="s">
+      <c r="A1" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="54" t="s">
         <v>341</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="58"/>
-      <c r="E1" s="57" t="s">
+      <c r="D1" s="57"/>
+      <c r="E1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="58"/>
-      <c r="G1" s="59" t="s">
+      <c r="F1" s="57"/>
+      <c r="G1" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="60"/>
+      <c r="H1" s="59"/>
       <c r="I1" s="33"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="54"/>
-      <c r="B2" s="56"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
@@ -4460,7 +4482,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H3">
-    <cfRule type="containsText" dxfId="172" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="173" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4477,7 +4499,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="171" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="172" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4494,7 +4516,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="containsText" dxfId="170" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="171" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4511,7 +4533,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="169" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="170" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4528,7 +4550,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="168" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="169" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4545,7 +4567,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:H18">
-    <cfRule type="containsText" dxfId="167" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="168" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4562,7 +4584,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G17">
-    <cfRule type="containsText" dxfId="166" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="167" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4579,7 +4601,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H17">
-    <cfRule type="containsText" dxfId="165" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="166" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4596,7 +4618,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:G28">
-    <cfRule type="containsText" dxfId="164" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="165" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4613,7 +4635,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19:H28">
-    <cfRule type="containsText" dxfId="163" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="164" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4658,29 +4680,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="55" t="s">
+      <c r="A1" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="54" t="s">
         <v>341</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="63"/>
-      <c r="E1" s="62" t="s">
+      <c r="D1" s="62"/>
+      <c r="E1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="63"/>
-      <c r="G1" s="64" t="s">
+      <c r="F1" s="62"/>
+      <c r="G1" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="65"/>
+      <c r="H1" s="64"/>
       <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="27" t="s">
         <v>4</v>
       </c>
@@ -5725,7 +5747,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:H31">
-    <cfRule type="containsText" dxfId="162" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="163" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -5740,7 +5762,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="161" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="162" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -5755,7 +5777,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="160" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="161" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -5770,7 +5792,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:G38">
-    <cfRule type="containsText" dxfId="159" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="160" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -5785,7 +5807,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:H38">
-    <cfRule type="containsText" dxfId="158" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="159" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -5810,10 +5832,10 @@
   <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B67" sqref="B67"/>
+      <selection pane="bottomRight" activeCell="J58" sqref="J58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5828,29 +5850,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="55" t="s">
+      <c r="A1" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="54" t="s">
         <v>341</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="63"/>
-      <c r="E1" s="62" t="s">
+      <c r="D1" s="62"/>
+      <c r="E1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="63"/>
-      <c r="G1" s="64" t="s">
+      <c r="F1" s="62"/>
+      <c r="G1" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="H1" s="65"/>
+      <c r="H1" s="64"/>
       <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="66"/>
-      <c r="B2" s="56"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="27" t="s">
         <v>4</v>
       </c>
@@ -7565,7 +7587,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" s="32" t="s">
         <v>0</v>
@@ -7668,15 +7690,15 @@
       <c r="F66" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G66" s="49">
-        <v>1</v>
+      <c r="G66" s="50">
+        <v>2</v>
       </c>
       <c r="H66" s="6" t="s">
         <v>0</v>
       </c>
       <c r="I66" s="33" t="str">
         <f t="shared" ref="I66:I67" si="4">IF(OR(AND(G66&gt;1,G66&lt;&gt;"-"),AND(H66&gt;1,H66&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7838,8 +7860,23 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G16:H65 G3:H8">
+    <cfRule type="containsText" dxfId="158" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H66">
     <cfRule type="containsText" dxfId="157" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H66))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
       <colorScale>
@@ -7852,9 +7889,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G66:H66">
+  <conditionalFormatting sqref="G9:G15">
     <cfRule type="containsText" dxfId="156" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G66))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
       <colorScale>
@@ -7867,9 +7904,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9:G15">
+  <conditionalFormatting sqref="H9:H15">
     <cfRule type="containsText" dxfId="155" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
       <colorScale>
@@ -7882,11 +7919,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9:H15">
-    <cfRule type="containsText" dxfId="154" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="10">
+  <conditionalFormatting sqref="G67:G71">
+    <cfRule type="containsText" dxfId="154" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G67))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -7897,9 +7934,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G67:G71">
+  <conditionalFormatting sqref="H67:H71">
     <cfRule type="containsText" dxfId="153" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G67))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H67))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -7912,10 +7949,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H67:H71">
-    <cfRule type="containsText" dxfId="152" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H67))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="G66">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G66))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G66">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7937,11 +7976,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I196"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J150" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="9" ySplit="2" topLeftCell="J160" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J121" sqref="J121"/>
+      <selection pane="bottomRight" activeCell="B214" sqref="B214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7955,29 +7994,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="55" t="s">
+      <c r="A1" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="54" t="s">
         <v>341</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="63"/>
-      <c r="E1" s="62" t="s">
+      <c r="D1" s="62"/>
+      <c r="E1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="63"/>
-      <c r="G1" s="64" t="s">
+      <c r="F1" s="62"/>
+      <c r="G1" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="65"/>
+      <c r="H1" s="64"/>
       <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="43" t="s">
         <v>4</v>
       </c>
@@ -8104,7 +8143,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="14" t="s">
         <v>0</v>
@@ -8227,7 +8266,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="33" t="str">
         <f t="shared" si="1"/>
@@ -8257,7 +8296,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="33" t="str">
         <f t="shared" si="1"/>
@@ -8312,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="14" t="s">
         <v>0</v>
@@ -8345,7 +8384,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="33" t="str">
         <f t="shared" si="1"/>
@@ -8432,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="14" t="s">
         <v>0</v>
@@ -8465,7 +8504,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="33" t="str">
         <f t="shared" si="1"/>
@@ -8495,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="33" t="str">
         <f t="shared" si="1"/>
@@ -9479,8 +9518,8 @@
       <c r="F52" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="G52" s="11">
-        <v>0</v>
+      <c r="G52" s="13">
+        <v>1</v>
       </c>
       <c r="H52" s="11">
         <v>0</v>
@@ -9543,7 +9582,7 @@
         <v>1</v>
       </c>
       <c r="H54" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" s="33" t="str">
         <f t="shared" si="2"/>
@@ -9569,8 +9608,8 @@
       <c r="F55" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="G55" s="11">
-        <v>0</v>
+      <c r="G55" s="13">
+        <v>1</v>
       </c>
       <c r="H55" s="11">
         <v>1</v>
@@ -9603,7 +9642,7 @@
         <v>1</v>
       </c>
       <c r="H56" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" s="33" t="str">
         <f t="shared" si="2"/>
@@ -9633,7 +9672,7 @@
         <v>1</v>
       </c>
       <c r="H57" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" s="33" t="str">
         <f t="shared" si="2"/>
@@ -9723,7 +9762,7 @@
         <v>1</v>
       </c>
       <c r="H60" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" s="33" t="str">
         <f t="shared" si="2"/>
@@ -9783,7 +9822,7 @@
         <v>1</v>
       </c>
       <c r="H62" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" s="33" t="str">
         <f t="shared" si="2"/>
@@ -9870,10 +9909,10 @@
         <v>10</v>
       </c>
       <c r="G65" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" s="33" t="str">
         <f t="shared" si="2"/>
@@ -10109,7 +10148,7 @@
         <v>0</v>
       </c>
       <c r="H73" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" s="33" t="str">
         <f t="shared" si="2"/>
@@ -11182,7 +11221,7 @@
       <c r="G109" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H109" s="51">
+      <c r="H109" s="50">
         <v>2</v>
       </c>
       <c r="I109" s="33" t="str">
@@ -12912,7 +12951,7 @@
         <v>0</v>
       </c>
       <c r="G167" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H167" s="14" t="s">
         <v>0</v>
@@ -13062,7 +13101,7 @@
         <v>0</v>
       </c>
       <c r="G172" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H172" s="14" t="s">
         <v>0</v>
@@ -13092,7 +13131,7 @@
         <v>0</v>
       </c>
       <c r="G173" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H173" s="14" t="s">
         <v>0</v>
@@ -13122,7 +13161,7 @@
         <v>0</v>
       </c>
       <c r="G174" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H174" s="14" t="s">
         <v>0</v>
@@ -13152,7 +13191,7 @@
         <v>0</v>
       </c>
       <c r="G175" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H175" s="14" t="s">
         <v>0</v>
@@ -13362,7 +13401,7 @@
         <v>0</v>
       </c>
       <c r="G182" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H182" s="14" t="s">
         <v>0</v>
@@ -13392,7 +13431,7 @@
         <v>0</v>
       </c>
       <c r="G183" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H183" s="14" t="s">
         <v>0</v>
@@ -13452,7 +13491,7 @@
         <v>0</v>
       </c>
       <c r="G185" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H185" s="14" t="s">
         <v>0</v>
@@ -13482,7 +13521,7 @@
         <v>0</v>
       </c>
       <c r="G186" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H186" s="14" t="s">
         <v>0</v>
@@ -13512,7 +13551,7 @@
         <v>0</v>
       </c>
       <c r="G187" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H187" s="14" t="s">
         <v>0</v>
@@ -13542,7 +13581,7 @@
         <v>0</v>
       </c>
       <c r="G188" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H188" s="14" t="s">
         <v>0</v>
@@ -13572,7 +13611,7 @@
         <v>0</v>
       </c>
       <c r="G189" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H189" s="14" t="s">
         <v>0</v>
@@ -13692,7 +13731,7 @@
         <v>0</v>
       </c>
       <c r="G193" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H193" s="14" t="s">
         <v>0</v>
@@ -13722,7 +13761,7 @@
         <v>0</v>
       </c>
       <c r="G194" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H194" s="14" t="s">
         <v>0</v>
@@ -13752,7 +13791,7 @@
         <v>0</v>
       </c>
       <c r="G195" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H195" s="14" t="s">
         <v>0</v>
@@ -13782,7 +13821,7 @@
         <v>0</v>
       </c>
       <c r="G196" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H196" s="14" t="s">
         <v>0</v>
@@ -13802,7 +13841,7 @@
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="G110:H166 G109 G4:H108">
-    <cfRule type="containsText" dxfId="151" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="152" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="66">
@@ -13817,7 +13856,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G167:H167">
-    <cfRule type="containsText" dxfId="150" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="151" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G167))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="64">
@@ -13832,7 +13871,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G168:H168">
-    <cfRule type="containsText" dxfId="149" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="150" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G168))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="62">
@@ -13847,7 +13886,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G169:H169">
-    <cfRule type="containsText" dxfId="148" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="149" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G169))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="60">
@@ -13862,7 +13901,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G170:H170">
-    <cfRule type="containsText" dxfId="147" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="148" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G170))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="58">
@@ -13877,7 +13916,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G171:H171">
-    <cfRule type="containsText" dxfId="146" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="147" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G171))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="56">
@@ -13892,7 +13931,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G172:H172">
-    <cfRule type="containsText" dxfId="145" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="146" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G172))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="54">
@@ -13907,7 +13946,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G173:H173">
-    <cfRule type="containsText" dxfId="144" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="145" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G173))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="52">
@@ -13922,7 +13961,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G174:H174">
-    <cfRule type="containsText" dxfId="143" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="144" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G174))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="50">
@@ -13937,7 +13976,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G175:H175">
-    <cfRule type="containsText" dxfId="142" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="143" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G175))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="48">
@@ -13952,7 +13991,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G176:H176">
-    <cfRule type="containsText" dxfId="141" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="142" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G176))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="46">
@@ -13967,7 +14006,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G177:H177">
-    <cfRule type="containsText" dxfId="140" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="141" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G177))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
@@ -13982,7 +14021,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G178:H178">
-    <cfRule type="containsText" dxfId="139" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="140" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G178))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="42">
@@ -13997,7 +14036,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G179:H179">
-    <cfRule type="containsText" dxfId="138" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="139" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G179))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
@@ -14012,7 +14051,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G180:H180">
-    <cfRule type="containsText" dxfId="137" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="138" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G180))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="38">
@@ -14027,7 +14066,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G181:H181">
-    <cfRule type="containsText" dxfId="136" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="137" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G181))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="34">
@@ -14042,7 +14081,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G182:H182">
-    <cfRule type="containsText" dxfId="135" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="136" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G182))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="32">
@@ -14057,7 +14096,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G183:H183">
-    <cfRule type="containsText" dxfId="134" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="135" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G183))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -14072,7 +14111,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G185:H185">
-    <cfRule type="containsText" dxfId="133" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="134" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G185))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="26">
@@ -14087,7 +14126,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G186:H186">
-    <cfRule type="containsText" dxfId="132" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="133" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G186))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
@@ -14102,7 +14141,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G187:H187">
-    <cfRule type="containsText" dxfId="131" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="132" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G187))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -14117,7 +14156,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G184:H184">
-    <cfRule type="containsText" dxfId="130" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="131" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G184))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -14132,7 +14171,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G188:H188">
-    <cfRule type="containsText" dxfId="129" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="130" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G188))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -14147,7 +14186,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G189:H189">
-    <cfRule type="containsText" dxfId="128" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="129" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G189))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -14162,7 +14201,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G190:H190">
-    <cfRule type="containsText" dxfId="127" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="128" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G190))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -14177,7 +14216,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H109">
-    <cfRule type="containsText" dxfId="126" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="127" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H109))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14194,7 +14233,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H3">
-    <cfRule type="containsText" dxfId="125" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="126" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -14209,7 +14248,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G191">
-    <cfRule type="containsText" dxfId="124" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="125" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G191))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -14224,7 +14263,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H191">
-    <cfRule type="containsText" dxfId="123" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="124" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H191))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -14239,7 +14278,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G192:H192 G194:H194 G196:H196">
-    <cfRule type="containsText" dxfId="122" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="123" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G192))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -14254,7 +14293,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G193:H193 G195:H195">
-    <cfRule type="containsText" dxfId="121" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="122" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G193))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -14278,11 +14317,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J12" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="9" ySplit="2" topLeftCell="J42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
+      <selection pane="bottomRight" activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -14296,29 +14335,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="55" t="s">
+      <c r="A1" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="54" t="s">
         <v>341</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="67"/>
-      <c r="E1" s="62" t="s">
+      <c r="D1" s="66"/>
+      <c r="E1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="63"/>
-      <c r="G1" s="64" t="s">
+      <c r="F1" s="62"/>
+      <c r="G1" s="63" t="s">
         <v>306</v>
       </c>
-      <c r="H1" s="65"/>
+      <c r="H1" s="64"/>
       <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="27" t="s">
         <v>4</v>
       </c>
@@ -14328,7 +14367,7 @@
       <c r="E2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="51" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="29" t="s">
@@ -14743,7 +14782,7 @@
       <c r="E16" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="50" t="s">
+      <c r="F16" s="49" t="s">
         <v>332</v>
       </c>
       <c r="G16" s="12" t="s">
@@ -14798,7 +14837,7 @@
       <c r="E18" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="F18" s="50" t="s">
+      <c r="F18" s="49" t="s">
         <v>332</v>
       </c>
       <c r="G18" s="12" t="s">
@@ -14881,7 +14920,7 @@
       <c r="E21" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="F21" s="50" t="s">
+      <c r="F21" s="49" t="s">
         <v>332</v>
       </c>
       <c r="G21" s="12" t="s">
@@ -14992,7 +15031,7 @@
       <c r="E25" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="F25" s="50" t="s">
+      <c r="F25" s="49" t="s">
         <v>332</v>
       </c>
       <c r="G25" s="12" t="s">
@@ -15047,7 +15086,7 @@
       <c r="D27" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E27" s="50" t="s">
+      <c r="E27" s="49" t="s">
         <v>273</v>
       </c>
       <c r="F27" s="40" t="s">
@@ -15105,7 +15144,7 @@
       <c r="D29" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E29" s="50" t="s">
+      <c r="E29" s="49" t="s">
         <v>273</v>
       </c>
       <c r="F29" s="40" t="s">
@@ -15131,7 +15170,7 @@
       </c>
       <c r="C30" s="38"/>
       <c r="D30" s="38"/>
-      <c r="E30" s="50" t="s">
+      <c r="E30" s="49" t="s">
         <v>273</v>
       </c>
       <c r="F30" s="40" t="s">
@@ -15157,7 +15196,7 @@
       </c>
       <c r="C31" s="38"/>
       <c r="D31" s="38"/>
-      <c r="E31" s="50" t="s">
+      <c r="E31" s="49" t="s">
         <v>275</v>
       </c>
       <c r="F31" s="40" t="s">
@@ -15267,7 +15306,7 @@
       <c r="D35" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E35" s="50" t="s">
+      <c r="E35" s="49" t="s">
         <v>273</v>
       </c>
       <c r="F35" s="40" t="s">
@@ -15325,7 +15364,7 @@
       <c r="D37" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E37" s="50" t="s">
+      <c r="E37" s="49" t="s">
         <v>332</v>
       </c>
       <c r="F37" s="40" t="s">
@@ -15383,7 +15422,7 @@
       <c r="D39" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E39" s="50" t="s">
+      <c r="E39" s="49" t="s">
         <v>332</v>
       </c>
       <c r="F39" s="40" t="s">
@@ -15441,7 +15480,7 @@
       <c r="D41" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E41" s="50" t="s">
+      <c r="E41" s="49" t="s">
         <v>332</v>
       </c>
       <c r="F41" s="40" t="s">
@@ -15525,7 +15564,7 @@
       <c r="D44" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E44" s="50" t="s">
+      <c r="E44" s="49" t="s">
         <v>273</v>
       </c>
       <c r="F44" s="40" t="s">
@@ -15583,7 +15622,7 @@
       <c r="D46" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E46" s="50" t="s">
+      <c r="E46" s="49" t="s">
         <v>273</v>
       </c>
       <c r="F46" s="40" t="s">
@@ -15893,7 +15932,7 @@
       <c r="D57" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E57" s="50" t="s">
+      <c r="E57" s="49" t="s">
         <v>275</v>
       </c>
       <c r="F57" s="40" t="s">
@@ -15951,7 +15990,7 @@
       <c r="D59" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E59" s="50" t="s">
+      <c r="E59" s="49" t="s">
         <v>275</v>
       </c>
       <c r="F59" s="40" t="s">
@@ -15986,7 +16025,7 @@
         <v>0</v>
       </c>
       <c r="G60" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" s="12" t="s">
         <v>0</v>
@@ -16014,7 +16053,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" s="12" t="s">
         <v>0</v>
@@ -16042,7 +16081,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" s="12" t="s">
         <v>0</v>
@@ -16070,7 +16109,7 @@
         <v>0</v>
       </c>
       <c r="G63" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" s="12" t="s">
         <v>0</v>
@@ -16098,7 +16137,7 @@
         <v>0</v>
       </c>
       <c r="G64" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" s="12" t="s">
         <v>0</v>
@@ -16126,7 +16165,7 @@
         <v>0</v>
       </c>
       <c r="G65" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" s="12" t="s">
         <v>0</v>
@@ -16154,7 +16193,7 @@
         <v>0</v>
       </c>
       <c r="G66" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" s="12" t="s">
         <v>0</v>
@@ -16182,7 +16221,7 @@
         <v>0</v>
       </c>
       <c r="G67" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" s="12" t="s">
         <v>0</v>
@@ -16210,7 +16249,7 @@
         <v>0</v>
       </c>
       <c r="G68" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" s="12" t="s">
         <v>0</v>
@@ -16238,7 +16277,7 @@
         <v>0</v>
       </c>
       <c r="G69" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" s="12" t="s">
         <v>0</v>
@@ -16311,7 +16350,7 @@
       <c r="D72" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E72" s="50" t="s">
+      <c r="E72" s="49" t="s">
         <v>275</v>
       </c>
       <c r="F72" s="40" t="s">
@@ -16341,7 +16380,7 @@
         <v>0</v>
       </c>
       <c r="G73" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" s="12" t="s">
         <v>0</v>
@@ -16362,7 +16401,7 @@
       <c r="D74" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E74" s="50" t="s">
+      <c r="E74" s="49" t="s">
         <v>275</v>
       </c>
       <c r="F74" s="40" t="s">
@@ -16420,7 +16459,7 @@
       <c r="D76" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E76" s="50" t="s">
+      <c r="E76" s="49" t="s">
         <v>275</v>
       </c>
       <c r="F76" s="40" t="s">
@@ -16478,7 +16517,7 @@
       <c r="D78" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E78" s="50" t="s">
+      <c r="E78" s="49" t="s">
         <v>275</v>
       </c>
       <c r="F78" s="40" t="s">
@@ -16536,7 +16575,7 @@
       <c r="D80" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E80" s="50" t="s">
+      <c r="E80" s="49" t="s">
         <v>275</v>
       </c>
       <c r="F80" s="40" t="s">
@@ -16594,7 +16633,7 @@
       <c r="D82" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E82" s="50" t="s">
+      <c r="E82" s="49" t="s">
         <v>275</v>
       </c>
       <c r="F82" s="40" t="s">
@@ -16652,7 +16691,7 @@
       <c r="D84" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E84" s="50" t="s">
+      <c r="E84" s="49" t="s">
         <v>275</v>
       </c>
       <c r="F84" s="40" t="s">
@@ -16710,7 +16749,7 @@
       <c r="D86" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E86" s="50" t="s">
+      <c r="E86" s="49" t="s">
         <v>275</v>
       </c>
       <c r="F86" s="40" t="s">
@@ -16768,7 +16807,7 @@
       <c r="D88" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E88" s="50" t="s">
+      <c r="E88" s="49" t="s">
         <v>275</v>
       </c>
       <c r="F88" s="40" t="s">
@@ -16795,7 +16834,7 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="G15:H15 G17:H17 G26:H26 G19:H20 G22:H24">
-    <cfRule type="containsText" dxfId="120" priority="366" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="121" priority="366" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="367">
@@ -16810,7 +16849,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="119" priority="347" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="120" priority="347" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16827,7 +16866,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:H28">
-    <cfRule type="containsText" dxfId="118" priority="345" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="119" priority="345" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G28))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="346">
@@ -16842,7 +16881,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="117" priority="343" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="118" priority="343" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16859,7 +16898,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:H30">
-    <cfRule type="containsText" dxfId="116" priority="341" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="117" priority="341" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G30))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="342">
@@ -16874,7 +16913,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="containsText" dxfId="115" priority="339" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="116" priority="339" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16891,7 +16930,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:H32">
-    <cfRule type="containsText" dxfId="114" priority="333" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="115" priority="333" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="334">
@@ -16906,7 +16945,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="containsText" dxfId="113" priority="331" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="114" priority="331" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16923,7 +16962,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:H34 G38:H38">
-    <cfRule type="containsText" dxfId="112" priority="329" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="113" priority="329" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G34))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="330">
@@ -16938,11 +16977,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34 H38">
-    <cfRule type="containsText" dxfId="111" priority="327" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="112" priority="327" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H34))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H34 H38">
+  <conditionalFormatting sqref="H38 H34">
     <cfRule type="colorScale" priority="328">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -16955,7 +16994,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33:H33 G36:H36 G40:H40">
-    <cfRule type="containsText" dxfId="110" priority="325" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="111" priority="325" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G33))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="326">
@@ -16970,11 +17009,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33 H36 H40">
-    <cfRule type="containsText" dxfId="109" priority="323" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="110" priority="323" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H33))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H33 H36 H40">
+  <conditionalFormatting sqref="H36 H33 H40">
     <cfRule type="colorScale" priority="324">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -16987,7 +17026,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42:H42">
-    <cfRule type="containsText" dxfId="108" priority="321" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="109" priority="321" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G42))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="322">
@@ -17002,7 +17041,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="containsText" dxfId="107" priority="319" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="108" priority="319" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H42))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17019,7 +17058,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43:H43">
-    <cfRule type="containsText" dxfId="106" priority="317" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="107" priority="317" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G43))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="318">
@@ -17034,7 +17073,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="containsText" dxfId="105" priority="315" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="106" priority="315" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H43))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17051,7 +17090,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45:H45">
-    <cfRule type="containsText" dxfId="104" priority="313" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="105" priority="313" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G45))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="314">
@@ -17066,7 +17105,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="containsText" dxfId="103" priority="311" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="104" priority="311" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H45))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17083,7 +17122,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47:H47 G49:H49 G51:H51 G53:H53 G55:H56 G54">
-    <cfRule type="containsText" dxfId="102" priority="309" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="103" priority="309" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G47))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="310">
@@ -17098,11 +17137,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47 H49 H51 H53 H55:H56">
-    <cfRule type="containsText" dxfId="101" priority="307" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="102" priority="307" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H47))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H49 H47 H51 H53 H55:H56">
+  <conditionalFormatting sqref="H47 H49 H51 H53 H55:H56">
     <cfRule type="colorScale" priority="308">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17115,7 +17154,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G48:H48 G50:H50 G52:H52 H54">
-    <cfRule type="containsText" dxfId="100" priority="305" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="101" priority="305" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G48))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="306">
@@ -17130,11 +17169,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48 H50 H52 H54">
-    <cfRule type="containsText" dxfId="99" priority="303" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="100" priority="303" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H48))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H48 H50 H52 H54">
+  <conditionalFormatting sqref="H50 H48 H52 H54">
     <cfRule type="colorScale" priority="304">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17147,7 +17186,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G61:H61 G63:H63 G65:H65 G67:H67 G69:H69">
-    <cfRule type="containsText" dxfId="98" priority="281" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="99" priority="281" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G61))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="282">
@@ -17162,11 +17201,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61 H63 H65 H67 H69">
-    <cfRule type="containsText" dxfId="97" priority="279" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="98" priority="279" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H61))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H63 H61 H65 H67 H69">
+  <conditionalFormatting sqref="H61 H63 H65 H67 H69">
     <cfRule type="colorScale" priority="280">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17179,7 +17218,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G60:H60 G62:H62 G64:H64 G66:H66 G68:H68 G70:H70 G73:H73">
-    <cfRule type="containsText" dxfId="96" priority="277" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="97" priority="277" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G60))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="278">
@@ -17194,11 +17233,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60 H62 H64 H66 H68 H70 H73">
-    <cfRule type="containsText" dxfId="95" priority="275" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="96" priority="275" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H60))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H62 H60 H64 H66 H68 H70 H73">
+  <conditionalFormatting sqref="H60 H62 H64 H66 H68 H70 H73">
     <cfRule type="colorScale" priority="276">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17211,7 +17250,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G58:H58">
-    <cfRule type="containsText" dxfId="94" priority="273" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="95" priority="273" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G58))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="274">
@@ -17226,7 +17265,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="containsText" dxfId="93" priority="271" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="94" priority="271" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H58))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17243,7 +17282,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G71:H71">
-    <cfRule type="containsText" dxfId="92" priority="269" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="93" priority="269" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G71))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="270">
@@ -17258,7 +17297,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="containsText" dxfId="91" priority="267" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="92" priority="267" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H71))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17275,7 +17314,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="containsText" dxfId="90" priority="253" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="91" priority="253" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="254">
@@ -17290,7 +17329,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="containsText" dxfId="89" priority="251" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="90" priority="251" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="252">
@@ -17305,7 +17344,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="containsText" dxfId="88" priority="249" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="89" priority="249" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G25))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="250">
@@ -17320,7 +17359,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:H27">
-    <cfRule type="containsText" dxfId="87" priority="241" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="88" priority="241" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="242">
@@ -17335,7 +17374,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="86" priority="239" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="87" priority="239" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17352,7 +17391,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G75:H75">
-    <cfRule type="containsText" dxfId="85" priority="189" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="86" priority="189" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G75))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="190">
@@ -17367,7 +17406,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H75">
-    <cfRule type="containsText" dxfId="84" priority="187" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="85" priority="187" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H75))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17384,7 +17423,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G77:H77">
-    <cfRule type="containsText" dxfId="83" priority="181" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="84" priority="181" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G77))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="182">
@@ -17399,7 +17438,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H77">
-    <cfRule type="containsText" dxfId="82" priority="179" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="83" priority="179" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H77))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17416,7 +17455,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G79:H79">
-    <cfRule type="containsText" dxfId="81" priority="173" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="82" priority="173" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G79))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="174">
@@ -17431,7 +17470,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H79">
-    <cfRule type="containsText" dxfId="80" priority="171" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="81" priority="171" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H79))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17448,7 +17487,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G81:H81">
-    <cfRule type="containsText" dxfId="79" priority="169" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="80" priority="169" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G81))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="170">
@@ -17463,7 +17502,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H81">
-    <cfRule type="containsText" dxfId="78" priority="167" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="79" priority="167" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H81))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17480,7 +17519,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G83:H83">
-    <cfRule type="containsText" dxfId="77" priority="165" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="78" priority="165" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G83))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="166">
@@ -17495,7 +17534,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H83">
-    <cfRule type="containsText" dxfId="76" priority="163" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="77" priority="163" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H83))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17512,7 +17551,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G85:H85">
-    <cfRule type="containsText" dxfId="75" priority="161" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="76" priority="161" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G85))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="162">
@@ -17527,7 +17566,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H85">
-    <cfRule type="containsText" dxfId="74" priority="159" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="75" priority="159" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H85))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17544,7 +17583,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="containsText" dxfId="73" priority="141" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="74" priority="141" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17561,7 +17600,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:H29">
-    <cfRule type="containsText" dxfId="72" priority="139" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="73" priority="139" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="140">
@@ -17576,7 +17615,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="71" priority="137" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="72" priority="137" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17593,7 +17632,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="containsText" dxfId="70" priority="135" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="71" priority="135" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17610,7 +17649,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35:H35">
-    <cfRule type="containsText" dxfId="69" priority="133" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="70" priority="133" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G35))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="134">
@@ -17625,7 +17664,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="containsText" dxfId="68" priority="131" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="69" priority="131" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17642,7 +17681,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="containsText" dxfId="67" priority="129" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="68" priority="129" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17659,7 +17698,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44:H44">
-    <cfRule type="containsText" dxfId="66" priority="127" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="67" priority="127" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G44))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="128">
@@ -17674,7 +17713,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="containsText" dxfId="65" priority="125" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="66" priority="125" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H44))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17691,7 +17730,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="containsText" dxfId="64" priority="123" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="65" priority="123" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G44))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17708,7 +17747,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46:H46">
-    <cfRule type="containsText" dxfId="63" priority="121" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="64" priority="121" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G46))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="122">
@@ -17723,7 +17762,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="containsText" dxfId="62" priority="119" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="63" priority="119" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H46))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17740,7 +17779,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46">
-    <cfRule type="containsText" dxfId="61" priority="117" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="62" priority="117" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G46))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17757,7 +17796,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G59:H59">
-    <cfRule type="containsText" dxfId="60" priority="115" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="61" priority="115" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G59))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="116">
@@ -17772,7 +17811,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="containsText" dxfId="59" priority="113" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="60" priority="113" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H59))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17789,7 +17828,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G59">
-    <cfRule type="containsText" dxfId="58" priority="111" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="111" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G59))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17806,7 +17845,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G57:H57">
-    <cfRule type="containsText" dxfId="57" priority="109" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="109" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G57))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="110">
@@ -17821,7 +17860,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57">
-    <cfRule type="containsText" dxfId="56" priority="107" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="107" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H57))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17838,7 +17877,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G57">
-    <cfRule type="containsText" dxfId="55" priority="105" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="105" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G57))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17855,7 +17894,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G80:H80">
-    <cfRule type="containsText" dxfId="54" priority="103" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="103" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G80))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="104">
@@ -17870,7 +17909,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H80">
-    <cfRule type="containsText" dxfId="53" priority="101" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="101" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H80))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17887,7 +17926,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G80">
-    <cfRule type="containsText" dxfId="52" priority="99" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="99" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G80))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17904,7 +17943,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G78:H78">
-    <cfRule type="containsText" dxfId="51" priority="97" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="97" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G78))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="98">
@@ -17919,7 +17958,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H78">
-    <cfRule type="containsText" dxfId="50" priority="95" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="95" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H78))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17936,7 +17975,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G78">
-    <cfRule type="containsText" dxfId="49" priority="93" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="93" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G78))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17953,7 +17992,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G76:H76">
-    <cfRule type="containsText" dxfId="48" priority="91" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="91" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G76))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="92">
@@ -17968,7 +18007,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H76">
-    <cfRule type="containsText" dxfId="47" priority="89" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="89" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H76))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17985,7 +18024,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G76">
-    <cfRule type="containsText" dxfId="46" priority="87" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="87" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G76))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18002,7 +18041,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G74:H74">
-    <cfRule type="containsText" dxfId="45" priority="85" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="85" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G74))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="86">
@@ -18017,7 +18056,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H74">
-    <cfRule type="containsText" dxfId="44" priority="83" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="83" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H74))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18034,7 +18073,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G74">
-    <cfRule type="containsText" dxfId="43" priority="81" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="81" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G74))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18051,7 +18090,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G72:H72">
-    <cfRule type="containsText" dxfId="42" priority="79" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="79" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G72))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="80">
@@ -18066,7 +18105,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H72">
-    <cfRule type="containsText" dxfId="41" priority="77" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="77" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H72))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18083,7 +18122,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G72">
-    <cfRule type="containsText" dxfId="40" priority="75" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="75" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G72))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18100,7 +18139,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G82:H82">
-    <cfRule type="containsText" dxfId="39" priority="73" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="73" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G82))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="74">
@@ -18115,7 +18154,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H82">
-    <cfRule type="containsText" dxfId="38" priority="71" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="71" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H82))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18132,7 +18171,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G82">
-    <cfRule type="containsText" dxfId="37" priority="69" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="69" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G82))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18149,7 +18188,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G86:H86">
-    <cfRule type="containsText" dxfId="36" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G86))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="68">
@@ -18164,7 +18203,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H86">
-    <cfRule type="containsText" dxfId="35" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H86))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18181,7 +18220,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G86">
-    <cfRule type="containsText" dxfId="34" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G86))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18198,7 +18237,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G84:H84">
-    <cfRule type="containsText" dxfId="33" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G84))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="62">
@@ -18213,7 +18252,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H84">
-    <cfRule type="containsText" dxfId="32" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H84))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18230,7 +18269,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G84">
-    <cfRule type="containsText" dxfId="31" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G84))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18247,7 +18286,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G37:H37">
-    <cfRule type="containsText" dxfId="30" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G37))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="56">
@@ -18262,7 +18301,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="containsText" dxfId="29" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H37))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18279,7 +18318,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G37">
-    <cfRule type="containsText" dxfId="28" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G37))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18296,7 +18335,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41:H41">
-    <cfRule type="containsText" dxfId="27" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G41))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="50">
@@ -18311,7 +18350,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="containsText" dxfId="26" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H41))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18328,7 +18367,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="containsText" dxfId="25" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G41))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18345,7 +18384,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G39:H39">
-    <cfRule type="containsText" dxfId="24" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G39))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
@@ -18360,7 +18399,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="containsText" dxfId="23" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H39))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18377,7 +18416,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G39">
-    <cfRule type="containsText" dxfId="22" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G39))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18394,7 +18433,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="containsText" dxfId="21" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H25))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="38">
@@ -18409,7 +18448,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="containsText" dxfId="20" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="36">
@@ -18424,7 +18463,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="containsText" dxfId="19" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="34">
@@ -18439,7 +18478,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="containsText" dxfId="18" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G18))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="32">
@@ -18454,7 +18493,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="containsText" dxfId="17" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -18469,7 +18508,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="containsText" dxfId="16" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="28">
@@ -18484,7 +18523,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="15" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="26">
@@ -18499,7 +18538,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="containsText" dxfId="14" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18516,7 +18555,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:H31">
-    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G31))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -18531,7 +18570,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H31))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18548,7 +18587,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G31))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18565,7 +18604,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H8">
-    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -18580,7 +18619,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:G14">
-    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -18595,7 +18634,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H14">
-    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -18610,7 +18649,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G87:H87">
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G87))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -18625,7 +18664,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H87">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H87))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18642,7 +18681,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G88:H88">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G88))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -18657,7 +18696,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H88">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H88))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18674,7 +18713,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G88">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G88))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/Russia/#Russia#Russian_Federation#Commemorative#[1999-present]#circulation_quality.xlsx
+++ b/Collections/Russia/#Russia#Russian_Federation#Commemorative#[1999-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Russia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF12F08-1C3E-494E-A344-5965CB545C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A471D112-6B10-4A6B-9C7A-E4C21C8D7FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1₽ " sheetId="1" r:id="rId1"/>
@@ -2034,14 +2034,6 @@
   </cellStyles>
   <dxfs count="174">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2049,6 +2041,14 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -3440,9 +3440,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -7950,7 +7950,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G66">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="152" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G66))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7976,11 +7976,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I196"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J160" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="9" ySplit="2" topLeftCell="J157" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B214" sqref="B214"/>
+      <selection pane="bottomRight" activeCell="L196" sqref="L196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -13731,14 +13731,14 @@
         <v>0</v>
       </c>
       <c r="G193" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H193" s="14" t="s">
         <v>0</v>
       </c>
       <c r="I193" s="33" t="str">
         <f t="shared" ref="I193:I194" si="17">IF(OR(AND(G193&gt;1,G193&lt;&gt;"-"),AND(H193&gt;1,H193&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -13761,14 +13761,14 @@
         <v>0</v>
       </c>
       <c r="G194" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H194" s="14" t="s">
         <v>0</v>
       </c>
       <c r="I194" s="33" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="195" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -13791,14 +13791,14 @@
         <v>0</v>
       </c>
       <c r="G195" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H195" s="14" t="s">
         <v>0</v>
       </c>
       <c r="I195" s="33" t="str">
         <f t="shared" ref="I195:I196" si="18">IF(OR(AND(G195&gt;1,G195&lt;&gt;"-"),AND(H195&gt;1,H195&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="196" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -13821,14 +13821,14 @@
         <v>0</v>
       </c>
       <c r="G196" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H196" s="14" t="s">
         <v>0</v>
       </c>
       <c r="I196" s="33" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
   </sheetData>
@@ -13841,7 +13841,7 @@
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="G110:H166 G109 G4:H108">
-    <cfRule type="containsText" dxfId="152" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="151" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="66">
@@ -13856,7 +13856,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G167:H167">
-    <cfRule type="containsText" dxfId="151" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="150" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G167))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="64">
@@ -13871,7 +13871,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G168:H168">
-    <cfRule type="containsText" dxfId="150" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="149" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G168))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="62">
@@ -13886,7 +13886,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G169:H169">
-    <cfRule type="containsText" dxfId="149" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="148" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G169))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="60">
@@ -13901,7 +13901,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G170:H170">
-    <cfRule type="containsText" dxfId="148" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="147" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G170))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="58">
@@ -13916,7 +13916,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G171:H171">
-    <cfRule type="containsText" dxfId="147" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="146" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G171))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="56">
@@ -13931,7 +13931,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G172:H172">
-    <cfRule type="containsText" dxfId="146" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="145" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G172))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="54">
@@ -13946,7 +13946,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G173:H173">
-    <cfRule type="containsText" dxfId="145" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="144" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G173))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="52">
@@ -13961,7 +13961,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G174:H174">
-    <cfRule type="containsText" dxfId="144" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="143" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G174))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="50">
@@ -13976,7 +13976,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G175:H175">
-    <cfRule type="containsText" dxfId="143" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="142" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G175))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="48">
@@ -13991,7 +13991,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G176:H176">
-    <cfRule type="containsText" dxfId="142" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="141" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G176))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="46">
@@ -14006,7 +14006,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G177:H177">
-    <cfRule type="containsText" dxfId="141" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="140" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G177))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
@@ -14021,7 +14021,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G178:H178">
-    <cfRule type="containsText" dxfId="140" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="139" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G178))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="42">
@@ -14036,7 +14036,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G179:H179">
-    <cfRule type="containsText" dxfId="139" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="138" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G179))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
@@ -14051,7 +14051,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G180:H180">
-    <cfRule type="containsText" dxfId="138" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="137" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G180))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="38">
@@ -14066,7 +14066,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G181:H181">
-    <cfRule type="containsText" dxfId="137" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="136" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G181))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="34">
@@ -14081,7 +14081,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G182:H182">
-    <cfRule type="containsText" dxfId="136" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="135" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G182))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="32">
@@ -14096,7 +14096,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G183:H183">
-    <cfRule type="containsText" dxfId="135" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="134" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G183))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -14111,7 +14111,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G185:H185">
-    <cfRule type="containsText" dxfId="134" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="133" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G185))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="26">
@@ -14126,7 +14126,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G186:H186">
-    <cfRule type="containsText" dxfId="133" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="132" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G186))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
@@ -14141,7 +14141,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G187:H187">
-    <cfRule type="containsText" dxfId="132" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="131" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G187))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -14156,7 +14156,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G184:H184">
-    <cfRule type="containsText" dxfId="131" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="130" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G184))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -14171,7 +14171,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G188:H188">
-    <cfRule type="containsText" dxfId="130" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="129" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G188))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -14186,7 +14186,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G189:H189">
-    <cfRule type="containsText" dxfId="129" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="128" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G189))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -14201,7 +14201,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G190:H190">
-    <cfRule type="containsText" dxfId="128" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="127" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G190))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -14216,7 +14216,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H109">
-    <cfRule type="containsText" dxfId="127" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="126" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H109))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14233,7 +14233,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H3">
-    <cfRule type="containsText" dxfId="126" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="125" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -14248,7 +14248,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G191">
-    <cfRule type="containsText" dxfId="125" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="124" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G191))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -14263,7 +14263,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H191">
-    <cfRule type="containsText" dxfId="124" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="123" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H191))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -14278,7 +14278,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G192:H192 G194:H194 G196:H196">
-    <cfRule type="containsText" dxfId="123" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="122" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G192))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -14293,7 +14293,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G193:H193 G195:H195">
-    <cfRule type="containsText" dxfId="122" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="121" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G193))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -14317,7 +14317,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -16834,7 +16834,7 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="G15:H15 G17:H17 G26:H26 G19:H20 G22:H24">
-    <cfRule type="containsText" dxfId="121" priority="366" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="120" priority="366" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="367">
@@ -16849,7 +16849,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="120" priority="347" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="119" priority="347" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16866,7 +16866,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:H28">
-    <cfRule type="containsText" dxfId="119" priority="345" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="118" priority="345" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G28))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="346">
@@ -16881,7 +16881,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="118" priority="343" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="117" priority="343" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16898,7 +16898,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:H30">
-    <cfRule type="containsText" dxfId="117" priority="341" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="116" priority="341" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G30))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="342">
@@ -16913,7 +16913,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="containsText" dxfId="116" priority="339" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="115" priority="339" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16930,7 +16930,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:H32">
-    <cfRule type="containsText" dxfId="115" priority="333" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="114" priority="333" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="334">
@@ -16945,7 +16945,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="containsText" dxfId="114" priority="331" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="113" priority="331" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16962,7 +16962,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:H34 G38:H38">
-    <cfRule type="containsText" dxfId="113" priority="329" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="112" priority="329" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G34))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="330">
@@ -16977,11 +16977,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34 H38">
-    <cfRule type="containsText" dxfId="112" priority="327" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="111" priority="327" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H34))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H38 H34">
+  <conditionalFormatting sqref="H34 H38">
     <cfRule type="colorScale" priority="328">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -16994,7 +16994,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33:H33 G36:H36 G40:H40">
-    <cfRule type="containsText" dxfId="111" priority="325" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="110" priority="325" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G33))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="326">
@@ -17009,11 +17009,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33 H36 H40">
-    <cfRule type="containsText" dxfId="110" priority="323" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="109" priority="323" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H33))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H36 H33 H40">
+  <conditionalFormatting sqref="H33 H36 H40">
     <cfRule type="colorScale" priority="324">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17026,7 +17026,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42:H42">
-    <cfRule type="containsText" dxfId="109" priority="321" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="108" priority="321" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G42))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="322">
@@ -17041,7 +17041,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="containsText" dxfId="108" priority="319" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="107" priority="319" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H42))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17058,7 +17058,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43:H43">
-    <cfRule type="containsText" dxfId="107" priority="317" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="106" priority="317" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G43))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="318">
@@ -17073,7 +17073,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="containsText" dxfId="106" priority="315" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="105" priority="315" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H43))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17090,7 +17090,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45:H45">
-    <cfRule type="containsText" dxfId="105" priority="313" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="104" priority="313" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G45))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="314">
@@ -17105,7 +17105,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="containsText" dxfId="104" priority="311" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="103" priority="311" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H45))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17122,7 +17122,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47:H47 G49:H49 G51:H51 G53:H53 G55:H56 G54">
-    <cfRule type="containsText" dxfId="103" priority="309" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="102" priority="309" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G47))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="310">
@@ -17137,11 +17137,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47 H49 H51 H53 H55:H56">
-    <cfRule type="containsText" dxfId="102" priority="307" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="101" priority="307" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H47))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47 H49 H51 H53 H55:H56">
+  <conditionalFormatting sqref="H49 H47 H51 H53 H55:H56">
     <cfRule type="colorScale" priority="308">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17154,7 +17154,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G48:H48 G50:H50 G52:H52 H54">
-    <cfRule type="containsText" dxfId="101" priority="305" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="100" priority="305" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G48))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="306">
@@ -17169,11 +17169,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48 H50 H52 H54">
-    <cfRule type="containsText" dxfId="100" priority="303" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="99" priority="303" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H48))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H50 H48 H52 H54">
+  <conditionalFormatting sqref="H48 H50 H52 H54">
     <cfRule type="colorScale" priority="304">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17186,7 +17186,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G61:H61 G63:H63 G65:H65 G67:H67 G69:H69">
-    <cfRule type="containsText" dxfId="99" priority="281" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="98" priority="281" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G61))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="282">
@@ -17201,11 +17201,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61 H63 H65 H67 H69">
-    <cfRule type="containsText" dxfId="98" priority="279" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="97" priority="279" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H61))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H61 H63 H65 H67 H69">
+  <conditionalFormatting sqref="H63 H61 H65 H67 H69">
     <cfRule type="colorScale" priority="280">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17218,7 +17218,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G60:H60 G62:H62 G64:H64 G66:H66 G68:H68 G70:H70 G73:H73">
-    <cfRule type="containsText" dxfId="97" priority="277" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="96" priority="277" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G60))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="278">
@@ -17233,11 +17233,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60 H62 H64 H66 H68 H70 H73">
-    <cfRule type="containsText" dxfId="96" priority="275" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="95" priority="275" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H60))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H60 H62 H64 H66 H68 H70 H73">
+  <conditionalFormatting sqref="H62 H60 H64 H66 H68 H70 H73">
     <cfRule type="colorScale" priority="276">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17250,7 +17250,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G58:H58">
-    <cfRule type="containsText" dxfId="95" priority="273" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="94" priority="273" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G58))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="274">
@@ -17265,7 +17265,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="containsText" dxfId="94" priority="271" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="93" priority="271" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H58))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17282,7 +17282,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G71:H71">
-    <cfRule type="containsText" dxfId="93" priority="269" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="92" priority="269" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G71))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="270">
@@ -17297,7 +17297,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="containsText" dxfId="92" priority="267" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="91" priority="267" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H71))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17314,7 +17314,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="containsText" dxfId="91" priority="253" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="90" priority="253" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="254">
@@ -17329,7 +17329,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="containsText" dxfId="90" priority="251" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="89" priority="251" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="252">
@@ -17344,7 +17344,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="containsText" dxfId="89" priority="249" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="88" priority="249" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G25))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="250">
@@ -17359,7 +17359,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:H27">
-    <cfRule type="containsText" dxfId="88" priority="241" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="87" priority="241" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="242">
@@ -17374,7 +17374,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="87" priority="239" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="86" priority="239" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17391,7 +17391,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G75:H75">
-    <cfRule type="containsText" dxfId="86" priority="189" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="85" priority="189" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G75))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="190">
@@ -17406,7 +17406,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H75">
-    <cfRule type="containsText" dxfId="85" priority="187" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="84" priority="187" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H75))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17423,7 +17423,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G77:H77">
-    <cfRule type="containsText" dxfId="84" priority="181" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="83" priority="181" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G77))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="182">
@@ -17438,7 +17438,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H77">
-    <cfRule type="containsText" dxfId="83" priority="179" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="82" priority="179" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H77))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17455,7 +17455,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G79:H79">
-    <cfRule type="containsText" dxfId="82" priority="173" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="81" priority="173" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G79))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="174">
@@ -17470,7 +17470,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H79">
-    <cfRule type="containsText" dxfId="81" priority="171" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="80" priority="171" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H79))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17487,7 +17487,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G81:H81">
-    <cfRule type="containsText" dxfId="80" priority="169" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="79" priority="169" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G81))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="170">
@@ -17502,7 +17502,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H81">
-    <cfRule type="containsText" dxfId="79" priority="167" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="78" priority="167" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H81))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17519,7 +17519,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G83:H83">
-    <cfRule type="containsText" dxfId="78" priority="165" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="77" priority="165" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G83))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="166">
@@ -17534,7 +17534,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H83">
-    <cfRule type="containsText" dxfId="77" priority="163" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="76" priority="163" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H83))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17551,7 +17551,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G85:H85">
-    <cfRule type="containsText" dxfId="76" priority="161" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="75" priority="161" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G85))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="162">
@@ -17566,7 +17566,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H85">
-    <cfRule type="containsText" dxfId="75" priority="159" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="74" priority="159" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H85))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17583,7 +17583,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="containsText" dxfId="74" priority="141" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="73" priority="141" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17600,7 +17600,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:H29">
-    <cfRule type="containsText" dxfId="73" priority="139" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="72" priority="139" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="140">
@@ -17615,7 +17615,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="72" priority="137" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="71" priority="137" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17632,7 +17632,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="containsText" dxfId="71" priority="135" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="70" priority="135" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17649,7 +17649,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35:H35">
-    <cfRule type="containsText" dxfId="70" priority="133" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="69" priority="133" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G35))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="134">
@@ -17664,7 +17664,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="containsText" dxfId="69" priority="131" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="68" priority="131" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17681,7 +17681,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="containsText" dxfId="68" priority="129" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="67" priority="129" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17698,7 +17698,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44:H44">
-    <cfRule type="containsText" dxfId="67" priority="127" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="66" priority="127" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G44))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="128">
@@ -17713,7 +17713,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="containsText" dxfId="66" priority="125" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="65" priority="125" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H44))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17730,7 +17730,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="containsText" dxfId="65" priority="123" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="64" priority="123" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G44))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17747,7 +17747,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46:H46">
-    <cfRule type="containsText" dxfId="64" priority="121" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="63" priority="121" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G46))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="122">
@@ -17762,7 +17762,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="containsText" dxfId="63" priority="119" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="62" priority="119" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H46))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17779,7 +17779,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46">
-    <cfRule type="containsText" dxfId="62" priority="117" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="61" priority="117" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G46))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17796,7 +17796,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G59:H59">
-    <cfRule type="containsText" dxfId="61" priority="115" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="60" priority="115" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G59))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="116">
@@ -17811,7 +17811,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="containsText" dxfId="60" priority="113" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="113" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H59))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17828,7 +17828,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G59">
-    <cfRule type="containsText" dxfId="59" priority="111" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="111" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G59))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17845,7 +17845,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G57:H57">
-    <cfRule type="containsText" dxfId="58" priority="109" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="109" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G57))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="110">
@@ -17860,7 +17860,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57">
-    <cfRule type="containsText" dxfId="57" priority="107" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="107" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H57))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17877,7 +17877,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G57">
-    <cfRule type="containsText" dxfId="56" priority="105" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="105" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G57))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17894,7 +17894,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G80:H80">
-    <cfRule type="containsText" dxfId="55" priority="103" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="103" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G80))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="104">
@@ -17909,7 +17909,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H80">
-    <cfRule type="containsText" dxfId="54" priority="101" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="101" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H80))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17926,7 +17926,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G80">
-    <cfRule type="containsText" dxfId="53" priority="99" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="99" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G80))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17943,7 +17943,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G78:H78">
-    <cfRule type="containsText" dxfId="52" priority="97" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="97" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G78))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="98">
@@ -17958,7 +17958,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H78">
-    <cfRule type="containsText" dxfId="51" priority="95" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="95" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H78))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17975,7 +17975,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G78">
-    <cfRule type="containsText" dxfId="50" priority="93" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="93" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G78))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17992,7 +17992,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G76:H76">
-    <cfRule type="containsText" dxfId="49" priority="91" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="91" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G76))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="92">
@@ -18007,7 +18007,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H76">
-    <cfRule type="containsText" dxfId="48" priority="89" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="89" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H76))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18024,7 +18024,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G76">
-    <cfRule type="containsText" dxfId="47" priority="87" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="87" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G76))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18041,7 +18041,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G74:H74">
-    <cfRule type="containsText" dxfId="46" priority="85" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="85" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G74))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="86">
@@ -18056,7 +18056,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H74">
-    <cfRule type="containsText" dxfId="45" priority="83" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="83" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H74))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18073,7 +18073,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G74">
-    <cfRule type="containsText" dxfId="44" priority="81" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="81" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G74))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18090,7 +18090,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G72:H72">
-    <cfRule type="containsText" dxfId="43" priority="79" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="79" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G72))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="80">
@@ -18105,7 +18105,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H72">
-    <cfRule type="containsText" dxfId="42" priority="77" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="77" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H72))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18122,7 +18122,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G72">
-    <cfRule type="containsText" dxfId="41" priority="75" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="75" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G72))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18139,7 +18139,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G82:H82">
-    <cfRule type="containsText" dxfId="40" priority="73" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="73" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G82))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="74">
@@ -18154,7 +18154,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H82">
-    <cfRule type="containsText" dxfId="39" priority="71" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="71" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H82))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18171,7 +18171,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G82">
-    <cfRule type="containsText" dxfId="38" priority="69" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="69" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G82))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18188,7 +18188,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G86:H86">
-    <cfRule type="containsText" dxfId="37" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G86))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="68">
@@ -18203,7 +18203,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H86">
-    <cfRule type="containsText" dxfId="36" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H86))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18220,7 +18220,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G86">
-    <cfRule type="containsText" dxfId="35" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G86))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18237,7 +18237,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G84:H84">
-    <cfRule type="containsText" dxfId="34" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G84))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="62">
@@ -18252,7 +18252,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H84">
-    <cfRule type="containsText" dxfId="33" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H84))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18269,7 +18269,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G84">
-    <cfRule type="containsText" dxfId="32" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G84))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18286,7 +18286,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G37:H37">
-    <cfRule type="containsText" dxfId="31" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G37))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="56">
@@ -18301,7 +18301,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="containsText" dxfId="30" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H37))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18318,7 +18318,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G37">
-    <cfRule type="containsText" dxfId="29" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G37))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18335,7 +18335,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41:H41">
-    <cfRule type="containsText" dxfId="28" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G41))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="50">
@@ -18350,7 +18350,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="containsText" dxfId="27" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H41))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18367,7 +18367,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="containsText" dxfId="26" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G41))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18384,7 +18384,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G39:H39">
-    <cfRule type="containsText" dxfId="25" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G39))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
@@ -18399,7 +18399,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="containsText" dxfId="24" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H39))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18416,7 +18416,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G39">
-    <cfRule type="containsText" dxfId="23" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G39))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18433,7 +18433,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="containsText" dxfId="22" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H25))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="38">
@@ -18448,7 +18448,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="containsText" dxfId="21" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="36">
@@ -18463,7 +18463,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="containsText" dxfId="20" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="34">
@@ -18478,7 +18478,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="containsText" dxfId="19" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G18))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="32">
@@ -18493,7 +18493,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="containsText" dxfId="18" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -18508,7 +18508,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="containsText" dxfId="17" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="28">
@@ -18523,7 +18523,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="16" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="26">
@@ -18538,7 +18538,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="containsText" dxfId="15" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18555,7 +18555,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:H31">
-    <cfRule type="containsText" dxfId="14" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G31))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -18570,7 +18570,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="containsText" dxfId="13" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H31))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18587,7 +18587,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="containsText" dxfId="12" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G31))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18604,7 +18604,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H8">
-    <cfRule type="containsText" dxfId="11" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -18619,7 +18619,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:G14">
-    <cfRule type="containsText" dxfId="10" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -18634,7 +18634,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H14">
-    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -18649,7 +18649,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G87:H87">
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G87))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -18664,7 +18664,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H87">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H87))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18681,7 +18681,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G88:H88">
-    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G88))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -18696,7 +18696,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H88">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H88))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18713,7 +18713,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G88">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G88))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/Russia/#Russia#Russian_Federation#Commemorative#[1999-present]#circulation_quality.xlsx
+++ b/Collections/Russia/#Russia#Russian_Federation#Commemorative#[1999-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Russia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A471D112-6B10-4A6B-9C7A-E4C21C8D7FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB78C6F-4A94-4D3C-8199-B8AFF04163A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7040" yWindow="1450" windowWidth="28720" windowHeight="19550" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1₽ " sheetId="1" r:id="rId1"/>
@@ -112,6 +112,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
+    <author>Lord_Alexator</author>
   </authors>
   <commentList>
     <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
@@ -171,6 +172,22 @@
             <charset val="204"/>
           </rPr>
           <t>Saint Petersburg Mint</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H11" authorId="1" shapeId="0" xr:uid="{9D45087E-3BA0-4DFC-B29B-766E39FCA07A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">Проверить, есть ли в наличии
+</t>
         </r>
       </text>
     </comment>
@@ -1838,7 +1855,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2024,6 +2041,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4665,7 +4685,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A38" sqref="A32:XFD38"/>
+      <selection pane="bottomRight" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4964,7 +4984,7 @@
       <c r="F11" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="41">
+      <c r="G11" s="67">
         <v>1</v>
       </c>
       <c r="H11" s="41">
@@ -5835,7 +5855,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J58" sqref="J58"/>
+      <selection pane="bottomRight" activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7976,7 +7996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I196"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J157" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -14317,7 +14337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -16981,7 +17001,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H34))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H34 H38">
+  <conditionalFormatting sqref="H38 H34">
     <cfRule type="colorScale" priority="328">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17013,7 +17033,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H33))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H33 H36 H40">
+  <conditionalFormatting sqref="H36 H33 H40">
     <cfRule type="colorScale" priority="324">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17141,7 +17161,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H47))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H49 H47 H51 H53 H55:H56">
+  <conditionalFormatting sqref="H47 H49 H51 H53 H55:H56">
     <cfRule type="colorScale" priority="308">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17173,7 +17193,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H48))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H48 H50 H52 H54">
+  <conditionalFormatting sqref="H50 H48 H52 H54">
     <cfRule type="colorScale" priority="304">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17205,7 +17225,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H61))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H63 H61 H65 H67 H69">
+  <conditionalFormatting sqref="H61 H63 H65 H67 H69">
     <cfRule type="colorScale" priority="280">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17237,7 +17257,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H60))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H62 H60 H64 H66 H68 H70 H73">
+  <conditionalFormatting sqref="H60 H62 H64 H66 H68 H70 H73">
     <cfRule type="colorScale" priority="276">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/Russia/#Russia#Russian_Federation#Commemorative#[1999-present]#circulation_quality.xlsx
+++ b/Collections/Russia/#Russia#Russian_Federation#Commemorative#[1999-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Russia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB78C6F-4A94-4D3C-8199-B8AFF04163A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001CD8A5-0C3B-4CCF-9C66-E2F1444D2B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7040" yWindow="1450" windowWidth="28720" windowHeight="19550" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1₽ " sheetId="1" r:id="rId1"/>
@@ -21,7 +21,8 @@
     <sheet name="Links" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'10₽ '!$A$1:$I$190</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'10₽ '!$A$1:$H$197</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'25₽'!$C$1:$D$88</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -199,7 +200,6 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
-    <author>Lord_Alexator</author>
   </authors>
   <commentList>
     <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
@@ -262,22 +262,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="G66" authorId="1" shapeId="0" xr:uid="{EEB2FB7B-BFD9-4433-B33A-0A3D195FFA80}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">Дубли не UNC
-Дубль пока что в Краснодаре
-</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -286,7 +270,6 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
-    <author>Lord_Alexator</author>
   </authors>
   <commentList>
     <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
@@ -346,21 +329,6 @@
             <charset val="204"/>
           </rPr>
           <t>Saint Petersburg Mint</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H109" authorId="1" shapeId="0" xr:uid="{BE232F62-4331-4EE0-B20A-59187D3B810D}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">Дубли не UNC
-</t>
         </r>
       </text>
     </comment>
@@ -439,7 +407,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2336" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2343" uniqueCount="381">
   <si>
     <t>-</t>
   </si>
@@ -1573,13 +1541,22 @@
   </si>
   <si>
     <t>Hedgehog in the Fog</t>
+  </si>
+  <si>
+    <t>Ministry of Education</t>
+  </si>
+  <si>
+    <t>Talisman</t>
+  </si>
+  <si>
+    <t>Poster</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1701,13 +1678,6 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
@@ -1855,7 +1825,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2002,6 +1972,9 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2040,12 +2013,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -2053,15 +2020,6 @@
     <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="174">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3430,6 +3388,15 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -3460,9 +3427,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="173"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="172" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="171"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -3751,29 +3718,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="54" t="s">
+      <c r="A1" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="55" t="s">
         <v>341</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="57"/>
-      <c r="E1" s="56" t="s">
+      <c r="D1" s="58"/>
+      <c r="E1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="57"/>
-      <c r="G1" s="58" t="s">
+      <c r="F1" s="58"/>
+      <c r="G1" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="59"/>
+      <c r="H1" s="60"/>
       <c r="I1" s="33"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="53"/>
-      <c r="B2" s="55"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
@@ -4502,7 +4469,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H3">
-    <cfRule type="containsText" dxfId="173" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="170" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4519,7 +4486,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="172" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="169" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4536,7 +4503,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="containsText" dxfId="171" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="168" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4553,7 +4520,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="170" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="167" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4570,7 +4537,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="169" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="166" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4587,7 +4554,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:H18">
-    <cfRule type="containsText" dxfId="168" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="165" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4604,7 +4571,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G17">
-    <cfRule type="containsText" dxfId="167" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="164" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4621,7 +4588,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H17">
-    <cfRule type="containsText" dxfId="166" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="163" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4638,7 +4605,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:G28">
-    <cfRule type="containsText" dxfId="165" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="162" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4655,7 +4622,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19:H28">
-    <cfRule type="containsText" dxfId="164" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="161" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4685,7 +4652,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K18" sqref="K18"/>
+      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4700,29 +4667,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="54" t="s">
+      <c r="A1" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="55" t="s">
         <v>341</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="62"/>
-      <c r="E1" s="61" t="s">
+      <c r="D1" s="63"/>
+      <c r="E1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="62"/>
-      <c r="G1" s="63" t="s">
+      <c r="F1" s="63"/>
+      <c r="G1" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="64"/>
+      <c r="H1" s="65"/>
       <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="27" t="s">
         <v>4</v>
       </c>
@@ -4984,7 +4951,7 @@
       <c r="F11" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="67">
+      <c r="G11" s="52">
         <v>1</v>
       </c>
       <c r="H11" s="41">
@@ -5767,7 +5734,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:H31">
-    <cfRule type="containsText" dxfId="163" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="160" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -5782,7 +5749,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="162" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="159" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -5797,7 +5764,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="161" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="158" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -5812,7 +5779,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:G38">
-    <cfRule type="containsText" dxfId="160" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="157" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -5827,7 +5794,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:H38">
-    <cfRule type="containsText" dxfId="159" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="156" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -5852,10 +5819,10 @@
   <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K52" sqref="K52"/>
+      <selection pane="bottomRight" activeCell="J62" sqref="J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5870,29 +5837,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="54" t="s">
+      <c r="A1" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="55" t="s">
         <v>341</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="62"/>
-      <c r="E1" s="61" t="s">
+      <c r="D1" s="63"/>
+      <c r="E1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="62"/>
-      <c r="G1" s="63" t="s">
+      <c r="F1" s="63"/>
+      <c r="G1" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="H1" s="64"/>
+      <c r="H1" s="65"/>
       <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="65"/>
-      <c r="B2" s="55"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="27" t="s">
         <v>4</v>
       </c>
@@ -7880,7 +7847,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G16:H65 G3:H8">
-    <cfRule type="containsText" dxfId="158" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="155" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -7895,7 +7862,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66">
-    <cfRule type="containsText" dxfId="157" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="154" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H66))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -7910,7 +7877,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:G15">
-    <cfRule type="containsText" dxfId="156" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="153" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -7925,7 +7892,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H15">
-    <cfRule type="containsText" dxfId="155" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="152" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -7940,7 +7907,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G67:G71">
-    <cfRule type="containsText" dxfId="154" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="151" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G67))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -7955,7 +7922,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H67:H71">
-    <cfRule type="containsText" dxfId="153" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="150" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H67))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -7970,7 +7937,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G66">
-    <cfRule type="containsText" dxfId="152" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="149" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G66))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7994,13 +7961,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I196"/>
+  <dimension ref="A1:I197"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J157" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L196" sqref="L196"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8010,33 +7977,33 @@
     <col min="5" max="6" width="12.453125" style="25" customWidth="1"/>
     <col min="7" max="8" width="3.81640625" style="22" customWidth="1"/>
     <col min="9" max="9" width="13.7265625" style="22" customWidth="1"/>
-    <col min="10" max="18" width="8.7265625" customWidth="1"/>
+    <col min="10" max="17" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="54" t="s">
+      <c r="A1" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="55" t="s">
         <v>341</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="62"/>
-      <c r="E1" s="61" t="s">
+      <c r="D1" s="58"/>
+      <c r="E1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="62"/>
-      <c r="G1" s="63" t="s">
+      <c r="F1" s="63"/>
+      <c r="G1" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="64"/>
+      <c r="H1" s="65"/>
       <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="43" t="s">
         <v>4</v>
       </c>
@@ -8328,9 +8295,11 @@
         <v>2002</v>
       </c>
       <c r="B12" s="37" t="s">
+        <v>378</v>
+      </c>
+      <c r="C12" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="38"/>
       <c r="D12" s="38" t="s">
         <v>103</v>
       </c>
@@ -8807,7 +8776,7 @@
         <v>130</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>116</v>
+        <v>353</v>
       </c>
       <c r="D28" s="38" t="s">
         <v>103</v>
@@ -9961,7 +9930,7 @@
       <c r="G66" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="H66" s="13">
+      <c r="H66" s="11">
         <v>1</v>
       </c>
       <c r="I66" s="33" t="str">
@@ -10008,7 +9977,7 @@
       </c>
       <c r="C68" s="38"/>
       <c r="D68" s="38" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E68" s="40" t="s">
         <v>0</v>
@@ -10495,7 +10464,7 @@
       <c r="G84" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H84" s="5">
+      <c r="H84" s="10">
         <v>1</v>
       </c>
       <c r="I84" s="33" t="str">
@@ -10898,7 +10867,9 @@
       <c r="B98" s="37" t="s">
         <v>229</v>
       </c>
-      <c r="C98" s="38"/>
+      <c r="C98" s="38" t="s">
+        <v>48</v>
+      </c>
       <c r="D98" s="38" t="s">
         <v>105</v>
       </c>
@@ -11627,12 +11598,12 @@
       <c r="G122" s="10">
         <v>1</v>
       </c>
-      <c r="H122" s="5">
-        <v>2</v>
+      <c r="H122" s="9" t="s">
+        <v>0</v>
       </c>
       <c r="I122" s="33" t="str">
         <f t="shared" si="6"/>
-        <v>Can exchange</v>
+        <v/>
       </c>
     </row>
     <row r="123" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -11648,16 +11619,16 @@
       <c r="D123" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="E123" s="44">
+      <c r="E123" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="F123" s="44">
         <v>10000000</v>
       </c>
-      <c r="F123" s="40" t="s">
-        <v>0</v>
-      </c>
       <c r="G123" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H123" s="9" t="s">
+      <c r="H123" s="9">
         <v>0</v>
       </c>
       <c r="I123" s="33" t="str">
@@ -12555,7 +12526,7 @@
         <v>0</v>
       </c>
       <c r="G153" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H153" s="14" t="s">
         <v>0</v>
@@ -12591,7 +12562,7 @@
         <v>0</v>
       </c>
       <c r="I154" s="33" t="str">
-        <f t="shared" ref="I154:I166" si="7">IF(OR(AND(G154&gt;1,G154&lt;&gt;"-"),AND(H154&gt;1,H154&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="I154:I167" si="7">IF(OR(AND(G154&gt;1,G154&lt;&gt;"-"),AND(H154&gt;1,H154&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -12600,9 +12571,11 @@
         <v>2018</v>
       </c>
       <c r="B155" s="37" t="s">
+        <v>379</v>
+      </c>
+      <c r="C155" s="38" t="s">
         <v>348</v>
       </c>
-      <c r="C155" s="38"/>
       <c r="D155" s="38" t="s">
         <v>105</v>
       </c>
@@ -12628,46 +12601,41 @@
         <v>2018</v>
       </c>
       <c r="B156" s="37" t="s">
-        <v>207</v>
+        <v>380</v>
       </c>
       <c r="C156" s="38" t="s">
-        <v>116</v>
+        <v>348</v>
       </c>
       <c r="D156" s="38" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E156" s="44">
         <v>5000000</v>
       </c>
-      <c r="F156" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="G156" s="11">
-        <v>1</v>
-      </c>
-      <c r="H156" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="I156" s="33" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
+      <c r="F156" s="40"/>
+      <c r="G156" s="21">
+        <v>1</v>
+      </c>
+      <c r="H156" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I156" s="33"/>
     </row>
     <row r="157" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="30">
         <v>2018</v>
       </c>
       <c r="B157" s="37" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C157" s="38" t="s">
-        <v>353</v>
+        <v>116</v>
       </c>
       <c r="D157" s="38" t="s">
         <v>104</v>
       </c>
       <c r="E157" s="44">
-        <v>10000000</v>
+        <v>5000000</v>
       </c>
       <c r="F157" s="40" t="s">
         <v>0</v>
@@ -12685,19 +12653,19 @@
     </row>
     <row r="158" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="30">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B158" s="37" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C158" s="38" t="s">
-        <v>116</v>
+        <v>353</v>
       </c>
       <c r="D158" s="38" t="s">
         <v>104</v>
       </c>
       <c r="E158" s="44">
-        <v>5000000</v>
+        <v>10000000</v>
       </c>
       <c r="F158" s="40" t="s">
         <v>0</v>
@@ -12718,7 +12686,7 @@
         <v>2019</v>
       </c>
       <c r="B159" s="37" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C159" s="38" t="s">
         <v>116</v>
@@ -12748,16 +12716,16 @@
         <v>2019</v>
       </c>
       <c r="B160" s="37" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C160" s="38" t="s">
-        <v>353</v>
+        <v>116</v>
       </c>
       <c r="D160" s="38" t="s">
         <v>104</v>
       </c>
       <c r="E160" s="44">
-        <v>10000000</v>
+        <v>5000000</v>
       </c>
       <c r="F160" s="40" t="s">
         <v>0</v>
@@ -12775,19 +12743,19 @@
     </row>
     <row r="161" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="30">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B161" s="37" t="s">
-        <v>322</v>
+        <v>211</v>
       </c>
       <c r="C161" s="38" t="s">
-        <v>259</v>
+        <v>353</v>
       </c>
       <c r="D161" s="38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E161" s="44">
-        <v>5000000</v>
+        <v>10000000</v>
       </c>
       <c r="F161" s="40" t="s">
         <v>0</v>
@@ -12799,7 +12767,7 @@
         <v>0</v>
       </c>
       <c r="I161" s="33" t="str">
-        <f>IF(OR(AND(G161&gt;1,G161&lt;&gt;"-"),AND(H161&gt;1,H161&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -12808,7 +12776,7 @@
         <v>2020</v>
       </c>
       <c r="B162" s="37" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C162" s="38" t="s">
         <v>259</v>
@@ -12838,11 +12806,13 @@
         <v>2020</v>
       </c>
       <c r="B163" s="37" t="s">
-        <v>349</v>
-      </c>
-      <c r="C163" s="38"/>
+        <v>323</v>
+      </c>
+      <c r="C163" s="38" t="s">
+        <v>259</v>
+      </c>
       <c r="D163" s="38" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E163" s="44">
         <v>5000000</v>
@@ -12850,15 +12820,15 @@
       <c r="F163" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G163" s="31">
-        <v>2</v>
+      <c r="G163" s="11">
+        <v>1</v>
       </c>
       <c r="H163" s="14" t="s">
         <v>0</v>
       </c>
       <c r="I163" s="33" t="str">
-        <f t="shared" si="7"/>
-        <v>Can exchange</v>
+        <f>IF(OR(AND(G163&gt;1,G163&lt;&gt;"-"),AND(H163&gt;1,H163&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
       </c>
     </row>
     <row r="164" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -12866,11 +12836,9 @@
         <v>2020</v>
       </c>
       <c r="B164" s="37" t="s">
-        <v>214</v>
-      </c>
-      <c r="C164" s="38" t="s">
-        <v>353</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="C164" s="38"/>
       <c r="D164" s="38" t="s">
         <v>104</v>
       </c>
@@ -12880,8 +12848,8 @@
       <c r="F164" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G164" s="11">
-        <v>4</v>
+      <c r="G164" s="31">
+        <v>2</v>
       </c>
       <c r="H164" s="14" t="s">
         <v>0</v>
@@ -12896,7 +12864,7 @@
         <v>2020</v>
       </c>
       <c r="B165" s="37" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C165" s="38" t="s">
         <v>353</v>
@@ -12911,7 +12879,7 @@
         <v>0</v>
       </c>
       <c r="G165" s="11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H165" s="14" t="s">
         <v>0</v>
@@ -12926,10 +12894,10 @@
         <v>2020</v>
       </c>
       <c r="B166" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C166" s="38" t="s">
-        <v>116</v>
+        <v>353</v>
       </c>
       <c r="D166" s="38" t="s">
         <v>104</v>
@@ -12941,22 +12909,22 @@
         <v>0</v>
       </c>
       <c r="G166" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H166" s="14" t="s">
         <v>0</v>
       </c>
       <c r="I166" s="33" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="30">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B167" s="37" t="s">
-        <v>324</v>
+        <v>213</v>
       </c>
       <c r="C167" s="38" t="s">
         <v>116</v>
@@ -12965,7 +12933,7 @@
         <v>104</v>
       </c>
       <c r="E167" s="44">
-        <v>1000000</v>
+        <v>5000000</v>
       </c>
       <c r="F167" s="40" t="s">
         <v>0</v>
@@ -12977,7 +12945,7 @@
         <v>0</v>
       </c>
       <c r="I167" s="33" t="str">
-        <f t="shared" ref="I167" si="8">IF(OR(AND(G167&gt;1,G167&lt;&gt;"-"),AND(H167&gt;1,H167&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -12986,16 +12954,16 @@
         <v>2021</v>
       </c>
       <c r="B168" s="37" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C168" s="38" t="s">
-        <v>259</v>
+        <v>116</v>
       </c>
       <c r="D168" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="E168" s="44" t="s">
-        <v>277</v>
+        <v>104</v>
+      </c>
+      <c r="E168" s="44">
+        <v>1000000</v>
       </c>
       <c r="F168" s="40" t="s">
         <v>0</v>
@@ -13007,7 +12975,7 @@
         <v>0</v>
       </c>
       <c r="I168" s="33" t="str">
-        <f t="shared" ref="I168:I172" si="9">IF(OR(AND(G168&gt;1,G168&lt;&gt;"-"),AND(H168&gt;1,H168&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="I168" si="8">IF(OR(AND(G168&gt;1,G168&lt;&gt;"-"),AND(H168&gt;1,H168&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -13016,10 +12984,10 @@
         <v>2021</v>
       </c>
       <c r="B169" s="37" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C169" s="38" t="s">
-        <v>326</v>
+        <v>259</v>
       </c>
       <c r="D169" s="38" t="s">
         <v>105</v>
@@ -13037,7 +13005,7 @@
         <v>0</v>
       </c>
       <c r="I169" s="33" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="I169:I173" si="9">IF(OR(AND(G169&gt;1,G169&lt;&gt;"-"),AND(H169&gt;1,H169&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -13046,7 +13014,7 @@
         <v>2021</v>
       </c>
       <c r="B170" s="37" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C170" s="38" t="s">
         <v>326</v>
@@ -13076,7 +13044,7 @@
         <v>2021</v>
       </c>
       <c r="B171" s="37" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C171" s="38" t="s">
         <v>326</v>
@@ -13106,7 +13074,7 @@
         <v>2021</v>
       </c>
       <c r="B172" s="37" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C172" s="38" t="s">
         <v>326</v>
@@ -13133,13 +13101,13 @@
     </row>
     <row r="173" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="30">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B173" s="37" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C173" s="38" t="s">
-        <v>259</v>
+        <v>326</v>
       </c>
       <c r="D173" s="38" t="s">
         <v>105</v>
@@ -13157,7 +13125,7 @@
         <v>0</v>
       </c>
       <c r="I173" s="33" t="str">
-        <f t="shared" ref="I173" si="10">IF(OR(AND(G173&gt;1,G173&lt;&gt;"-"),AND(H173&gt;1,H173&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -13166,13 +13134,13 @@
         <v>2022</v>
       </c>
       <c r="B174" s="37" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="C174" s="38" t="s">
-        <v>353</v>
+        <v>259</v>
       </c>
       <c r="D174" s="38" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E174" s="44" t="s">
         <v>277</v>
@@ -13187,7 +13155,7 @@
         <v>0</v>
       </c>
       <c r="I174" s="33" t="str">
-        <f t="shared" ref="I174:I175" si="11">IF(OR(AND(G174&gt;1,G174&lt;&gt;"-"),AND(H174&gt;1,H174&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="I174" si="10">IF(OR(AND(G174&gt;1,G174&lt;&gt;"-"),AND(H174&gt;1,H174&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -13196,7 +13164,7 @@
         <v>2022</v>
       </c>
       <c r="B175" s="37" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C175" s="38" t="s">
         <v>353</v>
@@ -13217,7 +13185,7 @@
         <v>0</v>
       </c>
       <c r="I175" s="33" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="I175:I176" si="11">IF(OR(AND(G175&gt;1,G175&lt;&gt;"-"),AND(H175&gt;1,H175&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -13226,13 +13194,13 @@
         <v>2022</v>
       </c>
       <c r="B176" s="37" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C176" s="38" t="s">
-        <v>326</v>
+        <v>353</v>
       </c>
       <c r="D176" s="38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E176" s="44" t="s">
         <v>277</v>
@@ -13247,7 +13215,7 @@
         <v>0</v>
       </c>
       <c r="I176" s="33" t="str">
-        <f t="shared" ref="I176:I179" si="12">IF(OR(AND(G176&gt;1,G176&lt;&gt;"-"),AND(H176&gt;1,H176&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -13256,7 +13224,7 @@
         <v>2022</v>
       </c>
       <c r="B177" s="37" t="s">
-        <v>133</v>
+        <v>357</v>
       </c>
       <c r="C177" s="38" t="s">
         <v>326</v>
@@ -13277,7 +13245,7 @@
         <v>0</v>
       </c>
       <c r="I177" s="33" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="I177:I180" si="12">IF(OR(AND(G177&gt;1,G177&lt;&gt;"-"),AND(H177&gt;1,H177&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -13286,7 +13254,7 @@
         <v>2022</v>
       </c>
       <c r="B178" s="37" t="s">
-        <v>358</v>
+        <v>133</v>
       </c>
       <c r="C178" s="38" t="s">
         <v>326</v>
@@ -13316,7 +13284,7 @@
         <v>2022</v>
       </c>
       <c r="B179" s="37" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C179" s="38" t="s">
         <v>326</v>
@@ -13346,13 +13314,13 @@
         <v>2022</v>
       </c>
       <c r="B180" s="37" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C180" s="38" t="s">
-        <v>116</v>
+        <v>326</v>
       </c>
       <c r="D180" s="38" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E180" s="44" t="s">
         <v>277</v>
@@ -13367,7 +13335,7 @@
         <v>0</v>
       </c>
       <c r="I180" s="33" t="str">
-        <f t="shared" ref="I180:I183" si="13">IF(OR(AND(G180&gt;1,G180&lt;&gt;"-"),AND(H180&gt;1,H180&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -13376,7 +13344,7 @@
         <v>2022</v>
       </c>
       <c r="B181" s="37" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C181" s="38" t="s">
         <v>116</v>
@@ -13397,22 +13365,22 @@
         <v>0</v>
       </c>
       <c r="I181" s="33" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="I181:I184" si="13">IF(OR(AND(G181&gt;1,G181&lt;&gt;"-"),AND(H181&gt;1,H181&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
     <row r="182" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="30">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B182" s="37" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C182" s="38" t="s">
-        <v>259</v>
+        <v>116</v>
       </c>
       <c r="D182" s="38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E182" s="44" t="s">
         <v>277</v>
@@ -13436,13 +13404,13 @@
         <v>2023</v>
       </c>
       <c r="B183" s="37" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C183" s="38" t="s">
-        <v>353</v>
+        <v>259</v>
       </c>
       <c r="D183" s="38" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E183" s="44" t="s">
         <v>277</v>
@@ -13466,7 +13434,7 @@
         <v>2023</v>
       </c>
       <c r="B184" s="37" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C184" s="38" t="s">
         <v>353</v>
@@ -13487,7 +13455,7 @@
         <v>0</v>
       </c>
       <c r="I184" s="33" t="str">
-        <f t="shared" ref="I184" si="14">IF(OR(AND(G184&gt;1,G184&lt;&gt;"-"),AND(H184&gt;1,H184&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -13496,13 +13464,13 @@
         <v>2023</v>
       </c>
       <c r="B185" s="37" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C185" s="38" t="s">
-        <v>326</v>
+        <v>353</v>
       </c>
       <c r="D185" s="38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E185" s="44" t="s">
         <v>277</v>
@@ -13517,7 +13485,7 @@
         <v>0</v>
       </c>
       <c r="I185" s="33" t="str">
-        <f t="shared" ref="I185:I187" si="15">IF(OR(AND(G185&gt;1,G185&lt;&gt;"-"),AND(H185&gt;1,H185&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="I185" si="14">IF(OR(AND(G185&gt;1,G185&lt;&gt;"-"),AND(H185&gt;1,H185&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -13526,7 +13494,7 @@
         <v>2023</v>
       </c>
       <c r="B186" s="37" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C186" s="38" t="s">
         <v>326</v>
@@ -13547,7 +13515,7 @@
         <v>0</v>
       </c>
       <c r="I186" s="33" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="I186:I188" si="15">IF(OR(AND(G186&gt;1,G186&lt;&gt;"-"),AND(H186&gt;1,H186&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -13556,7 +13524,7 @@
         <v>2023</v>
       </c>
       <c r="B187" s="37" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C187" s="38" t="s">
         <v>326</v>
@@ -13586,7 +13554,7 @@
         <v>2023</v>
       </c>
       <c r="B188" s="37" t="s">
-        <v>324</v>
+        <v>367</v>
       </c>
       <c r="C188" s="38" t="s">
         <v>326</v>
@@ -13607,7 +13575,7 @@
         <v>0</v>
       </c>
       <c r="I188" s="33" t="str">
-        <f t="shared" ref="I188:I192" si="16">IF(OR(AND(G188&gt;1,G188&lt;&gt;"-"),AND(H188&gt;1,H188&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -13616,13 +13584,13 @@
         <v>2023</v>
       </c>
       <c r="B189" s="37" t="s">
-        <v>368</v>
+        <v>324</v>
       </c>
       <c r="C189" s="38" t="s">
-        <v>116</v>
+        <v>326</v>
       </c>
       <c r="D189" s="38" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E189" s="44" t="s">
         <v>277</v>
@@ -13637,19 +13605,19 @@
         <v>0</v>
       </c>
       <c r="I189" s="33" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="I189:I193" si="16">IF(OR(AND(G189&gt;1,G189&lt;&gt;"-"),AND(H189&gt;1,H189&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
     <row r="190" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="30">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B190" s="37" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C190" s="38" t="s">
-        <v>353</v>
+        <v>116</v>
       </c>
       <c r="D190" s="38" t="s">
         <v>104</v>
@@ -13661,14 +13629,14 @@
         <v>0</v>
       </c>
       <c r="G190" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H190" s="14" t="s">
         <v>0</v>
       </c>
       <c r="I190" s="33" t="str">
         <f t="shared" si="16"/>
-        <v>Can exchange</v>
+        <v/>
       </c>
     </row>
     <row r="191" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -13676,10 +13644,10 @@
         <v>2024</v>
       </c>
       <c r="B191" s="37" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C191" s="38" t="s">
-        <v>116</v>
+        <v>353</v>
       </c>
       <c r="D191" s="38" t="s">
         <v>104</v>
@@ -13691,14 +13659,14 @@
         <v>0</v>
       </c>
       <c r="G191" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H191" s="14" t="s">
         <v>0</v>
       </c>
       <c r="I191" s="33" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="192" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -13706,13 +13674,13 @@
         <v>2024</v>
       </c>
       <c r="B192" s="37" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C192" s="38" t="s">
-        <v>259</v>
+        <v>116</v>
       </c>
       <c r="D192" s="38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E192" s="44" t="s">
         <v>277</v>
@@ -13736,10 +13704,10 @@
         <v>2024</v>
       </c>
       <c r="B193" s="37" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C193" s="38" t="s">
-        <v>326</v>
+        <v>259</v>
       </c>
       <c r="D193" s="38" t="s">
         <v>105</v>
@@ -13751,14 +13719,14 @@
         <v>0</v>
       </c>
       <c r="G193" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H193" s="14" t="s">
         <v>0</v>
       </c>
       <c r="I193" s="33" t="str">
-        <f t="shared" ref="I193:I194" si="17">IF(OR(AND(G193&gt;1,G193&lt;&gt;"-"),AND(H193&gt;1,H193&lt;&gt;"-")),"Can exchange","")</f>
-        <v>Can exchange</v>
+        <f t="shared" si="16"/>
+        <v/>
       </c>
     </row>
     <row r="194" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -13766,7 +13734,7 @@
         <v>2024</v>
       </c>
       <c r="B194" s="37" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C194" s="38" t="s">
         <v>326</v>
@@ -13787,7 +13755,7 @@
         <v>0</v>
       </c>
       <c r="I194" s="33" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="I194:I195" si="17">IF(OR(AND(G194&gt;1,G194&lt;&gt;"-"),AND(H194&gt;1,H194&lt;&gt;"-")),"Can exchange","")</f>
         <v>Can exchange</v>
       </c>
     </row>
@@ -13796,7 +13764,7 @@
         <v>2024</v>
       </c>
       <c r="B195" s="37" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C195" s="38" t="s">
         <v>326</v>
@@ -13817,7 +13785,7 @@
         <v>0</v>
       </c>
       <c r="I195" s="33" t="str">
-        <f t="shared" ref="I195:I196" si="18">IF(OR(AND(G195&gt;1,G195&lt;&gt;"-"),AND(H195&gt;1,H195&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" si="17"/>
         <v>Can exchange</v>
       </c>
     </row>
@@ -13826,7 +13794,7 @@
         <v>2024</v>
       </c>
       <c r="B196" s="37" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C196" s="38" t="s">
         <v>326</v>
@@ -13847,6 +13815,36 @@
         <v>0</v>
       </c>
       <c r="I196" s="33" t="str">
+        <f t="shared" ref="I196:I197" si="18">IF(OR(AND(G196&gt;1,G196&lt;&gt;"-"),AND(H196&gt;1,H196&lt;&gt;"-")),"Can exchange","")</f>
+        <v>Can exchange</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A197" s="30">
+        <v>2024</v>
+      </c>
+      <c r="B197" s="37" t="s">
+        <v>376</v>
+      </c>
+      <c r="C197" s="38" t="s">
+        <v>326</v>
+      </c>
+      <c r="D197" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="E197" s="44" t="s">
+        <v>277</v>
+      </c>
+      <c r="F197" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G197" s="11">
+        <v>2</v>
+      </c>
+      <c r="H197" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I197" s="33" t="str">
         <f t="shared" si="18"/>
         <v>Can exchange</v>
       </c>
@@ -13860,8 +13858,8 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
-  <conditionalFormatting sqref="G110:H166 G109 G4:H108">
-    <cfRule type="containsText" dxfId="151" priority="65" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G4:H108 G109 G110:H167">
+    <cfRule type="containsText" dxfId="148" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="66">
@@ -13875,9 +13873,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G167:H167">
-    <cfRule type="containsText" dxfId="150" priority="63" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G167))))</formula>
+  <conditionalFormatting sqref="G168:H168">
+    <cfRule type="containsText" dxfId="147" priority="63" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G168))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="64">
       <colorScale>
@@ -13890,9 +13888,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G168:H168">
-    <cfRule type="containsText" dxfId="149" priority="61" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G168))))</formula>
+  <conditionalFormatting sqref="G169:H169">
+    <cfRule type="containsText" dxfId="146" priority="61" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G169))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="62">
       <colorScale>
@@ -13905,9 +13903,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G169:H169">
-    <cfRule type="containsText" dxfId="148" priority="59" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G169))))</formula>
+  <conditionalFormatting sqref="G170:H170">
+    <cfRule type="containsText" dxfId="145" priority="59" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G170))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="60">
       <colorScale>
@@ -13920,9 +13918,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G170:H170">
-    <cfRule type="containsText" dxfId="147" priority="57" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G170))))</formula>
+  <conditionalFormatting sqref="G171:H171">
+    <cfRule type="containsText" dxfId="144" priority="57" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G171))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="58">
       <colorScale>
@@ -13935,9 +13933,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G171:H171">
-    <cfRule type="containsText" dxfId="146" priority="55" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G171))))</formula>
+  <conditionalFormatting sqref="G172:H172">
+    <cfRule type="containsText" dxfId="143" priority="55" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G172))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="56">
       <colorScale>
@@ -13950,9 +13948,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G172:H172">
-    <cfRule type="containsText" dxfId="145" priority="53" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G172))))</formula>
+  <conditionalFormatting sqref="G173:H173">
+    <cfRule type="containsText" dxfId="142" priority="53" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G173))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="54">
       <colorScale>
@@ -13965,9 +13963,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G173:H173">
-    <cfRule type="containsText" dxfId="144" priority="51" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G173))))</formula>
+  <conditionalFormatting sqref="G174:H174">
+    <cfRule type="containsText" dxfId="141" priority="51" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G174))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="52">
       <colorScale>
@@ -13980,9 +13978,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G174:H174">
-    <cfRule type="containsText" dxfId="143" priority="49" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G174))))</formula>
+  <conditionalFormatting sqref="G175:H175">
+    <cfRule type="containsText" dxfId="140" priority="49" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G175))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="50">
       <colorScale>
@@ -13995,9 +13993,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G175:H175">
-    <cfRule type="containsText" dxfId="142" priority="47" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G175))))</formula>
+  <conditionalFormatting sqref="G176:H176">
+    <cfRule type="containsText" dxfId="139" priority="47" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G176))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="48">
       <colorScale>
@@ -14010,9 +14008,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G176:H176">
-    <cfRule type="containsText" dxfId="141" priority="45" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G176))))</formula>
+  <conditionalFormatting sqref="G177:H177">
+    <cfRule type="containsText" dxfId="138" priority="45" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G177))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="46">
       <colorScale>
@@ -14025,9 +14023,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G177:H177">
-    <cfRule type="containsText" dxfId="140" priority="43" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G177))))</formula>
+  <conditionalFormatting sqref="G178:H178">
+    <cfRule type="containsText" dxfId="137" priority="43" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G178))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
       <colorScale>
@@ -14040,9 +14038,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G178:H178">
-    <cfRule type="containsText" dxfId="139" priority="41" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G178))))</formula>
+  <conditionalFormatting sqref="G179:H179">
+    <cfRule type="containsText" dxfId="136" priority="41" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G179))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="42">
       <colorScale>
@@ -14055,9 +14053,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G179:H179">
-    <cfRule type="containsText" dxfId="138" priority="39" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G179))))</formula>
+  <conditionalFormatting sqref="G180:H180">
+    <cfRule type="containsText" dxfId="135" priority="39" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G180))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
       <colorScale>
@@ -14070,9 +14068,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G180:H180">
-    <cfRule type="containsText" dxfId="137" priority="37" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G180))))</formula>
+  <conditionalFormatting sqref="G181:H181">
+    <cfRule type="containsText" dxfId="134" priority="37" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G181))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="38">
       <colorScale>
@@ -14085,9 +14083,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G181:H181">
-    <cfRule type="containsText" dxfId="136" priority="33" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G181))))</formula>
+  <conditionalFormatting sqref="G182:H182">
+    <cfRule type="containsText" dxfId="133" priority="33" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G182))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="34">
       <colorScale>
@@ -14100,9 +14098,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G182:H182">
-    <cfRule type="containsText" dxfId="135" priority="31" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G182))))</formula>
+  <conditionalFormatting sqref="G183:H183">
+    <cfRule type="containsText" dxfId="132" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G183))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="32">
       <colorScale>
@@ -14115,9 +14113,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G183:H183">
-    <cfRule type="containsText" dxfId="134" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G183))))</formula>
+  <conditionalFormatting sqref="G184:H184">
+    <cfRule type="containsText" dxfId="131" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G184))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
       <colorScale>
@@ -14130,9 +14128,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G185:H185">
-    <cfRule type="containsText" dxfId="133" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G185))))</formula>
+  <conditionalFormatting sqref="G186:H186">
+    <cfRule type="containsText" dxfId="130" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G186))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="26">
       <colorScale>
@@ -14145,9 +14143,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G186:H186">
-    <cfRule type="containsText" dxfId="132" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G186))))</formula>
+  <conditionalFormatting sqref="G187:H187">
+    <cfRule type="containsText" dxfId="129" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G187))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
       <colorScale>
@@ -14160,9 +14158,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G187:H187">
-    <cfRule type="containsText" dxfId="131" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G187))))</formula>
+  <conditionalFormatting sqref="G188:H188">
+    <cfRule type="containsText" dxfId="128" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G188))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
       <colorScale>
@@ -14175,9 +14173,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G184:H184">
-    <cfRule type="containsText" dxfId="130" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G184))))</formula>
+  <conditionalFormatting sqref="G185:H185">
+    <cfRule type="containsText" dxfId="127" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G185))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
       <colorScale>
@@ -14190,9 +14188,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G188:H188">
-    <cfRule type="containsText" dxfId="129" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G188))))</formula>
+  <conditionalFormatting sqref="G189:H189">
+    <cfRule type="containsText" dxfId="126" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G189))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
       <colorScale>
@@ -14205,9 +14203,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G189:H189">
-    <cfRule type="containsText" dxfId="128" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G189))))</formula>
+  <conditionalFormatting sqref="G190:H190">
+    <cfRule type="containsText" dxfId="125" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G190))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
       <colorScale>
@@ -14220,9 +14218,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G190:H190">
-    <cfRule type="containsText" dxfId="127" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G190))))</formula>
+  <conditionalFormatting sqref="G191:H191">
+    <cfRule type="containsText" dxfId="124" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G191))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
       <colorScale>
@@ -14236,7 +14234,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H109">
-    <cfRule type="containsText" dxfId="126" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="123" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H109))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14253,7 +14251,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H3">
-    <cfRule type="containsText" dxfId="125" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="122" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -14267,9 +14265,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G191">
-    <cfRule type="containsText" dxfId="124" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G191))))</formula>
+  <conditionalFormatting sqref="G192">
+    <cfRule type="containsText" dxfId="121" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G192))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
       <colorScale>
@@ -14282,9 +14280,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H191">
-    <cfRule type="containsText" dxfId="123" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H191))))</formula>
+  <conditionalFormatting sqref="H192">
+    <cfRule type="containsText" dxfId="120" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H192))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
       <colorScale>
@@ -14297,9 +14295,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G192:H192 G194:H194 G196:H196">
-    <cfRule type="containsText" dxfId="122" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G192))))</formula>
+  <conditionalFormatting sqref="G193:H193 G195:H195 G197:H197">
+    <cfRule type="containsText" dxfId="119" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G193))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -14312,9 +14310,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G193:H193 G195:H195">
-    <cfRule type="containsText" dxfId="121" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G193))))</formula>
+  <conditionalFormatting sqref="G194:H194 G196:H196">
+    <cfRule type="containsText" dxfId="118" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G194))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -14338,10 +14336,10 @@
   <dimension ref="A1:I88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B42" sqref="B42"/>
+      <selection pane="bottomRight" activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -14355,29 +14353,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="54" t="s">
+      <c r="A1" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="55" t="s">
         <v>341</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="61" t="s">
+      <c r="D1" s="58"/>
+      <c r="E1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="62"/>
-      <c r="G1" s="63" t="s">
+      <c r="F1" s="63"/>
+      <c r="G1" s="64" t="s">
         <v>306</v>
       </c>
-      <c r="H1" s="64"/>
+      <c r="H1" s="65"/>
       <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="27" t="s">
         <v>4</v>
       </c>
@@ -15241,7 +15239,10 @@
         <v>276</v>
       </c>
       <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
+      <c r="D32" s="38" t="str">
+        <f>+C2</f>
+        <v>Subtype_1</v>
+      </c>
       <c r="E32" s="39" t="s">
         <v>277</v>
       </c>
@@ -16854,7 +16855,7 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="G15:H15 G17:H17 G26:H26 G19:H20 G22:H24">
-    <cfRule type="containsText" dxfId="120" priority="366" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="117" priority="366" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="367">
@@ -16869,7 +16870,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="119" priority="347" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="116" priority="347" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16886,7 +16887,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:H28">
-    <cfRule type="containsText" dxfId="118" priority="345" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="115" priority="345" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G28))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="346">
@@ -16901,7 +16902,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="117" priority="343" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="114" priority="343" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16918,7 +16919,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:H30">
-    <cfRule type="containsText" dxfId="116" priority="341" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="113" priority="341" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G30))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="342">
@@ -16933,7 +16934,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="containsText" dxfId="115" priority="339" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="112" priority="339" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16950,7 +16951,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:H32">
-    <cfRule type="containsText" dxfId="114" priority="333" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="111" priority="333" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="334">
@@ -16965,7 +16966,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="containsText" dxfId="113" priority="331" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="110" priority="331" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16982,7 +16983,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:H34 G38:H38">
-    <cfRule type="containsText" dxfId="112" priority="329" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="109" priority="329" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G34))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="330">
@@ -16997,7 +16998,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34 H38">
-    <cfRule type="containsText" dxfId="111" priority="327" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="108" priority="327" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H34))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17014,7 +17015,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33:H33 G36:H36 G40:H40">
-    <cfRule type="containsText" dxfId="110" priority="325" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="107" priority="325" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G33))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="326">
@@ -17029,7 +17030,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33 H36 H40">
-    <cfRule type="containsText" dxfId="109" priority="323" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="106" priority="323" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H33))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17046,7 +17047,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42:H42">
-    <cfRule type="containsText" dxfId="108" priority="321" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="105" priority="321" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G42))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="322">
@@ -17061,7 +17062,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="containsText" dxfId="107" priority="319" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="104" priority="319" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H42))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17078,7 +17079,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43:H43">
-    <cfRule type="containsText" dxfId="106" priority="317" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="103" priority="317" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G43))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="318">
@@ -17093,7 +17094,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="containsText" dxfId="105" priority="315" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="102" priority="315" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H43))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17110,7 +17111,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45:H45">
-    <cfRule type="containsText" dxfId="104" priority="313" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="101" priority="313" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G45))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="314">
@@ -17125,7 +17126,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="containsText" dxfId="103" priority="311" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="100" priority="311" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H45))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17142,7 +17143,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47:H47 G49:H49 G51:H51 G53:H53 G55:H56 G54">
-    <cfRule type="containsText" dxfId="102" priority="309" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="99" priority="309" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G47))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="310">
@@ -17157,11 +17158,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47 H49 H51 H53 H55:H56">
-    <cfRule type="containsText" dxfId="101" priority="307" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="98" priority="307" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H47))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47 H49 H51 H53 H55:H56">
+  <conditionalFormatting sqref="H49 H47 H51 H53 H55:H56">
     <cfRule type="colorScale" priority="308">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17174,7 +17175,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G48:H48 G50:H50 G52:H52 H54">
-    <cfRule type="containsText" dxfId="100" priority="305" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="97" priority="305" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G48))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="306">
@@ -17189,7 +17190,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48 H50 H52 H54">
-    <cfRule type="containsText" dxfId="99" priority="303" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="96" priority="303" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H48))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17206,7 +17207,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G61:H61 G63:H63 G65:H65 G67:H67 G69:H69">
-    <cfRule type="containsText" dxfId="98" priority="281" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="95" priority="281" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G61))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="282">
@@ -17221,11 +17222,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61 H63 H65 H67 H69">
-    <cfRule type="containsText" dxfId="97" priority="279" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="94" priority="279" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H61))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H61 H63 H65 H67 H69">
+  <conditionalFormatting sqref="H63 H61 H65 H67 H69">
     <cfRule type="colorScale" priority="280">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17238,7 +17239,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G60:H60 G62:H62 G64:H64 G66:H66 G68:H68 G70:H70 G73:H73">
-    <cfRule type="containsText" dxfId="96" priority="277" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="93" priority="277" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G60))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="278">
@@ -17253,11 +17254,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60 H62 H64 H66 H68 H70 H73">
-    <cfRule type="containsText" dxfId="95" priority="275" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="92" priority="275" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H60))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H60 H62 H64 H66 H68 H70 H73">
+  <conditionalFormatting sqref="H62 H60 H64 H66 H68 H70 H73">
     <cfRule type="colorScale" priority="276">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17270,7 +17271,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G58:H58">
-    <cfRule type="containsText" dxfId="94" priority="273" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="91" priority="273" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G58))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="274">
@@ -17285,7 +17286,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="containsText" dxfId="93" priority="271" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="90" priority="271" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H58))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17302,7 +17303,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G71:H71">
-    <cfRule type="containsText" dxfId="92" priority="269" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="89" priority="269" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G71))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="270">
@@ -17317,7 +17318,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="containsText" dxfId="91" priority="267" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="88" priority="267" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H71))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17334,7 +17335,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="containsText" dxfId="90" priority="253" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="87" priority="253" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="254">
@@ -17349,7 +17350,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="containsText" dxfId="89" priority="251" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="86" priority="251" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="252">
@@ -17364,7 +17365,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="containsText" dxfId="88" priority="249" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="85" priority="249" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G25))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="250">
@@ -17379,7 +17380,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:H27">
-    <cfRule type="containsText" dxfId="87" priority="241" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="84" priority="241" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="242">
@@ -17394,7 +17395,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="86" priority="239" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="83" priority="239" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17411,7 +17412,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G75:H75">
-    <cfRule type="containsText" dxfId="85" priority="189" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="82" priority="189" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G75))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="190">
@@ -17426,7 +17427,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H75">
-    <cfRule type="containsText" dxfId="84" priority="187" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="81" priority="187" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H75))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17443,7 +17444,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G77:H77">
-    <cfRule type="containsText" dxfId="83" priority="181" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="80" priority="181" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G77))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="182">
@@ -17458,7 +17459,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H77">
-    <cfRule type="containsText" dxfId="82" priority="179" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="79" priority="179" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H77))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17475,7 +17476,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G79:H79">
-    <cfRule type="containsText" dxfId="81" priority="173" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="78" priority="173" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G79))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="174">
@@ -17490,7 +17491,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H79">
-    <cfRule type="containsText" dxfId="80" priority="171" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="77" priority="171" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H79))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17507,7 +17508,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G81:H81">
-    <cfRule type="containsText" dxfId="79" priority="169" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="76" priority="169" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G81))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="170">
@@ -17522,7 +17523,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H81">
-    <cfRule type="containsText" dxfId="78" priority="167" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="75" priority="167" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H81))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17539,7 +17540,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G83:H83">
-    <cfRule type="containsText" dxfId="77" priority="165" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="74" priority="165" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G83))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="166">
@@ -17554,7 +17555,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H83">
-    <cfRule type="containsText" dxfId="76" priority="163" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="73" priority="163" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H83))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17571,7 +17572,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G85:H85">
-    <cfRule type="containsText" dxfId="75" priority="161" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="72" priority="161" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G85))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="162">
@@ -17586,7 +17587,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H85">
-    <cfRule type="containsText" dxfId="74" priority="159" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="71" priority="159" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H85))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17603,7 +17604,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="containsText" dxfId="73" priority="141" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="70" priority="141" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17620,7 +17621,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:H29">
-    <cfRule type="containsText" dxfId="72" priority="139" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="69" priority="139" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="140">
@@ -17635,7 +17636,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="71" priority="137" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="68" priority="137" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17652,7 +17653,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="containsText" dxfId="70" priority="135" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="67" priority="135" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17669,7 +17670,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35:H35">
-    <cfRule type="containsText" dxfId="69" priority="133" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="66" priority="133" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G35))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="134">
@@ -17684,7 +17685,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="containsText" dxfId="68" priority="131" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="65" priority="131" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17701,7 +17702,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="containsText" dxfId="67" priority="129" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="64" priority="129" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17718,7 +17719,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44:H44">
-    <cfRule type="containsText" dxfId="66" priority="127" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="63" priority="127" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G44))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="128">
@@ -17733,7 +17734,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="containsText" dxfId="65" priority="125" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="62" priority="125" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H44))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17750,7 +17751,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="containsText" dxfId="64" priority="123" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="61" priority="123" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G44))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17767,7 +17768,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46:H46">
-    <cfRule type="containsText" dxfId="63" priority="121" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="60" priority="121" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G46))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="122">
@@ -17782,7 +17783,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="containsText" dxfId="62" priority="119" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="119" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H46))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17799,7 +17800,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46">
-    <cfRule type="containsText" dxfId="61" priority="117" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="117" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G46))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17816,7 +17817,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G59:H59">
-    <cfRule type="containsText" dxfId="60" priority="115" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="115" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G59))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="116">
@@ -17831,7 +17832,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="containsText" dxfId="59" priority="113" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="113" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H59))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17848,7 +17849,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G59">
-    <cfRule type="containsText" dxfId="58" priority="111" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="111" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G59))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17865,7 +17866,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G57:H57">
-    <cfRule type="containsText" dxfId="57" priority="109" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="109" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G57))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="110">
@@ -17880,7 +17881,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57">
-    <cfRule type="containsText" dxfId="56" priority="107" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="107" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H57))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17897,7 +17898,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G57">
-    <cfRule type="containsText" dxfId="55" priority="105" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="105" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G57))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17914,7 +17915,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G80:H80">
-    <cfRule type="containsText" dxfId="54" priority="103" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="103" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G80))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="104">
@@ -17929,7 +17930,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H80">
-    <cfRule type="containsText" dxfId="53" priority="101" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="101" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H80))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17946,7 +17947,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G80">
-    <cfRule type="containsText" dxfId="52" priority="99" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="99" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G80))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17963,7 +17964,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G78:H78">
-    <cfRule type="containsText" dxfId="51" priority="97" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="97" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G78))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="98">
@@ -17978,7 +17979,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H78">
-    <cfRule type="containsText" dxfId="50" priority="95" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="95" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H78))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17995,7 +17996,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G78">
-    <cfRule type="containsText" dxfId="49" priority="93" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="93" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G78))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18012,7 +18013,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G76:H76">
-    <cfRule type="containsText" dxfId="48" priority="91" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="91" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G76))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="92">
@@ -18027,7 +18028,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H76">
-    <cfRule type="containsText" dxfId="47" priority="89" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="89" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H76))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18044,7 +18045,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G76">
-    <cfRule type="containsText" dxfId="46" priority="87" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="87" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G76))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18061,7 +18062,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G74:H74">
-    <cfRule type="containsText" dxfId="45" priority="85" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="85" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G74))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="86">
@@ -18076,7 +18077,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H74">
-    <cfRule type="containsText" dxfId="44" priority="83" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="83" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H74))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18093,7 +18094,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G74">
-    <cfRule type="containsText" dxfId="43" priority="81" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="81" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G74))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18110,7 +18111,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G72:H72">
-    <cfRule type="containsText" dxfId="42" priority="79" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="79" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G72))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="80">
@@ -18125,7 +18126,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H72">
-    <cfRule type="containsText" dxfId="41" priority="77" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="77" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H72))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18142,7 +18143,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G72">
-    <cfRule type="containsText" dxfId="40" priority="75" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="75" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G72))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18159,7 +18160,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G82:H82">
-    <cfRule type="containsText" dxfId="39" priority="73" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="73" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G82))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="74">
@@ -18174,7 +18175,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H82">
-    <cfRule type="containsText" dxfId="38" priority="71" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="71" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H82))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18191,7 +18192,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G82">
-    <cfRule type="containsText" dxfId="37" priority="69" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="69" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G82))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18208,7 +18209,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G86:H86">
-    <cfRule type="containsText" dxfId="36" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G86))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="68">
@@ -18223,7 +18224,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H86">
-    <cfRule type="containsText" dxfId="35" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H86))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18240,7 +18241,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G86">
-    <cfRule type="containsText" dxfId="34" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G86))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18257,7 +18258,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G84:H84">
-    <cfRule type="containsText" dxfId="33" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G84))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="62">
@@ -18272,7 +18273,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H84">
-    <cfRule type="containsText" dxfId="32" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H84))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18289,7 +18290,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G84">
-    <cfRule type="containsText" dxfId="31" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G84))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18306,7 +18307,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G37:H37">
-    <cfRule type="containsText" dxfId="30" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G37))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="56">
@@ -18321,7 +18322,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="containsText" dxfId="29" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H37))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18338,7 +18339,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G37">
-    <cfRule type="containsText" dxfId="28" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G37))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18355,7 +18356,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41:H41">
-    <cfRule type="containsText" dxfId="27" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G41))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="50">
@@ -18370,7 +18371,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="containsText" dxfId="26" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H41))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18387,7 +18388,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="containsText" dxfId="25" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G41))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18404,7 +18405,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G39:H39">
-    <cfRule type="containsText" dxfId="24" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G39))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
@@ -18419,7 +18420,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="containsText" dxfId="23" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H39))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18436,7 +18437,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G39">
-    <cfRule type="containsText" dxfId="22" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G39))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18453,7 +18454,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="containsText" dxfId="21" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H25))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="38">
@@ -18468,7 +18469,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="containsText" dxfId="20" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="36">
@@ -18483,7 +18484,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="containsText" dxfId="19" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="34">
@@ -18498,7 +18499,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="containsText" dxfId="18" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G18))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="32">
@@ -18513,7 +18514,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="containsText" dxfId="17" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -18528,7 +18529,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="containsText" dxfId="16" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="28">
@@ -18543,7 +18544,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="15" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="26">
@@ -18558,7 +18559,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="containsText" dxfId="14" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18575,7 +18576,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:H31">
-    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G31))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -18590,7 +18591,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H31))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18607,7 +18608,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G31))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18624,7 +18625,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H8">
-    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -18639,7 +18640,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:G14">
-    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -18654,7 +18655,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H14">
-    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -18669,7 +18670,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G87:H87">
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G87))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -18684,7 +18685,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H87">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H87))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18701,7 +18702,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G88:H88">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G88))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -18716,7 +18717,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H88">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H88))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18733,7 +18734,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G88">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G88))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/Russia/#Russia#Russian_Federation#Commemorative#[1999-present]#circulation_quality.xlsx
+++ b/Collections/Russia/#Russia#Russian_Federation#Commemorative#[1999-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Russia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001CD8A5-0C3B-4CCF-9C66-E2F1444D2B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3C1388-EC06-4B18-B79F-68D4AAF9E18E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5660" yWindow="1450" windowWidth="28720" windowHeight="19550" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1₽ " sheetId="1" r:id="rId1"/>
@@ -2020,6 +2020,15 @@
     <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="174">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3388,15 +3397,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -3427,9 +3427,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="173"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="172" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="171"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -4469,7 +4469,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H3">
-    <cfRule type="containsText" dxfId="170" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="173" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4486,7 +4486,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="169" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="172" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4503,7 +4503,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="containsText" dxfId="168" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="171" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4520,7 +4520,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="167" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="170" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4537,7 +4537,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="166" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="169" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4554,7 +4554,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:H18">
-    <cfRule type="containsText" dxfId="165" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="168" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4571,7 +4571,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G17">
-    <cfRule type="containsText" dxfId="164" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="167" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4588,7 +4588,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H17">
-    <cfRule type="containsText" dxfId="163" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="166" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4605,7 +4605,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:G28">
-    <cfRule type="containsText" dxfId="162" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="165" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4622,7 +4622,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19:H28">
-    <cfRule type="containsText" dxfId="161" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="164" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5734,7 +5734,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:H31">
-    <cfRule type="containsText" dxfId="160" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="163" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -5749,7 +5749,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="159" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="162" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -5764,7 +5764,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="158" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="161" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -5779,7 +5779,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:G38">
-    <cfRule type="containsText" dxfId="157" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="160" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -5794,7 +5794,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:H38">
-    <cfRule type="containsText" dxfId="156" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="159" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -7847,7 +7847,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G16:H65 G3:H8">
-    <cfRule type="containsText" dxfId="155" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="158" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -7862,7 +7862,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66">
-    <cfRule type="containsText" dxfId="154" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="157" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H66))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -7877,7 +7877,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:G15">
-    <cfRule type="containsText" dxfId="153" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="156" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -7892,7 +7892,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H15">
-    <cfRule type="containsText" dxfId="152" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="155" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -7907,7 +7907,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G67:G71">
-    <cfRule type="containsText" dxfId="151" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="154" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G67))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -7922,7 +7922,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H67:H71">
-    <cfRule type="containsText" dxfId="150" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="153" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H67))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -7937,7 +7937,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G66">
-    <cfRule type="containsText" dxfId="149" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="152" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G66))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7963,11 +7963,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I197"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="9" ySplit="2" topLeftCell="J162" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1:D1"/>
+      <selection pane="bottomRight" activeCell="J191" sqref="J191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -13689,7 +13689,7 @@
         <v>0</v>
       </c>
       <c r="G192" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H192" s="14" t="s">
         <v>0</v>
@@ -13859,7 +13859,7 @@
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="G4:H108 G109 G110:H167">
-    <cfRule type="containsText" dxfId="148" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="151" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="66">
@@ -13874,7 +13874,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G168:H168">
-    <cfRule type="containsText" dxfId="147" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="150" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G168))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="64">
@@ -13889,7 +13889,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G169:H169">
-    <cfRule type="containsText" dxfId="146" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="149" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G169))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="62">
@@ -13904,7 +13904,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G170:H170">
-    <cfRule type="containsText" dxfId="145" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="148" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G170))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="60">
@@ -13919,7 +13919,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G171:H171">
-    <cfRule type="containsText" dxfId="144" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="147" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G171))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="58">
@@ -13934,7 +13934,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G172:H172">
-    <cfRule type="containsText" dxfId="143" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="146" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G172))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="56">
@@ -13949,7 +13949,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G173:H173">
-    <cfRule type="containsText" dxfId="142" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="145" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G173))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="54">
@@ -13964,7 +13964,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G174:H174">
-    <cfRule type="containsText" dxfId="141" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="144" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G174))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="52">
@@ -13979,7 +13979,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G175:H175">
-    <cfRule type="containsText" dxfId="140" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="143" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G175))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="50">
@@ -13994,7 +13994,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G176:H176">
-    <cfRule type="containsText" dxfId="139" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="142" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G176))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="48">
@@ -14009,7 +14009,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G177:H177">
-    <cfRule type="containsText" dxfId="138" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="141" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G177))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="46">
@@ -14024,7 +14024,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G178:H178">
-    <cfRule type="containsText" dxfId="137" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="140" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G178))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
@@ -14039,7 +14039,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G179:H179">
-    <cfRule type="containsText" dxfId="136" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="139" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G179))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="42">
@@ -14054,7 +14054,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G180:H180">
-    <cfRule type="containsText" dxfId="135" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="138" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G180))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
@@ -14069,7 +14069,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G181:H181">
-    <cfRule type="containsText" dxfId="134" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="137" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G181))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="38">
@@ -14084,7 +14084,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G182:H182">
-    <cfRule type="containsText" dxfId="133" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="136" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G182))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="34">
@@ -14099,7 +14099,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G183:H183">
-    <cfRule type="containsText" dxfId="132" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="135" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G183))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="32">
@@ -14114,7 +14114,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G184:H184">
-    <cfRule type="containsText" dxfId="131" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="134" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G184))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -14129,7 +14129,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G186:H186">
-    <cfRule type="containsText" dxfId="130" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="133" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G186))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="26">
@@ -14144,7 +14144,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G187:H187">
-    <cfRule type="containsText" dxfId="129" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="132" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G187))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
@@ -14159,7 +14159,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G188:H188">
-    <cfRule type="containsText" dxfId="128" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="131" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G188))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -14174,7 +14174,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G185:H185">
-    <cfRule type="containsText" dxfId="127" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="130" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G185))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -14189,7 +14189,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G189:H189">
-    <cfRule type="containsText" dxfId="126" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="129" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G189))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -14204,7 +14204,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G190:H190">
-    <cfRule type="containsText" dxfId="125" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="128" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G190))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -14219,7 +14219,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G191:H191">
-    <cfRule type="containsText" dxfId="124" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="127" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G191))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -14234,7 +14234,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H109">
-    <cfRule type="containsText" dxfId="123" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="126" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H109))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14251,7 +14251,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H3">
-    <cfRule type="containsText" dxfId="122" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="125" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -14266,7 +14266,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G192">
-    <cfRule type="containsText" dxfId="121" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="124" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G192))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -14281,7 +14281,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H192">
-    <cfRule type="containsText" dxfId="120" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="123" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H192))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -14296,7 +14296,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G193:H193 G195:H195 G197:H197">
-    <cfRule type="containsText" dxfId="119" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="122" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G193))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -14311,7 +14311,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G194:H194 G196:H196">
-    <cfRule type="containsText" dxfId="118" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="121" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G194))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -14335,11 +14335,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="9" ySplit="2" topLeftCell="J54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L36" sqref="L36"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -16855,7 +16855,7 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="G15:H15 G17:H17 G26:H26 G19:H20 G22:H24">
-    <cfRule type="containsText" dxfId="117" priority="366" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="120" priority="366" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="367">
@@ -16870,7 +16870,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="116" priority="347" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="119" priority="347" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16887,7 +16887,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:H28">
-    <cfRule type="containsText" dxfId="115" priority="345" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="118" priority="345" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G28))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="346">
@@ -16902,7 +16902,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="114" priority="343" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="117" priority="343" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16919,7 +16919,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:H30">
-    <cfRule type="containsText" dxfId="113" priority="341" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="116" priority="341" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G30))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="342">
@@ -16934,7 +16934,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="containsText" dxfId="112" priority="339" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="115" priority="339" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16951,7 +16951,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:H32">
-    <cfRule type="containsText" dxfId="111" priority="333" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="114" priority="333" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="334">
@@ -16966,7 +16966,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="containsText" dxfId="110" priority="331" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="113" priority="331" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16983,7 +16983,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:H34 G38:H38">
-    <cfRule type="containsText" dxfId="109" priority="329" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="112" priority="329" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G34))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="330">
@@ -16998,11 +16998,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34 H38">
-    <cfRule type="containsText" dxfId="108" priority="327" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="111" priority="327" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H34))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H38 H34">
+  <conditionalFormatting sqref="H34 H38">
     <cfRule type="colorScale" priority="328">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17015,7 +17015,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33:H33 G36:H36 G40:H40">
-    <cfRule type="containsText" dxfId="107" priority="325" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="110" priority="325" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G33))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="326">
@@ -17030,11 +17030,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33 H36 H40">
-    <cfRule type="containsText" dxfId="106" priority="323" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="109" priority="323" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H33))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H36 H33 H40">
+  <conditionalFormatting sqref="H33 H36 H40">
     <cfRule type="colorScale" priority="324">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17047,7 +17047,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42:H42">
-    <cfRule type="containsText" dxfId="105" priority="321" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="108" priority="321" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G42))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="322">
@@ -17062,7 +17062,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="containsText" dxfId="104" priority="319" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="107" priority="319" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H42))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17079,7 +17079,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43:H43">
-    <cfRule type="containsText" dxfId="103" priority="317" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="106" priority="317" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G43))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="318">
@@ -17094,7 +17094,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="containsText" dxfId="102" priority="315" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="105" priority="315" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H43))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17111,7 +17111,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45:H45">
-    <cfRule type="containsText" dxfId="101" priority="313" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="104" priority="313" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G45))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="314">
@@ -17126,7 +17126,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="containsText" dxfId="100" priority="311" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="103" priority="311" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H45))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17143,7 +17143,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47:H47 G49:H49 G51:H51 G53:H53 G55:H56 G54">
-    <cfRule type="containsText" dxfId="99" priority="309" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="102" priority="309" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G47))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="310">
@@ -17158,11 +17158,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47 H49 H51 H53 H55:H56">
-    <cfRule type="containsText" dxfId="98" priority="307" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="101" priority="307" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H47))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H49 H47 H51 H53 H55:H56">
+  <conditionalFormatting sqref="H47 H49 H51 H53 H55:H56">
     <cfRule type="colorScale" priority="308">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17175,7 +17175,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G48:H48 G50:H50 G52:H52 H54">
-    <cfRule type="containsText" dxfId="97" priority="305" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="100" priority="305" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G48))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="306">
@@ -17190,11 +17190,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48 H50 H52 H54">
-    <cfRule type="containsText" dxfId="96" priority="303" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="99" priority="303" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H48))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H50 H48 H52 H54">
+  <conditionalFormatting sqref="H48 H50 H52 H54">
     <cfRule type="colorScale" priority="304">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17207,7 +17207,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G61:H61 G63:H63 G65:H65 G67:H67 G69:H69">
-    <cfRule type="containsText" dxfId="95" priority="281" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="98" priority="281" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G61))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="282">
@@ -17222,11 +17222,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61 H63 H65 H67 H69">
-    <cfRule type="containsText" dxfId="94" priority="279" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="97" priority="279" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H61))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H63 H61 H65 H67 H69">
+  <conditionalFormatting sqref="H61 H63 H65 H67 H69">
     <cfRule type="colorScale" priority="280">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17239,7 +17239,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G60:H60 G62:H62 G64:H64 G66:H66 G68:H68 G70:H70 G73:H73">
-    <cfRule type="containsText" dxfId="93" priority="277" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="96" priority="277" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G60))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="278">
@@ -17254,11 +17254,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60 H62 H64 H66 H68 H70 H73">
-    <cfRule type="containsText" dxfId="92" priority="275" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="95" priority="275" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H60))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H62 H60 H64 H66 H68 H70 H73">
+  <conditionalFormatting sqref="H60 H62 H64 H66 H68 H70 H73">
     <cfRule type="colorScale" priority="276">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17271,7 +17271,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G58:H58">
-    <cfRule type="containsText" dxfId="91" priority="273" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="94" priority="273" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G58))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="274">
@@ -17286,7 +17286,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="containsText" dxfId="90" priority="271" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="93" priority="271" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H58))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17303,7 +17303,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G71:H71">
-    <cfRule type="containsText" dxfId="89" priority="269" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="92" priority="269" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G71))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="270">
@@ -17318,7 +17318,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="containsText" dxfId="88" priority="267" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="91" priority="267" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H71))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17335,7 +17335,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="containsText" dxfId="87" priority="253" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="90" priority="253" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="254">
@@ -17350,7 +17350,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="containsText" dxfId="86" priority="251" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="89" priority="251" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="252">
@@ -17365,7 +17365,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="containsText" dxfId="85" priority="249" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="88" priority="249" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G25))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="250">
@@ -17380,7 +17380,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:H27">
-    <cfRule type="containsText" dxfId="84" priority="241" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="87" priority="241" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="242">
@@ -17395,7 +17395,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="83" priority="239" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="86" priority="239" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17412,7 +17412,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G75:H75">
-    <cfRule type="containsText" dxfId="82" priority="189" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="85" priority="189" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G75))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="190">
@@ -17427,7 +17427,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H75">
-    <cfRule type="containsText" dxfId="81" priority="187" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="84" priority="187" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H75))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17444,7 +17444,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G77:H77">
-    <cfRule type="containsText" dxfId="80" priority="181" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="83" priority="181" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G77))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="182">
@@ -17459,7 +17459,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H77">
-    <cfRule type="containsText" dxfId="79" priority="179" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="82" priority="179" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H77))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17476,7 +17476,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G79:H79">
-    <cfRule type="containsText" dxfId="78" priority="173" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="81" priority="173" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G79))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="174">
@@ -17491,7 +17491,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H79">
-    <cfRule type="containsText" dxfId="77" priority="171" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="80" priority="171" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H79))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17508,7 +17508,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G81:H81">
-    <cfRule type="containsText" dxfId="76" priority="169" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="79" priority="169" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G81))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="170">
@@ -17523,7 +17523,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H81">
-    <cfRule type="containsText" dxfId="75" priority="167" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="78" priority="167" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H81))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17540,7 +17540,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G83:H83">
-    <cfRule type="containsText" dxfId="74" priority="165" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="77" priority="165" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G83))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="166">
@@ -17555,7 +17555,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H83">
-    <cfRule type="containsText" dxfId="73" priority="163" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="76" priority="163" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H83))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17572,7 +17572,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G85:H85">
-    <cfRule type="containsText" dxfId="72" priority="161" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="75" priority="161" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G85))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="162">
@@ -17587,7 +17587,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H85">
-    <cfRule type="containsText" dxfId="71" priority="159" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="74" priority="159" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H85))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17604,7 +17604,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="containsText" dxfId="70" priority="141" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="73" priority="141" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17621,7 +17621,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:H29">
-    <cfRule type="containsText" dxfId="69" priority="139" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="72" priority="139" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="140">
@@ -17636,7 +17636,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="68" priority="137" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="71" priority="137" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17653,7 +17653,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="containsText" dxfId="67" priority="135" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="70" priority="135" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17670,7 +17670,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35:H35">
-    <cfRule type="containsText" dxfId="66" priority="133" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="69" priority="133" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G35))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="134">
@@ -17685,7 +17685,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="containsText" dxfId="65" priority="131" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="68" priority="131" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17702,7 +17702,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="containsText" dxfId="64" priority="129" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="67" priority="129" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17719,7 +17719,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44:H44">
-    <cfRule type="containsText" dxfId="63" priority="127" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="66" priority="127" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G44))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="128">
@@ -17734,7 +17734,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="containsText" dxfId="62" priority="125" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="65" priority="125" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H44))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17751,7 +17751,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="containsText" dxfId="61" priority="123" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="64" priority="123" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G44))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17768,7 +17768,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46:H46">
-    <cfRule type="containsText" dxfId="60" priority="121" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="63" priority="121" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G46))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="122">
@@ -17783,7 +17783,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="containsText" dxfId="59" priority="119" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="62" priority="119" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H46))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17800,7 +17800,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46">
-    <cfRule type="containsText" dxfId="58" priority="117" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="61" priority="117" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G46))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17817,7 +17817,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G59:H59">
-    <cfRule type="containsText" dxfId="57" priority="115" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="60" priority="115" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G59))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="116">
@@ -17832,7 +17832,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="containsText" dxfId="56" priority="113" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="113" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H59))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17849,7 +17849,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G59">
-    <cfRule type="containsText" dxfId="55" priority="111" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="111" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G59))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17866,7 +17866,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G57:H57">
-    <cfRule type="containsText" dxfId="54" priority="109" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="109" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G57))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="110">
@@ -17881,7 +17881,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57">
-    <cfRule type="containsText" dxfId="53" priority="107" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="107" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H57))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17898,7 +17898,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G57">
-    <cfRule type="containsText" dxfId="52" priority="105" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="105" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G57))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17915,7 +17915,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G80:H80">
-    <cfRule type="containsText" dxfId="51" priority="103" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="103" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G80))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="104">
@@ -17930,7 +17930,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H80">
-    <cfRule type="containsText" dxfId="50" priority="101" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="101" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H80))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17947,7 +17947,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G80">
-    <cfRule type="containsText" dxfId="49" priority="99" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="99" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G80))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17964,7 +17964,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G78:H78">
-    <cfRule type="containsText" dxfId="48" priority="97" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="97" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G78))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="98">
@@ -17979,7 +17979,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H78">
-    <cfRule type="containsText" dxfId="47" priority="95" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="95" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H78))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17996,7 +17996,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G78">
-    <cfRule type="containsText" dxfId="46" priority="93" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="93" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G78))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18013,7 +18013,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G76:H76">
-    <cfRule type="containsText" dxfId="45" priority="91" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="91" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G76))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="92">
@@ -18028,7 +18028,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H76">
-    <cfRule type="containsText" dxfId="44" priority="89" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="89" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H76))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18045,7 +18045,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G76">
-    <cfRule type="containsText" dxfId="43" priority="87" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="87" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G76))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18062,7 +18062,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G74:H74">
-    <cfRule type="containsText" dxfId="42" priority="85" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="85" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G74))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="86">
@@ -18077,7 +18077,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H74">
-    <cfRule type="containsText" dxfId="41" priority="83" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="83" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H74))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18094,7 +18094,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G74">
-    <cfRule type="containsText" dxfId="40" priority="81" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="81" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G74))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18111,7 +18111,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G72:H72">
-    <cfRule type="containsText" dxfId="39" priority="79" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="79" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G72))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="80">
@@ -18126,7 +18126,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H72">
-    <cfRule type="containsText" dxfId="38" priority="77" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="77" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H72))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18143,7 +18143,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G72">
-    <cfRule type="containsText" dxfId="37" priority="75" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="75" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G72))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18160,7 +18160,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G82:H82">
-    <cfRule type="containsText" dxfId="36" priority="73" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="73" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G82))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="74">
@@ -18175,7 +18175,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H82">
-    <cfRule type="containsText" dxfId="35" priority="71" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="71" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H82))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18192,7 +18192,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G82">
-    <cfRule type="containsText" dxfId="34" priority="69" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="69" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G82))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18209,7 +18209,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G86:H86">
-    <cfRule type="containsText" dxfId="33" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G86))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="68">
@@ -18224,7 +18224,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H86">
-    <cfRule type="containsText" dxfId="32" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H86))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18241,7 +18241,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G86">
-    <cfRule type="containsText" dxfId="31" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G86))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18258,7 +18258,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G84:H84">
-    <cfRule type="containsText" dxfId="30" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G84))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="62">
@@ -18273,7 +18273,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H84">
-    <cfRule type="containsText" dxfId="29" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H84))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18290,7 +18290,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G84">
-    <cfRule type="containsText" dxfId="28" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G84))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18307,7 +18307,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G37:H37">
-    <cfRule type="containsText" dxfId="27" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G37))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="56">
@@ -18322,7 +18322,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="containsText" dxfId="26" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H37))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18339,7 +18339,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G37">
-    <cfRule type="containsText" dxfId="25" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G37))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18356,7 +18356,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41:H41">
-    <cfRule type="containsText" dxfId="24" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G41))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="50">
@@ -18371,7 +18371,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="containsText" dxfId="23" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H41))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18388,7 +18388,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="containsText" dxfId="22" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G41))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18405,7 +18405,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G39:H39">
-    <cfRule type="containsText" dxfId="21" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G39))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
@@ -18420,7 +18420,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="containsText" dxfId="20" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H39))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18437,7 +18437,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G39">
-    <cfRule type="containsText" dxfId="19" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G39))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18454,7 +18454,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="containsText" dxfId="18" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H25))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="38">
@@ -18469,7 +18469,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="containsText" dxfId="17" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="36">
@@ -18484,7 +18484,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="containsText" dxfId="16" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="34">
@@ -18499,7 +18499,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="containsText" dxfId="15" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G18))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="32">
@@ -18514,7 +18514,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="containsText" dxfId="14" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -18529,7 +18529,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="containsText" dxfId="13" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="28">
@@ -18544,7 +18544,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="12" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="26">
@@ -18559,7 +18559,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="containsText" dxfId="11" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18576,7 +18576,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:H31">
-    <cfRule type="containsText" dxfId="10" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G31))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -18591,7 +18591,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="containsText" dxfId="9" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H31))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18608,7 +18608,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="containsText" dxfId="8" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G31))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18625,7 +18625,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H8">
-    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -18640,7 +18640,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:G14">
-    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -18655,7 +18655,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H14">
-    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -18670,7 +18670,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G87:H87">
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G87))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -18685,7 +18685,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H87">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H87))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18702,7 +18702,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G88:H88">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G88))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -18717,7 +18717,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H88">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H88))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18734,7 +18734,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G88">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G88))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/Russia/#Russia#Russian_Federation#Commemorative#[1999-present]#circulation_quality.xlsx
+++ b/Collections/Russia/#Russia#Russian_Federation#Commemorative#[1999-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Russia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3C1388-EC06-4B18-B79F-68D4AAF9E18E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D169F3-6D8B-4FF8-BE03-119550512CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5660" yWindow="1450" windowWidth="28720" windowHeight="19550" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5660" yWindow="1450" windowWidth="28720" windowHeight="19550" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1₽ " sheetId="1" r:id="rId1"/>
@@ -407,7 +407,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2343" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2342" uniqueCount="381">
   <si>
     <t>-</t>
   </si>
@@ -1556,7 +1556,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1677,6 +1677,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -1825,7 +1832,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2013,13 +2020,32 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="174">
+  <dxfs count="176">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -3427,9 +3453,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="3" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -4469,7 +4495,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H3">
-    <cfRule type="containsText" dxfId="173" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="175" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4486,7 +4512,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="172" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="174" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4503,7 +4529,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="containsText" dxfId="171" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="173" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4520,7 +4546,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="170" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="172" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4537,7 +4563,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="169" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="171" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4554,7 +4580,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:H18">
-    <cfRule type="containsText" dxfId="168" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="170" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4571,7 +4597,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G17">
-    <cfRule type="containsText" dxfId="167" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="169" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4588,7 +4614,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H17">
-    <cfRule type="containsText" dxfId="166" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="168" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4605,7 +4631,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:G28">
-    <cfRule type="containsText" dxfId="165" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="167" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4622,7 +4648,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19:H28">
-    <cfRule type="containsText" dxfId="164" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="166" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5734,7 +5760,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:H31">
-    <cfRule type="containsText" dxfId="163" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="165" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -5749,7 +5775,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="162" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="164" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -5764,7 +5790,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="161" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="163" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -5779,7 +5805,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:G38">
-    <cfRule type="containsText" dxfId="160" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="162" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -5794,7 +5820,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:H38">
-    <cfRule type="containsText" dxfId="159" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="161" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -7847,7 +7873,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G16:H65 G3:H8">
-    <cfRule type="containsText" dxfId="158" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="160" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -7862,7 +7888,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66">
-    <cfRule type="containsText" dxfId="157" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="159" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H66))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -7877,7 +7903,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:G15">
-    <cfRule type="containsText" dxfId="156" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="158" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -7892,7 +7918,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H15">
-    <cfRule type="containsText" dxfId="155" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="157" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -7907,7 +7933,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G67:G71">
-    <cfRule type="containsText" dxfId="154" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="156" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G67))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -7922,7 +7948,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H67:H71">
-    <cfRule type="containsText" dxfId="153" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="155" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H67))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -7937,7 +7963,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G66">
-    <cfRule type="containsText" dxfId="152" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="154" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G66))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7963,11 +7989,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I197"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J162" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="9" ySplit="2" topLeftCell="J24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J191" sqref="J191"/>
+      <selection pane="bottomRight" activeCell="A123" sqref="A123:XFD123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9388,10 +9414,10 @@
         <v>176</v>
       </c>
       <c r="G48" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" s="33" t="str">
         <f t="shared" si="2"/>
@@ -9418,7 +9444,7 @@
         <v>176</v>
       </c>
       <c r="G49" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" s="13">
         <v>1</v>
@@ -9451,7 +9477,7 @@
         <v>2</v>
       </c>
       <c r="H50" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" s="33" t="str">
         <f t="shared" si="2"/>
@@ -9478,7 +9504,7 @@
         <v>176</v>
       </c>
       <c r="G51" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" s="11">
         <v>1</v>
@@ -9511,7 +9537,7 @@
         <v>1</v>
       </c>
       <c r="H52" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" s="33" t="str">
         <f t="shared" si="2"/>
@@ -9538,7 +9564,7 @@
         <v>176</v>
       </c>
       <c r="G53" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" s="13">
         <v>1</v>
@@ -9691,7 +9717,7 @@
         <v>1</v>
       </c>
       <c r="H58" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" s="33" t="str">
         <f t="shared" si="2"/>
@@ -9781,7 +9807,7 @@
         <v>1</v>
       </c>
       <c r="H61" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" s="33" t="str">
         <f t="shared" si="2"/>
@@ -13859,7 +13885,7 @@
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="G4:H108 G109 G110:H167">
-    <cfRule type="containsText" dxfId="151" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="153" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="66">
@@ -13874,7 +13900,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G168:H168">
-    <cfRule type="containsText" dxfId="150" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="152" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G168))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="64">
@@ -13889,7 +13915,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G169:H169">
-    <cfRule type="containsText" dxfId="149" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="151" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G169))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="62">
@@ -13904,7 +13930,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G170:H170">
-    <cfRule type="containsText" dxfId="148" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="150" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G170))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="60">
@@ -13919,7 +13945,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G171:H171">
-    <cfRule type="containsText" dxfId="147" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="149" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G171))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="58">
@@ -13934,7 +13960,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G172:H172">
-    <cfRule type="containsText" dxfId="146" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="148" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G172))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="56">
@@ -13949,7 +13975,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G173:H173">
-    <cfRule type="containsText" dxfId="145" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="147" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G173))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="54">
@@ -13964,7 +13990,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G174:H174">
-    <cfRule type="containsText" dxfId="144" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="146" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G174))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="52">
@@ -13979,7 +14005,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G175:H175">
-    <cfRule type="containsText" dxfId="143" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="145" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G175))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="50">
@@ -13994,7 +14020,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G176:H176">
-    <cfRule type="containsText" dxfId="142" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="144" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G176))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="48">
@@ -14009,7 +14035,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G177:H177">
-    <cfRule type="containsText" dxfId="141" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="143" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G177))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="46">
@@ -14024,7 +14050,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G178:H178">
-    <cfRule type="containsText" dxfId="140" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="142" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G178))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
@@ -14039,7 +14065,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G179:H179">
-    <cfRule type="containsText" dxfId="139" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="141" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G179))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="42">
@@ -14054,7 +14080,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G180:H180">
-    <cfRule type="containsText" dxfId="138" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="140" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G180))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
@@ -14069,7 +14095,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G181:H181">
-    <cfRule type="containsText" dxfId="137" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="139" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G181))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="38">
@@ -14084,7 +14110,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G182:H182">
-    <cfRule type="containsText" dxfId="136" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="138" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G182))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="34">
@@ -14099,7 +14125,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G183:H183">
-    <cfRule type="containsText" dxfId="135" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="137" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G183))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="32">
@@ -14114,7 +14140,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G184:H184">
-    <cfRule type="containsText" dxfId="134" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="136" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G184))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -14129,7 +14155,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G186:H186">
-    <cfRule type="containsText" dxfId="133" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="135" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G186))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="26">
@@ -14144,7 +14170,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G187:H187">
-    <cfRule type="containsText" dxfId="132" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="134" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G187))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
@@ -14159,7 +14185,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G188:H188">
-    <cfRule type="containsText" dxfId="131" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="133" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G188))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -14174,7 +14200,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G185:H185">
-    <cfRule type="containsText" dxfId="130" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="132" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G185))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -14189,7 +14215,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G189:H189">
-    <cfRule type="containsText" dxfId="129" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="131" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G189))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -14204,7 +14230,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G190:H190">
-    <cfRule type="containsText" dxfId="128" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="130" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G190))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -14219,7 +14245,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G191:H191">
-    <cfRule type="containsText" dxfId="127" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="129" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G191))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -14234,7 +14260,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H109">
-    <cfRule type="containsText" dxfId="126" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="128" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H109))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14251,7 +14277,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H3">
-    <cfRule type="containsText" dxfId="125" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="127" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -14266,7 +14292,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G192">
-    <cfRule type="containsText" dxfId="124" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="126" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G192))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -14281,7 +14307,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H192">
-    <cfRule type="containsText" dxfId="123" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="125" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H192))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -14296,7 +14322,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G193:H193 G195:H195 G197:H197">
-    <cfRule type="containsText" dxfId="122" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="124" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G193))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -14311,7 +14337,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G194:H194 G196:H196">
-    <cfRule type="containsText" dxfId="121" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="123" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G194))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -14335,11 +14361,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J54" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="9" ySplit="2" topLeftCell="J12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomRight" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -15194,8 +15220,8 @@
       <c r="F30" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G30" s="12" t="s">
-        <v>0</v>
+      <c r="G30" s="67">
+        <v>1</v>
       </c>
       <c r="H30" s="12" t="s">
         <v>0</v>
@@ -15276,7 +15302,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" s="12" t="s">
         <v>0</v>
@@ -16855,7 +16881,7 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="G15:H15 G17:H17 G26:H26 G19:H20 G22:H24">
-    <cfRule type="containsText" dxfId="120" priority="366" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="122" priority="366" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="367">
@@ -16870,7 +16896,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="119" priority="347" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="121" priority="347" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16887,7 +16913,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:H28">
-    <cfRule type="containsText" dxfId="118" priority="345" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="120" priority="345" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G28))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="346">
@@ -16902,7 +16928,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="117" priority="343" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="119" priority="343" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16919,7 +16945,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:H30">
-    <cfRule type="containsText" dxfId="116" priority="341" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="118" priority="341" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G30))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="342">
@@ -16934,7 +16960,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="containsText" dxfId="115" priority="339" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="117" priority="339" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16951,7 +16977,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:H32">
-    <cfRule type="containsText" dxfId="114" priority="333" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="116" priority="333" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="334">
@@ -16966,7 +16992,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="containsText" dxfId="113" priority="331" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="115" priority="331" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16983,7 +17009,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:H34 G38:H38">
-    <cfRule type="containsText" dxfId="112" priority="329" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="114" priority="329" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G34))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="330">
@@ -16998,11 +17024,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34 H38">
-    <cfRule type="containsText" dxfId="111" priority="327" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="113" priority="327" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H34))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H34 H38">
+  <conditionalFormatting sqref="H38 H34">
     <cfRule type="colorScale" priority="328">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17015,7 +17041,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33:H33 G36:H36 G40:H40">
-    <cfRule type="containsText" dxfId="110" priority="325" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="112" priority="325" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G33))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="326">
@@ -17030,11 +17056,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33 H36 H40">
-    <cfRule type="containsText" dxfId="109" priority="323" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="111" priority="323" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H33))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H33 H36 H40">
+  <conditionalFormatting sqref="H36 H33 H40">
     <cfRule type="colorScale" priority="324">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17047,7 +17073,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42:H42">
-    <cfRule type="containsText" dxfId="108" priority="321" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="110" priority="321" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G42))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="322">
@@ -17062,7 +17088,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="containsText" dxfId="107" priority="319" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="109" priority="319" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H42))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17079,7 +17105,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43:H43">
-    <cfRule type="containsText" dxfId="106" priority="317" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="108" priority="317" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G43))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="318">
@@ -17094,7 +17120,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="containsText" dxfId="105" priority="315" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="107" priority="315" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H43))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17111,7 +17137,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45:H45">
-    <cfRule type="containsText" dxfId="104" priority="313" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="106" priority="313" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G45))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="314">
@@ -17126,7 +17152,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="containsText" dxfId="103" priority="311" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="105" priority="311" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H45))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17143,7 +17169,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47:H47 G49:H49 G51:H51 G53:H53 G55:H56 G54">
-    <cfRule type="containsText" dxfId="102" priority="309" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="104" priority="309" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G47))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="310">
@@ -17158,11 +17184,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47 H49 H51 H53 H55:H56">
-    <cfRule type="containsText" dxfId="101" priority="307" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="103" priority="307" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H47))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47 H49 H51 H53 H55:H56">
+  <conditionalFormatting sqref="H49 H47 H51 H53 H55:H56">
     <cfRule type="colorScale" priority="308">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17175,7 +17201,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G48:H48 G50:H50 G52:H52 H54">
-    <cfRule type="containsText" dxfId="100" priority="305" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="102" priority="305" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G48))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="306">
@@ -17190,11 +17216,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48 H50 H52 H54">
-    <cfRule type="containsText" dxfId="99" priority="303" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="101" priority="303" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H48))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H48 H50 H52 H54">
+  <conditionalFormatting sqref="H50 H48 H52 H54">
     <cfRule type="colorScale" priority="304">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17207,7 +17233,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G61:H61 G63:H63 G65:H65 G67:H67 G69:H69">
-    <cfRule type="containsText" dxfId="98" priority="281" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="100" priority="281" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G61))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="282">
@@ -17222,11 +17248,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61 H63 H65 H67 H69">
-    <cfRule type="containsText" dxfId="97" priority="279" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="99" priority="279" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H61))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H61 H63 H65 H67 H69">
+  <conditionalFormatting sqref="H63 H61 H65 H67 H69">
     <cfRule type="colorScale" priority="280">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17239,7 +17265,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G60:H60 G62:H62 G64:H64 G66:H66 G68:H68 G70:H70 G73:H73">
-    <cfRule type="containsText" dxfId="96" priority="277" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="98" priority="277" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G60))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="278">
@@ -17254,11 +17280,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60 H62 H64 H66 H68 H70 H73">
-    <cfRule type="containsText" dxfId="95" priority="275" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="97" priority="275" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H60))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H60 H62 H64 H66 H68 H70 H73">
+  <conditionalFormatting sqref="H62 H60 H64 H66 H68 H70 H73">
     <cfRule type="colorScale" priority="276">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17271,7 +17297,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G58:H58">
-    <cfRule type="containsText" dxfId="94" priority="273" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="96" priority="273" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G58))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="274">
@@ -17286,7 +17312,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="containsText" dxfId="93" priority="271" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="95" priority="271" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H58))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17303,7 +17329,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G71:H71">
-    <cfRule type="containsText" dxfId="92" priority="269" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="94" priority="269" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G71))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="270">
@@ -17318,7 +17344,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="containsText" dxfId="91" priority="267" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="93" priority="267" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H71))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17335,7 +17361,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="containsText" dxfId="90" priority="253" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="92" priority="253" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="254">
@@ -17350,7 +17376,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="containsText" dxfId="89" priority="251" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="91" priority="251" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="252">
@@ -17365,7 +17391,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="containsText" dxfId="88" priority="249" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="90" priority="249" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G25))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="250">
@@ -17380,7 +17406,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:H27">
-    <cfRule type="containsText" dxfId="87" priority="241" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="89" priority="241" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="242">
@@ -17395,7 +17421,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="86" priority="239" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="88" priority="239" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17412,7 +17438,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G75:H75">
-    <cfRule type="containsText" dxfId="85" priority="189" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="87" priority="189" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G75))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="190">
@@ -17427,7 +17453,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H75">
-    <cfRule type="containsText" dxfId="84" priority="187" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="86" priority="187" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H75))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17444,7 +17470,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G77:H77">
-    <cfRule type="containsText" dxfId="83" priority="181" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="85" priority="181" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G77))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="182">
@@ -17459,7 +17485,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H77">
-    <cfRule type="containsText" dxfId="82" priority="179" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="84" priority="179" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H77))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17476,7 +17502,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G79:H79">
-    <cfRule type="containsText" dxfId="81" priority="173" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="83" priority="173" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G79))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="174">
@@ -17491,7 +17517,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H79">
-    <cfRule type="containsText" dxfId="80" priority="171" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="82" priority="171" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H79))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17508,7 +17534,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G81:H81">
-    <cfRule type="containsText" dxfId="79" priority="169" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="81" priority="169" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G81))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="170">
@@ -17523,7 +17549,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H81">
-    <cfRule type="containsText" dxfId="78" priority="167" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="80" priority="167" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H81))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17540,7 +17566,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G83:H83">
-    <cfRule type="containsText" dxfId="77" priority="165" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="79" priority="165" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G83))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="166">
@@ -17555,7 +17581,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H83">
-    <cfRule type="containsText" dxfId="76" priority="163" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="78" priority="163" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H83))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17572,7 +17598,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G85:H85">
-    <cfRule type="containsText" dxfId="75" priority="161" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="77" priority="161" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G85))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="162">
@@ -17587,7 +17613,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H85">
-    <cfRule type="containsText" dxfId="74" priority="159" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="76" priority="159" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H85))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17604,7 +17630,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="containsText" dxfId="73" priority="141" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="75" priority="141" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17621,7 +17647,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:H29">
-    <cfRule type="containsText" dxfId="72" priority="139" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="74" priority="139" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="140">
@@ -17636,7 +17662,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="71" priority="137" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="73" priority="137" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17653,7 +17679,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="containsText" dxfId="70" priority="135" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="72" priority="135" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17670,7 +17696,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35:H35">
-    <cfRule type="containsText" dxfId="69" priority="133" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="71" priority="133" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G35))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="134">
@@ -17685,7 +17711,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="containsText" dxfId="68" priority="131" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="70" priority="131" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17702,7 +17728,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="containsText" dxfId="67" priority="129" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="69" priority="129" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17719,7 +17745,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44:H44">
-    <cfRule type="containsText" dxfId="66" priority="127" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="68" priority="127" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G44))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="128">
@@ -17734,7 +17760,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="containsText" dxfId="65" priority="125" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="67" priority="125" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H44))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17751,7 +17777,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="containsText" dxfId="64" priority="123" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="66" priority="123" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G44))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17768,7 +17794,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46:H46">
-    <cfRule type="containsText" dxfId="63" priority="121" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="65" priority="121" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G46))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="122">
@@ -17783,7 +17809,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="containsText" dxfId="62" priority="119" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="64" priority="119" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H46))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17800,7 +17826,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46">
-    <cfRule type="containsText" dxfId="61" priority="117" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="63" priority="117" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G46))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17817,7 +17843,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G59:H59">
-    <cfRule type="containsText" dxfId="60" priority="115" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="62" priority="115" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G59))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="116">
@@ -17832,7 +17858,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="containsText" dxfId="59" priority="113" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="61" priority="113" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H59))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17849,7 +17875,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G59">
-    <cfRule type="containsText" dxfId="58" priority="111" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="60" priority="111" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G59))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17866,7 +17892,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G57:H57">
-    <cfRule type="containsText" dxfId="57" priority="109" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="109" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G57))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="110">
@@ -17881,7 +17907,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57">
-    <cfRule type="containsText" dxfId="56" priority="107" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="107" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H57))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17898,7 +17924,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G57">
-    <cfRule type="containsText" dxfId="55" priority="105" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="105" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G57))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17915,7 +17941,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G80:H80">
-    <cfRule type="containsText" dxfId="54" priority="103" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="103" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G80))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="104">
@@ -17930,7 +17956,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H80">
-    <cfRule type="containsText" dxfId="53" priority="101" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="101" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H80))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17947,7 +17973,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G80">
-    <cfRule type="containsText" dxfId="52" priority="99" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="99" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G80))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17964,7 +17990,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G78:H78">
-    <cfRule type="containsText" dxfId="51" priority="97" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="97" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G78))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="98">
@@ -17979,7 +18005,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H78">
-    <cfRule type="containsText" dxfId="50" priority="95" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="95" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H78))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17996,7 +18022,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G78">
-    <cfRule type="containsText" dxfId="49" priority="93" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="93" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G78))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18013,7 +18039,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G76:H76">
-    <cfRule type="containsText" dxfId="48" priority="91" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="91" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G76))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="92">
@@ -18028,7 +18054,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H76">
-    <cfRule type="containsText" dxfId="47" priority="89" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="89" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H76))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18045,7 +18071,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G76">
-    <cfRule type="containsText" dxfId="46" priority="87" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="87" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G76))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18062,7 +18088,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G74:H74">
-    <cfRule type="containsText" dxfId="45" priority="85" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="85" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G74))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="86">
@@ -18077,7 +18103,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H74">
-    <cfRule type="containsText" dxfId="44" priority="83" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="83" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H74))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18094,7 +18120,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G74">
-    <cfRule type="containsText" dxfId="43" priority="81" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="81" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G74))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18111,7 +18137,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G72:H72">
-    <cfRule type="containsText" dxfId="42" priority="79" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="79" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G72))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="80">
@@ -18126,7 +18152,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H72">
-    <cfRule type="containsText" dxfId="41" priority="77" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="77" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H72))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18143,7 +18169,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G72">
-    <cfRule type="containsText" dxfId="40" priority="75" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="75" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G72))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18160,7 +18186,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G82:H82">
-    <cfRule type="containsText" dxfId="39" priority="73" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="73" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G82))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="74">
@@ -18175,7 +18201,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H82">
-    <cfRule type="containsText" dxfId="38" priority="71" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="71" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H82))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18192,7 +18218,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G82">
-    <cfRule type="containsText" dxfId="37" priority="69" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="69" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G82))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18209,7 +18235,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G86:H86">
-    <cfRule type="containsText" dxfId="36" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G86))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="68">
@@ -18224,7 +18250,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H86">
-    <cfRule type="containsText" dxfId="35" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H86))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18241,7 +18267,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G86">
-    <cfRule type="containsText" dxfId="34" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G86))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18258,7 +18284,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G84:H84">
-    <cfRule type="containsText" dxfId="33" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G84))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="62">
@@ -18273,7 +18299,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H84">
-    <cfRule type="containsText" dxfId="32" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H84))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18290,7 +18316,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G84">
-    <cfRule type="containsText" dxfId="31" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G84))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18307,7 +18333,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G37:H37">
-    <cfRule type="containsText" dxfId="30" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G37))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="56">
@@ -18322,7 +18348,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="containsText" dxfId="29" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H37))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18339,7 +18365,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G37">
-    <cfRule type="containsText" dxfId="28" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G37))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18356,7 +18382,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41:H41">
-    <cfRule type="containsText" dxfId="27" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G41))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="50">
@@ -18371,7 +18397,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="containsText" dxfId="26" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H41))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18388,7 +18414,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="containsText" dxfId="25" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G41))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18405,7 +18431,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G39:H39">
-    <cfRule type="containsText" dxfId="24" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G39))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
@@ -18420,7 +18446,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="containsText" dxfId="23" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H39))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18437,7 +18463,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G39">
-    <cfRule type="containsText" dxfId="22" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G39))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18454,7 +18480,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="containsText" dxfId="21" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H25))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="38">
@@ -18469,7 +18495,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="containsText" dxfId="20" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="36">
@@ -18484,7 +18510,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="containsText" dxfId="19" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="34">
@@ -18499,7 +18525,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="containsText" dxfId="18" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G18))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="32">
@@ -18514,7 +18540,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="containsText" dxfId="17" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -18529,7 +18555,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="containsText" dxfId="16" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="28">
@@ -18544,7 +18570,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="15" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="26">
@@ -18559,7 +18585,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="containsText" dxfId="14" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18576,7 +18602,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:H31">
-    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G31))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -18591,7 +18617,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H31))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18608,7 +18634,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G31))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18625,7 +18651,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H8">
-    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -18640,7 +18666,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:G14">
-    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -18655,7 +18681,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H14">
-    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -18670,7 +18696,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G87:H87">
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G87))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -18685,7 +18711,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H87">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H87))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18702,7 +18728,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G88:H88">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G88))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -18717,7 +18743,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H88">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H88))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18734,7 +18760,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G88">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G88))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/Russia/#Russia#Russian_Federation#Commemorative#[1999-present]#circulation_quality.xlsx
+++ b/Collections/Russia/#Russia#Russian_Federation#Commemorative#[1999-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Russia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D169F3-6D8B-4FF8-BE03-119550512CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005D0B53-FD70-4038-B5D6-155A29700866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5660" yWindow="1450" windowWidth="28720" windowHeight="19550" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4910" yWindow="630" windowWidth="28720" windowHeight="19550" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1₽ " sheetId="1" r:id="rId1"/>
@@ -1982,6 +1982,9 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2020,32 +2023,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="176">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="174">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -3453,9 +3437,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="3" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -3744,29 +3728,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="55" t="s">
+      <c r="A1" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="56" t="s">
         <v>341</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="58"/>
-      <c r="E1" s="57" t="s">
+      <c r="D1" s="59"/>
+      <c r="E1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="58"/>
-      <c r="G1" s="59" t="s">
+      <c r="F1" s="59"/>
+      <c r="G1" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="60"/>
+      <c r="H1" s="61"/>
       <c r="I1" s="33"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="54"/>
-      <c r="B2" s="56"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
@@ -4495,7 +4479,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H3">
-    <cfRule type="containsText" dxfId="175" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="173" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4512,7 +4496,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="174" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="172" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4529,7 +4513,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="containsText" dxfId="173" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="171" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4546,7 +4530,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="172" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="170" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4563,7 +4547,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="171" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="169" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4580,7 +4564,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:H18">
-    <cfRule type="containsText" dxfId="170" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="168" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4597,7 +4581,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G17">
-    <cfRule type="containsText" dxfId="169" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="167" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4614,7 +4598,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H17">
-    <cfRule type="containsText" dxfId="168" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="166" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4631,7 +4615,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:G28">
-    <cfRule type="containsText" dxfId="167" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="165" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4648,7 +4632,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19:H28">
-    <cfRule type="containsText" dxfId="166" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="164" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4693,29 +4677,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="55" t="s">
+      <c r="A1" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="56" t="s">
         <v>341</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="63"/>
-      <c r="E1" s="62" t="s">
+      <c r="D1" s="64"/>
+      <c r="E1" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="63"/>
-      <c r="G1" s="64" t="s">
+      <c r="F1" s="64"/>
+      <c r="G1" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="65"/>
+      <c r="H1" s="66"/>
       <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="27" t="s">
         <v>4</v>
       </c>
@@ -5760,7 +5744,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:H31">
-    <cfRule type="containsText" dxfId="165" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="163" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -5775,7 +5759,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="164" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="162" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -5790,7 +5774,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="163" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="161" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -5805,7 +5789,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:G38">
-    <cfRule type="containsText" dxfId="162" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="160" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -5820,7 +5804,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:H38">
-    <cfRule type="containsText" dxfId="161" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="159" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -5863,29 +5847,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="55" t="s">
+      <c r="A1" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="56" t="s">
         <v>341</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="63"/>
-      <c r="E1" s="62" t="s">
+      <c r="D1" s="64"/>
+      <c r="E1" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="63"/>
-      <c r="G1" s="64" t="s">
+      <c r="F1" s="64"/>
+      <c r="G1" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="H1" s="65"/>
+      <c r="H1" s="66"/>
       <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="66"/>
-      <c r="B2" s="56"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="27" t="s">
         <v>4</v>
       </c>
@@ -7873,7 +7857,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G16:H65 G3:H8">
-    <cfRule type="containsText" dxfId="160" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="158" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -7888,7 +7872,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66">
-    <cfRule type="containsText" dxfId="159" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="157" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H66))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -7903,7 +7887,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:G15">
-    <cfRule type="containsText" dxfId="158" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="156" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -7918,7 +7902,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H15">
-    <cfRule type="containsText" dxfId="157" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="155" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -7933,7 +7917,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G67:G71">
-    <cfRule type="containsText" dxfId="156" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="154" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G67))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -7948,7 +7932,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H67:H71">
-    <cfRule type="containsText" dxfId="155" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="153" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H67))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -7963,7 +7947,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G66">
-    <cfRule type="containsText" dxfId="154" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="152" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G66))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7989,11 +7973,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I197"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J24" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="9" ySplit="2" topLeftCell="J153" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A123" sqref="A123:XFD123"/>
+      <selection pane="bottomRight" activeCell="J123" sqref="J123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8007,29 +7991,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="55" t="s">
+      <c r="A1" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="56" t="s">
         <v>341</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="58"/>
-      <c r="E1" s="62" t="s">
+      <c r="D1" s="59"/>
+      <c r="E1" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="63"/>
-      <c r="G1" s="64" t="s">
+      <c r="F1" s="64"/>
+      <c r="G1" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="65"/>
+      <c r="H1" s="66"/>
       <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="43" t="s">
         <v>4</v>
       </c>
@@ -11655,7 +11639,7 @@
         <v>0</v>
       </c>
       <c r="H123" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" s="33" t="str">
         <f t="shared" si="6"/>
@@ -13885,7 +13869,7 @@
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="G4:H108 G109 G110:H167">
-    <cfRule type="containsText" dxfId="153" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="151" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="66">
@@ -13900,7 +13884,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G168:H168">
-    <cfRule type="containsText" dxfId="152" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="150" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G168))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="64">
@@ -13915,7 +13899,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G169:H169">
-    <cfRule type="containsText" dxfId="151" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="149" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G169))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="62">
@@ -13930,7 +13914,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G170:H170">
-    <cfRule type="containsText" dxfId="150" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="148" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G170))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="60">
@@ -13945,7 +13929,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G171:H171">
-    <cfRule type="containsText" dxfId="149" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="147" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G171))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="58">
@@ -13960,7 +13944,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G172:H172">
-    <cfRule type="containsText" dxfId="148" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="146" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G172))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="56">
@@ -13975,7 +13959,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G173:H173">
-    <cfRule type="containsText" dxfId="147" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="145" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G173))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="54">
@@ -13990,7 +13974,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G174:H174">
-    <cfRule type="containsText" dxfId="146" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="144" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G174))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="52">
@@ -14005,7 +13989,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G175:H175">
-    <cfRule type="containsText" dxfId="145" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="143" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G175))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="50">
@@ -14020,7 +14004,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G176:H176">
-    <cfRule type="containsText" dxfId="144" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="142" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G176))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="48">
@@ -14035,7 +14019,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G177:H177">
-    <cfRule type="containsText" dxfId="143" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="141" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G177))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="46">
@@ -14050,7 +14034,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G178:H178">
-    <cfRule type="containsText" dxfId="142" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="140" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G178))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
@@ -14065,7 +14049,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G179:H179">
-    <cfRule type="containsText" dxfId="141" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="139" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G179))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="42">
@@ -14080,7 +14064,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G180:H180">
-    <cfRule type="containsText" dxfId="140" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="138" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G180))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
@@ -14095,7 +14079,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G181:H181">
-    <cfRule type="containsText" dxfId="139" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="137" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G181))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="38">
@@ -14110,7 +14094,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G182:H182">
-    <cfRule type="containsText" dxfId="138" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="136" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G182))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="34">
@@ -14125,7 +14109,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G183:H183">
-    <cfRule type="containsText" dxfId="137" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="135" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G183))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="32">
@@ -14140,7 +14124,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G184:H184">
-    <cfRule type="containsText" dxfId="136" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="134" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G184))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -14155,7 +14139,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G186:H186">
-    <cfRule type="containsText" dxfId="135" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="133" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G186))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="26">
@@ -14170,7 +14154,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G187:H187">
-    <cfRule type="containsText" dxfId="134" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="132" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G187))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
@@ -14185,7 +14169,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G188:H188">
-    <cfRule type="containsText" dxfId="133" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="131" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G188))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -14200,7 +14184,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G185:H185">
-    <cfRule type="containsText" dxfId="132" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="130" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G185))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -14215,7 +14199,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G189:H189">
-    <cfRule type="containsText" dxfId="131" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="129" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G189))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -14230,7 +14214,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G190:H190">
-    <cfRule type="containsText" dxfId="130" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="128" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G190))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -14245,7 +14229,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G191:H191">
-    <cfRule type="containsText" dxfId="129" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="127" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G191))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -14260,7 +14244,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H109">
-    <cfRule type="containsText" dxfId="128" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="126" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H109))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14277,7 +14261,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H3">
-    <cfRule type="containsText" dxfId="127" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="125" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -14292,7 +14276,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G192">
-    <cfRule type="containsText" dxfId="126" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="124" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G192))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -14307,7 +14291,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H192">
-    <cfRule type="containsText" dxfId="125" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="123" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H192))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -14322,7 +14306,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G193:H193 G195:H195 G197:H197">
-    <cfRule type="containsText" dxfId="124" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="122" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G193))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -14337,7 +14321,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G194:H194 G196:H196">
-    <cfRule type="containsText" dxfId="123" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="121" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G194))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -14361,8 +14345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J12" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="9" ySplit="2" topLeftCell="J45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="I21" sqref="I21"/>
@@ -14379,29 +14363,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="55" t="s">
+      <c r="A1" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="56" t="s">
         <v>341</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="58"/>
-      <c r="E1" s="62" t="s">
+      <c r="D1" s="59"/>
+      <c r="E1" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="63"/>
-      <c r="G1" s="64" t="s">
+      <c r="F1" s="64"/>
+      <c r="G1" s="65" t="s">
         <v>306</v>
       </c>
-      <c r="H1" s="65"/>
+      <c r="H1" s="66"/>
       <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="27" t="s">
         <v>4</v>
       </c>
@@ -15220,7 +15204,7 @@
       <c r="F30" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G30" s="67">
+      <c r="G30" s="53">
         <v>1</v>
       </c>
       <c r="H30" s="12" t="s">
@@ -16881,7 +16865,7 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="G15:H15 G17:H17 G26:H26 G19:H20 G22:H24">
-    <cfRule type="containsText" dxfId="122" priority="366" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="120" priority="366" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="367">
@@ -16896,7 +16880,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="121" priority="347" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="119" priority="347" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16913,7 +16897,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:H28">
-    <cfRule type="containsText" dxfId="120" priority="345" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="118" priority="345" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G28))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="346">
@@ -16928,7 +16912,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="119" priority="343" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="117" priority="343" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16945,7 +16929,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:H30">
-    <cfRule type="containsText" dxfId="118" priority="341" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="116" priority="341" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G30))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="342">
@@ -16960,7 +16944,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="containsText" dxfId="117" priority="339" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="115" priority="339" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16977,7 +16961,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:H32">
-    <cfRule type="containsText" dxfId="116" priority="333" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="114" priority="333" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="334">
@@ -16992,7 +16976,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="containsText" dxfId="115" priority="331" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="113" priority="331" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17009,7 +16993,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:H34 G38:H38">
-    <cfRule type="containsText" dxfId="114" priority="329" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="112" priority="329" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G34))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="330">
@@ -17024,11 +17008,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34 H38">
-    <cfRule type="containsText" dxfId="113" priority="327" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="111" priority="327" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H34))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H38 H34">
+  <conditionalFormatting sqref="H34 H38">
     <cfRule type="colorScale" priority="328">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17041,7 +17025,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33:H33 G36:H36 G40:H40">
-    <cfRule type="containsText" dxfId="112" priority="325" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="110" priority="325" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G33))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="326">
@@ -17056,11 +17040,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33 H36 H40">
-    <cfRule type="containsText" dxfId="111" priority="323" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="109" priority="323" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H33))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H36 H33 H40">
+  <conditionalFormatting sqref="H33 H36 H40">
     <cfRule type="colorScale" priority="324">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17073,7 +17057,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42:H42">
-    <cfRule type="containsText" dxfId="110" priority="321" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="108" priority="321" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G42))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="322">
@@ -17088,7 +17072,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="containsText" dxfId="109" priority="319" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="107" priority="319" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H42))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17105,7 +17089,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43:H43">
-    <cfRule type="containsText" dxfId="108" priority="317" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="106" priority="317" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G43))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="318">
@@ -17120,7 +17104,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="containsText" dxfId="107" priority="315" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="105" priority="315" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H43))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17137,7 +17121,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45:H45">
-    <cfRule type="containsText" dxfId="106" priority="313" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="104" priority="313" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G45))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="314">
@@ -17152,7 +17136,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="containsText" dxfId="105" priority="311" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="103" priority="311" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H45))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17169,7 +17153,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47:H47 G49:H49 G51:H51 G53:H53 G55:H56 G54">
-    <cfRule type="containsText" dxfId="104" priority="309" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="102" priority="309" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G47))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="310">
@@ -17184,11 +17168,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47 H49 H51 H53 H55:H56">
-    <cfRule type="containsText" dxfId="103" priority="307" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="101" priority="307" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H47))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H49 H47 H51 H53 H55:H56">
+  <conditionalFormatting sqref="H47 H49 H51 H53 H55:H56">
     <cfRule type="colorScale" priority="308">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17201,7 +17185,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G48:H48 G50:H50 G52:H52 H54">
-    <cfRule type="containsText" dxfId="102" priority="305" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="100" priority="305" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G48))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="306">
@@ -17216,11 +17200,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48 H50 H52 H54">
-    <cfRule type="containsText" dxfId="101" priority="303" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="99" priority="303" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H48))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H50 H48 H52 H54">
+  <conditionalFormatting sqref="H48 H50 H52 H54">
     <cfRule type="colorScale" priority="304">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17233,7 +17217,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G61:H61 G63:H63 G65:H65 G67:H67 G69:H69">
-    <cfRule type="containsText" dxfId="100" priority="281" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="98" priority="281" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G61))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="282">
@@ -17248,11 +17232,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61 H63 H65 H67 H69">
-    <cfRule type="containsText" dxfId="99" priority="279" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="97" priority="279" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H61))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H63 H61 H65 H67 H69">
+  <conditionalFormatting sqref="H61 H63 H65 H67 H69">
     <cfRule type="colorScale" priority="280">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17265,7 +17249,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G60:H60 G62:H62 G64:H64 G66:H66 G68:H68 G70:H70 G73:H73">
-    <cfRule type="containsText" dxfId="98" priority="277" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="96" priority="277" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G60))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="278">
@@ -17280,11 +17264,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60 H62 H64 H66 H68 H70 H73">
-    <cfRule type="containsText" dxfId="97" priority="275" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="95" priority="275" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H60))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H62 H60 H64 H66 H68 H70 H73">
+  <conditionalFormatting sqref="H60 H62 H64 H66 H68 H70 H73">
     <cfRule type="colorScale" priority="276">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17297,7 +17281,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G58:H58">
-    <cfRule type="containsText" dxfId="96" priority="273" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="94" priority="273" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G58))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="274">
@@ -17312,7 +17296,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="containsText" dxfId="95" priority="271" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="93" priority="271" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H58))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17329,7 +17313,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G71:H71">
-    <cfRule type="containsText" dxfId="94" priority="269" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="92" priority="269" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G71))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="270">
@@ -17344,7 +17328,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="containsText" dxfId="93" priority="267" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="91" priority="267" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H71))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17361,7 +17345,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="containsText" dxfId="92" priority="253" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="90" priority="253" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="254">
@@ -17376,7 +17360,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="containsText" dxfId="91" priority="251" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="89" priority="251" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="252">
@@ -17391,7 +17375,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="containsText" dxfId="90" priority="249" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="88" priority="249" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G25))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="250">
@@ -17406,7 +17390,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:H27">
-    <cfRule type="containsText" dxfId="89" priority="241" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="87" priority="241" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="242">
@@ -17421,7 +17405,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="88" priority="239" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="86" priority="239" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17438,7 +17422,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G75:H75">
-    <cfRule type="containsText" dxfId="87" priority="189" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="85" priority="189" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G75))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="190">
@@ -17453,7 +17437,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H75">
-    <cfRule type="containsText" dxfId="86" priority="187" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="84" priority="187" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H75))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17470,7 +17454,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G77:H77">
-    <cfRule type="containsText" dxfId="85" priority="181" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="83" priority="181" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G77))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="182">
@@ -17485,7 +17469,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H77">
-    <cfRule type="containsText" dxfId="84" priority="179" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="82" priority="179" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H77))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17502,7 +17486,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G79:H79">
-    <cfRule type="containsText" dxfId="83" priority="173" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="81" priority="173" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G79))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="174">
@@ -17517,7 +17501,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H79">
-    <cfRule type="containsText" dxfId="82" priority="171" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="80" priority="171" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H79))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17534,7 +17518,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G81:H81">
-    <cfRule type="containsText" dxfId="81" priority="169" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="79" priority="169" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G81))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="170">
@@ -17549,7 +17533,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H81">
-    <cfRule type="containsText" dxfId="80" priority="167" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="78" priority="167" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H81))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17566,7 +17550,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G83:H83">
-    <cfRule type="containsText" dxfId="79" priority="165" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="77" priority="165" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G83))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="166">
@@ -17581,7 +17565,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H83">
-    <cfRule type="containsText" dxfId="78" priority="163" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="76" priority="163" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H83))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17598,7 +17582,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G85:H85">
-    <cfRule type="containsText" dxfId="77" priority="161" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="75" priority="161" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G85))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="162">
@@ -17613,7 +17597,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H85">
-    <cfRule type="containsText" dxfId="76" priority="159" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="74" priority="159" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H85))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17630,7 +17614,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="containsText" dxfId="75" priority="141" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="73" priority="141" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17647,7 +17631,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:H29">
-    <cfRule type="containsText" dxfId="74" priority="139" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="72" priority="139" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="140">
@@ -17662,7 +17646,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="73" priority="137" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="71" priority="137" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17679,7 +17663,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="containsText" dxfId="72" priority="135" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="70" priority="135" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17696,7 +17680,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35:H35">
-    <cfRule type="containsText" dxfId="71" priority="133" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="69" priority="133" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G35))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="134">
@@ -17711,7 +17695,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="containsText" dxfId="70" priority="131" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="68" priority="131" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17728,7 +17712,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="containsText" dxfId="69" priority="129" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="67" priority="129" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17745,7 +17729,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44:H44">
-    <cfRule type="containsText" dxfId="68" priority="127" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="66" priority="127" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G44))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="128">
@@ -17760,7 +17744,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="containsText" dxfId="67" priority="125" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="65" priority="125" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H44))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17777,7 +17761,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="containsText" dxfId="66" priority="123" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="64" priority="123" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G44))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17794,7 +17778,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46:H46">
-    <cfRule type="containsText" dxfId="65" priority="121" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="63" priority="121" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G46))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="122">
@@ -17809,7 +17793,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="containsText" dxfId="64" priority="119" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="62" priority="119" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H46))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17826,7 +17810,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46">
-    <cfRule type="containsText" dxfId="63" priority="117" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="61" priority="117" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G46))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17843,7 +17827,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G59:H59">
-    <cfRule type="containsText" dxfId="62" priority="115" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="60" priority="115" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G59))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="116">
@@ -17858,7 +17842,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="containsText" dxfId="61" priority="113" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="113" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H59))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17875,7 +17859,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G59">
-    <cfRule type="containsText" dxfId="60" priority="111" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="111" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G59))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17892,7 +17876,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G57:H57">
-    <cfRule type="containsText" dxfId="59" priority="109" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="109" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G57))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="110">
@@ -17907,7 +17891,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57">
-    <cfRule type="containsText" dxfId="58" priority="107" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="107" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H57))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17924,7 +17908,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G57">
-    <cfRule type="containsText" dxfId="57" priority="105" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="105" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G57))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17941,7 +17925,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G80:H80">
-    <cfRule type="containsText" dxfId="56" priority="103" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="103" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G80))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="104">
@@ -17956,7 +17940,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H80">
-    <cfRule type="containsText" dxfId="55" priority="101" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="101" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H80))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17973,7 +17957,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G80">
-    <cfRule type="containsText" dxfId="54" priority="99" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="99" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G80))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17990,7 +17974,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G78:H78">
-    <cfRule type="containsText" dxfId="53" priority="97" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="97" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G78))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="98">
@@ -18005,7 +17989,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H78">
-    <cfRule type="containsText" dxfId="52" priority="95" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="95" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H78))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18022,7 +18006,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G78">
-    <cfRule type="containsText" dxfId="51" priority="93" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="93" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G78))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18039,7 +18023,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G76:H76">
-    <cfRule type="containsText" dxfId="50" priority="91" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="91" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G76))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="92">
@@ -18054,7 +18038,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H76">
-    <cfRule type="containsText" dxfId="49" priority="89" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="89" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H76))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18071,7 +18055,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G76">
-    <cfRule type="containsText" dxfId="48" priority="87" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="87" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G76))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18088,7 +18072,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G74:H74">
-    <cfRule type="containsText" dxfId="47" priority="85" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="85" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G74))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="86">
@@ -18103,7 +18087,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H74">
-    <cfRule type="containsText" dxfId="46" priority="83" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="83" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H74))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18120,7 +18104,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G74">
-    <cfRule type="containsText" dxfId="45" priority="81" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="81" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G74))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18137,7 +18121,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G72:H72">
-    <cfRule type="containsText" dxfId="44" priority="79" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="79" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G72))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="80">
@@ -18152,7 +18136,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H72">
-    <cfRule type="containsText" dxfId="43" priority="77" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="77" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H72))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18169,7 +18153,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G72">
-    <cfRule type="containsText" dxfId="42" priority="75" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="75" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G72))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18186,7 +18170,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G82:H82">
-    <cfRule type="containsText" dxfId="41" priority="73" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="73" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G82))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="74">
@@ -18201,7 +18185,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H82">
-    <cfRule type="containsText" dxfId="40" priority="71" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="71" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H82))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18218,7 +18202,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G82">
-    <cfRule type="containsText" dxfId="39" priority="69" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="69" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G82))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18235,7 +18219,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G86:H86">
-    <cfRule type="containsText" dxfId="38" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G86))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="68">
@@ -18250,7 +18234,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H86">
-    <cfRule type="containsText" dxfId="37" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H86))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18267,7 +18251,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G86">
-    <cfRule type="containsText" dxfId="36" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G86))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18284,7 +18268,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G84:H84">
-    <cfRule type="containsText" dxfId="35" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G84))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="62">
@@ -18299,7 +18283,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H84">
-    <cfRule type="containsText" dxfId="34" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H84))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18316,7 +18300,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G84">
-    <cfRule type="containsText" dxfId="33" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G84))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18333,7 +18317,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G37:H37">
-    <cfRule type="containsText" dxfId="32" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G37))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="56">
@@ -18348,7 +18332,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="containsText" dxfId="31" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H37))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18365,7 +18349,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G37">
-    <cfRule type="containsText" dxfId="30" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G37))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18382,7 +18366,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41:H41">
-    <cfRule type="containsText" dxfId="29" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G41))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="50">
@@ -18397,7 +18381,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="containsText" dxfId="28" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H41))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18414,7 +18398,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="containsText" dxfId="27" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G41))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18431,7 +18415,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G39:H39">
-    <cfRule type="containsText" dxfId="26" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G39))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
@@ -18446,7 +18430,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="containsText" dxfId="25" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H39))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18463,7 +18447,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G39">
-    <cfRule type="containsText" dxfId="24" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G39))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18480,7 +18464,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="containsText" dxfId="23" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H25))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="38">
@@ -18495,7 +18479,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="containsText" dxfId="22" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="36">
@@ -18510,7 +18494,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="containsText" dxfId="21" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="34">
@@ -18525,7 +18509,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="containsText" dxfId="20" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G18))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="32">
@@ -18540,7 +18524,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="containsText" dxfId="19" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -18555,7 +18539,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="containsText" dxfId="18" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="28">
@@ -18570,7 +18554,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="17" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="26">
@@ -18585,7 +18569,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="containsText" dxfId="16" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18602,7 +18586,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:H31">
-    <cfRule type="containsText" dxfId="15" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G31))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -18617,7 +18601,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="containsText" dxfId="14" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H31))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18634,7 +18618,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G31))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18651,7 +18635,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H8">
-    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -18666,7 +18650,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:G14">
-    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -18681,7 +18665,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H14">
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -18696,7 +18680,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G87:H87">
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G87))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -18711,7 +18695,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H87">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H87))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18728,7 +18712,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G88:H88">
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G88))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -18743,7 +18727,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H88">
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H88))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18760,7 +18744,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G88">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G88))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/Russia/#Russia#Russian_Federation#Commemorative#[1999-present]#circulation_quality.xlsx
+++ b/Collections/Russia/#Russia#Russian_Federation#Commemorative#[1999-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Russia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005D0B53-FD70-4038-B5D6-155A29700866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF76239-7D22-415F-8B3D-814D68CBC488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4910" yWindow="630" windowWidth="28720" windowHeight="19550" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1₽ " sheetId="1" r:id="rId1"/>
@@ -407,7 +407,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2342" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2341" uniqueCount="381">
   <si>
     <t>-</t>
   </si>
@@ -2029,7 +2029,15 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="174">
+  <dxfs count="175">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -3437,9 +3445,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -4479,7 +4487,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H3">
-    <cfRule type="containsText" dxfId="173" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="174" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4496,7 +4504,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="172" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="173" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4513,7 +4521,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="containsText" dxfId="171" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="172" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4530,7 +4538,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="170" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="171" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4547,7 +4555,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="169" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="170" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4564,7 +4572,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:H18">
-    <cfRule type="containsText" dxfId="168" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="169" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4581,7 +4589,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G17">
-    <cfRule type="containsText" dxfId="167" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="168" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4598,7 +4606,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H17">
-    <cfRule type="containsText" dxfId="166" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="167" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4615,7 +4623,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:G28">
-    <cfRule type="containsText" dxfId="165" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="166" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4632,7 +4640,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19:H28">
-    <cfRule type="containsText" dxfId="164" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="165" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5744,7 +5752,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:H31">
-    <cfRule type="containsText" dxfId="163" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="164" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -5759,7 +5767,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="162" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="163" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -5774,7 +5782,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="161" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="162" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -5789,7 +5797,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:G38">
-    <cfRule type="containsText" dxfId="160" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="161" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -5804,7 +5812,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:H38">
-    <cfRule type="containsText" dxfId="159" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="160" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -5829,7 +5837,7 @@
   <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="J62" sqref="J62"/>
@@ -7857,7 +7865,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G16:H65 G3:H8">
-    <cfRule type="containsText" dxfId="158" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="159" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -7872,7 +7880,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66">
-    <cfRule type="containsText" dxfId="157" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="158" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H66))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -7887,7 +7895,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:G15">
-    <cfRule type="containsText" dxfId="156" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="157" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -7902,7 +7910,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H15">
-    <cfRule type="containsText" dxfId="155" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="156" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -7917,7 +7925,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G67:G71">
-    <cfRule type="containsText" dxfId="154" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="155" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G67))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -7932,7 +7940,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H67:H71">
-    <cfRule type="containsText" dxfId="153" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="154" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H67))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -7947,7 +7955,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G66">
-    <cfRule type="containsText" dxfId="152" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="153" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G66))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7974,10 +7982,10 @@
   <dimension ref="A1:I197"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J153" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J123" sqref="J123"/>
+      <selection pane="bottomRight" activeCell="I75" sqref="I75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10087,7 +10095,7 @@
         <v>0</v>
       </c>
       <c r="H71" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" s="33" t="str">
         <f t="shared" si="2"/>
@@ -13869,7 +13877,7 @@
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="G4:H108 G109 G110:H167">
-    <cfRule type="containsText" dxfId="151" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="152" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="66">
@@ -13884,7 +13892,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G168:H168">
-    <cfRule type="containsText" dxfId="150" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="151" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G168))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="64">
@@ -13899,7 +13907,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G169:H169">
-    <cfRule type="containsText" dxfId="149" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="150" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G169))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="62">
@@ -13914,7 +13922,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G170:H170">
-    <cfRule type="containsText" dxfId="148" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="149" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G170))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="60">
@@ -13929,7 +13937,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G171:H171">
-    <cfRule type="containsText" dxfId="147" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="148" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G171))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="58">
@@ -13944,7 +13952,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G172:H172">
-    <cfRule type="containsText" dxfId="146" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="147" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G172))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="56">
@@ -13959,7 +13967,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G173:H173">
-    <cfRule type="containsText" dxfId="145" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="146" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G173))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="54">
@@ -13974,7 +13982,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G174:H174">
-    <cfRule type="containsText" dxfId="144" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="145" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G174))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="52">
@@ -13989,7 +13997,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G175:H175">
-    <cfRule type="containsText" dxfId="143" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="144" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G175))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="50">
@@ -14004,7 +14012,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G176:H176">
-    <cfRule type="containsText" dxfId="142" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="143" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G176))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="48">
@@ -14019,7 +14027,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G177:H177">
-    <cfRule type="containsText" dxfId="141" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="142" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G177))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="46">
@@ -14034,7 +14042,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G178:H178">
-    <cfRule type="containsText" dxfId="140" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="141" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G178))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
@@ -14049,7 +14057,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G179:H179">
-    <cfRule type="containsText" dxfId="139" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="140" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G179))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="42">
@@ -14064,7 +14072,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G180:H180">
-    <cfRule type="containsText" dxfId="138" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="139" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G180))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
@@ -14079,7 +14087,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G181:H181">
-    <cfRule type="containsText" dxfId="137" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="138" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G181))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="38">
@@ -14094,7 +14102,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G182:H182">
-    <cfRule type="containsText" dxfId="136" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="137" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G182))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="34">
@@ -14109,7 +14117,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G183:H183">
-    <cfRule type="containsText" dxfId="135" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="136" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G183))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="32">
@@ -14124,7 +14132,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G184:H184">
-    <cfRule type="containsText" dxfId="134" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="135" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G184))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -14139,7 +14147,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G186:H186">
-    <cfRule type="containsText" dxfId="133" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="134" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G186))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="26">
@@ -14154,7 +14162,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G187:H187">
-    <cfRule type="containsText" dxfId="132" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="133" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G187))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
@@ -14169,7 +14177,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G188:H188">
-    <cfRule type="containsText" dxfId="131" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="132" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G188))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -14184,7 +14192,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G185:H185">
-    <cfRule type="containsText" dxfId="130" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="131" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G185))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -14199,7 +14207,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G189:H189">
-    <cfRule type="containsText" dxfId="129" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="130" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G189))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -14214,7 +14222,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G190:H190">
-    <cfRule type="containsText" dxfId="128" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="129" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G190))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -14229,7 +14237,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G191:H191">
-    <cfRule type="containsText" dxfId="127" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="128" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G191))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -14244,7 +14252,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H109">
-    <cfRule type="containsText" dxfId="126" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="127" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H109))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14261,7 +14269,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H3">
-    <cfRule type="containsText" dxfId="125" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="126" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -14276,7 +14284,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G192">
-    <cfRule type="containsText" dxfId="124" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="125" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G192))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -14291,7 +14299,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H192">
-    <cfRule type="containsText" dxfId="123" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="124" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H192))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -14306,7 +14314,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G193:H193 G195:H195 G197:H197">
-    <cfRule type="containsText" dxfId="122" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="123" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G193))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -14321,7 +14329,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G194:H194 G196:H196">
-    <cfRule type="containsText" dxfId="121" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="122" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G194))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -14346,10 +14354,10 @@
   <dimension ref="A1:I88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I21" sqref="I21"/>
+      <selection pane="bottomRight" activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -15091,7 +15099,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" s="12" t="s">
         <v>0</v>
@@ -15149,7 +15157,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="12" t="s">
         <v>0</v>
@@ -15230,8 +15238,8 @@
       <c r="F31" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G31" s="12" t="s">
-        <v>0</v>
+      <c r="G31" s="46">
+        <v>1</v>
       </c>
       <c r="H31" s="12" t="s">
         <v>0</v>
@@ -15314,7 +15322,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" s="12" t="s">
         <v>0</v>
@@ -15572,7 +15580,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" s="12" t="s">
         <v>0</v>
@@ -15630,7 +15638,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" s="12" t="s">
         <v>0</v>
@@ -16865,10 +16873,10 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="G15:H15 G17:H17 G26:H26 G19:H20 G22:H24">
-    <cfRule type="containsText" dxfId="120" priority="366" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="121" priority="368" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="367">
+    <cfRule type="colorScale" priority="369">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -16880,11 +16888,26 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
+    <cfRule type="containsText" dxfId="120" priority="349" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H26))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26">
+    <cfRule type="colorScale" priority="350">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28:H28">
     <cfRule type="containsText" dxfId="119" priority="347" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H26))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G28))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="348">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -16896,10 +16919,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28:H28">
+  <conditionalFormatting sqref="H28">
     <cfRule type="containsText" dxfId="118" priority="345" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G28))))</formula>
-    </cfRule>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28">
     <cfRule type="colorScale" priority="346">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -16911,12 +16936,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
+  <conditionalFormatting sqref="G30:H30">
     <cfRule type="containsText" dxfId="117" priority="343" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H28))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G30))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="344">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -16928,10 +16951,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G30:H30">
+  <conditionalFormatting sqref="H30">
     <cfRule type="containsText" dxfId="116" priority="341" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G30))))</formula>
-    </cfRule>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30">
     <cfRule type="colorScale" priority="342">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -16943,13 +16968,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
-    <cfRule type="containsText" dxfId="115" priority="339" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
-    <cfRule type="colorScale" priority="340">
+  <conditionalFormatting sqref="G32:H32">
+    <cfRule type="containsText" dxfId="115" priority="335" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="336">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -16960,10 +16983,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G32:H32">
+  <conditionalFormatting sqref="H32">
     <cfRule type="containsText" dxfId="114" priority="333" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
-    </cfRule>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32">
     <cfRule type="colorScale" priority="334">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -16975,12 +17000,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
+  <conditionalFormatting sqref="G34:H34 G38:H38">
     <cfRule type="containsText" dxfId="113" priority="331" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G34))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="332">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -16992,10 +17015,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G34:H34 G38:H38">
+  <conditionalFormatting sqref="H34 H38">
     <cfRule type="containsText" dxfId="112" priority="329" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G34))))</formula>
-    </cfRule>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38 H34">
     <cfRule type="colorScale" priority="330">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17007,12 +17032,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H34 H38">
+  <conditionalFormatting sqref="G33:H33 G36:H36 G40:H40">
     <cfRule type="containsText" dxfId="111" priority="327" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34 H38">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G33))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="328">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17024,10 +17047,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G33:H33 G36:H36 G40:H40">
+  <conditionalFormatting sqref="H33 H36 H40">
     <cfRule type="containsText" dxfId="110" priority="325" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G33))))</formula>
-    </cfRule>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H33))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36 H33 H40">
     <cfRule type="colorScale" priority="326">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17039,12 +17064,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H33 H36 H40">
+  <conditionalFormatting sqref="G42:H42">
     <cfRule type="containsText" dxfId="109" priority="323" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H33))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H33 H36 H40">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G42))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="324">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17056,10 +17079,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G42:H42">
+  <conditionalFormatting sqref="H42">
     <cfRule type="containsText" dxfId="108" priority="321" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G42))))</formula>
-    </cfRule>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H42))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H42">
     <cfRule type="colorScale" priority="322">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17071,12 +17096,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H42">
+  <conditionalFormatting sqref="G43:H43">
     <cfRule type="containsText" dxfId="107" priority="319" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H42))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H42">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G43))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="320">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17088,10 +17111,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G43:H43">
+  <conditionalFormatting sqref="H43">
     <cfRule type="containsText" dxfId="106" priority="317" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G43))))</formula>
-    </cfRule>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H43))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H43">
     <cfRule type="colorScale" priority="318">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17103,12 +17128,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
+  <conditionalFormatting sqref="G45:H45">
     <cfRule type="containsText" dxfId="105" priority="315" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H43))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G45))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="316">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17120,10 +17143,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G45:H45">
+  <conditionalFormatting sqref="H45">
     <cfRule type="containsText" dxfId="104" priority="313" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G45))))</formula>
-    </cfRule>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H45))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H45">
     <cfRule type="colorScale" priority="314">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17135,12 +17160,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
+  <conditionalFormatting sqref="G47:H47 G49:H49 G51:H51 G53:H53 G55:H56 G54">
     <cfRule type="containsText" dxfId="103" priority="311" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H45))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G47))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="312">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17152,10 +17175,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G47:H47 G49:H49 G51:H51 G53:H53 G55:H56 G54">
+  <conditionalFormatting sqref="H47 H49 H51 H53 H55:H56">
     <cfRule type="containsText" dxfId="102" priority="309" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G47))))</formula>
-    </cfRule>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H47))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H49 H47 H51 H53 H55:H56">
     <cfRule type="colorScale" priority="310">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17167,12 +17192,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47 H49 H51 H53 H55:H56">
+  <conditionalFormatting sqref="G48:H48 G50:H50 G52:H52 H54">
     <cfRule type="containsText" dxfId="101" priority="307" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H47))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H47 H49 H51 H53 H55:H56">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G48))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="308">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17184,10 +17207,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G48:H48 G50:H50 G52:H52 H54">
+  <conditionalFormatting sqref="H48 H50 H52 H54">
     <cfRule type="containsText" dxfId="100" priority="305" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G48))))</formula>
-    </cfRule>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H48))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H50 H48 H52 H54">
     <cfRule type="colorScale" priority="306">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17199,13 +17224,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H48 H50 H52 H54">
-    <cfRule type="containsText" dxfId="99" priority="303" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H48))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H48 H50 H52 H54">
-    <cfRule type="colorScale" priority="304">
+  <conditionalFormatting sqref="G61:H61 G63:H63 G65:H65 G67:H67 G69:H69">
+    <cfRule type="containsText" dxfId="99" priority="283" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G61))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="284">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -17216,10 +17239,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G61:H61 G63:H63 G65:H65 G67:H67 G69:H69">
+  <conditionalFormatting sqref="H61 H63 H65 H67 H69">
     <cfRule type="containsText" dxfId="98" priority="281" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G61))))</formula>
-    </cfRule>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H61))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H63 H61 H65 H67 H69">
     <cfRule type="colorScale" priority="282">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17231,12 +17256,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H61 H63 H65 H67 H69">
+  <conditionalFormatting sqref="G60:H60 G62:H62 G64:H64 G66:H66 G68:H68 G70:H70 G73:H73">
     <cfRule type="containsText" dxfId="97" priority="279" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H61))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H61 H63 H65 H67 H69">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G60))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="280">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17248,10 +17271,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G60:H60 G62:H62 G64:H64 G66:H66 G68:H68 G70:H70 G73:H73">
+  <conditionalFormatting sqref="H60 H62 H64 H66 H68 H70 H73">
     <cfRule type="containsText" dxfId="96" priority="277" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G60))))</formula>
-    </cfRule>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H60))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H62 H60 H64 H66 H68 H70 H73">
     <cfRule type="colorScale" priority="278">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17263,12 +17288,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H60 H62 H64 H66 H68 H70 H73">
+  <conditionalFormatting sqref="G58:H58">
     <cfRule type="containsText" dxfId="95" priority="275" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H60))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H60 H62 H64 H66 H68 H70 H73">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G58))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="276">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17280,10 +17303,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G58:H58">
+  <conditionalFormatting sqref="H58">
     <cfRule type="containsText" dxfId="94" priority="273" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G58))))</formula>
-    </cfRule>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H58))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H58">
     <cfRule type="colorScale" priority="274">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17295,12 +17320,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H58">
+  <conditionalFormatting sqref="G71:H71">
     <cfRule type="containsText" dxfId="93" priority="271" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H58))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H58">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G71))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="272">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17312,10 +17335,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G71:H71">
+  <conditionalFormatting sqref="H71">
     <cfRule type="containsText" dxfId="92" priority="269" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G71))))</formula>
-    </cfRule>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H71))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H71">
     <cfRule type="colorScale" priority="270">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17327,13 +17352,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H71">
-    <cfRule type="containsText" dxfId="91" priority="267" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H71))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H71">
-    <cfRule type="colorScale" priority="268">
+  <conditionalFormatting sqref="G22">
+    <cfRule type="containsText" dxfId="91" priority="255" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="256">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -17344,9 +17367,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
+  <conditionalFormatting sqref="H22">
     <cfRule type="containsText" dxfId="90" priority="253" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="254">
       <colorScale>
@@ -17359,9 +17382,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
+  <conditionalFormatting sqref="G25">
     <cfRule type="containsText" dxfId="89" priority="251" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G25))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="252">
       <colorScale>
@@ -17374,11 +17397,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25">
-    <cfRule type="containsText" dxfId="88" priority="249" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G25))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="250">
+  <conditionalFormatting sqref="G27:H27">
+    <cfRule type="containsText" dxfId="88" priority="243" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="244">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -17389,10 +17412,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G27:H27">
+  <conditionalFormatting sqref="H27">
     <cfRule type="containsText" dxfId="87" priority="241" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
-    </cfRule>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
     <cfRule type="colorScale" priority="242">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17404,13 +17429,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="86" priority="239" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
-    <cfRule type="colorScale" priority="240">
+  <conditionalFormatting sqref="G75:H75">
+    <cfRule type="containsText" dxfId="86" priority="191" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G75))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="192">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -17421,10 +17444,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G75:H75">
+  <conditionalFormatting sqref="H75">
     <cfRule type="containsText" dxfId="85" priority="189" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G75))))</formula>
-    </cfRule>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H75))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H75">
     <cfRule type="colorScale" priority="190">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17436,13 +17461,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H75">
-    <cfRule type="containsText" dxfId="84" priority="187" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H75))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H75">
-    <cfRule type="colorScale" priority="188">
+  <conditionalFormatting sqref="G77:H77">
+    <cfRule type="containsText" dxfId="84" priority="183" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G77))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="184">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -17453,10 +17476,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G77:H77">
+  <conditionalFormatting sqref="H77">
     <cfRule type="containsText" dxfId="83" priority="181" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G77))))</formula>
-    </cfRule>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H77))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H77">
     <cfRule type="colorScale" priority="182">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17468,13 +17493,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H77">
-    <cfRule type="containsText" dxfId="82" priority="179" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H77))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H77">
-    <cfRule type="colorScale" priority="180">
+  <conditionalFormatting sqref="G79:H79">
+    <cfRule type="containsText" dxfId="82" priority="175" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G79))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="176">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -17485,10 +17508,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G79:H79">
+  <conditionalFormatting sqref="H79">
     <cfRule type="containsText" dxfId="81" priority="173" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G79))))</formula>
-    </cfRule>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H79))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H79">
     <cfRule type="colorScale" priority="174">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17500,12 +17525,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H79">
+  <conditionalFormatting sqref="G81:H81">
     <cfRule type="containsText" dxfId="80" priority="171" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H79))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H79">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G81))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="172">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17517,10 +17540,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G81:H81">
+  <conditionalFormatting sqref="H81">
     <cfRule type="containsText" dxfId="79" priority="169" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G81))))</formula>
-    </cfRule>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H81))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H81">
     <cfRule type="colorScale" priority="170">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17532,12 +17557,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H81">
+  <conditionalFormatting sqref="G83:H83">
     <cfRule type="containsText" dxfId="78" priority="167" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H81))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H81">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G83))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="168">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17549,10 +17572,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G83:H83">
+  <conditionalFormatting sqref="H83">
     <cfRule type="containsText" dxfId="77" priority="165" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G83))))</formula>
-    </cfRule>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H83))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H83">
     <cfRule type="colorScale" priority="166">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17564,12 +17589,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H83">
+  <conditionalFormatting sqref="G85:H85">
     <cfRule type="containsText" dxfId="76" priority="163" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H83))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H83">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G85))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="164">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17581,10 +17604,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G85:H85">
+  <conditionalFormatting sqref="H85">
     <cfRule type="containsText" dxfId="75" priority="161" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G85))))</formula>
-    </cfRule>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H85))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H85">
     <cfRule type="colorScale" priority="162">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17596,13 +17621,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H85">
-    <cfRule type="containsText" dxfId="74" priority="159" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H85))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H85">
-    <cfRule type="colorScale" priority="160">
+  <conditionalFormatting sqref="G27">
+    <cfRule type="containsText" dxfId="74" priority="143" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27">
+    <cfRule type="colorScale" priority="144">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -17613,12 +17638,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G27">
+  <conditionalFormatting sqref="G29:H29">
     <cfRule type="containsText" dxfId="73" priority="141" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G27">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="142">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17630,10 +17653,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29:H29">
+  <conditionalFormatting sqref="H29">
     <cfRule type="containsText" dxfId="72" priority="139" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
-    </cfRule>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
     <cfRule type="colorScale" priority="140">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17645,12 +17670,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
+  <conditionalFormatting sqref="G29">
     <cfRule type="containsText" dxfId="71" priority="137" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
     <cfRule type="colorScale" priority="138">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17662,12 +17687,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
+  <conditionalFormatting sqref="G35:H35">
     <cfRule type="containsText" dxfId="70" priority="135" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G35))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="136">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17679,10 +17702,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G35:H35">
+  <conditionalFormatting sqref="H35">
     <cfRule type="containsText" dxfId="69" priority="133" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G35))))</formula>
-    </cfRule>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H35))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35">
     <cfRule type="colorScale" priority="134">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17694,12 +17719,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
+  <conditionalFormatting sqref="G35">
     <cfRule type="containsText" dxfId="68" priority="131" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H35))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G35))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G35">
     <cfRule type="colorScale" priority="132">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17711,12 +17736,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G35">
+  <conditionalFormatting sqref="G44:H44">
     <cfRule type="containsText" dxfId="67" priority="129" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G35))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G35">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G44))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="130">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17728,10 +17751,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G44:H44">
+  <conditionalFormatting sqref="H44">
     <cfRule type="containsText" dxfId="66" priority="127" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G44))))</formula>
-    </cfRule>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H44))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44">
     <cfRule type="colorScale" priority="128">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17743,12 +17768,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
+  <conditionalFormatting sqref="G44">
     <cfRule type="containsText" dxfId="65" priority="125" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H44))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G44))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G44">
     <cfRule type="colorScale" priority="126">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17760,12 +17785,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G44">
+  <conditionalFormatting sqref="G46:H46">
     <cfRule type="containsText" dxfId="64" priority="123" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G44))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G44">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G46))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="124">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17777,10 +17800,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G46:H46">
+  <conditionalFormatting sqref="H46">
     <cfRule type="containsText" dxfId="63" priority="121" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G46))))</formula>
-    </cfRule>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H46))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H46">
     <cfRule type="colorScale" priority="122">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17792,12 +17817,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H46">
+  <conditionalFormatting sqref="G46">
     <cfRule type="containsText" dxfId="62" priority="119" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H46))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H46">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G46))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G46">
     <cfRule type="colorScale" priority="120">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17809,12 +17834,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G46">
+  <conditionalFormatting sqref="G59:H59">
     <cfRule type="containsText" dxfId="61" priority="117" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G46))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G46">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G59))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="118">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17826,10 +17849,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G59:H59">
+  <conditionalFormatting sqref="H59">
     <cfRule type="containsText" dxfId="60" priority="115" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G59))))</formula>
-    </cfRule>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H59))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H59">
     <cfRule type="colorScale" priority="116">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17841,12 +17866,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H59">
+  <conditionalFormatting sqref="G59">
     <cfRule type="containsText" dxfId="59" priority="113" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H59))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H59">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G59))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G59">
     <cfRule type="colorScale" priority="114">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17858,12 +17883,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G59">
+  <conditionalFormatting sqref="G57:H57">
     <cfRule type="containsText" dxfId="58" priority="111" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G59))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G59">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G57))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="112">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17875,10 +17898,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G57:H57">
+  <conditionalFormatting sqref="H57">
     <cfRule type="containsText" dxfId="57" priority="109" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G57))))</formula>
-    </cfRule>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H57))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H57">
     <cfRule type="colorScale" priority="110">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17890,12 +17915,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H57">
+  <conditionalFormatting sqref="G57">
     <cfRule type="containsText" dxfId="56" priority="107" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H57))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H57">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G57))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G57">
     <cfRule type="colorScale" priority="108">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17907,12 +17932,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G57">
+  <conditionalFormatting sqref="G80:H80">
     <cfRule type="containsText" dxfId="55" priority="105" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G57))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G57">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G80))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="106">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17924,10 +17947,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G80:H80">
+  <conditionalFormatting sqref="H80">
     <cfRule type="containsText" dxfId="54" priority="103" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G80))))</formula>
-    </cfRule>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H80))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H80">
     <cfRule type="colorScale" priority="104">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17939,12 +17964,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H80">
+  <conditionalFormatting sqref="G80">
     <cfRule type="containsText" dxfId="53" priority="101" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H80))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H80">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G80))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G80">
     <cfRule type="colorScale" priority="102">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17956,12 +17981,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G80">
+  <conditionalFormatting sqref="G78:H78">
     <cfRule type="containsText" dxfId="52" priority="99" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G80))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G80">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G78))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="100">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17973,10 +17996,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G78:H78">
+  <conditionalFormatting sqref="H78">
     <cfRule type="containsText" dxfId="51" priority="97" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G78))))</formula>
-    </cfRule>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H78))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H78">
     <cfRule type="colorScale" priority="98">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17988,12 +18013,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H78">
+  <conditionalFormatting sqref="G78">
     <cfRule type="containsText" dxfId="50" priority="95" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H78))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H78">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G78))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G78">
     <cfRule type="colorScale" priority="96">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18005,12 +18030,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G78">
+  <conditionalFormatting sqref="G76:H76">
     <cfRule type="containsText" dxfId="49" priority="93" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G78))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G78">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G76))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18022,10 +18045,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G76:H76">
+  <conditionalFormatting sqref="H76">
     <cfRule type="containsText" dxfId="48" priority="91" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G76))))</formula>
-    </cfRule>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H76))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H76">
     <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18037,12 +18062,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H76">
+  <conditionalFormatting sqref="G76">
     <cfRule type="containsText" dxfId="47" priority="89" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H76))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H76">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G76))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G76">
     <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18054,12 +18079,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G76">
+  <conditionalFormatting sqref="G74:H74">
     <cfRule type="containsText" dxfId="46" priority="87" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G76))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G76">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G74))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="88">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18071,10 +18094,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G74:H74">
+  <conditionalFormatting sqref="H74">
     <cfRule type="containsText" dxfId="45" priority="85" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G74))))</formula>
-    </cfRule>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H74))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H74">
     <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18086,12 +18111,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H74">
+  <conditionalFormatting sqref="G74">
     <cfRule type="containsText" dxfId="44" priority="83" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H74))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H74">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G74))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G74">
     <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18103,12 +18128,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G74">
+  <conditionalFormatting sqref="G72:H72">
     <cfRule type="containsText" dxfId="43" priority="81" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G74))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G74">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G72))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18120,10 +18143,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G72:H72">
+  <conditionalFormatting sqref="H72">
     <cfRule type="containsText" dxfId="42" priority="79" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G72))))</formula>
-    </cfRule>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H72))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H72">
     <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18135,12 +18160,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H72">
+  <conditionalFormatting sqref="G72">
     <cfRule type="containsText" dxfId="41" priority="77" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H72))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H72">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G72))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G72">
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18152,12 +18177,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G72">
+  <conditionalFormatting sqref="G82:H82">
     <cfRule type="containsText" dxfId="40" priority="75" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G72))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G72">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G82))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18169,10 +18192,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G82:H82">
+  <conditionalFormatting sqref="H82">
     <cfRule type="containsText" dxfId="39" priority="73" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G82))))</formula>
-    </cfRule>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H82))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H82">
     <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18184,12 +18209,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H82">
+  <conditionalFormatting sqref="G82">
     <cfRule type="containsText" dxfId="38" priority="71" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H82))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H82">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G82))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G82">
     <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18201,12 +18226,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G82">
+  <conditionalFormatting sqref="G86:H86">
     <cfRule type="containsText" dxfId="37" priority="69" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G82))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G82">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G86))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18218,10 +18241,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G86:H86">
+  <conditionalFormatting sqref="H86">
     <cfRule type="containsText" dxfId="36" priority="67" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G86))))</formula>
-    </cfRule>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H86))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H86">
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18233,12 +18258,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H86">
+  <conditionalFormatting sqref="G86">
     <cfRule type="containsText" dxfId="35" priority="65" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H86))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H86">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G86))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G86">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18250,12 +18275,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G86">
+  <conditionalFormatting sqref="G84:H84">
     <cfRule type="containsText" dxfId="34" priority="63" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G86))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G86">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G84))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18267,10 +18290,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G84:H84">
+  <conditionalFormatting sqref="H84">
     <cfRule type="containsText" dxfId="33" priority="61" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G84))))</formula>
-    </cfRule>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H84))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H84">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18282,12 +18307,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H84">
+  <conditionalFormatting sqref="G84">
     <cfRule type="containsText" dxfId="32" priority="59" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H84))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H84">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G84))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G84">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18299,12 +18324,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G84">
+  <conditionalFormatting sqref="G37:H37">
     <cfRule type="containsText" dxfId="31" priority="57" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G84))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G84">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G37))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18316,10 +18339,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G37:H37">
+  <conditionalFormatting sqref="H37">
     <cfRule type="containsText" dxfId="30" priority="55" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G37))))</formula>
-    </cfRule>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H37))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H37">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18331,12 +18356,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
+  <conditionalFormatting sqref="G37">
     <cfRule type="containsText" dxfId="29" priority="53" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H37))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G37))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G37">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18348,12 +18373,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G37">
+  <conditionalFormatting sqref="G41:H41">
     <cfRule type="containsText" dxfId="28" priority="51" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G37))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G37">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G41))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18365,10 +18388,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G41:H41">
+  <conditionalFormatting sqref="H41">
     <cfRule type="containsText" dxfId="27" priority="49" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G41))))</formula>
-    </cfRule>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H41))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18380,12 +18405,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
+  <conditionalFormatting sqref="G41">
     <cfRule type="containsText" dxfId="26" priority="47" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H41))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G41))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G41">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18397,12 +18422,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G41">
+  <conditionalFormatting sqref="G39:H39">
     <cfRule type="containsText" dxfId="25" priority="45" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G41))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G41">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G39))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18414,10 +18437,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G39:H39">
+  <conditionalFormatting sqref="H39">
     <cfRule type="containsText" dxfId="24" priority="43" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G39))))</formula>
-    </cfRule>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H39))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18429,12 +18454,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
+  <conditionalFormatting sqref="G39">
     <cfRule type="containsText" dxfId="23" priority="41" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H39))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G39))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G39">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18446,12 +18471,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G39">
+  <conditionalFormatting sqref="H25">
     <cfRule type="containsText" dxfId="22" priority="39" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G39))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G39">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H25))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18463,9 +18486,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
+  <conditionalFormatting sqref="G21">
     <cfRule type="containsText" dxfId="21" priority="37" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H25))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="38">
       <colorScale>
@@ -18478,9 +18501,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G21">
+  <conditionalFormatting sqref="H21">
     <cfRule type="containsText" dxfId="20" priority="35" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G21))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="36">
       <colorScale>
@@ -18493,9 +18516,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
+  <conditionalFormatting sqref="G18">
     <cfRule type="containsText" dxfId="19" priority="33" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H21))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G18))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="34">
       <colorScale>
@@ -18508,9 +18531,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
+  <conditionalFormatting sqref="H18">
     <cfRule type="containsText" dxfId="18" priority="31" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G18))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="32">
       <colorScale>
@@ -18523,9 +18546,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
+  <conditionalFormatting sqref="G16">
     <cfRule type="containsText" dxfId="17" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
       <colorScale>
@@ -18538,9 +18561,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G16">
+  <conditionalFormatting sqref="H16">
     <cfRule type="containsText" dxfId="16" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G16))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="28">
       <colorScale>
@@ -18553,10 +18576,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
+  <conditionalFormatting sqref="G30">
     <cfRule type="containsText" dxfId="15" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
-    </cfRule>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18568,12 +18593,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G30">
+  <conditionalFormatting sqref="H31">
     <cfRule type="containsText" dxfId="14" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G30">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H31))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18585,10 +18608,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G31:H31">
+  <conditionalFormatting sqref="H31">
     <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G31))))</formula>
-    </cfRule>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H31))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18600,29 +18625,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
-    <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H31))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G31">
+  <conditionalFormatting sqref="G3:H8">
     <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G31))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G31">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18634,9 +18640,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:H8">
+  <conditionalFormatting sqref="G9:G14">
     <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
       <colorScale>
@@ -18649,9 +18655,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9:G14">
+  <conditionalFormatting sqref="H9:H14">
     <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
       <colorScale>
@@ -18664,9 +18670,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9:H14">
+  <conditionalFormatting sqref="G87:H87">
     <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G87))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
       <colorScale>
@@ -18679,10 +18685,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G87:H87">
+  <conditionalFormatting sqref="H87">
     <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G87))))</formula>
-    </cfRule>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H87))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H87">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18694,12 +18702,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H87">
+  <conditionalFormatting sqref="G88:H88">
     <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H87))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H87">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G88))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18711,10 +18717,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G88:H88">
+  <conditionalFormatting sqref="H88">
     <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G88))))</formula>
-    </cfRule>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H88))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H88">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18726,12 +18734,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H88">
+  <conditionalFormatting sqref="G88">
     <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H88))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H88">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G88))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G88">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18743,12 +18751,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G88">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G88))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G88">
+  <conditionalFormatting sqref="G31">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G31))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/Russia/#Russia#Russian_Federation#Commemorative#[1999-present]#circulation_quality.xlsx
+++ b/Collections/Russia/#Russia#Russian_Federation#Commemorative#[1999-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Russia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF76239-7D22-415F-8B3D-814D68CBC488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916C50DF-D023-4316-984A-0BB3C6546D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1₽ " sheetId="1" r:id="rId1"/>
@@ -2029,15 +2029,7 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="175">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="174">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -3445,9 +3437,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -4487,7 +4479,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H3">
-    <cfRule type="containsText" dxfId="174" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="173" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4504,7 +4496,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="173" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="172" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4521,7 +4513,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="containsText" dxfId="172" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="171" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4538,7 +4530,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="171" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="170" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4555,7 +4547,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="170" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="169" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4572,7 +4564,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:H18">
-    <cfRule type="containsText" dxfId="169" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="168" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4589,7 +4581,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G17">
-    <cfRule type="containsText" dxfId="168" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="167" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4606,7 +4598,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H17">
-    <cfRule type="containsText" dxfId="167" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="166" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4623,7 +4615,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:G28">
-    <cfRule type="containsText" dxfId="166" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="165" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4640,7 +4632,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19:H28">
-    <cfRule type="containsText" dxfId="165" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="164" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5752,7 +5744,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:H31">
-    <cfRule type="containsText" dxfId="164" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="163" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -5767,7 +5759,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="163" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="162" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -5782,7 +5774,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="162" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="161" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -5797,7 +5789,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:G38">
-    <cfRule type="containsText" dxfId="161" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="160" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -5812,7 +5804,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:H38">
-    <cfRule type="containsText" dxfId="160" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="159" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -7865,7 +7857,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G16:H65 G3:H8">
-    <cfRule type="containsText" dxfId="159" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="158" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -7880,7 +7872,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66">
-    <cfRule type="containsText" dxfId="158" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="157" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H66))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -7895,7 +7887,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:G15">
-    <cfRule type="containsText" dxfId="157" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="156" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -7910,7 +7902,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H15">
-    <cfRule type="containsText" dxfId="156" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="155" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -7925,7 +7917,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G67:G71">
-    <cfRule type="containsText" dxfId="155" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="154" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G67))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -7940,7 +7932,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H67:H71">
-    <cfRule type="containsText" dxfId="154" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="153" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H67))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -7955,7 +7947,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G66">
-    <cfRule type="containsText" dxfId="153" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="152" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G66))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7981,11 +7973,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I197"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J60" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="9" ySplit="2" topLeftCell="J159" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I75" sqref="I75"/>
+      <selection pane="bottomRight" activeCell="J198" sqref="J198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -13737,7 +13729,7 @@
         <v>0</v>
       </c>
       <c r="G193" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H193" s="14" t="s">
         <v>0</v>
@@ -13877,7 +13869,7 @@
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="G4:H108 G109 G110:H167">
-    <cfRule type="containsText" dxfId="152" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="151" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="66">
@@ -13892,7 +13884,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G168:H168">
-    <cfRule type="containsText" dxfId="151" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="150" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G168))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="64">
@@ -13907,7 +13899,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G169:H169">
-    <cfRule type="containsText" dxfId="150" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="149" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G169))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="62">
@@ -13922,7 +13914,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G170:H170">
-    <cfRule type="containsText" dxfId="149" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="148" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G170))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="60">
@@ -13937,7 +13929,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G171:H171">
-    <cfRule type="containsText" dxfId="148" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="147" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G171))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="58">
@@ -13952,7 +13944,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G172:H172">
-    <cfRule type="containsText" dxfId="147" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="146" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G172))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="56">
@@ -13967,7 +13959,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G173:H173">
-    <cfRule type="containsText" dxfId="146" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="145" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G173))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="54">
@@ -13982,7 +13974,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G174:H174">
-    <cfRule type="containsText" dxfId="145" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="144" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G174))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="52">
@@ -13997,7 +13989,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G175:H175">
-    <cfRule type="containsText" dxfId="144" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="143" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G175))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="50">
@@ -14012,7 +14004,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G176:H176">
-    <cfRule type="containsText" dxfId="143" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="142" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G176))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="48">
@@ -14027,7 +14019,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G177:H177">
-    <cfRule type="containsText" dxfId="142" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="141" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G177))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="46">
@@ -14042,7 +14034,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G178:H178">
-    <cfRule type="containsText" dxfId="141" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="140" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G178))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
@@ -14057,7 +14049,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G179:H179">
-    <cfRule type="containsText" dxfId="140" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="139" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G179))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="42">
@@ -14072,7 +14064,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G180:H180">
-    <cfRule type="containsText" dxfId="139" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="138" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G180))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
@@ -14087,7 +14079,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G181:H181">
-    <cfRule type="containsText" dxfId="138" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="137" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G181))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="38">
@@ -14102,7 +14094,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G182:H182">
-    <cfRule type="containsText" dxfId="137" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="136" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G182))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="34">
@@ -14117,7 +14109,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G183:H183">
-    <cfRule type="containsText" dxfId="136" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="135" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G183))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="32">
@@ -14132,7 +14124,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G184:H184">
-    <cfRule type="containsText" dxfId="135" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="134" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G184))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -14147,7 +14139,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G186:H186">
-    <cfRule type="containsText" dxfId="134" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="133" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G186))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="26">
@@ -14162,7 +14154,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G187:H187">
-    <cfRule type="containsText" dxfId="133" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="132" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G187))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
@@ -14177,7 +14169,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G188:H188">
-    <cfRule type="containsText" dxfId="132" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="131" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G188))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -14192,7 +14184,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G185:H185">
-    <cfRule type="containsText" dxfId="131" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="130" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G185))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -14207,7 +14199,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G189:H189">
-    <cfRule type="containsText" dxfId="130" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="129" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G189))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -14222,7 +14214,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G190:H190">
-    <cfRule type="containsText" dxfId="129" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="128" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G190))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -14237,7 +14229,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G191:H191">
-    <cfRule type="containsText" dxfId="128" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="127" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G191))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -14252,7 +14244,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H109">
-    <cfRule type="containsText" dxfId="127" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="126" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H109))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14269,7 +14261,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H3">
-    <cfRule type="containsText" dxfId="126" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="125" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -14284,7 +14276,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G192">
-    <cfRule type="containsText" dxfId="125" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="124" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G192))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -14299,7 +14291,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H192">
-    <cfRule type="containsText" dxfId="124" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="123" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H192))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -14314,7 +14306,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G193:H193 G195:H195 G197:H197">
-    <cfRule type="containsText" dxfId="123" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="122" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G193))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -14329,7 +14321,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G194:H194 G196:H196">
-    <cfRule type="containsText" dxfId="122" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="121" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G194))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -14353,11 +14345,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="9" ySplit="2" topLeftCell="J57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K45" sqref="K45"/>
+      <selection pane="bottomRight" activeCell="J92" sqref="J92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -16823,7 +16815,7 @@
         <v>0</v>
       </c>
       <c r="G87" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87" s="12" t="s">
         <v>0</v>
@@ -16873,7 +16865,7 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="G15:H15 G17:H17 G26:H26 G19:H20 G22:H24">
-    <cfRule type="containsText" dxfId="121" priority="368" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="120" priority="368" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="369">
@@ -16888,7 +16880,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="120" priority="349" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="119" priority="349" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16905,7 +16897,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:H28">
-    <cfRule type="containsText" dxfId="119" priority="347" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="118" priority="347" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G28))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="348">
@@ -16920,7 +16912,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="118" priority="345" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="117" priority="345" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16937,7 +16929,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:H30">
-    <cfRule type="containsText" dxfId="117" priority="343" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="116" priority="343" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G30))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="344">
@@ -16952,7 +16944,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="containsText" dxfId="116" priority="341" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="115" priority="341" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16969,7 +16961,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:H32">
-    <cfRule type="containsText" dxfId="115" priority="335" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="114" priority="335" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="336">
@@ -16984,7 +16976,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="containsText" dxfId="114" priority="333" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="113" priority="333" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17001,7 +16993,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:H34 G38:H38">
-    <cfRule type="containsText" dxfId="113" priority="331" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="112" priority="331" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G34))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="332">
@@ -17016,11 +17008,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34 H38">
-    <cfRule type="containsText" dxfId="112" priority="329" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="111" priority="329" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H34))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H38 H34">
+  <conditionalFormatting sqref="H34 H38">
     <cfRule type="colorScale" priority="330">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17033,7 +17025,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33:H33 G36:H36 G40:H40">
-    <cfRule type="containsText" dxfId="111" priority="327" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="110" priority="327" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G33))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="328">
@@ -17048,11 +17040,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33 H36 H40">
-    <cfRule type="containsText" dxfId="110" priority="325" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="109" priority="325" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H33))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H36 H33 H40">
+  <conditionalFormatting sqref="H33 H36 H40">
     <cfRule type="colorScale" priority="326">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17065,7 +17057,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42:H42">
-    <cfRule type="containsText" dxfId="109" priority="323" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="108" priority="323" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G42))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="324">
@@ -17080,7 +17072,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="containsText" dxfId="108" priority="321" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="107" priority="321" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H42))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17097,7 +17089,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43:H43">
-    <cfRule type="containsText" dxfId="107" priority="319" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="106" priority="319" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G43))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="320">
@@ -17112,7 +17104,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="containsText" dxfId="106" priority="317" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="105" priority="317" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H43))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17129,7 +17121,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45:H45">
-    <cfRule type="containsText" dxfId="105" priority="315" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="104" priority="315" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G45))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="316">
@@ -17144,7 +17136,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="containsText" dxfId="104" priority="313" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="103" priority="313" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H45))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17161,7 +17153,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47:H47 G49:H49 G51:H51 G53:H53 G55:H56 G54">
-    <cfRule type="containsText" dxfId="103" priority="311" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="102" priority="311" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G47))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="312">
@@ -17176,11 +17168,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47 H49 H51 H53 H55:H56">
-    <cfRule type="containsText" dxfId="102" priority="309" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="101" priority="309" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H47))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H49 H47 H51 H53 H55:H56">
+  <conditionalFormatting sqref="H47 H49 H51 H53 H55:H56">
     <cfRule type="colorScale" priority="310">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17193,7 +17185,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G48:H48 G50:H50 G52:H52 H54">
-    <cfRule type="containsText" dxfId="101" priority="307" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="100" priority="307" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G48))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="308">
@@ -17208,11 +17200,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48 H50 H52 H54">
-    <cfRule type="containsText" dxfId="100" priority="305" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="99" priority="305" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H48))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H50 H48 H52 H54">
+  <conditionalFormatting sqref="H48 H50 H52 H54">
     <cfRule type="colorScale" priority="306">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17225,7 +17217,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G61:H61 G63:H63 G65:H65 G67:H67 G69:H69">
-    <cfRule type="containsText" dxfId="99" priority="283" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="98" priority="283" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G61))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="284">
@@ -17240,11 +17232,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61 H63 H65 H67 H69">
-    <cfRule type="containsText" dxfId="98" priority="281" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="97" priority="281" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H61))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H63 H61 H65 H67 H69">
+  <conditionalFormatting sqref="H61 H63 H65 H67 H69">
     <cfRule type="colorScale" priority="282">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17257,7 +17249,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G60:H60 G62:H62 G64:H64 G66:H66 G68:H68 G70:H70 G73:H73">
-    <cfRule type="containsText" dxfId="97" priority="279" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="96" priority="279" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G60))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="280">
@@ -17272,11 +17264,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60 H62 H64 H66 H68 H70 H73">
-    <cfRule type="containsText" dxfId="96" priority="277" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="95" priority="277" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H60))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H62 H60 H64 H66 H68 H70 H73">
+  <conditionalFormatting sqref="H60 H62 H64 H66 H68 H70 H73">
     <cfRule type="colorScale" priority="278">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17289,7 +17281,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G58:H58">
-    <cfRule type="containsText" dxfId="95" priority="275" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="94" priority="275" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G58))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="276">
@@ -17304,7 +17296,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="containsText" dxfId="94" priority="273" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="93" priority="273" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H58))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17321,7 +17313,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G71:H71">
-    <cfRule type="containsText" dxfId="93" priority="271" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="92" priority="271" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G71))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="272">
@@ -17336,7 +17328,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="containsText" dxfId="92" priority="269" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="91" priority="269" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H71))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17353,7 +17345,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="containsText" dxfId="91" priority="255" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="90" priority="255" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="256">
@@ -17368,7 +17360,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="containsText" dxfId="90" priority="253" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="89" priority="253" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="254">
@@ -17383,7 +17375,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="containsText" dxfId="89" priority="251" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="88" priority="251" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G25))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="252">
@@ -17398,7 +17390,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:H27">
-    <cfRule type="containsText" dxfId="88" priority="243" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="87" priority="243" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="244">
@@ -17413,7 +17405,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="87" priority="241" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="86" priority="241" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17430,7 +17422,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G75:H75">
-    <cfRule type="containsText" dxfId="86" priority="191" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="85" priority="191" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G75))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="192">
@@ -17445,7 +17437,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H75">
-    <cfRule type="containsText" dxfId="85" priority="189" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="84" priority="189" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H75))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17462,7 +17454,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G77:H77">
-    <cfRule type="containsText" dxfId="84" priority="183" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="83" priority="183" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G77))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="184">
@@ -17477,7 +17469,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H77">
-    <cfRule type="containsText" dxfId="83" priority="181" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="82" priority="181" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H77))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17494,7 +17486,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G79:H79">
-    <cfRule type="containsText" dxfId="82" priority="175" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="81" priority="175" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G79))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="176">
@@ -17509,7 +17501,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H79">
-    <cfRule type="containsText" dxfId="81" priority="173" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="80" priority="173" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H79))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17526,7 +17518,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G81:H81">
-    <cfRule type="containsText" dxfId="80" priority="171" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="79" priority="171" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G81))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="172">
@@ -17541,7 +17533,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H81">
-    <cfRule type="containsText" dxfId="79" priority="169" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="78" priority="169" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H81))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17558,7 +17550,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G83:H83">
-    <cfRule type="containsText" dxfId="78" priority="167" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="77" priority="167" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G83))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="168">
@@ -17573,7 +17565,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H83">
-    <cfRule type="containsText" dxfId="77" priority="165" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="76" priority="165" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H83))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17590,7 +17582,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G85:H85">
-    <cfRule type="containsText" dxfId="76" priority="163" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="75" priority="163" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G85))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="164">
@@ -17605,7 +17597,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H85">
-    <cfRule type="containsText" dxfId="75" priority="161" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="74" priority="161" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H85))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17622,7 +17614,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="containsText" dxfId="74" priority="143" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="73" priority="143" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17639,7 +17631,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:H29">
-    <cfRule type="containsText" dxfId="73" priority="141" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="72" priority="141" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="142">
@@ -17654,7 +17646,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="72" priority="139" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="71" priority="139" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17671,7 +17663,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="containsText" dxfId="71" priority="137" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="70" priority="137" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17688,7 +17680,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35:H35">
-    <cfRule type="containsText" dxfId="70" priority="135" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="69" priority="135" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G35))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="136">
@@ -17703,7 +17695,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="containsText" dxfId="69" priority="133" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="68" priority="133" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17720,7 +17712,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="containsText" dxfId="68" priority="131" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="67" priority="131" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17737,7 +17729,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44:H44">
-    <cfRule type="containsText" dxfId="67" priority="129" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="66" priority="129" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G44))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="130">
@@ -17752,7 +17744,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="containsText" dxfId="66" priority="127" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="65" priority="127" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H44))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17769,7 +17761,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="containsText" dxfId="65" priority="125" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="64" priority="125" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G44))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17786,7 +17778,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46:H46">
-    <cfRule type="containsText" dxfId="64" priority="123" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="63" priority="123" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G46))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="124">
@@ -17801,7 +17793,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="containsText" dxfId="63" priority="121" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="62" priority="121" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H46))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17818,7 +17810,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46">
-    <cfRule type="containsText" dxfId="62" priority="119" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="61" priority="119" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G46))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17835,7 +17827,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G59:H59">
-    <cfRule type="containsText" dxfId="61" priority="117" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="60" priority="117" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G59))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="118">
@@ -17850,7 +17842,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="containsText" dxfId="60" priority="115" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="115" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H59))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17867,7 +17859,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G59">
-    <cfRule type="containsText" dxfId="59" priority="113" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="113" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G59))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17884,7 +17876,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G57:H57">
-    <cfRule type="containsText" dxfId="58" priority="111" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="111" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G57))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="112">
@@ -17899,7 +17891,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57">
-    <cfRule type="containsText" dxfId="57" priority="109" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="109" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H57))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17916,7 +17908,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G57">
-    <cfRule type="containsText" dxfId="56" priority="107" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="107" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G57))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17933,7 +17925,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G80:H80">
-    <cfRule type="containsText" dxfId="55" priority="105" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="105" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G80))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="106">
@@ -17948,7 +17940,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H80">
-    <cfRule type="containsText" dxfId="54" priority="103" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="103" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H80))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17965,7 +17957,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G80">
-    <cfRule type="containsText" dxfId="53" priority="101" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="101" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G80))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17982,7 +17974,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G78:H78">
-    <cfRule type="containsText" dxfId="52" priority="99" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="99" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G78))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="100">
@@ -17997,7 +17989,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H78">
-    <cfRule type="containsText" dxfId="51" priority="97" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="97" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H78))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18014,7 +18006,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G78">
-    <cfRule type="containsText" dxfId="50" priority="95" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="95" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G78))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18031,7 +18023,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G76:H76">
-    <cfRule type="containsText" dxfId="49" priority="93" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="93" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G76))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="94">
@@ -18046,7 +18038,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H76">
-    <cfRule type="containsText" dxfId="48" priority="91" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="91" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H76))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18063,7 +18055,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G76">
-    <cfRule type="containsText" dxfId="47" priority="89" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="89" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G76))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18080,7 +18072,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G74:H74">
-    <cfRule type="containsText" dxfId="46" priority="87" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="87" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G74))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="88">
@@ -18095,7 +18087,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H74">
-    <cfRule type="containsText" dxfId="45" priority="85" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="85" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H74))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18112,7 +18104,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G74">
-    <cfRule type="containsText" dxfId="44" priority="83" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="83" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G74))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18129,7 +18121,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G72:H72">
-    <cfRule type="containsText" dxfId="43" priority="81" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="81" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G72))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="82">
@@ -18144,7 +18136,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H72">
-    <cfRule type="containsText" dxfId="42" priority="79" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="79" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H72))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18161,7 +18153,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G72">
-    <cfRule type="containsText" dxfId="41" priority="77" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="77" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G72))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18178,7 +18170,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G82:H82">
-    <cfRule type="containsText" dxfId="40" priority="75" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="75" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G82))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="76">
@@ -18193,7 +18185,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H82">
-    <cfRule type="containsText" dxfId="39" priority="73" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="73" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H82))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18210,7 +18202,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G82">
-    <cfRule type="containsText" dxfId="38" priority="71" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="71" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G82))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18227,7 +18219,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G86:H86">
-    <cfRule type="containsText" dxfId="37" priority="69" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="69" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G86))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="70">
@@ -18242,7 +18234,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H86">
-    <cfRule type="containsText" dxfId="36" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H86))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18259,7 +18251,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G86">
-    <cfRule type="containsText" dxfId="35" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G86))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18276,7 +18268,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G84:H84">
-    <cfRule type="containsText" dxfId="34" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G84))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="64">
@@ -18291,7 +18283,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H84">
-    <cfRule type="containsText" dxfId="33" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H84))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18308,7 +18300,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G84">
-    <cfRule type="containsText" dxfId="32" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G84))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18325,7 +18317,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G37:H37">
-    <cfRule type="containsText" dxfId="31" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G37))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="58">
@@ -18340,7 +18332,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="containsText" dxfId="30" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H37))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18357,7 +18349,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G37">
-    <cfRule type="containsText" dxfId="29" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G37))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18374,7 +18366,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41:H41">
-    <cfRule type="containsText" dxfId="28" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G41))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="52">
@@ -18389,7 +18381,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="containsText" dxfId="27" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H41))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18406,7 +18398,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="containsText" dxfId="26" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G41))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18423,7 +18415,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G39:H39">
-    <cfRule type="containsText" dxfId="25" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G39))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="46">
@@ -18438,7 +18430,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="containsText" dxfId="24" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H39))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18455,7 +18447,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G39">
-    <cfRule type="containsText" dxfId="23" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G39))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18472,7 +18464,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="containsText" dxfId="22" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H25))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
@@ -18487,7 +18479,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="containsText" dxfId="21" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="38">
@@ -18502,7 +18494,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="containsText" dxfId="20" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="36">
@@ -18517,7 +18509,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="containsText" dxfId="19" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G18))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="34">
@@ -18532,7 +18524,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="containsText" dxfId="18" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="32">
@@ -18547,7 +18539,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="containsText" dxfId="17" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -18562,7 +18554,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="16" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="28">
@@ -18577,7 +18569,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="containsText" dxfId="15" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18594,7 +18586,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="containsText" dxfId="14" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H31))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
@@ -18609,7 +18601,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H31))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18752,7 +18744,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G31))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">

--- a/Collections/Russia/#Russia#Russian_Federation#Commemorative#[1999-present]#circulation_quality.xlsx
+++ b/Collections/Russia/#Russia#Russian_Federation#Commemorative#[1999-present]#circulation_quality.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Russia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916C50DF-D023-4316-984A-0BB3C6546D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5A9FDF-CF81-4BE7-8E8B-E3BA0D2F20B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,11 +18,13 @@
     <sheet name="5₽ " sheetId="3" r:id="rId3"/>
     <sheet name="10₽ " sheetId="5" r:id="rId4"/>
     <sheet name="25₽" sheetId="6" r:id="rId5"/>
-    <sheet name="Links" sheetId="7" r:id="rId6"/>
+    <sheet name="50₽" sheetId="9" r:id="rId6"/>
+    <sheet name="Links" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'10₽ '!$A$1:$H$197</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'25₽'!$C$1:$D$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'50₽'!$C$1:$D$29</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -406,8 +408,78 @@
 </comments>
 </file>
 
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Пользователь Windows</author>
+  </authors>
+  <commentList>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{78E781CB-2428-4C76-A309-CBC069D3F1CD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Moscow Mint</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{8EC980E8-3ED1-435E-9049-9E43E9972CCA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Saint Petersburg Mint</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{73385853-2B64-4A99-A4A8-294E44C338ED}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Moscow Mint</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{C0B60501-CE8B-4779-82B8-E2E7E86428D5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Saint Petersburg Mint</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2341" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2606" uniqueCount="396">
   <si>
     <t>-</t>
   </si>
@@ -1550,6 +1622,51 @@
   </si>
   <si>
     <t>Poster</t>
+  </si>
+  <si>
+    <t>Chelyabinsk</t>
+  </si>
+  <si>
+    <t>Ufa</t>
+  </si>
+  <si>
+    <t>Ulyanovsk</t>
+  </si>
+  <si>
+    <t>Yaroslavl</t>
+  </si>
+  <si>
+    <t>50₽</t>
+  </si>
+  <si>
+    <t>Victory of the Soviet People in the Great Patriotic War of 1941-1945</t>
+  </si>
+  <si>
+    <t>Smolensk Region</t>
+  </si>
+  <si>
+    <t>A Kitten named Woof</t>
+  </si>
+  <si>
+    <t>Agricultural and processing industry worker</t>
+  </si>
+  <si>
+    <t>Dinamo</t>
+  </si>
+  <si>
+    <t>CSKA</t>
+  </si>
+  <si>
+    <t>Lokomotiv</t>
+  </si>
+  <si>
+    <t>Spartak</t>
+  </si>
+  <si>
+    <t>Labour Reserves</t>
+  </si>
+  <si>
+    <t>Rusiian sports</t>
   </si>
 </sst>
 </file>
@@ -2029,7 +2146,2447 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="174">
+  <dxfs count="308">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2038,1374 +4595,6 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3437,9 +4626,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="307"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="306" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="305"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -4479,7 +5668,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H3">
-    <cfRule type="containsText" dxfId="173" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="304" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4496,7 +5685,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="172" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="303" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4513,7 +5702,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="containsText" dxfId="171" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="302" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4530,7 +5719,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="170" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="301" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4547,7 +5736,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="169" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="300" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4564,7 +5753,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:H18">
-    <cfRule type="containsText" dxfId="168" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="299" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4581,7 +5770,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G17">
-    <cfRule type="containsText" dxfId="167" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="298" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4598,7 +5787,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H17">
-    <cfRule type="containsText" dxfId="166" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="297" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4615,7 +5804,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:G28">
-    <cfRule type="containsText" dxfId="165" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="296" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4632,7 +5821,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19:H28">
-    <cfRule type="containsText" dxfId="164" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="295" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5744,7 +6933,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:H31">
-    <cfRule type="containsText" dxfId="163" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="294" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -5759,7 +6948,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="162" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="293" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -5774,7 +6963,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="161" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="292" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -5789,7 +6978,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:G38">
-    <cfRule type="containsText" dxfId="160" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="291" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -5804,7 +6993,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:H38">
-    <cfRule type="containsText" dxfId="159" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="290" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -7857,7 +9046,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G16:H65 G3:H8">
-    <cfRule type="containsText" dxfId="158" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="289" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -7872,7 +9061,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66">
-    <cfRule type="containsText" dxfId="157" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="288" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H66))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -7887,7 +9076,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:G15">
-    <cfRule type="containsText" dxfId="156" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="287" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -7902,7 +9091,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H15">
-    <cfRule type="containsText" dxfId="155" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="286" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -7917,7 +9106,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G67:G71">
-    <cfRule type="containsText" dxfId="154" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="285" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G67))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -7932,7 +9121,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H67:H71">
-    <cfRule type="containsText" dxfId="153" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="284" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H67))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -7947,7 +9136,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G66">
-    <cfRule type="containsText" dxfId="152" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="283" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G66))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7971,13 +9160,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I197"/>
+  <dimension ref="A1:I203"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J159" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J171" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J198" sqref="J198"/>
+      <selection pane="bottomRight" activeCell="A203" sqref="A203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -13825,7 +15014,7 @@
         <v>0</v>
       </c>
       <c r="I196" s="33" t="str">
-        <f t="shared" ref="I196:I197" si="18">IF(OR(AND(G196&gt;1,G196&lt;&gt;"-"),AND(H196&gt;1,H196&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="I196:I199" si="18">IF(OR(AND(G196&gt;1,G196&lt;&gt;"-"),AND(H196&gt;1,H196&lt;&gt;"-")),"Can exchange","")</f>
         <v>Can exchange</v>
       </c>
     </row>
@@ -13857,6 +15046,186 @@
       <c r="I197" s="33" t="str">
         <f t="shared" si="18"/>
         <v>Can exchange</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A198" s="30">
+        <v>2025</v>
+      </c>
+      <c r="B198" s="37" t="s">
+        <v>381</v>
+      </c>
+      <c r="C198" s="38" t="s">
+        <v>326</v>
+      </c>
+      <c r="D198" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="E198" s="44" t="s">
+        <v>277</v>
+      </c>
+      <c r="F198" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G198" s="11">
+        <v>1</v>
+      </c>
+      <c r="H198" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I198" s="33" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A199" s="30">
+        <v>2025</v>
+      </c>
+      <c r="B199" s="37" t="s">
+        <v>382</v>
+      </c>
+      <c r="C199" s="38" t="s">
+        <v>326</v>
+      </c>
+      <c r="D199" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="E199" s="44" t="s">
+        <v>277</v>
+      </c>
+      <c r="F199" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G199" s="11">
+        <v>1</v>
+      </c>
+      <c r="H199" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I199" s="33" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A200" s="30">
+        <v>2025</v>
+      </c>
+      <c r="B200" s="37" t="s">
+        <v>383</v>
+      </c>
+      <c r="C200" s="38" t="s">
+        <v>326</v>
+      </c>
+      <c r="D200" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="E200" s="44" t="s">
+        <v>277</v>
+      </c>
+      <c r="F200" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G200" s="11">
+        <v>1</v>
+      </c>
+      <c r="H200" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I200" s="33" t="str">
+        <f t="shared" ref="I200:I201" si="19">IF(OR(AND(G200&gt;1,G200&lt;&gt;"-"),AND(H200&gt;1,H200&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="201" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A201" s="30">
+        <v>2025</v>
+      </c>
+      <c r="B201" s="37" t="s">
+        <v>384</v>
+      </c>
+      <c r="C201" s="38" t="s">
+        <v>326</v>
+      </c>
+      <c r="D201" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="E201" s="44" t="s">
+        <v>277</v>
+      </c>
+      <c r="F201" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G201" s="11">
+        <v>1</v>
+      </c>
+      <c r="H201" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I201" s="33" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="202" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A202" s="30">
+        <v>2025</v>
+      </c>
+      <c r="B202" s="37" t="s">
+        <v>387</v>
+      </c>
+      <c r="C202" s="38" t="s">
+        <v>353</v>
+      </c>
+      <c r="D202" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E202" s="44" t="s">
+        <v>277</v>
+      </c>
+      <c r="F202" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G202" s="11">
+        <v>0</v>
+      </c>
+      <c r="H202" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I202" s="33" t="str">
+        <f t="shared" ref="I202:I203" si="20">IF(OR(AND(G202&gt;1,G202&lt;&gt;"-"),AND(H202&gt;1,H202&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="203" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A203" s="30">
+        <v>2025</v>
+      </c>
+      <c r="B203" s="37" t="s">
+        <v>389</v>
+      </c>
+      <c r="C203" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="D203" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="E203" s="44" t="s">
+        <v>277</v>
+      </c>
+      <c r="F203" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G203" s="11">
+        <v>0</v>
+      </c>
+      <c r="H203" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I203" s="33" t="str">
+        <f t="shared" si="20"/>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -13869,8 +15238,83 @@
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="G4:H108 G109 G110:H167">
-    <cfRule type="containsText" dxfId="151" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="282" priority="75" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G168:H168">
+    <cfRule type="containsText" dxfId="281" priority="73" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G168))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G169:H169">
+    <cfRule type="containsText" dxfId="280" priority="71" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G169))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G170:H170">
+    <cfRule type="containsText" dxfId="279" priority="69" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G170))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G171:H171">
+    <cfRule type="containsText" dxfId="278" priority="67" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G171))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G172:H172">
+    <cfRule type="containsText" dxfId="277" priority="65" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G172))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="66">
       <colorScale>
@@ -13883,9 +15327,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G168:H168">
-    <cfRule type="containsText" dxfId="150" priority="63" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G168))))</formula>
+  <conditionalFormatting sqref="G173:H173">
+    <cfRule type="containsText" dxfId="276" priority="63" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G173))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="64">
       <colorScale>
@@ -13898,9 +15342,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G169:H169">
-    <cfRule type="containsText" dxfId="149" priority="61" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G169))))</formula>
+  <conditionalFormatting sqref="G174:H174">
+    <cfRule type="containsText" dxfId="275" priority="61" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G174))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="62">
       <colorScale>
@@ -13913,9 +15357,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G170:H170">
-    <cfRule type="containsText" dxfId="148" priority="59" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G170))))</formula>
+  <conditionalFormatting sqref="G175:H175">
+    <cfRule type="containsText" dxfId="274" priority="59" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G175))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="60">
       <colorScale>
@@ -13928,9 +15372,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G171:H171">
-    <cfRule type="containsText" dxfId="147" priority="57" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G171))))</formula>
+  <conditionalFormatting sqref="G176:H176">
+    <cfRule type="containsText" dxfId="273" priority="57" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G176))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="58">
       <colorScale>
@@ -13943,9 +15387,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G172:H172">
-    <cfRule type="containsText" dxfId="146" priority="55" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G172))))</formula>
+  <conditionalFormatting sqref="G177:H177">
+    <cfRule type="containsText" dxfId="272" priority="55" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G177))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="56">
       <colorScale>
@@ -13958,9 +15402,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G173:H173">
-    <cfRule type="containsText" dxfId="145" priority="53" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G173))))</formula>
+  <conditionalFormatting sqref="G178:H178">
+    <cfRule type="containsText" dxfId="271" priority="53" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G178))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="54">
       <colorScale>
@@ -13973,9 +15417,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G174:H174">
-    <cfRule type="containsText" dxfId="144" priority="51" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G174))))</formula>
+  <conditionalFormatting sqref="G179:H179">
+    <cfRule type="containsText" dxfId="270" priority="51" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G179))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="52">
       <colorScale>
@@ -13988,9 +15432,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G175:H175">
-    <cfRule type="containsText" dxfId="143" priority="49" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G175))))</formula>
+  <conditionalFormatting sqref="G180:H180">
+    <cfRule type="containsText" dxfId="269" priority="49" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G180))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="50">
       <colorScale>
@@ -14003,9 +15447,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G176:H176">
-    <cfRule type="containsText" dxfId="142" priority="47" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G176))))</formula>
+  <conditionalFormatting sqref="G181:H181">
+    <cfRule type="containsText" dxfId="268" priority="47" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G181))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="48">
       <colorScale>
@@ -14018,24 +15462,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G177:H177">
-    <cfRule type="containsText" dxfId="141" priority="45" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G177))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="46">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G178:H178">
-    <cfRule type="containsText" dxfId="140" priority="43" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G178))))</formula>
+  <conditionalFormatting sqref="G182:H182">
+    <cfRule type="containsText" dxfId="267" priority="43" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G182))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
       <colorScale>
@@ -14048,9 +15477,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G179:H179">
-    <cfRule type="containsText" dxfId="139" priority="41" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G179))))</formula>
+  <conditionalFormatting sqref="G183:H183">
+    <cfRule type="containsText" dxfId="266" priority="41" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G183))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="42">
       <colorScale>
@@ -14063,9 +15492,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G180:H180">
-    <cfRule type="containsText" dxfId="138" priority="39" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G180))))</formula>
+  <conditionalFormatting sqref="G184:H184">
+    <cfRule type="containsText" dxfId="265" priority="39" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G184))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
       <colorScale>
@@ -14078,11 +15507,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G181:H181">
-    <cfRule type="containsText" dxfId="137" priority="37" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G181))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="38">
+  <conditionalFormatting sqref="G186:H186">
+    <cfRule type="containsText" dxfId="264" priority="35" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G186))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -14093,9 +15522,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G182:H182">
-    <cfRule type="containsText" dxfId="136" priority="33" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G182))))</formula>
+  <conditionalFormatting sqref="G187:H187">
+    <cfRule type="containsText" dxfId="263" priority="33" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G187))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="34">
       <colorScale>
@@ -14108,9 +15537,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G183:H183">
-    <cfRule type="containsText" dxfId="135" priority="31" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G183))))</formula>
+  <conditionalFormatting sqref="G188:H188">
+    <cfRule type="containsText" dxfId="262" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G188))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="32">
       <colorScale>
@@ -14123,9 +15552,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G184:H184">
-    <cfRule type="containsText" dxfId="134" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G184))))</formula>
+  <conditionalFormatting sqref="G185:H185">
+    <cfRule type="containsText" dxfId="261" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G185))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
       <colorScale>
@@ -14138,9 +15567,24 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G186:H186">
-    <cfRule type="containsText" dxfId="133" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G186))))</formula>
+  <conditionalFormatting sqref="G189:H189">
+    <cfRule type="containsText" dxfId="260" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G189))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G190:H190">
+    <cfRule type="containsText" dxfId="259" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G190))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="26">
       <colorScale>
@@ -14153,9 +15597,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G187:H187">
-    <cfRule type="containsText" dxfId="132" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G187))))</formula>
+  <conditionalFormatting sqref="G191:H191">
+    <cfRule type="containsText" dxfId="258" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G191))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
       <colorScale>
@@ -14168,10 +15612,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G188:H188">
-    <cfRule type="containsText" dxfId="131" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G188))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="H109">
+    <cfRule type="containsText" dxfId="257" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H109))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H109">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14183,9 +15629,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G185:H185">
-    <cfRule type="containsText" dxfId="130" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G185))))</formula>
+  <conditionalFormatting sqref="G3:H3">
+    <cfRule type="containsText" dxfId="256" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
       <colorScale>
@@ -14198,9 +15644,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G189:H189">
-    <cfRule type="containsText" dxfId="129" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G189))))</formula>
+  <conditionalFormatting sqref="G192">
+    <cfRule type="containsText" dxfId="255" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G192))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
       <colorScale>
@@ -14213,9 +15659,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G190:H190">
-    <cfRule type="containsText" dxfId="128" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G190))))</formula>
+  <conditionalFormatting sqref="H192">
+    <cfRule type="containsText" dxfId="254" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H192))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
       <colorScale>
@@ -14228,9 +15674,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G191:H191">
-    <cfRule type="containsText" dxfId="127" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G191))))</formula>
+  <conditionalFormatting sqref="G193:H193 G195:H195 G197:H197">
+    <cfRule type="containsText" dxfId="253" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G193))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
       <colorScale>
@@ -14243,12 +15689,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H109">
-    <cfRule type="containsText" dxfId="126" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H109))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H109">
+  <conditionalFormatting sqref="G194:H194 G196:H196">
+    <cfRule type="containsText" dxfId="252" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G194))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14260,9 +15704,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:H3">
-    <cfRule type="containsText" dxfId="125" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+  <conditionalFormatting sqref="G198 G200">
+    <cfRule type="containsText" dxfId="251" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G198))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
       <colorScale>
@@ -14275,9 +15719,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G192">
-    <cfRule type="containsText" dxfId="124" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G192))))</formula>
+  <conditionalFormatting sqref="H198 H200">
+    <cfRule type="containsText" dxfId="250" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H198))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
       <colorScale>
@@ -14290,9 +15734,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H192">
-    <cfRule type="containsText" dxfId="123" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H192))))</formula>
+  <conditionalFormatting sqref="G199:H199 G201:H201">
+    <cfRule type="containsText" dxfId="249" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G199))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
       <colorScale>
@@ -14305,9 +15749,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G193:H193 G195:H195 G197:H197">
-    <cfRule type="containsText" dxfId="122" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G193))))</formula>
+  <conditionalFormatting sqref="G202:H202">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G202))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -14320,9 +15764,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G194:H194 G196:H196">
-    <cfRule type="containsText" dxfId="121" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G194))))</formula>
+  <conditionalFormatting sqref="G203:H203">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G203))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -14343,13 +15787,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I88"/>
+  <dimension ref="A1:I95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J92" sqref="J92"/>
+      <selection pane="bottomRight" activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -16851,7 +18295,195 @@
         <v>0</v>
       </c>
       <c r="I88" s="33" t="str">
-        <f t="shared" ref="I88" si="31">IF(OR(AND(G88&gt;1,G88&lt;&gt;"-"),AND(H88&gt;1,H88&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="I88:I89" si="31">IF(OR(AND(G88&gt;1,G88&lt;&gt;"-"),AND(H88&gt;1,H88&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="30">
+        <v>2025</v>
+      </c>
+      <c r="B89" s="37" t="s">
+        <v>388</v>
+      </c>
+      <c r="C89" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="D89" s="38"/>
+      <c r="E89" s="39" t="s">
+        <v>334</v>
+      </c>
+      <c r="F89" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G89" s="46">
+        <v>0</v>
+      </c>
+      <c r="H89" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I89" s="33" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="30">
+        <v>2025</v>
+      </c>
+      <c r="B90" s="37" t="s">
+        <v>388</v>
+      </c>
+      <c r="C90" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="D90" s="38" t="s">
+        <v>333</v>
+      </c>
+      <c r="E90" s="49" t="s">
+        <v>275</v>
+      </c>
+      <c r="F90" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G90" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H90" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I90" s="33" t="str">
+        <f t="shared" ref="I90:I91" si="32">IF(OR(AND(G90&gt;1,G90&lt;&gt;"-"),AND(H90&gt;1,H90&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="30">
+        <v>2025</v>
+      </c>
+      <c r="B91" s="37" t="s">
+        <v>390</v>
+      </c>
+      <c r="C91" s="38"/>
+      <c r="D91" s="38" t="s">
+        <v>395</v>
+      </c>
+      <c r="E91" s="39"/>
+      <c r="F91" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G91" s="46">
+        <v>0</v>
+      </c>
+      <c r="H91" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I91" s="33" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="30">
+        <v>2025</v>
+      </c>
+      <c r="B92" s="37" t="s">
+        <v>391</v>
+      </c>
+      <c r="C92" s="38"/>
+      <c r="D92" s="38" t="s">
+        <v>395</v>
+      </c>
+      <c r="E92" s="39"/>
+      <c r="F92" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G92" s="46">
+        <v>0</v>
+      </c>
+      <c r="H92" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I92" s="33" t="str">
+        <f t="shared" ref="I92:I94" si="33">IF(OR(AND(G92&gt;1,G92&lt;&gt;"-"),AND(H92&gt;1,H92&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="30">
+        <v>2025</v>
+      </c>
+      <c r="B93" s="37" t="s">
+        <v>392</v>
+      </c>
+      <c r="C93" s="38"/>
+      <c r="D93" s="38" t="s">
+        <v>395</v>
+      </c>
+      <c r="E93" s="39"/>
+      <c r="F93" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G93" s="46">
+        <v>0</v>
+      </c>
+      <c r="H93" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I93" s="33" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="30">
+        <v>2025</v>
+      </c>
+      <c r="B94" s="37" t="s">
+        <v>393</v>
+      </c>
+      <c r="C94" s="38"/>
+      <c r="D94" s="38" t="s">
+        <v>395</v>
+      </c>
+      <c r="E94" s="39"/>
+      <c r="F94" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G94" s="46">
+        <v>0</v>
+      </c>
+      <c r="H94" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I94" s="33" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="30">
+        <v>2025</v>
+      </c>
+      <c r="B95" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="C95" s="38"/>
+      <c r="D95" s="38" t="s">
+        <v>395</v>
+      </c>
+      <c r="E95" s="39"/>
+      <c r="F95" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G95" s="46">
+        <v>0</v>
+      </c>
+      <c r="H95" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I95" s="33" t="str">
+        <f t="shared" ref="I95" si="34">IF(OR(AND(G95&gt;1,G95&lt;&gt;"-"),AND(H95&gt;1,H95&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -16865,10 +18497,10 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="G15:H15 G17:H17 G26:H26 G19:H20 G22:H24">
-    <cfRule type="containsText" dxfId="120" priority="368" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="248" priority="386" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="369">
+    <cfRule type="colorScale" priority="387">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -16880,11 +18512,122 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="119" priority="349" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="247" priority="367" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H26))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
+    <cfRule type="colorScale" priority="368">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28:H28">
+    <cfRule type="containsText" dxfId="246" priority="365" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G28))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="366">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28">
+    <cfRule type="containsText" dxfId="245" priority="363" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28">
+    <cfRule type="colorScale" priority="364">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30:H30">
+    <cfRule type="containsText" dxfId="244" priority="361" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G30))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="362">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30">
+    <cfRule type="containsText" dxfId="243" priority="359" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30">
+    <cfRule type="colorScale" priority="360">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32:H32">
+    <cfRule type="containsText" dxfId="242" priority="353" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="354">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32">
+    <cfRule type="containsText" dxfId="241" priority="351" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32">
+    <cfRule type="colorScale" priority="352">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34:H34 G38:H38">
+    <cfRule type="containsText" dxfId="240" priority="349" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G34))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="350">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -16896,10 +18639,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28:H28">
-    <cfRule type="containsText" dxfId="118" priority="347" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G28))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="H34 H38">
+    <cfRule type="containsText" dxfId="239" priority="347" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38 H34">
     <cfRule type="colorScale" priority="348">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -16911,12 +18656,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="117" priority="345" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H28))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
+  <conditionalFormatting sqref="G33:H33 G36:H36 G40:H40">
+    <cfRule type="containsText" dxfId="238" priority="345" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G33))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="346">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -16928,10 +18671,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G30:H30">
-    <cfRule type="containsText" dxfId="116" priority="343" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G30))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="H33 H36 H40">
+    <cfRule type="containsText" dxfId="237" priority="343" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H33))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36 H33 H40">
     <cfRule type="colorScale" priority="344">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -16943,12 +18688,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
-    <cfRule type="containsText" dxfId="115" priority="341" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
+  <conditionalFormatting sqref="G42:H42">
+    <cfRule type="containsText" dxfId="236" priority="341" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G42))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="342">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -16960,10 +18703,44 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G32:H32">
-    <cfRule type="containsText" dxfId="114" priority="335" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="H42">
+    <cfRule type="containsText" dxfId="235" priority="339" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H42))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H42">
+    <cfRule type="colorScale" priority="340">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G43:H43">
+    <cfRule type="containsText" dxfId="234" priority="337" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G43))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="338">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H43">
+    <cfRule type="containsText" dxfId="233" priority="335" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H43))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H43">
     <cfRule type="colorScale" priority="336">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -16975,12 +18752,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
-    <cfRule type="containsText" dxfId="113" priority="333" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
+  <conditionalFormatting sqref="G45:H45">
+    <cfRule type="containsText" dxfId="232" priority="333" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G45))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="334">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -16992,10 +18767,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G34:H34 G38:H38">
-    <cfRule type="containsText" dxfId="112" priority="331" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G34))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="H45">
+    <cfRule type="containsText" dxfId="231" priority="331" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H45))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H45">
     <cfRule type="colorScale" priority="332">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17007,12 +18784,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H34 H38">
-    <cfRule type="containsText" dxfId="111" priority="329" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34 H38">
+  <conditionalFormatting sqref="G47:H47 G49:H49 G51:H51 G53:H53 G55:H56 G54">
+    <cfRule type="containsText" dxfId="230" priority="329" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G47))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="330">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17024,10 +18799,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G33:H33 G36:H36 G40:H40">
-    <cfRule type="containsText" dxfId="110" priority="327" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G33))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="H47 H49 H51 H53 H55:H56">
+    <cfRule type="containsText" dxfId="229" priority="327" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H47))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47 H49 H51 H53 H55:H56">
     <cfRule type="colorScale" priority="328">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17039,12 +18816,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H33 H36 H40">
-    <cfRule type="containsText" dxfId="109" priority="325" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H33))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H33 H36 H40">
+  <conditionalFormatting sqref="G48:H48 G50:H50 G52:H52 H54">
+    <cfRule type="containsText" dxfId="228" priority="325" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G48))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="326">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17056,10 +18831,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G42:H42">
-    <cfRule type="containsText" dxfId="108" priority="323" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G42))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="H48 H50 H52 H54">
+    <cfRule type="containsText" dxfId="227" priority="323" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H48))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H50 H48 H52 H54">
     <cfRule type="colorScale" priority="324">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17071,13 +18848,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H42">
-    <cfRule type="containsText" dxfId="107" priority="321" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H42))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H42">
-    <cfRule type="colorScale" priority="322">
+  <conditionalFormatting sqref="G61:H61 G63:H63 G65:H65 G67:H67 G69:H69">
+    <cfRule type="containsText" dxfId="226" priority="301" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G61))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="302">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -17088,11 +18863,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G43:H43">
-    <cfRule type="containsText" dxfId="106" priority="319" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G43))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="320">
+  <conditionalFormatting sqref="H61 H63 H65 H67 H69">
+    <cfRule type="containsText" dxfId="225" priority="299" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H61))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H61 H63 H65 H67 H69">
+    <cfRule type="colorScale" priority="300">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -17103,13 +18880,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
-    <cfRule type="containsText" dxfId="105" priority="317" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H43))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
-    <cfRule type="colorScale" priority="318">
+  <conditionalFormatting sqref="G60:H60 G62:H62 G64:H64 G66:H66 G68:H68 G70:H70 G73:H73">
+    <cfRule type="containsText" dxfId="224" priority="297" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G60))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="298">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -17120,11 +18895,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G45:H45">
-    <cfRule type="containsText" dxfId="104" priority="315" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G45))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="316">
+  <conditionalFormatting sqref="H60 H62 H64 H66 H68 H70 H73">
+    <cfRule type="containsText" dxfId="223" priority="295" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H60))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H60 H62 H64 H66 H68 H70 H73">
+    <cfRule type="colorScale" priority="296">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -17135,13 +18912,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
-    <cfRule type="containsText" dxfId="103" priority="313" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H45))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
-    <cfRule type="colorScale" priority="314">
+  <conditionalFormatting sqref="G58:H58">
+    <cfRule type="containsText" dxfId="222" priority="293" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G58))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="294">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -17152,11 +18927,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G47:H47 G49:H49 G51:H51 G53:H53 G55:H56 G54">
-    <cfRule type="containsText" dxfId="102" priority="311" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G47))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="312">
+  <conditionalFormatting sqref="H58">
+    <cfRule type="containsText" dxfId="221" priority="291" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H58))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H58">
+    <cfRule type="colorScale" priority="292">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -17167,13 +18944,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47 H49 H51 H53 H55:H56">
-    <cfRule type="containsText" dxfId="101" priority="309" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H47))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H47 H49 H51 H53 H55:H56">
-    <cfRule type="colorScale" priority="310">
+  <conditionalFormatting sqref="G71:H71">
+    <cfRule type="containsText" dxfId="220" priority="289" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G71))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="290">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -17184,11 +18959,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G48:H48 G50:H50 G52:H52 H54">
-    <cfRule type="containsText" dxfId="100" priority="307" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G48))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="308">
+  <conditionalFormatting sqref="H71">
+    <cfRule type="containsText" dxfId="219" priority="287" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H71))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H71">
+    <cfRule type="colorScale" priority="288">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -17199,108 +18976,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H48 H50 H52 H54">
-    <cfRule type="containsText" dxfId="99" priority="305" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H48))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H48 H50 H52 H54">
-    <cfRule type="colorScale" priority="306">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G61:H61 G63:H63 G65:H65 G67:H67 G69:H69">
-    <cfRule type="containsText" dxfId="98" priority="283" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G61))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="284">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H61 H63 H65 H67 H69">
-    <cfRule type="containsText" dxfId="97" priority="281" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H61))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H61 H63 H65 H67 H69">
-    <cfRule type="colorScale" priority="282">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G60:H60 G62:H62 G64:H64 G66:H66 G68:H68 G70:H70 G73:H73">
-    <cfRule type="containsText" dxfId="96" priority="279" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G60))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="280">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H60 H62 H64 H66 H68 H70 H73">
-    <cfRule type="containsText" dxfId="95" priority="277" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H60))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H60 H62 H64 H66 H68 H70 H73">
-    <cfRule type="colorScale" priority="278">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G58:H58">
-    <cfRule type="containsText" dxfId="94" priority="275" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G58))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="276">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H58">
-    <cfRule type="containsText" dxfId="93" priority="273" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H58))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H58">
+  <conditionalFormatting sqref="G22">
+    <cfRule type="containsText" dxfId="218" priority="273" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="274">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17312,9 +18991,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G71:H71">
-    <cfRule type="containsText" dxfId="92" priority="271" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G71))))</formula>
+  <conditionalFormatting sqref="H22">
+    <cfRule type="containsText" dxfId="217" priority="271" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="272">
       <colorScale>
@@ -17327,12 +19006,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H71">
-    <cfRule type="containsText" dxfId="91" priority="269" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H71))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H71">
+  <conditionalFormatting sqref="G25">
+    <cfRule type="containsText" dxfId="216" priority="269" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G25))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="270">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17344,11 +19021,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
-    <cfRule type="containsText" dxfId="90" priority="255" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="256">
+  <conditionalFormatting sqref="G27:H27">
+    <cfRule type="containsText" dxfId="215" priority="261" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="262">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -17359,11 +19036,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="containsText" dxfId="89" priority="253" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="254">
+  <conditionalFormatting sqref="H27">
+    <cfRule type="containsText" dxfId="214" priority="259" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="colorScale" priority="260">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -17374,11 +19053,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25">
-    <cfRule type="containsText" dxfId="88" priority="251" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G25))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="252">
+  <conditionalFormatting sqref="G75:H75">
+    <cfRule type="containsText" dxfId="213" priority="209" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G75))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="210">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -17389,11 +19068,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G27:H27">
-    <cfRule type="containsText" dxfId="87" priority="243" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="244">
+  <conditionalFormatting sqref="H75">
+    <cfRule type="containsText" dxfId="212" priority="207" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H75))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H75">
+    <cfRule type="colorScale" priority="208">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -17404,13 +19085,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="86" priority="241" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
-    <cfRule type="colorScale" priority="242">
+  <conditionalFormatting sqref="G77:H77">
+    <cfRule type="containsText" dxfId="211" priority="201" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G77))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="202">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -17421,10 +19100,44 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G75:H75">
-    <cfRule type="containsText" dxfId="85" priority="191" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G75))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="H77">
+    <cfRule type="containsText" dxfId="210" priority="199" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H77))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H77">
+    <cfRule type="colorScale" priority="200">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G79:H79">
+    <cfRule type="containsText" dxfId="209" priority="193" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G79))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="194">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H79">
+    <cfRule type="containsText" dxfId="208" priority="191" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H79))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H79">
     <cfRule type="colorScale" priority="192">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17436,12 +19149,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H75">
-    <cfRule type="containsText" dxfId="84" priority="189" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H75))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H75">
+  <conditionalFormatting sqref="G81:H81">
+    <cfRule type="containsText" dxfId="207" priority="189" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G81))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="190">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17453,10 +19164,44 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G77:H77">
-    <cfRule type="containsText" dxfId="83" priority="183" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G77))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="H81">
+    <cfRule type="containsText" dxfId="206" priority="187" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H81))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H81">
+    <cfRule type="colorScale" priority="188">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G83:H83">
+    <cfRule type="containsText" dxfId="205" priority="185" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G83))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="186">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H83">
+    <cfRule type="containsText" dxfId="204" priority="183" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H83))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H83">
     <cfRule type="colorScale" priority="184">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17468,12 +19213,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H77">
-    <cfRule type="containsText" dxfId="82" priority="181" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H77))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H77">
+  <conditionalFormatting sqref="G85:H85">
+    <cfRule type="containsText" dxfId="203" priority="181" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G85))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="182">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17485,11 +19228,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G79:H79">
-    <cfRule type="containsText" dxfId="81" priority="175" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G79))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="176">
+  <conditionalFormatting sqref="H85">
+    <cfRule type="containsText" dxfId="202" priority="179" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H85))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H85">
+    <cfRule type="colorScale" priority="180">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -17500,108 +19245,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H79">
-    <cfRule type="containsText" dxfId="80" priority="173" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H79))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H79">
-    <cfRule type="colorScale" priority="174">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G81:H81">
-    <cfRule type="containsText" dxfId="79" priority="171" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G81))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="172">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H81">
-    <cfRule type="containsText" dxfId="78" priority="169" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H81))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H81">
-    <cfRule type="colorScale" priority="170">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G83:H83">
-    <cfRule type="containsText" dxfId="77" priority="167" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G83))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="168">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H83">
-    <cfRule type="containsText" dxfId="76" priority="165" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H83))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H83">
-    <cfRule type="colorScale" priority="166">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G85:H85">
-    <cfRule type="containsText" dxfId="75" priority="163" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G85))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="164">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H85">
-    <cfRule type="containsText" dxfId="74" priority="161" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H85))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H85">
+  <conditionalFormatting sqref="G27">
+    <cfRule type="containsText" dxfId="201" priority="161" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27">
     <cfRule type="colorScale" priority="162">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17613,12 +19262,142 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G27">
-    <cfRule type="containsText" dxfId="73" priority="143" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G27">
+  <conditionalFormatting sqref="G29:H29">
+    <cfRule type="containsText" dxfId="200" priority="159" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="160">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="containsText" dxfId="199" priority="157" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="colorScale" priority="158">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="containsText" dxfId="198" priority="155" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="colorScale" priority="156">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G35:H35">
+    <cfRule type="containsText" dxfId="197" priority="153" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G35))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="154">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35">
+    <cfRule type="containsText" dxfId="196" priority="151" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H35))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35">
+    <cfRule type="colorScale" priority="152">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G35">
+    <cfRule type="containsText" dxfId="195" priority="149" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G35))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G35">
+    <cfRule type="colorScale" priority="150">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G44:H44">
+    <cfRule type="containsText" dxfId="194" priority="147" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G44))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="148">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44">
+    <cfRule type="containsText" dxfId="193" priority="145" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H44))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44">
+    <cfRule type="colorScale" priority="146">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G44">
+    <cfRule type="containsText" dxfId="192" priority="143" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G44))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G44">
     <cfRule type="colorScale" priority="144">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17630,9 +19409,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29:H29">
-    <cfRule type="containsText" dxfId="72" priority="141" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
+  <conditionalFormatting sqref="G46:H46">
+    <cfRule type="containsText" dxfId="191" priority="141" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G46))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="142">
       <colorScale>
@@ -17645,12 +19424,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="71" priority="139" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
+  <conditionalFormatting sqref="H46">
+    <cfRule type="containsText" dxfId="190" priority="139" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H46))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H46">
     <cfRule type="colorScale" priority="140">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17662,12 +19441,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
-    <cfRule type="containsText" dxfId="70" priority="137" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
+  <conditionalFormatting sqref="G46">
+    <cfRule type="containsText" dxfId="189" priority="137" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G46))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G46">
     <cfRule type="colorScale" priority="138">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17679,9 +19458,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G35:H35">
-    <cfRule type="containsText" dxfId="69" priority="135" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G35))))</formula>
+  <conditionalFormatting sqref="G59:H59">
+    <cfRule type="containsText" dxfId="188" priority="135" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G59))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="136">
       <colorScale>
@@ -17694,12 +19473,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
-    <cfRule type="containsText" dxfId="68" priority="133" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H35))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
+  <conditionalFormatting sqref="H59">
+    <cfRule type="containsText" dxfId="187" priority="133" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H59))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H59">
     <cfRule type="colorScale" priority="134">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17711,12 +19490,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G35">
-    <cfRule type="containsText" dxfId="67" priority="131" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G35))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G35">
+  <conditionalFormatting sqref="G59">
+    <cfRule type="containsText" dxfId="186" priority="131" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G59))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G59">
     <cfRule type="colorScale" priority="132">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17728,9 +19507,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G44:H44">
-    <cfRule type="containsText" dxfId="66" priority="129" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G44))))</formula>
+  <conditionalFormatting sqref="G57:H57">
+    <cfRule type="containsText" dxfId="185" priority="129" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G57))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="130">
       <colorScale>
@@ -17743,12 +19522,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
-    <cfRule type="containsText" dxfId="65" priority="127" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H44))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
+  <conditionalFormatting sqref="H57">
+    <cfRule type="containsText" dxfId="184" priority="127" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H57))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H57">
     <cfRule type="colorScale" priority="128">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17760,12 +19539,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G44">
-    <cfRule type="containsText" dxfId="64" priority="125" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G44))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G44">
+  <conditionalFormatting sqref="G57">
+    <cfRule type="containsText" dxfId="183" priority="125" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G57))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G57">
     <cfRule type="colorScale" priority="126">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17777,9 +19556,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G46:H46">
-    <cfRule type="containsText" dxfId="63" priority="123" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G46))))</formula>
+  <conditionalFormatting sqref="G80:H80">
+    <cfRule type="containsText" dxfId="182" priority="123" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G80))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="124">
       <colorScale>
@@ -17792,12 +19571,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H46">
-    <cfRule type="containsText" dxfId="62" priority="121" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H46))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H46">
+  <conditionalFormatting sqref="H80">
+    <cfRule type="containsText" dxfId="181" priority="121" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H80))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H80">
     <cfRule type="colorScale" priority="122">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17809,12 +19588,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G46">
-    <cfRule type="containsText" dxfId="61" priority="119" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G46))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G46">
+  <conditionalFormatting sqref="G80">
+    <cfRule type="containsText" dxfId="180" priority="119" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G80))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G80">
     <cfRule type="colorScale" priority="120">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17826,9 +19605,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G59:H59">
-    <cfRule type="containsText" dxfId="60" priority="117" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G59))))</formula>
+  <conditionalFormatting sqref="G78:H78">
+    <cfRule type="containsText" dxfId="179" priority="117" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G78))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="118">
       <colorScale>
@@ -17841,12 +19620,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H59">
-    <cfRule type="containsText" dxfId="59" priority="115" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H59))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H59">
+  <conditionalFormatting sqref="H78">
+    <cfRule type="containsText" dxfId="178" priority="115" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H78))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H78">
     <cfRule type="colorScale" priority="116">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17858,12 +19637,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G59">
-    <cfRule type="containsText" dxfId="58" priority="113" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G59))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G59">
+  <conditionalFormatting sqref="G78">
+    <cfRule type="containsText" dxfId="177" priority="113" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G78))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G78">
     <cfRule type="colorScale" priority="114">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17875,9 +19654,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G57:H57">
-    <cfRule type="containsText" dxfId="57" priority="111" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G57))))</formula>
+  <conditionalFormatting sqref="G76:H76">
+    <cfRule type="containsText" dxfId="176" priority="111" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G76))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="112">
       <colorScale>
@@ -17890,12 +19669,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H57">
-    <cfRule type="containsText" dxfId="56" priority="109" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H57))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H57">
+  <conditionalFormatting sqref="H76">
+    <cfRule type="containsText" dxfId="175" priority="109" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H76))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H76">
     <cfRule type="colorScale" priority="110">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17907,12 +19686,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G57">
-    <cfRule type="containsText" dxfId="55" priority="107" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G57))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G57">
+  <conditionalFormatting sqref="G76">
+    <cfRule type="containsText" dxfId="174" priority="107" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G76))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G76">
     <cfRule type="colorScale" priority="108">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17924,9 +19703,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G80:H80">
-    <cfRule type="containsText" dxfId="54" priority="105" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G80))))</formula>
+  <conditionalFormatting sqref="G74:H74">
+    <cfRule type="containsText" dxfId="173" priority="105" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G74))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="106">
       <colorScale>
@@ -17939,12 +19718,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H80">
-    <cfRule type="containsText" dxfId="53" priority="103" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H80))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H80">
+  <conditionalFormatting sqref="H74">
+    <cfRule type="containsText" dxfId="172" priority="103" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H74))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H74">
     <cfRule type="colorScale" priority="104">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17956,12 +19735,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G80">
-    <cfRule type="containsText" dxfId="52" priority="101" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G80))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G80">
+  <conditionalFormatting sqref="G74">
+    <cfRule type="containsText" dxfId="171" priority="101" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G74))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G74">
     <cfRule type="colorScale" priority="102">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17973,9 +19752,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G78:H78">
-    <cfRule type="containsText" dxfId="51" priority="99" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G78))))</formula>
+  <conditionalFormatting sqref="G72:H72">
+    <cfRule type="containsText" dxfId="170" priority="99" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G72))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="100">
       <colorScale>
@@ -17988,12 +19767,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H78">
-    <cfRule type="containsText" dxfId="50" priority="97" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H78))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H78">
+  <conditionalFormatting sqref="H72">
+    <cfRule type="containsText" dxfId="169" priority="97" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H72))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H72">
     <cfRule type="colorScale" priority="98">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18005,12 +19784,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G78">
-    <cfRule type="containsText" dxfId="49" priority="95" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G78))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G78">
+  <conditionalFormatting sqref="G72">
+    <cfRule type="containsText" dxfId="168" priority="95" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G72))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G72">
     <cfRule type="colorScale" priority="96">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18022,9 +19801,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G76:H76">
-    <cfRule type="containsText" dxfId="48" priority="93" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G76))))</formula>
+  <conditionalFormatting sqref="G82:H82">
+    <cfRule type="containsText" dxfId="167" priority="93" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G82))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="94">
       <colorScale>
@@ -18037,12 +19816,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H76">
-    <cfRule type="containsText" dxfId="47" priority="91" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H76))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H76">
+  <conditionalFormatting sqref="H82">
+    <cfRule type="containsText" dxfId="166" priority="91" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H82))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H82">
     <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18054,12 +19833,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G76">
-    <cfRule type="containsText" dxfId="46" priority="89" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G76))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G76">
+  <conditionalFormatting sqref="G82">
+    <cfRule type="containsText" dxfId="165" priority="89" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G82))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G82">
     <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18071,9 +19850,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G74:H74">
-    <cfRule type="containsText" dxfId="45" priority="87" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G74))))</formula>
+  <conditionalFormatting sqref="G86:H86">
+    <cfRule type="containsText" dxfId="164" priority="87" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G86))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="88">
       <colorScale>
@@ -18086,12 +19865,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H74">
-    <cfRule type="containsText" dxfId="44" priority="85" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H74))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H74">
+  <conditionalFormatting sqref="H86">
+    <cfRule type="containsText" dxfId="163" priority="85" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H86))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H86">
     <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18103,12 +19882,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G74">
-    <cfRule type="containsText" dxfId="43" priority="83" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G74))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G74">
+  <conditionalFormatting sqref="G86">
+    <cfRule type="containsText" dxfId="162" priority="83" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G86))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G86">
     <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18120,9 +19899,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G72:H72">
-    <cfRule type="containsText" dxfId="42" priority="81" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G72))))</formula>
+  <conditionalFormatting sqref="G84:H84">
+    <cfRule type="containsText" dxfId="161" priority="81" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G84))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="82">
       <colorScale>
@@ -18135,12 +19914,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H72">
-    <cfRule type="containsText" dxfId="41" priority="79" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H72))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H72">
+  <conditionalFormatting sqref="H84">
+    <cfRule type="containsText" dxfId="160" priority="79" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H84))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H84">
     <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18152,12 +19931,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G72">
-    <cfRule type="containsText" dxfId="40" priority="77" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G72))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G72">
+  <conditionalFormatting sqref="G84">
+    <cfRule type="containsText" dxfId="159" priority="77" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G84))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G84">
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18169,9 +19948,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G82:H82">
-    <cfRule type="containsText" dxfId="39" priority="75" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G82))))</formula>
+  <conditionalFormatting sqref="G37:H37">
+    <cfRule type="containsText" dxfId="158" priority="75" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G37))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="76">
       <colorScale>
@@ -18184,12 +19963,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H82">
-    <cfRule type="containsText" dxfId="38" priority="73" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H82))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H82">
+  <conditionalFormatting sqref="H37">
+    <cfRule type="containsText" dxfId="157" priority="73" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H37))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H37">
     <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18201,12 +19980,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G82">
-    <cfRule type="containsText" dxfId="37" priority="71" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G82))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G82">
+  <conditionalFormatting sqref="G37">
+    <cfRule type="containsText" dxfId="156" priority="71" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G37))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G37">
     <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18218,9 +19997,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G86:H86">
-    <cfRule type="containsText" dxfId="36" priority="69" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G86))))</formula>
+  <conditionalFormatting sqref="G41:H41">
+    <cfRule type="containsText" dxfId="155" priority="69" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G41))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="70">
       <colorScale>
@@ -18233,12 +20012,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H86">
-    <cfRule type="containsText" dxfId="35" priority="67" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H86))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H86">
+  <conditionalFormatting sqref="H41">
+    <cfRule type="containsText" dxfId="154" priority="67" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H41))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41">
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18250,12 +20029,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G86">
-    <cfRule type="containsText" dxfId="34" priority="65" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G86))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G86">
+  <conditionalFormatting sqref="G41">
+    <cfRule type="containsText" dxfId="153" priority="65" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G41))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G41">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18267,9 +20046,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G84:H84">
-    <cfRule type="containsText" dxfId="33" priority="63" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G84))))</formula>
+  <conditionalFormatting sqref="G39:H39">
+    <cfRule type="containsText" dxfId="152" priority="63" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G39))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="64">
       <colorScale>
@@ -18282,12 +20061,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H84">
-    <cfRule type="containsText" dxfId="32" priority="61" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H84))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H84">
+  <conditionalFormatting sqref="H39">
+    <cfRule type="containsText" dxfId="151" priority="61" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H39))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18299,12 +20078,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G84">
-    <cfRule type="containsText" dxfId="31" priority="59" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G84))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G84">
+  <conditionalFormatting sqref="G39">
+    <cfRule type="containsText" dxfId="150" priority="59" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G39))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G39">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18316,9 +20095,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G37:H37">
-    <cfRule type="containsText" dxfId="30" priority="57" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G37))))</formula>
+  <conditionalFormatting sqref="H25">
+    <cfRule type="containsText" dxfId="149" priority="57" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H25))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="58">
       <colorScale>
@@ -18331,12 +20110,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
-    <cfRule type="containsText" dxfId="29" priority="55" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H37))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
+  <conditionalFormatting sqref="G21">
+    <cfRule type="containsText" dxfId="148" priority="55" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G21))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18348,12 +20125,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G37">
-    <cfRule type="containsText" dxfId="28" priority="53" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G37))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G37">
+  <conditionalFormatting sqref="H21">
+    <cfRule type="containsText" dxfId="147" priority="53" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H21))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18365,9 +20140,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G41:H41">
-    <cfRule type="containsText" dxfId="27" priority="51" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G41))))</formula>
+  <conditionalFormatting sqref="G18">
+    <cfRule type="containsText" dxfId="146" priority="51" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G18))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="52">
       <colorScale>
@@ -18380,12 +20155,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
-    <cfRule type="containsText" dxfId="26" priority="49" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H41))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
+  <conditionalFormatting sqref="H18">
+    <cfRule type="containsText" dxfId="145" priority="49" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18397,12 +20170,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G41">
-    <cfRule type="containsText" dxfId="25" priority="47" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G41))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G41">
+  <conditionalFormatting sqref="G16">
+    <cfRule type="containsText" dxfId="144" priority="47" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G16))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18414,9 +20185,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G39:H39">
-    <cfRule type="containsText" dxfId="24" priority="45" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G39))))</formula>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="containsText" dxfId="143" priority="45" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="46">
       <colorScale>
@@ -18429,12 +20200,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
-    <cfRule type="containsText" dxfId="23" priority="43" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H39))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
+  <conditionalFormatting sqref="G30">
+    <cfRule type="containsText" dxfId="142" priority="43" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18446,12 +20217,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G39">
-    <cfRule type="containsText" dxfId="22" priority="41" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G39))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G39">
+  <conditionalFormatting sqref="H31">
+    <cfRule type="containsText" dxfId="141" priority="41" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H31))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18463,10 +20232,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
-    <cfRule type="containsText" dxfId="21" priority="39" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H25))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="H31">
+    <cfRule type="containsText" dxfId="140" priority="39" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H31))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18478,24 +20249,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G21">
-    <cfRule type="containsText" dxfId="20" priority="37" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G21))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
-    <cfRule type="containsText" dxfId="19" priority="35" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H21))))</formula>
+  <conditionalFormatting sqref="G3:H8">
+    <cfRule type="containsText" dxfId="139" priority="35" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="36">
       <colorScale>
@@ -18508,9 +20264,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
-    <cfRule type="containsText" dxfId="18" priority="33" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G18))))</formula>
+  <conditionalFormatting sqref="G9:G14">
+    <cfRule type="containsText" dxfId="138" priority="33" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="34">
       <colorScale>
@@ -18523,9 +20279,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
-    <cfRule type="containsText" dxfId="17" priority="31" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
+  <conditionalFormatting sqref="H9:H14">
+    <cfRule type="containsText" dxfId="137" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="32">
       <colorScale>
@@ -18538,9 +20294,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G16">
-    <cfRule type="containsText" dxfId="16" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G16))))</formula>
+  <conditionalFormatting sqref="G87:H87">
+    <cfRule type="containsText" dxfId="136" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G87))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
       <colorScale>
@@ -18553,10 +20309,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="15" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="H87">
+    <cfRule type="containsText" dxfId="135" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H87))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H87">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18568,12 +20326,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G30">
-    <cfRule type="containsText" dxfId="14" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G30">
+  <conditionalFormatting sqref="G88:H88">
+    <cfRule type="containsText" dxfId="134" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G88))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18585,10 +20341,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
-    <cfRule type="containsText" dxfId="13" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H31))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="H88">
+    <cfRule type="containsText" dxfId="133" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H88))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H88">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18600,12 +20358,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
-    <cfRule type="containsText" dxfId="12" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H31))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
+  <conditionalFormatting sqref="G88">
+    <cfRule type="containsText" dxfId="132" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G88))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G88">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18617,9 +20375,24 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:H8">
-    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+  <conditionalFormatting sqref="G31">
+    <cfRule type="containsText" dxfId="131" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G31))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G89:H89">
+    <cfRule type="containsText" dxfId="9" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G89))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
       <colorScale>
@@ -18632,10 +20405,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9:G14">
-    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="H89">
+    <cfRule type="containsText" dxfId="8" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H89))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H89">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18647,9 +20422,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9:H14">
-    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
+  <conditionalFormatting sqref="G90:H90">
+    <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G90))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
       <colorScale>
@@ -18662,10 +20437,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G87:H87">
-    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G87))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="H90">
+    <cfRule type="containsText" dxfId="6" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H90))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H90">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18677,12 +20454,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H87">
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H87))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H87">
+  <conditionalFormatting sqref="G90">
+    <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G90))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G90">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18694,9 +20471,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G88:H88">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G88))))</formula>
+  <conditionalFormatting sqref="G91:H94">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G91))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
       <colorScale>
@@ -18709,12 +20486,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H88">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H88))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H88">
+  <conditionalFormatting sqref="H91:H94">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H91))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H91:H94">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18726,12 +20503,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G88">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G88))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G88">
+  <conditionalFormatting sqref="G95:H95">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G95))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18743,10 +20518,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G31">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G31))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="H95">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H95))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H95">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18765,11 +20542,943 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C57CF2B-0362-4150-B984-EA810BF4014E}">
+  <dimension ref="A1:I29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D41" sqref="D41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.453125" style="24" customWidth="1"/>
+    <col min="2" max="3" width="48.7265625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="19.26953125" style="22" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" style="25" customWidth="1"/>
+    <col min="7" max="8" width="3.81640625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>341</v>
+      </c>
+      <c r="C1" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="59"/>
+      <c r="E1" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="64"/>
+      <c r="G1" s="65" t="s">
+        <v>385</v>
+      </c>
+      <c r="H1" s="66"/>
+      <c r="I1" s="26"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="26"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>1999</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="33" t="str">
+        <f t="shared" ref="I3:I4" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="15">
+        <v>2000</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>2001</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="33" t="str">
+        <f t="shared" ref="I5:I29" si="1">IF(OR(AND(G5&gt;1,G5&lt;&gt;"-"),AND(H5&gt;1,H5&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="15">
+        <v>2002</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>2003</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="15">
+        <v>2004</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>2005</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="15">
+        <v>2006</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>2007</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="15">
+        <v>2008</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>2009</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="15">
+        <v>2010</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>2011</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="15">
+        <v>2012</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>2013</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="15">
+        <v>2014</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
+        <v>2015</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="15">
+        <v>2016</v>
+      </c>
+      <c r="B20" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
+        <v>2017</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="15">
+        <v>2018</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="I23" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="15">
+        <v>2020</v>
+      </c>
+      <c r="B24" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B25" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="15">
+        <v>2022</v>
+      </c>
+      <c r="B26" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B27" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="15">
+        <v>2024</v>
+      </c>
+      <c r="B28" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>386</v>
+      </c>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="39" t="s">
+        <v>277</v>
+      </c>
+      <c r="F29" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" s="46">
+        <v>1</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G3:H28">
+    <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29:H29">
+    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/Collections/Russia/#Russia#Russian_Federation#Commemorative#[1999-present]#circulation_quality.xlsx
+++ b/Collections/Russia/#Russia#Russian_Federation#Commemorative#[1999-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Russia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5A9FDF-CF81-4BE7-8E8B-E3BA0D2F20B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5D6449-31BF-41F1-BF77-8DBB6030AAA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1₽ " sheetId="1" r:id="rId1"/>
@@ -189,7 +189,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t xml:space="preserve">Проверить, есть ли в наличии
+          <t xml:space="preserve">Дубль не очень
 </t>
         </r>
       </text>
@@ -272,6 +272,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
+    <author>Lord_Alexator</author>
   </authors>
   <commentList>
     <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
@@ -331,6 +332,146 @@
             <charset val="204"/>
           </rPr>
           <t>Saint Petersburg Mint</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G31" authorId="1" shapeId="0" xr:uid="{9EA93373-6A75-4AA0-BD21-86BE32436243}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Дубли VF</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H78" authorId="1" shapeId="0" xr:uid="{0F2C8D4F-C992-4CB2-AD19-D81D4989D5F1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Дубли VF</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H84" authorId="1" shapeId="0" xr:uid="{9EB26654-98FB-4155-8B21-4879C658152E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Дубли VF</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H91" authorId="1" shapeId="0" xr:uid="{13152547-DCFC-43F7-9229-4D7954D08712}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Дубли VF</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H102" authorId="1" shapeId="0" xr:uid="{CB7A2AF6-693C-4FE3-960E-A815AEBE4ABF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Дубли VF</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H103" authorId="1" shapeId="0" xr:uid="{BD3B171C-FFC9-4F70-9C39-8B0D2ABCE2A7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Дубли VF</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G122" authorId="1" shapeId="0" xr:uid="{12A302F8-8F5D-48EC-8A90-2FE096C58265}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Дубли VF</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H123" authorId="1" shapeId="0" xr:uid="{30B2EC17-B685-4B0E-B7E3-F5DDC32F2A5A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Дубли VF</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H126" authorId="1" shapeId="0" xr:uid="{D8FBC129-9231-4692-BE0D-26EB266262F2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Дубли VF</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H133" authorId="1" shapeId="0" xr:uid="{6569A9C7-FC86-4284-B42B-BDDA9D2FEF6C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Дубли VF</t>
         </r>
       </text>
     </comment>
@@ -1673,7 +1814,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1805,8 +1946,15 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1859,12 +2007,6 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor rgb="FF9BE5FF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -1949,7 +2091,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2075,9 +2217,6 @@
     <xf numFmtId="3" fontId="12" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2094,9 +2233,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2146,14 +2282,15 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="308">
+  <dxfs count="191">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -3659,943 +3796,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -4626,9 +3826,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="307"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="306" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="305"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -4917,29 +4117,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="56" t="s">
+      <c r="A1" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="54" t="s">
         <v>341</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="59"/>
-      <c r="E1" s="58" t="s">
+      <c r="D1" s="57"/>
+      <c r="E1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="59"/>
-      <c r="G1" s="60" t="s">
+      <c r="F1" s="57"/>
+      <c r="G1" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="61"/>
+      <c r="H1" s="59"/>
       <c r="I1" s="33"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="55"/>
-      <c r="B2" s="57"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
@@ -5668,7 +4868,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H3">
-    <cfRule type="containsText" dxfId="304" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="190" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5685,7 +4885,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="303" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="189" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5702,7 +4902,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="containsText" dxfId="302" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="188" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5719,7 +4919,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="301" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="187" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5736,7 +4936,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="300" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="186" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5753,7 +4953,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:H18">
-    <cfRule type="containsText" dxfId="299" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="185" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5770,7 +4970,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G17">
-    <cfRule type="containsText" dxfId="298" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="184" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5787,7 +4987,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H17">
-    <cfRule type="containsText" dxfId="297" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="183" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5804,7 +5004,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:G28">
-    <cfRule type="containsText" dxfId="296" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="182" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5821,7 +5021,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19:H28">
-    <cfRule type="containsText" dxfId="295" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="181" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5851,7 +5051,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomRight" activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5866,29 +5066,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="56" t="s">
+      <c r="A1" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="54" t="s">
         <v>341</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="64"/>
-      <c r="E1" s="63" t="s">
+      <c r="D1" s="62"/>
+      <c r="E1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="64"/>
-      <c r="G1" s="65" t="s">
+      <c r="F1" s="62"/>
+      <c r="G1" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="66"/>
+      <c r="H1" s="64"/>
       <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="27" t="s">
         <v>4</v>
       </c>
@@ -6150,15 +5350,15 @@
       <c r="F11" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="52">
+      <c r="G11" s="41">
         <v>1</v>
       </c>
       <c r="H11" s="41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" s="33" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6933,7 +6133,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:H31">
-    <cfRule type="containsText" dxfId="294" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="180" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -6948,7 +6148,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="293" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="179" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -6963,7 +6163,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="292" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="178" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -6978,7 +6178,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:G38">
-    <cfRule type="containsText" dxfId="291" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="177" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -6993,7 +6193,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:H38">
-    <cfRule type="containsText" dxfId="290" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="176" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -7018,7 +6218,7 @@
   <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="J62" sqref="J62"/>
@@ -7036,29 +6236,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="56" t="s">
+      <c r="A1" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="54" t="s">
         <v>341</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="64"/>
-      <c r="E1" s="63" t="s">
+      <c r="D1" s="62"/>
+      <c r="E1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="64"/>
-      <c r="G1" s="65" t="s">
+      <c r="F1" s="62"/>
+      <c r="G1" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="H1" s="66"/>
+      <c r="H1" s="64"/>
       <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="67"/>
-      <c r="B2" s="57"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="27" t="s">
         <v>4</v>
       </c>
@@ -8876,7 +8076,7 @@
       <c r="F66" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G66" s="50">
+      <c r="G66" s="49">
         <v>2</v>
       </c>
       <c r="H66" s="6" t="s">
@@ -9046,7 +8246,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G16:H65 G3:H8">
-    <cfRule type="containsText" dxfId="289" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="175" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -9061,7 +8261,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66">
-    <cfRule type="containsText" dxfId="288" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="174" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H66))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -9076,7 +8276,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:G15">
-    <cfRule type="containsText" dxfId="287" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="173" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -9091,7 +8291,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H15">
-    <cfRule type="containsText" dxfId="286" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="172" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -9106,7 +8306,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G67:G71">
-    <cfRule type="containsText" dxfId="285" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="171" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G67))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -9121,7 +8321,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H67:H71">
-    <cfRule type="containsText" dxfId="284" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="170" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H67))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -9136,7 +8336,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G66">
-    <cfRule type="containsText" dxfId="283" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="169" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G66))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9162,11 +8362,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I203"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J171" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="9" ySplit="2" topLeftCell="J72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A203" sqref="A203"/>
+      <selection pane="bottomRight" activeCell="I118" sqref="I118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9180,29 +8380,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="56" t="s">
+      <c r="A1" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="54" t="s">
         <v>341</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="59"/>
-      <c r="E1" s="63" t="s">
+      <c r="D1" s="57"/>
+      <c r="E1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="64"/>
-      <c r="G1" s="65" t="s">
+      <c r="F1" s="62"/>
+      <c r="G1" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="66"/>
+      <c r="H1" s="64"/>
       <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="43" t="s">
         <v>4</v>
       </c>
@@ -9748,7 +8948,7 @@
       <c r="F20" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="11">
         <v>1</v>
       </c>
       <c r="H20" s="14" t="s">
@@ -9840,7 +9040,7 @@
         <v>2</v>
       </c>
       <c r="H23" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" s="33" t="str">
         <f t="shared" si="1"/>
@@ -9956,7 +9156,7 @@
       <c r="F27" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G27" s="11">
         <v>1</v>
       </c>
       <c r="H27" s="14" t="s">
@@ -9986,15 +9186,15 @@
       <c r="F28" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G28" s="13">
-        <v>1</v>
+      <c r="G28" s="11">
+        <v>2</v>
       </c>
       <c r="H28" s="14" t="s">
         <v>0</v>
       </c>
       <c r="I28" s="33" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -10077,14 +9277,14 @@
         <v>0</v>
       </c>
       <c r="G31" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31" s="14" t="s">
         <v>0</v>
       </c>
       <c r="I31" s="33" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -10110,11 +9310,11 @@
         <v>0</v>
       </c>
       <c r="H32" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" s="33" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -10136,8 +9336,8 @@
       <c r="F33" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G33" s="13">
-        <v>2</v>
+      <c r="G33" s="11">
+        <v>3</v>
       </c>
       <c r="H33" s="14" t="s">
         <v>0</v>
@@ -10199,12 +9399,12 @@
       <c r="G35" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="H35" s="13">
-        <v>1</v>
+      <c r="H35" s="11">
+        <v>2</v>
       </c>
       <c r="I35" s="33" t="str">
         <f t="shared" ref="I35:I153" si="2">IF(OR(AND(G35&gt;1,G35&lt;&gt;"-"),AND(H35&gt;1,H35&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -10286,7 +9486,7 @@
       <c r="F38" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G38" s="13">
+      <c r="G38" s="11">
         <v>1</v>
       </c>
       <c r="H38" s="14" t="s">
@@ -10316,7 +9516,7 @@
       <c r="F39" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G39" s="13">
+      <c r="G39" s="11">
         <v>1</v>
       </c>
       <c r="H39" s="14" t="s">
@@ -10346,7 +9546,7 @@
       <c r="F40" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G40" s="13">
+      <c r="G40" s="11">
         <v>1</v>
       </c>
       <c r="H40" s="14" t="s">
@@ -10379,7 +9579,7 @@
       <c r="G41" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="H41" s="13">
+      <c r="H41" s="11">
         <v>1</v>
       </c>
       <c r="I41" s="33" t="str">
@@ -10470,11 +9670,11 @@
         <v>0</v>
       </c>
       <c r="H44" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" s="33" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -10500,7 +9700,7 @@
         <v>0</v>
       </c>
       <c r="H45" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I45" s="33" t="str">
         <f t="shared" si="2"/>
@@ -10530,11 +9730,11 @@
         <v>0</v>
       </c>
       <c r="H46" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" s="33" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -10557,14 +9757,14 @@
         <v>0</v>
       </c>
       <c r="G47" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H47" s="14" t="s">
         <v>0</v>
       </c>
       <c r="I47" s="33" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -10619,7 +9819,7 @@
       <c r="G49" s="11">
         <v>1</v>
       </c>
-      <c r="H49" s="13">
+      <c r="H49" s="11">
         <v>1</v>
       </c>
       <c r="I49" s="33" t="str">
@@ -10706,7 +9906,7 @@
       <c r="F52" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="G52" s="13">
+      <c r="G52" s="11">
         <v>1</v>
       </c>
       <c r="H52" s="11">
@@ -10739,7 +9939,7 @@
       <c r="G53" s="11">
         <v>1</v>
       </c>
-      <c r="H53" s="13">
+      <c r="H53" s="11">
         <v>1</v>
       </c>
       <c r="I53" s="33" t="str">
@@ -10796,7 +9996,7 @@
       <c r="F55" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="G55" s="13">
+      <c r="G55" s="11">
         <v>1</v>
       </c>
       <c r="H55" s="11">
@@ -10826,7 +10026,7 @@
       <c r="F56" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="G56" s="13">
+      <c r="G56" s="11">
         <v>1</v>
       </c>
       <c r="H56" s="11">
@@ -10856,7 +10056,7 @@
       <c r="F57" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="G57" s="10">
+      <c r="G57" s="11">
         <v>1</v>
       </c>
       <c r="H57" s="11">
@@ -10886,7 +10086,7 @@
       <c r="F58" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="G58" s="10">
+      <c r="G58" s="11">
         <v>1</v>
       </c>
       <c r="H58" s="11">
@@ -10919,7 +10119,7 @@
       <c r="G59" s="11">
         <v>1</v>
       </c>
-      <c r="H59" s="13">
+      <c r="H59" s="11">
         <v>1</v>
       </c>
       <c r="I59" s="33" t="str">
@@ -10976,7 +10176,7 @@
       <c r="F61" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="G61" s="13">
+      <c r="G61" s="11">
         <v>1</v>
       </c>
       <c r="H61" s="11">
@@ -11006,7 +10206,7 @@
       <c r="F62" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="G62" s="13">
+      <c r="G62" s="11">
         <v>1</v>
       </c>
       <c r="H62" s="11">
@@ -11036,10 +10236,10 @@
       <c r="F63" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G63" s="13">
-        <v>1</v>
-      </c>
-      <c r="H63" s="13">
+      <c r="G63" s="11">
+        <v>1</v>
+      </c>
+      <c r="H63" s="11">
         <v>1</v>
       </c>
       <c r="I63" s="33" t="str">
@@ -11130,11 +10330,11 @@
         <v>0</v>
       </c>
       <c r="H66" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66" s="33" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -11159,8 +10359,8 @@
       <c r="G67" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="H67" s="45">
-        <v>2</v>
+      <c r="H67" s="11">
+        <v>3</v>
       </c>
       <c r="I67" s="33" t="str">
         <f t="shared" si="2"/>
@@ -11485,8 +10685,8 @@
       <c r="G78" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H78" s="10">
-        <v>2</v>
+      <c r="H78" s="11">
+        <v>3</v>
       </c>
       <c r="I78" s="33" t="str">
         <f t="shared" si="3"/>
@@ -11605,7 +10805,7 @@
       <c r="G82" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H82" s="5">
+      <c r="H82" s="10">
         <v>1</v>
       </c>
       <c r="I82" s="33" t="str">
@@ -11663,12 +10863,12 @@
       <c r="G84" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H84" s="10">
-        <v>1</v>
+      <c r="H84" s="11">
+        <v>2</v>
       </c>
       <c r="I84" s="33" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -11842,7 +11042,7 @@
         <v>0</v>
       </c>
       <c r="H90" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I90" s="33" t="str">
         <f t="shared" si="4"/>
@@ -11871,12 +11071,12 @@
       <c r="G91" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H91" s="5">
-        <v>1</v>
+      <c r="H91" s="11">
+        <v>2</v>
       </c>
       <c r="I91" s="33" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -11902,11 +11102,11 @@
         <v>0</v>
       </c>
       <c r="H92" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92" s="33" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -11962,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="H94" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I94" s="33" t="str">
         <f t="shared" si="4"/>
@@ -12021,7 +11221,7 @@
       <c r="G96" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H96" s="5">
+      <c r="H96" s="10">
         <v>1</v>
       </c>
       <c r="I96" s="33" t="str">
@@ -12052,11 +11252,11 @@
         <v>0</v>
       </c>
       <c r="H97" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97" s="33" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -12112,11 +11312,11 @@
         <v>0</v>
       </c>
       <c r="H99" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I99" s="33" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="100" spans="1:9" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -12201,12 +11401,12 @@
       <c r="G102" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H102" s="10">
-        <v>1</v>
+      <c r="H102" s="11">
+        <v>2</v>
       </c>
       <c r="I102" s="33" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -12231,12 +11431,12 @@
       <c r="G103" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H103" s="10">
-        <v>1</v>
+      <c r="H103" s="11">
+        <v>2</v>
       </c>
       <c r="I103" s="33" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -12262,11 +11462,11 @@
         <v>0</v>
       </c>
       <c r="H104" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104" s="33" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -12322,11 +11522,11 @@
         <v>0</v>
       </c>
       <c r="H106" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106" s="33" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -12411,7 +11611,7 @@
       <c r="G109" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H109" s="50">
+      <c r="H109" s="49">
         <v>2</v>
       </c>
       <c r="I109" s="33" t="str">
@@ -12465,7 +11665,7 @@
         <v>0</v>
       </c>
       <c r="G111" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H111" s="9" t="s">
         <v>0</v>
@@ -12678,11 +11878,11 @@
         <v>0</v>
       </c>
       <c r="H118" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I118" s="33" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -12708,11 +11908,11 @@
         <v>0</v>
       </c>
       <c r="H119" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119" s="33" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -12737,7 +11937,7 @@
       <c r="G120" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H120" s="5">
+      <c r="H120" s="10">
         <v>2</v>
       </c>
       <c r="I120" s="33" t="str">
@@ -12768,7 +11968,7 @@
         <v>0</v>
       </c>
       <c r="H121" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I121" s="33" t="str">
         <f t="shared" si="6"/>
@@ -12794,15 +11994,15 @@
       <c r="F122" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G122" s="10">
-        <v>1</v>
+      <c r="G122" s="11">
+        <v>2</v>
       </c>
       <c r="H122" s="9" t="s">
         <v>0</v>
       </c>
       <c r="I122" s="33" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -12827,12 +12027,12 @@
       <c r="G123" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H123" s="9">
-        <v>1</v>
+      <c r="H123" s="11">
+        <v>2</v>
       </c>
       <c r="I123" s="33" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -12888,11 +12088,11 @@
         <v>0</v>
       </c>
       <c r="H125" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I125" s="33" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -12917,12 +12117,12 @@
       <c r="G126" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H126" s="10">
-        <v>1</v>
+      <c r="H126" s="11">
+        <v>2</v>
       </c>
       <c r="I126" s="33" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -12948,11 +12148,11 @@
         <v>0</v>
       </c>
       <c r="H127" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I127" s="33" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -13008,11 +12208,11 @@
         <v>0</v>
       </c>
       <c r="H129" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I129" s="33" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -13098,11 +12298,11 @@
         <v>0</v>
       </c>
       <c r="H132" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I132" s="33" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -13127,12 +12327,12 @@
       <c r="G133" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H133" s="5">
-        <v>1</v>
+      <c r="H133" s="11">
+        <v>2</v>
       </c>
       <c r="I133" s="33" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -13157,7 +12357,7 @@
       <c r="G134" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H134" s="5">
+      <c r="H134" s="10">
         <v>1</v>
       </c>
       <c r="I134" s="33" t="str">
@@ -15237,8 +14437,8 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
-  <conditionalFormatting sqref="G4:H108 G109 G110:H167">
-    <cfRule type="containsText" dxfId="282" priority="75" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G110:H167 G109 G4:H108">
+    <cfRule type="containsText" dxfId="168" priority="75" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="76">
@@ -15253,7 +14453,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G168:H168">
-    <cfRule type="containsText" dxfId="281" priority="73" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="167" priority="73" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G168))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="74">
@@ -15268,7 +14468,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G169:H169">
-    <cfRule type="containsText" dxfId="280" priority="71" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="166" priority="71" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G169))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="72">
@@ -15283,7 +14483,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G170:H170">
-    <cfRule type="containsText" dxfId="279" priority="69" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="165" priority="69" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G170))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="70">
@@ -15298,7 +14498,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G171:H171">
-    <cfRule type="containsText" dxfId="278" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="164" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G171))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="68">
@@ -15313,7 +14513,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G172:H172">
-    <cfRule type="containsText" dxfId="277" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="163" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G172))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="66">
@@ -15328,7 +14528,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G173:H173">
-    <cfRule type="containsText" dxfId="276" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="162" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G173))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="64">
@@ -15343,7 +14543,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G174:H174">
-    <cfRule type="containsText" dxfId="275" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="161" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G174))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="62">
@@ -15358,7 +14558,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G175:H175">
-    <cfRule type="containsText" dxfId="274" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="160" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G175))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="60">
@@ -15373,7 +14573,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G176:H176">
-    <cfRule type="containsText" dxfId="273" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="159" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G176))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="58">
@@ -15388,7 +14588,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G177:H177">
-    <cfRule type="containsText" dxfId="272" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="158" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G177))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="56">
@@ -15403,7 +14603,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G178:H178">
-    <cfRule type="containsText" dxfId="271" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="157" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G178))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="54">
@@ -15418,7 +14618,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G179:H179">
-    <cfRule type="containsText" dxfId="270" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="156" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G179))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="52">
@@ -15433,7 +14633,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G180:H180">
-    <cfRule type="containsText" dxfId="269" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="155" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G180))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="50">
@@ -15448,7 +14648,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G181:H181">
-    <cfRule type="containsText" dxfId="268" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="154" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G181))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="48">
@@ -15463,7 +14663,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G182:H182">
-    <cfRule type="containsText" dxfId="267" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="153" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G182))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
@@ -15478,7 +14678,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G183:H183">
-    <cfRule type="containsText" dxfId="266" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="152" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G183))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="42">
@@ -15493,7 +14693,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G184:H184">
-    <cfRule type="containsText" dxfId="265" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="151" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G184))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
@@ -15508,7 +14708,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G186:H186">
-    <cfRule type="containsText" dxfId="264" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="150" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G186))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="36">
@@ -15523,7 +14723,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G187:H187">
-    <cfRule type="containsText" dxfId="263" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="149" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G187))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="34">
@@ -15538,7 +14738,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G188:H188">
-    <cfRule type="containsText" dxfId="262" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="148" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G188))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="32">
@@ -15553,7 +14753,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G185:H185">
-    <cfRule type="containsText" dxfId="261" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="147" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G185))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -15568,7 +14768,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G189:H189">
-    <cfRule type="containsText" dxfId="260" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="146" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G189))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="28">
@@ -15583,7 +14783,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G190:H190">
-    <cfRule type="containsText" dxfId="259" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="145" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G190))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="26">
@@ -15598,7 +14798,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G191:H191">
-    <cfRule type="containsText" dxfId="258" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="144" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G191))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
@@ -15613,7 +14813,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H109">
-    <cfRule type="containsText" dxfId="257" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="143" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H109))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15630,7 +14830,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H3">
-    <cfRule type="containsText" dxfId="256" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="142" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -15645,7 +14845,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G192">
-    <cfRule type="containsText" dxfId="255" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="141" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G192))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -15660,7 +14860,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H192">
-    <cfRule type="containsText" dxfId="254" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="140" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H192))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -15675,7 +14875,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G193:H193 G195:H195 G197:H197">
-    <cfRule type="containsText" dxfId="253" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="139" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G193))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -15690,7 +14890,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G194:H194 G196:H196">
-    <cfRule type="containsText" dxfId="252" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="138" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G194))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -15704,8 +14904,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G198 G200">
-    <cfRule type="containsText" dxfId="251" priority="9" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G200 G198">
+    <cfRule type="containsText" dxfId="137" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G198))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -15719,8 +14919,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H198 H200">
-    <cfRule type="containsText" dxfId="250" priority="7" operator="containsText" text="*-">
+  <conditionalFormatting sqref="H200 H198">
+    <cfRule type="containsText" dxfId="136" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H198))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -15735,7 +14935,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G199:H199 G201:H201">
-    <cfRule type="containsText" dxfId="249" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="135" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G199))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -15750,7 +14950,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G202:H202">
-    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="134" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G202))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -15765,7 +14965,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G203:H203">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="133" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G203))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -15789,7 +14989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -15807,29 +15007,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="56" t="s">
+      <c r="A1" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="54" t="s">
         <v>341</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="59"/>
-      <c r="E1" s="63" t="s">
+      <c r="D1" s="57"/>
+      <c r="E1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="64"/>
-      <c r="G1" s="65" t="s">
+      <c r="F1" s="62"/>
+      <c r="G1" s="63" t="s">
         <v>306</v>
       </c>
-      <c r="H1" s="66"/>
+      <c r="H1" s="64"/>
       <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="27" t="s">
         <v>4</v>
       </c>
@@ -15839,7 +15039,7 @@
       <c r="E2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="50" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="29" t="s">
@@ -16254,7 +15454,7 @@
       <c r="E16" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="49" t="s">
+      <c r="F16" s="48" t="s">
         <v>332</v>
       </c>
       <c r="G16" s="12" t="s">
@@ -16309,7 +15509,7 @@
       <c r="E18" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="F18" s="49" t="s">
+      <c r="F18" s="48" t="s">
         <v>332</v>
       </c>
       <c r="G18" s="12" t="s">
@@ -16392,7 +15592,7 @@
       <c r="E21" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="F21" s="49" t="s">
+      <c r="F21" s="48" t="s">
         <v>332</v>
       </c>
       <c r="G21" s="12" t="s">
@@ -16503,7 +15703,7 @@
       <c r="E25" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="F25" s="49" t="s">
+      <c r="F25" s="48" t="s">
         <v>332</v>
       </c>
       <c r="G25" s="12" t="s">
@@ -16534,7 +15734,7 @@
       <c r="F26" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G26" s="46">
+      <c r="G26" s="45">
         <v>1</v>
       </c>
       <c r="H26" s="12" t="s">
@@ -16558,7 +15758,7 @@
       <c r="D27" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E27" s="49" t="s">
+      <c r="E27" s="48" t="s">
         <v>273</v>
       </c>
       <c r="F27" s="40" t="s">
@@ -16592,7 +15792,7 @@
       <c r="F28" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G28" s="46">
+      <c r="G28" s="45">
         <v>1</v>
       </c>
       <c r="H28" s="12" t="s">
@@ -16616,7 +15816,7 @@
       <c r="D29" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E29" s="49" t="s">
+      <c r="E29" s="48" t="s">
         <v>273</v>
       </c>
       <c r="F29" s="40" t="s">
@@ -16642,13 +15842,13 @@
       </c>
       <c r="C30" s="38"/>
       <c r="D30" s="38"/>
-      <c r="E30" s="49" t="s">
+      <c r="E30" s="48" t="s">
         <v>273</v>
       </c>
       <c r="F30" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G30" s="53">
+      <c r="G30" s="51">
         <v>1</v>
       </c>
       <c r="H30" s="12" t="s">
@@ -16668,13 +15868,13 @@
       </c>
       <c r="C31" s="38"/>
       <c r="D31" s="38"/>
-      <c r="E31" s="49" t="s">
+      <c r="E31" s="48" t="s">
         <v>275</v>
       </c>
       <c r="F31" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G31" s="46">
+      <c r="G31" s="45">
         <v>1</v>
       </c>
       <c r="H31" s="12" t="s">
@@ -16703,7 +15903,7 @@
       <c r="F32" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G32" s="46">
+      <c r="G32" s="45">
         <v>3</v>
       </c>
       <c r="H32" s="12" t="s">
@@ -16729,7 +15929,7 @@
       <c r="F33" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G33" s="46">
+      <c r="G33" s="45">
         <v>1</v>
       </c>
       <c r="H33" s="12" t="s">
@@ -16757,7 +15957,7 @@
       <c r="F34" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G34" s="46">
+      <c r="G34" s="45">
         <v>1</v>
       </c>
       <c r="H34" s="12" t="s">
@@ -16781,7 +15981,7 @@
       <c r="D35" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E35" s="49" t="s">
+      <c r="E35" s="48" t="s">
         <v>273</v>
       </c>
       <c r="F35" s="40" t="s">
@@ -16815,7 +16015,7 @@
       <c r="F36" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G36" s="46">
+      <c r="G36" s="45">
         <v>1</v>
       </c>
       <c r="H36" s="12" t="s">
@@ -16839,7 +16039,7 @@
       <c r="D37" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E37" s="49" t="s">
+      <c r="E37" s="48" t="s">
         <v>332</v>
       </c>
       <c r="F37" s="40" t="s">
@@ -16873,7 +16073,7 @@
       <c r="F38" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G38" s="46">
+      <c r="G38" s="45">
         <v>1</v>
       </c>
       <c r="H38" s="12" t="s">
@@ -16897,7 +16097,7 @@
       <c r="D39" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E39" s="49" t="s">
+      <c r="E39" s="48" t="s">
         <v>332</v>
       </c>
       <c r="F39" s="40" t="s">
@@ -16931,7 +16131,7 @@
       <c r="F40" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G40" s="46">
+      <c r="G40" s="45">
         <v>2</v>
       </c>
       <c r="H40" s="12" t="s">
@@ -16955,7 +16155,7 @@
       <c r="D41" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E41" s="49" t="s">
+      <c r="E41" s="48" t="s">
         <v>332</v>
       </c>
       <c r="F41" s="40" t="s">
@@ -16987,7 +16187,7 @@
       <c r="F42" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G42" s="46">
+      <c r="G42" s="45">
         <v>1</v>
       </c>
       <c r="H42" s="12" t="s">
@@ -17015,7 +16215,7 @@
       <c r="F43" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G43" s="46">
+      <c r="G43" s="45">
         <v>1</v>
       </c>
       <c r="H43" s="12" t="s">
@@ -17039,7 +16239,7 @@
       <c r="D44" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E44" s="49" t="s">
+      <c r="E44" s="48" t="s">
         <v>273</v>
       </c>
       <c r="F44" s="40" t="s">
@@ -17073,7 +16273,7 @@
       <c r="F45" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G45" s="46">
+      <c r="G45" s="45">
         <v>1</v>
       </c>
       <c r="H45" s="12" t="s">
@@ -17097,7 +16297,7 @@
       <c r="D46" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E46" s="49" t="s">
+      <c r="E46" s="48" t="s">
         <v>273</v>
       </c>
       <c r="F46" s="40" t="s">
@@ -17131,7 +16331,7 @@
       <c r="F47" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G47" s="46">
+      <c r="G47" s="45">
         <v>1</v>
       </c>
       <c r="H47" s="12" t="s">
@@ -17159,7 +16359,7 @@
       <c r="F48" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G48" s="46">
+      <c r="G48" s="45">
         <v>1</v>
       </c>
       <c r="H48" s="12" t="s">
@@ -17187,7 +16387,7 @@
       <c r="F49" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G49" s="46">
+      <c r="G49" s="45">
         <v>1</v>
       </c>
       <c r="H49" s="12" t="s">
@@ -17215,7 +16415,7 @@
       <c r="F50" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G50" s="46">
+      <c r="G50" s="45">
         <v>1</v>
       </c>
       <c r="H50" s="12" t="s">
@@ -17243,7 +16443,7 @@
       <c r="F51" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G51" s="46">
+      <c r="G51" s="45">
         <v>1</v>
       </c>
       <c r="H51" s="12" t="s">
@@ -17271,7 +16471,7 @@
       <c r="F52" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G52" s="46">
+      <c r="G52" s="45">
         <v>1</v>
       </c>
       <c r="H52" s="12" t="s">
@@ -17299,7 +16499,7 @@
       <c r="F53" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G53" s="46">
+      <c r="G53" s="45">
         <v>1</v>
       </c>
       <c r="H53" s="12" t="s">
@@ -17327,7 +16527,7 @@
       <c r="F54" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G54" s="46">
+      <c r="G54" s="45">
         <v>1</v>
       </c>
       <c r="H54" s="12" t="s">
@@ -17355,7 +16555,7 @@
       <c r="F55" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G55" s="46">
+      <c r="G55" s="45">
         <v>1</v>
       </c>
       <c r="H55" s="12" t="s">
@@ -17383,7 +16583,7 @@
       <c r="F56" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G56" s="46">
+      <c r="G56" s="45">
         <v>1</v>
       </c>
       <c r="H56" s="12" t="s">
@@ -17407,7 +16607,7 @@
       <c r="D57" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E57" s="49" t="s">
+      <c r="E57" s="48" t="s">
         <v>275</v>
       </c>
       <c r="F57" s="40" t="s">
@@ -17441,7 +16641,7 @@
       <c r="F58" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G58" s="46">
+      <c r="G58" s="45">
         <v>1</v>
       </c>
       <c r="H58" s="12" t="s">
@@ -17465,7 +16665,7 @@
       <c r="D59" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E59" s="49" t="s">
+      <c r="E59" s="48" t="s">
         <v>275</v>
       </c>
       <c r="F59" s="40" t="s">
@@ -17499,7 +16699,7 @@
       <c r="F60" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G60" s="46">
+      <c r="G60" s="45">
         <v>1</v>
       </c>
       <c r="H60" s="12" t="s">
@@ -17527,7 +16727,7 @@
       <c r="F61" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G61" s="46">
+      <c r="G61" s="45">
         <v>1</v>
       </c>
       <c r="H61" s="12" t="s">
@@ -17555,7 +16755,7 @@
       <c r="F62" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G62" s="46">
+      <c r="G62" s="45">
         <v>1</v>
       </c>
       <c r="H62" s="12" t="s">
@@ -17583,7 +16783,7 @@
       <c r="F63" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G63" s="46">
+      <c r="G63" s="45">
         <v>1</v>
       </c>
       <c r="H63" s="12" t="s">
@@ -17611,7 +16811,7 @@
       <c r="F64" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G64" s="46">
+      <c r="G64" s="45">
         <v>1</v>
       </c>
       <c r="H64" s="12" t="s">
@@ -17639,7 +16839,7 @@
       <c r="F65" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G65" s="46">
+      <c r="G65" s="45">
         <v>1</v>
       </c>
       <c r="H65" s="12" t="s">
@@ -17667,7 +16867,7 @@
       <c r="F66" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G66" s="46">
+      <c r="G66" s="45">
         <v>1</v>
       </c>
       <c r="H66" s="12" t="s">
@@ -17695,7 +16895,7 @@
       <c r="F67" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G67" s="46">
+      <c r="G67" s="45">
         <v>1</v>
       </c>
       <c r="H67" s="12" t="s">
@@ -17723,7 +16923,7 @@
       <c r="F68" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G68" s="46">
+      <c r="G68" s="45">
         <v>1</v>
       </c>
       <c r="H68" s="12" t="s">
@@ -17751,7 +16951,7 @@
       <c r="F69" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G69" s="46">
+      <c r="G69" s="45">
         <v>1</v>
       </c>
       <c r="H69" s="12" t="s">
@@ -17777,7 +16977,7 @@
       <c r="F70" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G70" s="46">
+      <c r="G70" s="45">
         <v>1</v>
       </c>
       <c r="H70" s="12" t="s">
@@ -17803,7 +17003,7 @@
       <c r="F71" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G71" s="46">
+      <c r="G71" s="45">
         <v>1</v>
       </c>
       <c r="H71" s="12" t="s">
@@ -17825,7 +17025,7 @@
       <c r="D72" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E72" s="49" t="s">
+      <c r="E72" s="48" t="s">
         <v>275</v>
       </c>
       <c r="F72" s="40" t="s">
@@ -17854,7 +17054,7 @@
       <c r="F73" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G73" s="46">
+      <c r="G73" s="45">
         <v>1</v>
       </c>
       <c r="H73" s="12" t="s">
@@ -17876,7 +17076,7 @@
       <c r="D74" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E74" s="49" t="s">
+      <c r="E74" s="48" t="s">
         <v>275</v>
       </c>
       <c r="F74" s="40" t="s">
@@ -17910,7 +17110,7 @@
       <c r="F75" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G75" s="46">
+      <c r="G75" s="45">
         <v>1</v>
       </c>
       <c r="H75" s="12" t="s">
@@ -17934,7 +17134,7 @@
       <c r="D76" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E76" s="49" t="s">
+      <c r="E76" s="48" t="s">
         <v>275</v>
       </c>
       <c r="F76" s="40" t="s">
@@ -17968,7 +17168,7 @@
       <c r="F77" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G77" s="46">
+      <c r="G77" s="45">
         <v>1</v>
       </c>
       <c r="H77" s="12" t="s">
@@ -17992,7 +17192,7 @@
       <c r="D78" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E78" s="49" t="s">
+      <c r="E78" s="48" t="s">
         <v>275</v>
       </c>
       <c r="F78" s="40" t="s">
@@ -18026,7 +17226,7 @@
       <c r="F79" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G79" s="46">
+      <c r="G79" s="45">
         <v>1</v>
       </c>
       <c r="H79" s="12" t="s">
@@ -18050,7 +17250,7 @@
       <c r="D80" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E80" s="49" t="s">
+      <c r="E80" s="48" t="s">
         <v>275</v>
       </c>
       <c r="F80" s="40" t="s">
@@ -18084,7 +17284,7 @@
       <c r="F81" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G81" s="46">
+      <c r="G81" s="45">
         <v>1</v>
       </c>
       <c r="H81" s="12" t="s">
@@ -18108,7 +17308,7 @@
       <c r="D82" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E82" s="49" t="s">
+      <c r="E82" s="48" t="s">
         <v>275</v>
       </c>
       <c r="F82" s="40" t="s">
@@ -18142,7 +17342,7 @@
       <c r="F83" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G83" s="46">
+      <c r="G83" s="45">
         <v>1</v>
       </c>
       <c r="H83" s="12" t="s">
@@ -18166,7 +17366,7 @@
       <c r="D84" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E84" s="49" t="s">
+      <c r="E84" s="48" t="s">
         <v>275</v>
       </c>
       <c r="F84" s="40" t="s">
@@ -18200,7 +17400,7 @@
       <c r="F85" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G85" s="46">
+      <c r="G85" s="45">
         <v>1</v>
       </c>
       <c r="H85" s="12" t="s">
@@ -18224,7 +17424,7 @@
       <c r="D86" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E86" s="49" t="s">
+      <c r="E86" s="48" t="s">
         <v>275</v>
       </c>
       <c r="F86" s="40" t="s">
@@ -18258,7 +17458,7 @@
       <c r="F87" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G87" s="46">
+      <c r="G87" s="45">
         <v>1</v>
       </c>
       <c r="H87" s="12" t="s">
@@ -18282,7 +17482,7 @@
       <c r="D88" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E88" s="49" t="s">
+      <c r="E88" s="48" t="s">
         <v>275</v>
       </c>
       <c r="F88" s="40" t="s">
@@ -18316,7 +17516,7 @@
       <c r="F89" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G89" s="46">
+      <c r="G89" s="45">
         <v>0</v>
       </c>
       <c r="H89" s="12" t="s">
@@ -18340,7 +17540,7 @@
       <c r="D90" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E90" s="49" t="s">
+      <c r="E90" s="48" t="s">
         <v>275</v>
       </c>
       <c r="F90" s="40" t="s">
@@ -18372,7 +17572,7 @@
       <c r="F91" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G91" s="46">
+      <c r="G91" s="45">
         <v>0</v>
       </c>
       <c r="H91" s="12" t="s">
@@ -18398,7 +17598,7 @@
       <c r="F92" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G92" s="46">
+      <c r="G92" s="45">
         <v>0</v>
       </c>
       <c r="H92" s="12" t="s">
@@ -18424,7 +17624,7 @@
       <c r="F93" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G93" s="46">
+      <c r="G93" s="45">
         <v>0</v>
       </c>
       <c r="H93" s="12" t="s">
@@ -18450,7 +17650,7 @@
       <c r="F94" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G94" s="46">
+      <c r="G94" s="45">
         <v>0</v>
       </c>
       <c r="H94" s="12" t="s">
@@ -18476,7 +17676,7 @@
       <c r="F95" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G95" s="46">
+      <c r="G95" s="45">
         <v>0</v>
       </c>
       <c r="H95" s="12" t="s">
@@ -18497,7 +17697,7 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="G15:H15 G17:H17 G26:H26 G19:H20 G22:H24">
-    <cfRule type="containsText" dxfId="248" priority="386" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="132" priority="386" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="387">
@@ -18512,7 +17712,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="247" priority="367" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="131" priority="367" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18529,7 +17729,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:H28">
-    <cfRule type="containsText" dxfId="246" priority="365" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="130" priority="365" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G28))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="366">
@@ -18544,7 +17744,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="245" priority="363" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="129" priority="363" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18561,7 +17761,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:H30">
-    <cfRule type="containsText" dxfId="244" priority="361" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="128" priority="361" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G30))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="362">
@@ -18576,7 +17776,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="containsText" dxfId="243" priority="359" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="127" priority="359" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18593,7 +17793,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:H32">
-    <cfRule type="containsText" dxfId="242" priority="353" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="126" priority="353" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="354">
@@ -18608,7 +17808,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="containsText" dxfId="241" priority="351" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="125" priority="351" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18625,7 +17825,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:H34 G38:H38">
-    <cfRule type="containsText" dxfId="240" priority="349" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="124" priority="349" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G34))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="350">
@@ -18640,11 +17840,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34 H38">
-    <cfRule type="containsText" dxfId="239" priority="347" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="123" priority="347" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H34))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H38 H34">
+  <conditionalFormatting sqref="H34 H38">
     <cfRule type="colorScale" priority="348">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18657,7 +17857,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33:H33 G36:H36 G40:H40">
-    <cfRule type="containsText" dxfId="238" priority="345" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="122" priority="345" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G33))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="346">
@@ -18672,11 +17872,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33 H36 H40">
-    <cfRule type="containsText" dxfId="237" priority="343" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="121" priority="343" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H33))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H36 H33 H40">
+  <conditionalFormatting sqref="H33 H36 H40">
     <cfRule type="colorScale" priority="344">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18689,7 +17889,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42:H42">
-    <cfRule type="containsText" dxfId="236" priority="341" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="120" priority="341" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G42))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="342">
@@ -18704,7 +17904,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="containsText" dxfId="235" priority="339" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="119" priority="339" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H42))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18721,7 +17921,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43:H43">
-    <cfRule type="containsText" dxfId="234" priority="337" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="118" priority="337" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G43))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="338">
@@ -18736,7 +17936,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="containsText" dxfId="233" priority="335" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="117" priority="335" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H43))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18753,7 +17953,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45:H45">
-    <cfRule type="containsText" dxfId="232" priority="333" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="116" priority="333" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G45))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="334">
@@ -18768,7 +17968,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="containsText" dxfId="231" priority="331" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="115" priority="331" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H45))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18785,7 +17985,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47:H47 G49:H49 G51:H51 G53:H53 G55:H56 G54">
-    <cfRule type="containsText" dxfId="230" priority="329" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="114" priority="329" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G47))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="330">
@@ -18800,11 +18000,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47 H49 H51 H53 H55:H56">
-    <cfRule type="containsText" dxfId="229" priority="327" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="113" priority="327" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H47))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47 H49 H51 H53 H55:H56">
+  <conditionalFormatting sqref="H49 H47 H51 H53 H55:H56">
     <cfRule type="colorScale" priority="328">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18817,7 +18017,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G48:H48 G50:H50 G52:H52 H54">
-    <cfRule type="containsText" dxfId="228" priority="325" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="112" priority="325" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G48))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="326">
@@ -18832,11 +18032,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48 H50 H52 H54">
-    <cfRule type="containsText" dxfId="227" priority="323" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="111" priority="323" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H48))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H50 H48 H52 H54">
+  <conditionalFormatting sqref="H48 H50 H52 H54">
     <cfRule type="colorScale" priority="324">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18849,7 +18049,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G61:H61 G63:H63 G65:H65 G67:H67 G69:H69">
-    <cfRule type="containsText" dxfId="226" priority="301" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="110" priority="301" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G61))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="302">
@@ -18864,11 +18064,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61 H63 H65 H67 H69">
-    <cfRule type="containsText" dxfId="225" priority="299" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="109" priority="299" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H61))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H61 H63 H65 H67 H69">
+  <conditionalFormatting sqref="H63 H61 H65 H67 H69">
     <cfRule type="colorScale" priority="300">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18881,7 +18081,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G60:H60 G62:H62 G64:H64 G66:H66 G68:H68 G70:H70 G73:H73">
-    <cfRule type="containsText" dxfId="224" priority="297" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="108" priority="297" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G60))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="298">
@@ -18896,11 +18096,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60 H62 H64 H66 H68 H70 H73">
-    <cfRule type="containsText" dxfId="223" priority="295" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="107" priority="295" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H60))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H60 H62 H64 H66 H68 H70 H73">
+  <conditionalFormatting sqref="H62 H60 H64 H66 H68 H70 H73">
     <cfRule type="colorScale" priority="296">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18913,7 +18113,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G58:H58">
-    <cfRule type="containsText" dxfId="222" priority="293" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="106" priority="293" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G58))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="294">
@@ -18928,7 +18128,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="containsText" dxfId="221" priority="291" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="105" priority="291" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H58))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18945,7 +18145,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G71:H71">
-    <cfRule type="containsText" dxfId="220" priority="289" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="104" priority="289" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G71))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="290">
@@ -18960,7 +18160,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="containsText" dxfId="219" priority="287" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="103" priority="287" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H71))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18977,7 +18177,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="containsText" dxfId="218" priority="273" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="102" priority="273" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="274">
@@ -18992,7 +18192,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="containsText" dxfId="217" priority="271" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="101" priority="271" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="272">
@@ -19007,7 +18207,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="containsText" dxfId="216" priority="269" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="100" priority="269" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G25))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="270">
@@ -19022,7 +18222,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:H27">
-    <cfRule type="containsText" dxfId="215" priority="261" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="99" priority="261" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="262">
@@ -19037,7 +18237,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="214" priority="259" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="98" priority="259" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19054,7 +18254,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G75:H75">
-    <cfRule type="containsText" dxfId="213" priority="209" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="97" priority="209" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G75))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="210">
@@ -19069,7 +18269,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H75">
-    <cfRule type="containsText" dxfId="212" priority="207" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="96" priority="207" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H75))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19086,7 +18286,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G77:H77">
-    <cfRule type="containsText" dxfId="211" priority="201" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="95" priority="201" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G77))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="202">
@@ -19101,7 +18301,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H77">
-    <cfRule type="containsText" dxfId="210" priority="199" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="94" priority="199" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H77))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19118,7 +18318,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G79:H79">
-    <cfRule type="containsText" dxfId="209" priority="193" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="93" priority="193" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G79))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="194">
@@ -19133,7 +18333,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H79">
-    <cfRule type="containsText" dxfId="208" priority="191" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="92" priority="191" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H79))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19150,7 +18350,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G81:H81">
-    <cfRule type="containsText" dxfId="207" priority="189" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="91" priority="189" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G81))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="190">
@@ -19165,7 +18365,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H81">
-    <cfRule type="containsText" dxfId="206" priority="187" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="90" priority="187" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H81))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19182,7 +18382,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G83:H83">
-    <cfRule type="containsText" dxfId="205" priority="185" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="89" priority="185" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G83))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="186">
@@ -19197,7 +18397,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H83">
-    <cfRule type="containsText" dxfId="204" priority="183" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="88" priority="183" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H83))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19214,7 +18414,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G85:H85">
-    <cfRule type="containsText" dxfId="203" priority="181" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="87" priority="181" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G85))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="182">
@@ -19229,7 +18429,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H85">
-    <cfRule type="containsText" dxfId="202" priority="179" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="86" priority="179" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H85))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19246,7 +18446,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="containsText" dxfId="201" priority="161" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="85" priority="161" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19263,7 +18463,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:H29">
-    <cfRule type="containsText" dxfId="200" priority="159" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="84" priority="159" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="160">
@@ -19278,7 +18478,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="199" priority="157" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="83" priority="157" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19295,7 +18495,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="containsText" dxfId="198" priority="155" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="82" priority="155" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19312,7 +18512,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35:H35">
-    <cfRule type="containsText" dxfId="197" priority="153" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="81" priority="153" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G35))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="154">
@@ -19327,7 +18527,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="containsText" dxfId="196" priority="151" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="80" priority="151" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19344,7 +18544,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="containsText" dxfId="195" priority="149" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="79" priority="149" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19361,7 +18561,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44:H44">
-    <cfRule type="containsText" dxfId="194" priority="147" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="78" priority="147" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G44))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="148">
@@ -19376,7 +18576,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="containsText" dxfId="193" priority="145" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="77" priority="145" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H44))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19393,7 +18593,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="containsText" dxfId="192" priority="143" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="76" priority="143" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G44))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19410,7 +18610,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46:H46">
-    <cfRule type="containsText" dxfId="191" priority="141" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="75" priority="141" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G46))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="142">
@@ -19425,7 +18625,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="containsText" dxfId="190" priority="139" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="74" priority="139" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H46))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19442,7 +18642,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46">
-    <cfRule type="containsText" dxfId="189" priority="137" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="73" priority="137" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G46))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19459,7 +18659,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G59:H59">
-    <cfRule type="containsText" dxfId="188" priority="135" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="72" priority="135" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G59))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="136">
@@ -19474,7 +18674,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="containsText" dxfId="187" priority="133" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="71" priority="133" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H59))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19491,7 +18691,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G59">
-    <cfRule type="containsText" dxfId="186" priority="131" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="70" priority="131" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G59))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19508,7 +18708,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G57:H57">
-    <cfRule type="containsText" dxfId="185" priority="129" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="69" priority="129" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G57))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="130">
@@ -19523,7 +18723,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57">
-    <cfRule type="containsText" dxfId="184" priority="127" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="68" priority="127" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H57))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19540,7 +18740,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G57">
-    <cfRule type="containsText" dxfId="183" priority="125" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="67" priority="125" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G57))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19557,7 +18757,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G80:H80">
-    <cfRule type="containsText" dxfId="182" priority="123" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="66" priority="123" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G80))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="124">
@@ -19572,7 +18772,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H80">
-    <cfRule type="containsText" dxfId="181" priority="121" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="65" priority="121" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H80))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19589,7 +18789,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G80">
-    <cfRule type="containsText" dxfId="180" priority="119" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="64" priority="119" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G80))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19606,7 +18806,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G78:H78">
-    <cfRule type="containsText" dxfId="179" priority="117" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="63" priority="117" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G78))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="118">
@@ -19621,7 +18821,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H78">
-    <cfRule type="containsText" dxfId="178" priority="115" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="62" priority="115" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H78))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19638,7 +18838,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G78">
-    <cfRule type="containsText" dxfId="177" priority="113" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="61" priority="113" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G78))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19655,7 +18855,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G76:H76">
-    <cfRule type="containsText" dxfId="176" priority="111" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="60" priority="111" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G76))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="112">
@@ -19670,7 +18870,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H76">
-    <cfRule type="containsText" dxfId="175" priority="109" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="109" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H76))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19687,7 +18887,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G76">
-    <cfRule type="containsText" dxfId="174" priority="107" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="107" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G76))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19704,7 +18904,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G74:H74">
-    <cfRule type="containsText" dxfId="173" priority="105" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="105" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G74))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="106">
@@ -19719,7 +18919,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H74">
-    <cfRule type="containsText" dxfId="172" priority="103" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="103" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H74))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19736,7 +18936,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G74">
-    <cfRule type="containsText" dxfId="171" priority="101" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="101" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G74))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19753,7 +18953,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G72:H72">
-    <cfRule type="containsText" dxfId="170" priority="99" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="99" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G72))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="100">
@@ -19768,7 +18968,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H72">
-    <cfRule type="containsText" dxfId="169" priority="97" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="97" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H72))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19785,7 +18985,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G72">
-    <cfRule type="containsText" dxfId="168" priority="95" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="95" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G72))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19802,7 +19002,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G82:H82">
-    <cfRule type="containsText" dxfId="167" priority="93" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="93" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G82))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="94">
@@ -19817,7 +19017,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H82">
-    <cfRule type="containsText" dxfId="166" priority="91" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="91" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H82))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19834,7 +19034,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G82">
-    <cfRule type="containsText" dxfId="165" priority="89" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="89" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G82))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19851,7 +19051,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G86:H86">
-    <cfRule type="containsText" dxfId="164" priority="87" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="87" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G86))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="88">
@@ -19866,7 +19066,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H86">
-    <cfRule type="containsText" dxfId="163" priority="85" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="85" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H86))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19883,7 +19083,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G86">
-    <cfRule type="containsText" dxfId="162" priority="83" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="83" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G86))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19900,7 +19100,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G84:H84">
-    <cfRule type="containsText" dxfId="161" priority="81" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="81" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G84))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="82">
@@ -19915,7 +19115,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H84">
-    <cfRule type="containsText" dxfId="160" priority="79" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="79" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H84))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19932,7 +19132,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G84">
-    <cfRule type="containsText" dxfId="159" priority="77" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="77" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G84))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19949,7 +19149,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G37:H37">
-    <cfRule type="containsText" dxfId="158" priority="75" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="75" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G37))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="76">
@@ -19964,7 +19164,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="containsText" dxfId="157" priority="73" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="73" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H37))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19981,7 +19181,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G37">
-    <cfRule type="containsText" dxfId="156" priority="71" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="71" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G37))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19998,7 +19198,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41:H41">
-    <cfRule type="containsText" dxfId="155" priority="69" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="69" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G41))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="70">
@@ -20013,7 +19213,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="containsText" dxfId="154" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H41))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20030,7 +19230,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="containsText" dxfId="153" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G41))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20047,7 +19247,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G39:H39">
-    <cfRule type="containsText" dxfId="152" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G39))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="64">
@@ -20062,7 +19262,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="containsText" dxfId="151" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H39))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20079,7 +19279,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G39">
-    <cfRule type="containsText" dxfId="150" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G39))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20096,7 +19296,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="containsText" dxfId="149" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H25))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="58">
@@ -20111,7 +19311,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="containsText" dxfId="148" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="56">
@@ -20126,7 +19326,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="containsText" dxfId="147" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="54">
@@ -20141,7 +19341,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="containsText" dxfId="146" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G18))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="52">
@@ -20156,7 +19356,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="containsText" dxfId="145" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="50">
@@ -20171,7 +19371,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="containsText" dxfId="144" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="48">
@@ -20186,7 +19386,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="143" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="46">
@@ -20201,7 +19401,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="containsText" dxfId="142" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20218,7 +19418,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="containsText" dxfId="141" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H31))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="42">
@@ -20233,7 +19433,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="containsText" dxfId="140" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H31))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20250,7 +19450,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H8">
-    <cfRule type="containsText" dxfId="139" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="36">
@@ -20265,7 +19465,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:G14">
-    <cfRule type="containsText" dxfId="138" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="34">
@@ -20280,7 +19480,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H14">
-    <cfRule type="containsText" dxfId="137" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="32">
@@ -20295,7 +19495,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G87:H87">
-    <cfRule type="containsText" dxfId="136" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G87))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -20310,7 +19510,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H87">
-    <cfRule type="containsText" dxfId="135" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H87))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20327,7 +19527,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G88:H88">
-    <cfRule type="containsText" dxfId="134" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G88))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="26">
@@ -20342,7 +19542,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H88">
-    <cfRule type="containsText" dxfId="133" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H88))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20359,7 +19559,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G88">
-    <cfRule type="containsText" dxfId="132" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G88))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20376,7 +19576,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="containsText" dxfId="131" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G31))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -20391,7 +19591,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G89:H89">
-    <cfRule type="containsText" dxfId="9" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G89))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -20406,7 +19606,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H89">
-    <cfRule type="containsText" dxfId="8" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H89))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20423,7 +19623,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G90:H90">
-    <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G90))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -20438,7 +19638,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H90">
-    <cfRule type="containsText" dxfId="6" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H90))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20455,7 +19655,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G90">
-    <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G90))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20472,7 +19672,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G91:H94">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G91))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -20487,7 +19687,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H91:H94">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H91))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20504,7 +19704,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G95:H95">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G95))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -20519,7 +19719,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H95">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H95))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20563,29 +19763,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="56" t="s">
+      <c r="A1" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="54" t="s">
         <v>341</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="59"/>
-      <c r="E1" s="63" t="s">
+      <c r="D1" s="57"/>
+      <c r="E1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="64"/>
-      <c r="G1" s="65" t="s">
+      <c r="F1" s="62"/>
+      <c r="G1" s="63" t="s">
         <v>385</v>
       </c>
-      <c r="H1" s="66"/>
+      <c r="H1" s="64"/>
       <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="27" t="s">
         <v>4</v>
       </c>
@@ -20595,7 +19795,7 @@
       <c r="E2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="50" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="29" t="s">
@@ -21401,7 +20601,7 @@
       <c r="F29" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G29" s="46">
+      <c r="G29" s="45">
         <v>1</v>
       </c>
       <c r="H29" s="12" t="s">
@@ -21421,7 +20621,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H28">
-    <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -21436,7 +20636,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:H29">
-    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -21451,7 +20651,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21494,7 +20694,7 @@
       <c r="A1" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="46" t="s">
         <v>308</v>
       </c>
       <c r="C1" s="16" t="s">
@@ -21505,7 +20705,7 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="47" t="s">
         <v>311</v>
       </c>
       <c r="C2" s="17" t="s">
@@ -21516,7 +20716,7 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="47" t="s">
         <v>310</v>
       </c>
       <c r="C3" s="17" t="s">
@@ -21527,7 +20727,7 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="47" t="s">
         <v>314</v>
       </c>
       <c r="C4" s="17" t="s">
@@ -21538,7 +20738,7 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="47" t="s">
         <v>370</v>
       </c>
       <c r="C5" s="17"/>

--- a/Collections/Russia/#Russia#Russian_Federation#Commemorative#[1999-present]#circulation_quality.xlsx
+++ b/Collections/Russia/#Russia#Russian_Federation#Commemorative#[1999-present]#circulation_quality.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Russia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C87AAEF-D831-411C-AF4F-399D7BE93FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E66A2B4-7EF6-4B1A-8927-49D3C869D355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2620" yWindow="2620" windowWidth="33150" windowHeight="17700" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1₽ " sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1₽ '!$B$2:$F$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'10₽ '!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'10₽ '!$B$2:$F$203</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2₽'!$B$2:$F$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'25₽'!$B$2:$F$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'5₽ '!$B$2:$F$2</definedName>
@@ -39,6 +39,9 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -633,7 +636,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2606" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2642" uniqueCount="400">
   <si>
     <t>-</t>
   </si>
@@ -1830,6 +1833,9 @@
   </si>
   <si>
     <t>Subtype_2#Coloured</t>
+  </si>
+  <si>
+    <t>Year of the Defender of the Fatherland - Savur-Mohyla</t>
   </si>
 </sst>
 </file>
@@ -1971,7 +1977,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2026,8 +2032,14 @@
         <bgColor rgb="FF9BE5FF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -2099,6 +2111,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2249,9 +2276,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2286,13 +2310,120 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="191">
+  <dxfs count="204">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -3836,9 +3967,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="14" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -4107,13 +4238,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="I28" sqref="A27:I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4127,27 +4258,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="55" t="s">
+      <c r="A1" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="57" t="s">
+      <c r="D1" s="55"/>
+      <c r="E1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="56"/>
-      <c r="G1" s="58" t="s">
+      <c r="F1" s="55"/>
+      <c r="G1" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="59"/>
+      <c r="H1" s="58"/>
       <c r="I1" s="32"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="54"/>
-      <c r="B2" s="52" t="s">
+      <c r="A2" s="53"/>
+      <c r="B2" s="51" t="s">
         <v>339</v>
       </c>
       <c r="C2" s="42" t="s">
@@ -4868,6 +4999,33 @@
         <v>0</v>
       </c>
       <c r="I28" s="32"/>
+    </row>
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B29" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" s="32"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
@@ -4878,7 +5036,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H3">
-    <cfRule type="containsText" dxfId="190" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="203" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4895,7 +5053,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="189" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="202" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4912,7 +5070,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="containsText" dxfId="188" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="201" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4929,7 +5087,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="187" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="200" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4946,7 +5104,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="186" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="199" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4963,7 +5121,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:H18">
-    <cfRule type="containsText" dxfId="185" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="198" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4980,7 +5138,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G17">
-    <cfRule type="containsText" dxfId="184" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="197" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4997,7 +5155,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H17">
-    <cfRule type="containsText" dxfId="183" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="196" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5013,12 +5171,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G19:G28">
-    <cfRule type="containsText" dxfId="182" priority="3" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G19:G29">
+    <cfRule type="containsText" dxfId="195" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G19))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G19:G28">
+  <conditionalFormatting sqref="G19:G29">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5030,12 +5188,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19:H28">
-    <cfRule type="containsText" dxfId="181" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="H19:H29">
+    <cfRule type="containsText" dxfId="194" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H19))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19:H28">
+  <conditionalFormatting sqref="H19:H29">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5055,13 +5213,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="B2:F2"/>
+      <selection pane="bottomRight" activeCell="A38" sqref="A37:I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5075,27 +5233,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="55" t="s">
+      <c r="A1" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="55" t="s">
+      <c r="D1" s="55"/>
+      <c r="E1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="60"/>
-      <c r="G1" s="61" t="s">
+      <c r="F1" s="59"/>
+      <c r="G1" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="62"/>
+      <c r="H1" s="61"/>
       <c r="I1" s="25"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="54"/>
-      <c r="B2" s="52" t="s">
+      <c r="A2" s="53"/>
+      <c r="B2" s="51" t="s">
         <v>339</v>
       </c>
       <c r="C2" s="42" t="s">
@@ -6130,6 +6288,36 @@
       </c>
       <c r="I38" s="32" t="str">
         <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B39" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="F39" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="G39" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="H39" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="I39" s="32" t="str">
+        <f t="shared" ref="I39" si="2">IF(OR(AND(G39&gt;1,G39&lt;&gt;"-"),AND(H39&gt;1,H39&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -6142,7 +6330,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:H31">
-    <cfRule type="containsText" dxfId="180" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="193" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -6157,7 +6345,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="179" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="192" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -6172,7 +6360,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="178" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="191" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -6186,8 +6374,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G32:G38">
-    <cfRule type="containsText" dxfId="177" priority="3" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G32:G39">
+    <cfRule type="containsText" dxfId="190" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -6201,8 +6389,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H32:H38">
-    <cfRule type="containsText" dxfId="176" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="H32:H39">
+    <cfRule type="containsText" dxfId="189" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -6224,13 +6412,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="B2:F2"/>
+      <selection pane="bottomRight" activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6244,27 +6432,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="55" t="s">
+      <c r="A1" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="55" t="s">
+      <c r="D1" s="55"/>
+      <c r="E1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="60"/>
-      <c r="G1" s="61" t="s">
+      <c r="F1" s="59"/>
+      <c r="G1" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="62"/>
+      <c r="H1" s="61"/>
       <c r="I1" s="25"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="54"/>
-      <c r="B2" s="52" t="s">
+      <c r="A2" s="53"/>
+      <c r="B2" s="51" t="s">
         <v>339</v>
       </c>
       <c r="C2" s="42" t="s">
@@ -8080,7 +8268,9 @@
       </c>
       <c r="C66" s="37"/>
       <c r="D66" s="37"/>
-      <c r="E66" s="35"/>
+      <c r="E66" s="35" t="s">
+        <v>105</v>
+      </c>
       <c r="F66" s="39" t="s">
         <v>0</v>
       </c>
@@ -8242,6 +8432,36 @@
       </c>
       <c r="I71" s="32" t="str">
         <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="14">
+        <v>2025</v>
+      </c>
+      <c r="B72" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D72" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="E72" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="F72" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="G72" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="H72" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="I72" s="32" t="str">
+        <f t="shared" ref="I72" si="6">IF(OR(AND(G72&gt;1,G72&lt;&gt;"-"),AND(H72&gt;1,H72&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -8254,7 +8474,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G16:H65 G3:H8">
-    <cfRule type="containsText" dxfId="175" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="188" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -8269,7 +8489,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66">
-    <cfRule type="containsText" dxfId="174" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="187" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H66))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -8284,7 +8504,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:G15">
-    <cfRule type="containsText" dxfId="173" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="186" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -8299,7 +8519,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H15">
-    <cfRule type="containsText" dxfId="172" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="185" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -8313,8 +8533,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G67:G71">
-    <cfRule type="containsText" dxfId="171" priority="5" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G67:G72">
+    <cfRule type="containsText" dxfId="184" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G67))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -8328,8 +8548,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H67:H71">
-    <cfRule type="containsText" dxfId="170" priority="3" operator="containsText" text="*-">
+  <conditionalFormatting sqref="H67:H72">
+    <cfRule type="containsText" dxfId="183" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H67))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -8344,7 +8564,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G66">
-    <cfRule type="containsText" dxfId="169" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="182" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G66))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8371,10 +8591,10 @@
   <dimension ref="A1:I207"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J177" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J173" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="A1:D2"/>
+      <selection pane="bottomRight" activeCell="D208" sqref="D208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8389,27 +8609,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="55" t="s">
+      <c r="A1" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="55" t="s">
+      <c r="D1" s="55"/>
+      <c r="E1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="60"/>
-      <c r="G1" s="61" t="s">
+      <c r="F1" s="59"/>
+      <c r="G1" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="H1" s="62"/>
+      <c r="H1" s="61"/>
       <c r="I1" s="25"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="54"/>
-      <c r="B2" s="52" t="s">
+      <c r="A2" s="53"/>
+      <c r="B2" s="51" t="s">
         <v>339</v>
       </c>
       <c r="C2" s="42" t="s">
@@ -14397,7 +14617,7 @@
         <v>0</v>
       </c>
       <c r="G202" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H202" s="13" t="s">
         <v>0</v>
@@ -14458,7 +14678,7 @@
       <c r="I207"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
+  <autoFilter ref="B2:F203" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
   <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:D1"/>
@@ -14467,7 +14687,7 @@
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="G110:H167 G109 G4:H108">
-    <cfRule type="containsText" dxfId="168" priority="75" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="181" priority="75" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="76">
@@ -14482,7 +14702,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G168:H168">
-    <cfRule type="containsText" dxfId="167" priority="73" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="180" priority="73" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G168))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="74">
@@ -14497,7 +14717,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G169:H169">
-    <cfRule type="containsText" dxfId="166" priority="71" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="179" priority="71" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G169))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="72">
@@ -14512,7 +14732,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G170:H170">
-    <cfRule type="containsText" dxfId="165" priority="69" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="178" priority="69" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G170))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="70">
@@ -14527,7 +14747,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G171:H171">
-    <cfRule type="containsText" dxfId="164" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="177" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G171))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="68">
@@ -14542,7 +14762,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G172:H172">
-    <cfRule type="containsText" dxfId="163" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="176" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G172))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="66">
@@ -14557,7 +14777,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G173:H173">
-    <cfRule type="containsText" dxfId="162" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="175" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G173))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="64">
@@ -14572,7 +14792,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G174:H174">
-    <cfRule type="containsText" dxfId="161" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="174" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G174))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="62">
@@ -14587,7 +14807,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G175:H175">
-    <cfRule type="containsText" dxfId="160" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="173" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G175))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="60">
@@ -14602,7 +14822,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G176:H176">
-    <cfRule type="containsText" dxfId="159" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="172" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G176))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="58">
@@ -14617,7 +14837,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G177:H177">
-    <cfRule type="containsText" dxfId="158" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="171" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G177))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="56">
@@ -14632,7 +14852,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G178:H178">
-    <cfRule type="containsText" dxfId="157" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="170" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G178))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="54">
@@ -14647,7 +14867,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G179:H179">
-    <cfRule type="containsText" dxfId="156" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="169" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G179))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="52">
@@ -14662,7 +14882,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G180:H180">
-    <cfRule type="containsText" dxfId="155" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="168" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G180))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="50">
@@ -14677,7 +14897,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G181:H181">
-    <cfRule type="containsText" dxfId="154" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="167" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G181))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="48">
@@ -14692,7 +14912,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G182:H182">
-    <cfRule type="containsText" dxfId="153" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="166" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G182))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
@@ -14707,7 +14927,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G183:H183">
-    <cfRule type="containsText" dxfId="152" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="165" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G183))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="42">
@@ -14722,7 +14942,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G184:H184">
-    <cfRule type="containsText" dxfId="151" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="164" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G184))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
@@ -14737,7 +14957,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G186:H186">
-    <cfRule type="containsText" dxfId="150" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="163" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G186))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="36">
@@ -14752,7 +14972,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G187:H187">
-    <cfRule type="containsText" dxfId="149" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="162" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G187))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="34">
@@ -14767,7 +14987,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G188:H188">
-    <cfRule type="containsText" dxfId="148" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="161" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G188))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="32">
@@ -14782,7 +15002,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G185:H185">
-    <cfRule type="containsText" dxfId="147" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="160" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G185))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -14797,7 +15017,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G189:H189">
-    <cfRule type="containsText" dxfId="146" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="159" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G189))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="28">
@@ -14812,7 +15032,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G190:H190">
-    <cfRule type="containsText" dxfId="145" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="158" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G190))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="26">
@@ -14827,7 +15047,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G191:H191">
-    <cfRule type="containsText" dxfId="144" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="157" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G191))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
@@ -14842,7 +15062,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H109">
-    <cfRule type="containsText" dxfId="143" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="156" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H109))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14859,7 +15079,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H3">
-    <cfRule type="containsText" dxfId="142" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="155" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -14874,7 +15094,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G192">
-    <cfRule type="containsText" dxfId="141" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="154" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G192))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -14889,7 +15109,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H192">
-    <cfRule type="containsText" dxfId="140" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="153" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H192))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -14904,7 +15124,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G193:H193 G195:H195 G197:H197">
-    <cfRule type="containsText" dxfId="139" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="152" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G193))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -14919,7 +15139,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G194:H194 G196:H196">
-    <cfRule type="containsText" dxfId="138" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="151" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G194))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -14934,7 +15154,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G200 G198">
-    <cfRule type="containsText" dxfId="137" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="150" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G198))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -14949,7 +15169,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H200 H198">
-    <cfRule type="containsText" dxfId="136" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="149" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H198))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -14964,7 +15184,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G199:H199 G201:H201">
-    <cfRule type="containsText" dxfId="135" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="148" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G199))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -14979,7 +15199,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G202:H202">
-    <cfRule type="containsText" dxfId="134" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="147" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G202))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -14994,7 +15214,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G203:H203">
-    <cfRule type="containsText" dxfId="133" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="146" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G203))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -15018,11 +15238,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J57" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="9" ySplit="2" topLeftCell="J27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomRight" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -15036,27 +15256,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="55" t="s">
+      <c r="A1" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="55" t="s">
+      <c r="D1" s="55"/>
+      <c r="E1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="60"/>
-      <c r="G1" s="61" t="s">
+      <c r="F1" s="59"/>
+      <c r="G1" s="60" t="s">
         <v>304</v>
       </c>
-      <c r="H1" s="62"/>
+      <c r="H1" s="61"/>
       <c r="I1" s="25"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="54"/>
-      <c r="B2" s="52" t="s">
+      <c r="A2" s="53"/>
+      <c r="B2" s="51" t="s">
         <v>339</v>
       </c>
       <c r="C2" s="42" t="s">
@@ -15877,7 +16097,7 @@
       <c r="F30" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="G30" s="50">
+      <c r="G30" s="62">
         <v>1</v>
       </c>
       <c r="H30" s="11" t="s">
@@ -17593,12 +17813,16 @@
       <c r="C91" s="37" t="s">
         <v>397</v>
       </c>
-      <c r="D91" s="37"/>
-      <c r="E91" s="38"/>
+      <c r="D91" s="37" t="s">
+        <v>331</v>
+      </c>
+      <c r="E91" s="47" t="s">
+        <v>271</v>
+      </c>
       <c r="F91" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="G91" s="44">
+      <c r="G91" s="62">
         <v>0</v>
       </c>
       <c r="H91" s="11" t="s">
@@ -17619,12 +17843,16 @@
       <c r="C92" s="37" t="s">
         <v>397</v>
       </c>
-      <c r="D92" s="37"/>
-      <c r="E92" s="38"/>
+      <c r="D92" s="37" t="s">
+        <v>331</v>
+      </c>
+      <c r="E92" s="47" t="s">
+        <v>271</v>
+      </c>
       <c r="F92" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="G92" s="44">
+      <c r="G92" s="62">
         <v>0</v>
       </c>
       <c r="H92" s="11" t="s">
@@ -17645,12 +17873,16 @@
       <c r="C93" s="37" t="s">
         <v>397</v>
       </c>
-      <c r="D93" s="37"/>
-      <c r="E93" s="38"/>
+      <c r="D93" s="37" t="s">
+        <v>331</v>
+      </c>
+      <c r="E93" s="47" t="s">
+        <v>271</v>
+      </c>
       <c r="F93" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="G93" s="44">
+      <c r="G93" s="62">
         <v>0</v>
       </c>
       <c r="H93" s="11" t="s">
@@ -17671,12 +17903,16 @@
       <c r="C94" s="37" t="s">
         <v>397</v>
       </c>
-      <c r="D94" s="37"/>
-      <c r="E94" s="38"/>
+      <c r="D94" s="37" t="s">
+        <v>331</v>
+      </c>
+      <c r="E94" s="47" t="s">
+        <v>271</v>
+      </c>
       <c r="F94" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="G94" s="44">
+      <c r="G94" s="62">
         <v>0</v>
       </c>
       <c r="H94" s="11" t="s">
@@ -17697,12 +17933,16 @@
       <c r="C95" s="37" t="s">
         <v>397</v>
       </c>
-      <c r="D95" s="37"/>
-      <c r="E95" s="38"/>
+      <c r="D95" s="37" t="s">
+        <v>331</v>
+      </c>
+      <c r="E95" s="47" t="s">
+        <v>271</v>
+      </c>
       <c r="F95" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="G95" s="44">
+      <c r="G95" s="62">
         <v>0</v>
       </c>
       <c r="H95" s="11" t="s">
@@ -17723,10 +17963,10 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="G15:H15 G17:H17 G26:H26 G19:H20 G22:H24">
-    <cfRule type="containsText" dxfId="132" priority="386" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="145" priority="402" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="387">
+    <cfRule type="colorScale" priority="403">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -17738,11 +17978,107 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="131" priority="367" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="144" priority="383" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H26))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
+    <cfRule type="colorScale" priority="384">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28:H28">
+    <cfRule type="containsText" dxfId="143" priority="381" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G28))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="382">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28">
+    <cfRule type="containsText" dxfId="142" priority="379" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28">
+    <cfRule type="colorScale" priority="380">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30">
+    <cfRule type="containsText" dxfId="141" priority="377" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H30))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="378">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30">
+    <cfRule type="containsText" dxfId="140" priority="375" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30">
+    <cfRule type="colorScale" priority="376">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32:H32">
+    <cfRule type="containsText" dxfId="139" priority="369" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="370">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32">
+    <cfRule type="containsText" dxfId="138" priority="367" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32">
     <cfRule type="colorScale" priority="368">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17754,9 +18090,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28:H28">
-    <cfRule type="containsText" dxfId="130" priority="365" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G28))))</formula>
+  <conditionalFormatting sqref="G34:H34 G38:H38">
+    <cfRule type="containsText" dxfId="137" priority="365" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G34))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="366">
       <colorScale>
@@ -17769,12 +18105,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="129" priority="363" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H28))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
+  <conditionalFormatting sqref="H34 H38">
+    <cfRule type="containsText" dxfId="136" priority="363" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34 H38">
     <cfRule type="colorScale" priority="364">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17786,9 +18122,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G30:H30">
-    <cfRule type="containsText" dxfId="128" priority="361" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G30))))</formula>
+  <conditionalFormatting sqref="G33:H33 G36:H36 G40:H40">
+    <cfRule type="containsText" dxfId="135" priority="361" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G33))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="362">
       <colorScale>
@@ -17801,12 +18137,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
-    <cfRule type="containsText" dxfId="127" priority="359" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
+  <conditionalFormatting sqref="H33 H36 H40">
+    <cfRule type="containsText" dxfId="134" priority="359" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H33))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33 H36 H40">
     <cfRule type="colorScale" priority="360">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17818,9 +18154,41 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G32:H32">
-    <cfRule type="containsText" dxfId="126" priority="353" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
+  <conditionalFormatting sqref="G42:H42">
+    <cfRule type="containsText" dxfId="133" priority="357" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G42))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="358">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H42">
+    <cfRule type="containsText" dxfId="132" priority="355" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H42))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H42">
+    <cfRule type="colorScale" priority="356">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G43:H43">
+    <cfRule type="containsText" dxfId="131" priority="353" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G43))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="354">
       <colorScale>
@@ -17833,12 +18201,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
-    <cfRule type="containsText" dxfId="125" priority="351" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
+  <conditionalFormatting sqref="H43">
+    <cfRule type="containsText" dxfId="130" priority="351" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H43))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H43">
     <cfRule type="colorScale" priority="352">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17850,9 +18218,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G34:H34 G38:H38">
-    <cfRule type="containsText" dxfId="124" priority="349" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G34))))</formula>
+  <conditionalFormatting sqref="G45:H45">
+    <cfRule type="containsText" dxfId="129" priority="349" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G45))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="350">
       <colorScale>
@@ -17865,12 +18233,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H34 H38">
-    <cfRule type="containsText" dxfId="123" priority="347" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34 H38">
+  <conditionalFormatting sqref="H45">
+    <cfRule type="containsText" dxfId="128" priority="347" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H45))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H45">
     <cfRule type="colorScale" priority="348">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17882,9 +18250,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G33:H33 G36:H36 G40:H40">
-    <cfRule type="containsText" dxfId="122" priority="345" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G33))))</formula>
+  <conditionalFormatting sqref="G47:H47 G49:H49 G51:H51 G53:H53 G55:H56 G54">
+    <cfRule type="containsText" dxfId="127" priority="345" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G47))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="346">
       <colorScale>
@@ -17897,12 +18265,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H33 H36 H40">
-    <cfRule type="containsText" dxfId="121" priority="343" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H33))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H33 H36 H40">
+  <conditionalFormatting sqref="H47 H49 H51 H53 H55:H56">
+    <cfRule type="containsText" dxfId="126" priority="343" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H47))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H49 H47 H51 H53 H55:H56">
     <cfRule type="colorScale" priority="344">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17914,9 +18282,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G42:H42">
-    <cfRule type="containsText" dxfId="120" priority="341" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G42))))</formula>
+  <conditionalFormatting sqref="G48:H48 G50:H50 G52:H52 H54">
+    <cfRule type="containsText" dxfId="125" priority="341" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G48))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="342">
       <colorScale>
@@ -17929,12 +18297,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H42">
-    <cfRule type="containsText" dxfId="119" priority="339" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H42))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H42">
+  <conditionalFormatting sqref="H48 H50 H52 H54">
+    <cfRule type="containsText" dxfId="124" priority="339" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H48))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H48 H50 H52 H54">
     <cfRule type="colorScale" priority="340">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17946,11 +18314,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G43:H43">
-    <cfRule type="containsText" dxfId="118" priority="337" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G43))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="338">
+  <conditionalFormatting sqref="G61:H61 G63:H63 G65:H65 G67:H67 G69:H69">
+    <cfRule type="containsText" dxfId="123" priority="317" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G61))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="318">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -17961,13 +18329,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
-    <cfRule type="containsText" dxfId="117" priority="335" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H43))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
-    <cfRule type="colorScale" priority="336">
+  <conditionalFormatting sqref="H61 H63 H65 H67 H69">
+    <cfRule type="containsText" dxfId="122" priority="315" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H61))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H63 H61 H65 H67 H69">
+    <cfRule type="colorScale" priority="316">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -17978,11 +18346,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G45:H45">
-    <cfRule type="containsText" dxfId="116" priority="333" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G45))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="334">
+  <conditionalFormatting sqref="G60:H60 G62:H62 G64:H64 G66:H66 G68:H68 G70:H70 G73:H73">
+    <cfRule type="containsText" dxfId="121" priority="313" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G60))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="314">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -17993,13 +18361,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
-    <cfRule type="containsText" dxfId="115" priority="331" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H45))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
-    <cfRule type="colorScale" priority="332">
+  <conditionalFormatting sqref="H60 H62 H64 H66 H68 H70 H73">
+    <cfRule type="containsText" dxfId="120" priority="311" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H60))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H62 H60 H64 H66 H68 H70 H73">
+    <cfRule type="colorScale" priority="312">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -18010,11 +18378,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G47:H47 G49:H49 G51:H51 G53:H53 G55:H56 G54">
-    <cfRule type="containsText" dxfId="114" priority="329" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G47))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="330">
+  <conditionalFormatting sqref="G58:H58">
+    <cfRule type="containsText" dxfId="119" priority="309" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G58))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="310">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -18025,13 +18393,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47 H49 H51 H53 H55:H56">
-    <cfRule type="containsText" dxfId="113" priority="327" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H47))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H49 H47 H51 H53 H55:H56">
-    <cfRule type="colorScale" priority="328">
+  <conditionalFormatting sqref="H58">
+    <cfRule type="containsText" dxfId="118" priority="307" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H58))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H58">
+    <cfRule type="colorScale" priority="308">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -18042,11 +18410,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G48:H48 G50:H50 G52:H52 H54">
-    <cfRule type="containsText" dxfId="112" priority="325" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G48))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="326">
+  <conditionalFormatting sqref="G71:H71">
+    <cfRule type="containsText" dxfId="117" priority="305" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G71))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="306">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -18057,13 +18425,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H48 H50 H52 H54">
-    <cfRule type="containsText" dxfId="111" priority="323" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H48))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H48 H50 H52 H54">
-    <cfRule type="colorScale" priority="324">
+  <conditionalFormatting sqref="H71">
+    <cfRule type="containsText" dxfId="116" priority="303" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H71))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H71">
+    <cfRule type="colorScale" priority="304">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -18074,105 +18442,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G61:H61 G63:H63 G65:H65 G67:H67 G69:H69">
-    <cfRule type="containsText" dxfId="110" priority="301" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G61))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="302">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H61 H63 H65 H67 H69">
-    <cfRule type="containsText" dxfId="109" priority="299" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H61))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H63 H61 H65 H67 H69">
-    <cfRule type="colorScale" priority="300">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G60:H60 G62:H62 G64:H64 G66:H66 G68:H68 G70:H70 G73:H73">
-    <cfRule type="containsText" dxfId="108" priority="297" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G60))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="298">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H60 H62 H64 H66 H68 H70 H73">
-    <cfRule type="containsText" dxfId="107" priority="295" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H60))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H62 H60 H64 H66 H68 H70 H73">
-    <cfRule type="colorScale" priority="296">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G58:H58">
-    <cfRule type="containsText" dxfId="106" priority="293" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G58))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="294">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H58">
-    <cfRule type="containsText" dxfId="105" priority="291" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H58))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H58">
-    <cfRule type="colorScale" priority="292">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G71:H71">
-    <cfRule type="containsText" dxfId="104" priority="289" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G71))))</formula>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="containsText" dxfId="115" priority="289" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="290">
       <colorScale>
@@ -18185,12 +18457,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H71">
-    <cfRule type="containsText" dxfId="103" priority="287" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H71))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H71">
+  <conditionalFormatting sqref="H22">
+    <cfRule type="containsText" dxfId="114" priority="287" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="288">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18202,11 +18472,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
-    <cfRule type="containsText" dxfId="102" priority="273" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="274">
+  <conditionalFormatting sqref="G25">
+    <cfRule type="containsText" dxfId="113" priority="285" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G25))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="286">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -18217,11 +18487,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="containsText" dxfId="101" priority="271" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="272">
+  <conditionalFormatting sqref="G27:H27">
+    <cfRule type="containsText" dxfId="112" priority="277" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="278">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -18232,11 +18502,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25">
-    <cfRule type="containsText" dxfId="100" priority="269" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G25))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="270">
+  <conditionalFormatting sqref="H27">
+    <cfRule type="containsText" dxfId="111" priority="275" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="colorScale" priority="276">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -18247,11 +18519,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G27:H27">
-    <cfRule type="containsText" dxfId="99" priority="261" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="262">
+  <conditionalFormatting sqref="G75:H75">
+    <cfRule type="containsText" dxfId="110" priority="225" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G75))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="226">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -18262,13 +18534,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="98" priority="259" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
-    <cfRule type="colorScale" priority="260">
+  <conditionalFormatting sqref="H75">
+    <cfRule type="containsText" dxfId="109" priority="223" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H75))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H75">
+    <cfRule type="colorScale" priority="224">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -18279,9 +18551,41 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G75:H75">
-    <cfRule type="containsText" dxfId="97" priority="209" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G75))))</formula>
+  <conditionalFormatting sqref="G77:H77">
+    <cfRule type="containsText" dxfId="108" priority="217" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G77))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="218">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H77">
+    <cfRule type="containsText" dxfId="107" priority="215" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H77))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H77">
+    <cfRule type="colorScale" priority="216">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G79:H79">
+    <cfRule type="containsText" dxfId="106" priority="209" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G79))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="210">
       <colorScale>
@@ -18294,12 +18598,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H75">
-    <cfRule type="containsText" dxfId="96" priority="207" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H75))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H75">
+  <conditionalFormatting sqref="H79">
+    <cfRule type="containsText" dxfId="105" priority="207" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H79))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H79">
     <cfRule type="colorScale" priority="208">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18311,9 +18615,41 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G77:H77">
-    <cfRule type="containsText" dxfId="95" priority="201" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G77))))</formula>
+  <conditionalFormatting sqref="G81:H81">
+    <cfRule type="containsText" dxfId="104" priority="205" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G81))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="206">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H81">
+    <cfRule type="containsText" dxfId="103" priority="203" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H81))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H81">
+    <cfRule type="colorScale" priority="204">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G83:H83">
+    <cfRule type="containsText" dxfId="102" priority="201" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G83))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="202">
       <colorScale>
@@ -18326,12 +18662,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H77">
-    <cfRule type="containsText" dxfId="94" priority="199" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H77))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H77">
+  <conditionalFormatting sqref="H83">
+    <cfRule type="containsText" dxfId="101" priority="199" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H83))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H83">
     <cfRule type="colorScale" priority="200">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18343,11 +18679,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G79:H79">
-    <cfRule type="containsText" dxfId="93" priority="193" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G79))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="194">
+  <conditionalFormatting sqref="G85:H85">
+    <cfRule type="containsText" dxfId="100" priority="197" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G85))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="198">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -18358,13 +18694,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H79">
-    <cfRule type="containsText" dxfId="92" priority="191" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H79))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H79">
-    <cfRule type="colorScale" priority="192">
+  <conditionalFormatting sqref="H85">
+    <cfRule type="containsText" dxfId="99" priority="195" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H85))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H85">
+    <cfRule type="colorScale" priority="196">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -18375,11 +18711,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G81:H81">
-    <cfRule type="containsText" dxfId="91" priority="189" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G81))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="190">
+  <conditionalFormatting sqref="G27">
+    <cfRule type="containsText" dxfId="98" priority="177" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27">
+    <cfRule type="colorScale" priority="178">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -18390,13 +18728,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H81">
-    <cfRule type="containsText" dxfId="90" priority="187" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H81))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H81">
-    <cfRule type="colorScale" priority="188">
+  <conditionalFormatting sqref="G29:H29">
+    <cfRule type="containsText" dxfId="97" priority="175" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="176">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -18407,11 +18743,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G83:H83">
-    <cfRule type="containsText" dxfId="89" priority="185" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G83))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="186">
+  <conditionalFormatting sqref="H29">
+    <cfRule type="containsText" dxfId="96" priority="173" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="colorScale" priority="174">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -18422,13 +18760,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H83">
-    <cfRule type="containsText" dxfId="88" priority="183" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H83))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H83">
-    <cfRule type="colorScale" priority="184">
+  <conditionalFormatting sqref="G29">
+    <cfRule type="containsText" dxfId="95" priority="171" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="colorScale" priority="172">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -18439,11 +18777,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G85:H85">
-    <cfRule type="containsText" dxfId="87" priority="181" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G85))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="182">
+  <conditionalFormatting sqref="G35:H35">
+    <cfRule type="containsText" dxfId="94" priority="169" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G35))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="170">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -18454,13 +18792,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H85">
-    <cfRule type="containsText" dxfId="86" priority="179" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H85))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H85">
-    <cfRule type="colorScale" priority="180">
+  <conditionalFormatting sqref="H35">
+    <cfRule type="containsText" dxfId="93" priority="167" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H35))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35">
+    <cfRule type="colorScale" priority="168">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -18471,12 +18809,44 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G27">
-    <cfRule type="containsText" dxfId="85" priority="161" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G27">
+  <conditionalFormatting sqref="G35">
+    <cfRule type="containsText" dxfId="92" priority="165" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G35))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G35">
+    <cfRule type="colorScale" priority="166">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G44:H44">
+    <cfRule type="containsText" dxfId="91" priority="163" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G44))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="164">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44">
+    <cfRule type="containsText" dxfId="90" priority="161" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H44))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44">
     <cfRule type="colorScale" priority="162">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18488,10 +18858,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29:H29">
-    <cfRule type="containsText" dxfId="84" priority="159" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="G44">
+    <cfRule type="containsText" dxfId="89" priority="159" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G44))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G44">
     <cfRule type="colorScale" priority="160">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18503,12 +18875,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="83" priority="157" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
+  <conditionalFormatting sqref="G46:H46">
+    <cfRule type="containsText" dxfId="88" priority="157" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G46))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="158">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18520,12 +18890,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
-    <cfRule type="containsText" dxfId="82" priority="155" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
+  <conditionalFormatting sqref="H46">
+    <cfRule type="containsText" dxfId="87" priority="155" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H46))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H46">
     <cfRule type="colorScale" priority="156">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18537,10 +18907,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G35:H35">
-    <cfRule type="containsText" dxfId="81" priority="153" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G35))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="G46">
+    <cfRule type="containsText" dxfId="86" priority="153" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G46))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G46">
     <cfRule type="colorScale" priority="154">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18552,12 +18924,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
-    <cfRule type="containsText" dxfId="80" priority="151" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H35))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
+  <conditionalFormatting sqref="G59:H59">
+    <cfRule type="containsText" dxfId="85" priority="151" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G59))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="152">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18569,12 +18939,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G35">
-    <cfRule type="containsText" dxfId="79" priority="149" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G35))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G35">
+  <conditionalFormatting sqref="H59">
+    <cfRule type="containsText" dxfId="84" priority="149" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H59))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H59">
     <cfRule type="colorScale" priority="150">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18586,10 +18956,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G44:H44">
-    <cfRule type="containsText" dxfId="78" priority="147" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G44))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="G59">
+    <cfRule type="containsText" dxfId="83" priority="147" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G59))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G59">
     <cfRule type="colorScale" priority="148">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18601,12 +18973,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
-    <cfRule type="containsText" dxfId="77" priority="145" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H44))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
+  <conditionalFormatting sqref="G57:H57">
+    <cfRule type="containsText" dxfId="82" priority="145" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G57))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="146">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18618,12 +18988,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G44">
-    <cfRule type="containsText" dxfId="76" priority="143" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G44))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G44">
+  <conditionalFormatting sqref="H57">
+    <cfRule type="containsText" dxfId="81" priority="143" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H57))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H57">
     <cfRule type="colorScale" priority="144">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18635,10 +19005,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G46:H46">
-    <cfRule type="containsText" dxfId="75" priority="141" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G46))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="G57">
+    <cfRule type="containsText" dxfId="80" priority="141" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G57))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G57">
     <cfRule type="colorScale" priority="142">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18650,12 +19022,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H46">
-    <cfRule type="containsText" dxfId="74" priority="139" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H46))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H46">
+  <conditionalFormatting sqref="G80:H80">
+    <cfRule type="containsText" dxfId="79" priority="139" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G80))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="140">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18667,12 +19037,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G46">
-    <cfRule type="containsText" dxfId="73" priority="137" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G46))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G46">
+  <conditionalFormatting sqref="H80">
+    <cfRule type="containsText" dxfId="78" priority="137" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H80))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H80">
     <cfRule type="colorScale" priority="138">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18684,10 +19054,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G59:H59">
-    <cfRule type="containsText" dxfId="72" priority="135" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G59))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="G80">
+    <cfRule type="containsText" dxfId="77" priority="135" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G80))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G80">
     <cfRule type="colorScale" priority="136">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18699,12 +19071,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H59">
-    <cfRule type="containsText" dxfId="71" priority="133" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H59))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H59">
+  <conditionalFormatting sqref="G78:H78">
+    <cfRule type="containsText" dxfId="76" priority="133" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G78))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="134">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18716,12 +19086,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G59">
-    <cfRule type="containsText" dxfId="70" priority="131" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G59))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G59">
+  <conditionalFormatting sqref="H78">
+    <cfRule type="containsText" dxfId="75" priority="131" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H78))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H78">
     <cfRule type="colorScale" priority="132">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18733,10 +19103,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G57:H57">
-    <cfRule type="containsText" dxfId="69" priority="129" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G57))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="G78">
+    <cfRule type="containsText" dxfId="74" priority="129" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G78))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G78">
     <cfRule type="colorScale" priority="130">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18748,12 +19120,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H57">
-    <cfRule type="containsText" dxfId="68" priority="127" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H57))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H57">
+  <conditionalFormatting sqref="G76:H76">
+    <cfRule type="containsText" dxfId="73" priority="127" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G76))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="128">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18765,12 +19135,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G57">
-    <cfRule type="containsText" dxfId="67" priority="125" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G57))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G57">
+  <conditionalFormatting sqref="H76">
+    <cfRule type="containsText" dxfId="72" priority="125" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H76))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H76">
     <cfRule type="colorScale" priority="126">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18782,10 +19152,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G80:H80">
-    <cfRule type="containsText" dxfId="66" priority="123" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G80))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="G76">
+    <cfRule type="containsText" dxfId="71" priority="123" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G76))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G76">
     <cfRule type="colorScale" priority="124">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18797,12 +19169,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H80">
-    <cfRule type="containsText" dxfId="65" priority="121" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H80))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H80">
+  <conditionalFormatting sqref="G74:H74">
+    <cfRule type="containsText" dxfId="70" priority="121" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G74))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="122">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18814,12 +19184,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G80">
-    <cfRule type="containsText" dxfId="64" priority="119" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G80))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G80">
+  <conditionalFormatting sqref="H74">
+    <cfRule type="containsText" dxfId="69" priority="119" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H74))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H74">
     <cfRule type="colorScale" priority="120">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18831,10 +19201,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G78:H78">
-    <cfRule type="containsText" dxfId="63" priority="117" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G78))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="G74">
+    <cfRule type="containsText" dxfId="68" priority="117" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G74))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G74">
     <cfRule type="colorScale" priority="118">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18846,12 +19218,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H78">
-    <cfRule type="containsText" dxfId="62" priority="115" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H78))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H78">
+  <conditionalFormatting sqref="G72:H72">
+    <cfRule type="containsText" dxfId="67" priority="115" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G72))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="116">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18863,12 +19233,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G78">
-    <cfRule type="containsText" dxfId="61" priority="113" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G78))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G78">
+  <conditionalFormatting sqref="H72">
+    <cfRule type="containsText" dxfId="66" priority="113" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H72))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H72">
     <cfRule type="colorScale" priority="114">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18880,10 +19250,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G76:H76">
-    <cfRule type="containsText" dxfId="60" priority="111" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G76))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="G72">
+    <cfRule type="containsText" dxfId="65" priority="111" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G72))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G72">
     <cfRule type="colorScale" priority="112">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18895,12 +19267,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H76">
-    <cfRule type="containsText" dxfId="59" priority="109" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H76))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H76">
+  <conditionalFormatting sqref="G82:H82">
+    <cfRule type="containsText" dxfId="64" priority="109" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G82))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="110">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18912,12 +19282,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G76">
-    <cfRule type="containsText" dxfId="58" priority="107" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G76))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G76">
+  <conditionalFormatting sqref="H82">
+    <cfRule type="containsText" dxfId="63" priority="107" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H82))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H82">
     <cfRule type="colorScale" priority="108">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18929,10 +19299,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G74:H74">
-    <cfRule type="containsText" dxfId="57" priority="105" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G74))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="G82">
+    <cfRule type="containsText" dxfId="62" priority="105" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G82))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G82">
     <cfRule type="colorScale" priority="106">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18944,12 +19316,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H74">
-    <cfRule type="containsText" dxfId="56" priority="103" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H74))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H74">
+  <conditionalFormatting sqref="G86:H86">
+    <cfRule type="containsText" dxfId="61" priority="103" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G86))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="104">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18961,12 +19331,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G74">
-    <cfRule type="containsText" dxfId="55" priority="101" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G74))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G74">
+  <conditionalFormatting sqref="H86">
+    <cfRule type="containsText" dxfId="60" priority="101" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H86))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H86">
     <cfRule type="colorScale" priority="102">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18978,10 +19348,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G72:H72">
-    <cfRule type="containsText" dxfId="54" priority="99" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G72))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="G86">
+    <cfRule type="containsText" dxfId="59" priority="99" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G86))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G86">
     <cfRule type="colorScale" priority="100">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18993,12 +19365,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H72">
-    <cfRule type="containsText" dxfId="53" priority="97" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H72))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H72">
+  <conditionalFormatting sqref="G84:H84">
+    <cfRule type="containsText" dxfId="58" priority="97" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G84))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="98">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -19010,12 +19380,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G72">
-    <cfRule type="containsText" dxfId="52" priority="95" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G72))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G72">
+  <conditionalFormatting sqref="H84">
+    <cfRule type="containsText" dxfId="57" priority="95" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H84))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H84">
     <cfRule type="colorScale" priority="96">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -19027,10 +19397,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G82:H82">
-    <cfRule type="containsText" dxfId="51" priority="93" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G82))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="G84">
+    <cfRule type="containsText" dxfId="56" priority="93" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G84))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G84">
     <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -19042,12 +19414,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H82">
-    <cfRule type="containsText" dxfId="50" priority="91" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H82))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H82">
+  <conditionalFormatting sqref="G37:H37">
+    <cfRule type="containsText" dxfId="55" priority="91" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G37))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -19059,12 +19429,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G82">
-    <cfRule type="containsText" dxfId="49" priority="89" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G82))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G82">
+  <conditionalFormatting sqref="H37">
+    <cfRule type="containsText" dxfId="54" priority="89" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H37))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H37">
     <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -19076,10 +19446,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G86:H86">
-    <cfRule type="containsText" dxfId="48" priority="87" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G86))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="G37">
+    <cfRule type="containsText" dxfId="53" priority="87" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G37))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G37">
     <cfRule type="colorScale" priority="88">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -19091,12 +19463,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H86">
-    <cfRule type="containsText" dxfId="47" priority="85" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H86))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H86">
+  <conditionalFormatting sqref="G41:H41">
+    <cfRule type="containsText" dxfId="52" priority="85" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G41))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -19108,12 +19478,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G86">
-    <cfRule type="containsText" dxfId="46" priority="83" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G86))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G86">
+  <conditionalFormatting sqref="H41">
+    <cfRule type="containsText" dxfId="51" priority="83" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H41))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41">
     <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -19125,10 +19495,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G84:H84">
-    <cfRule type="containsText" dxfId="45" priority="81" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G84))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="G41">
+    <cfRule type="containsText" dxfId="50" priority="81" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G41))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G41">
     <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -19140,12 +19512,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H84">
-    <cfRule type="containsText" dxfId="44" priority="79" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H84))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H84">
+  <conditionalFormatting sqref="G39:H39">
+    <cfRule type="containsText" dxfId="49" priority="79" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G39))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -19157,12 +19527,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G84">
-    <cfRule type="containsText" dxfId="43" priority="77" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G84))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G84">
+  <conditionalFormatting sqref="H39">
+    <cfRule type="containsText" dxfId="48" priority="77" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H39))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39">
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -19174,10 +19544,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G37:H37">
-    <cfRule type="containsText" dxfId="42" priority="75" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G37))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="G39">
+    <cfRule type="containsText" dxfId="47" priority="75" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G39))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G39">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -19189,12 +19561,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
-    <cfRule type="containsText" dxfId="41" priority="73" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H37))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
+  <conditionalFormatting sqref="H25">
+    <cfRule type="containsText" dxfId="46" priority="73" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H25))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -19206,12 +19576,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G37">
-    <cfRule type="containsText" dxfId="40" priority="71" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G37))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G37">
+  <conditionalFormatting sqref="G21">
+    <cfRule type="containsText" dxfId="45" priority="71" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G21))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -19223,9 +19591,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G41:H41">
-    <cfRule type="containsText" dxfId="39" priority="69" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G41))))</formula>
+  <conditionalFormatting sqref="H21">
+    <cfRule type="containsText" dxfId="44" priority="69" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="70">
       <colorScale>
@@ -19238,12 +19606,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
-    <cfRule type="containsText" dxfId="38" priority="67" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H41))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
+  <conditionalFormatting sqref="G18">
+    <cfRule type="containsText" dxfId="43" priority="67" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G18))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -19255,12 +19621,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G41">
-    <cfRule type="containsText" dxfId="37" priority="65" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G41))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G41">
+  <conditionalFormatting sqref="H18">
+    <cfRule type="containsText" dxfId="42" priority="65" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -19272,9 +19636,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G39:H39">
-    <cfRule type="containsText" dxfId="36" priority="63" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G39))))</formula>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="containsText" dxfId="41" priority="63" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="64">
       <colorScale>
@@ -19287,12 +19651,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
-    <cfRule type="containsText" dxfId="35" priority="61" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H39))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
+  <conditionalFormatting sqref="H16">
+    <cfRule type="containsText" dxfId="40" priority="61" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -19304,26 +19666,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G39">
-    <cfRule type="containsText" dxfId="34" priority="59" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G39))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G39">
-    <cfRule type="colorScale" priority="60">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
-    <cfRule type="containsText" dxfId="33" priority="57" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H25))))</formula>
+  <conditionalFormatting sqref="H31">
+    <cfRule type="containsText" dxfId="39" priority="57" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H31))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="58">
       <colorScale>
@@ -19336,10 +19681,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G21">
-    <cfRule type="containsText" dxfId="32" priority="55" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G21))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="H31">
+    <cfRule type="containsText" dxfId="38" priority="55" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H31))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -19351,24 +19698,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
-    <cfRule type="containsText" dxfId="31" priority="53" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H21))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="54">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
-    <cfRule type="containsText" dxfId="30" priority="51" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G18))))</formula>
+  <conditionalFormatting sqref="G3:H8">
+    <cfRule type="containsText" dxfId="37" priority="51" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="52">
       <colorScale>
@@ -19381,9 +19713,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
-    <cfRule type="containsText" dxfId="29" priority="49" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
+  <conditionalFormatting sqref="G9:G14">
+    <cfRule type="containsText" dxfId="36" priority="49" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="50">
       <colorScale>
@@ -19396,9 +19728,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G16">
-    <cfRule type="containsText" dxfId="28" priority="47" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G16))))</formula>
+  <conditionalFormatting sqref="H9:H14">
+    <cfRule type="containsText" dxfId="35" priority="47" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="48">
       <colorScale>
@@ -19411,9 +19743,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="27" priority="45" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
+  <conditionalFormatting sqref="G87:H87">
+    <cfRule type="containsText" dxfId="34" priority="45" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G87))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="46">
       <colorScale>
@@ -19426,12 +19758,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G30">
-    <cfRule type="containsText" dxfId="26" priority="43" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G30">
+  <conditionalFormatting sqref="H87">
+    <cfRule type="containsText" dxfId="33" priority="43" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H87))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H87">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -19443,9 +19775,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
-    <cfRule type="containsText" dxfId="25" priority="41" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H31))))</formula>
+  <conditionalFormatting sqref="G88:H88">
+    <cfRule type="containsText" dxfId="32" priority="41" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G88))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="42">
       <colorScale>
@@ -19458,12 +19790,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
-    <cfRule type="containsText" dxfId="24" priority="39" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H31))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
+  <conditionalFormatting sqref="H88">
+    <cfRule type="containsText" dxfId="31" priority="39" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H88))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H88">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -19475,9 +19807,26 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:H8">
-    <cfRule type="containsText" dxfId="23" priority="35" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+  <conditionalFormatting sqref="G88">
+    <cfRule type="containsText" dxfId="30" priority="37" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G88))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G88">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31">
+    <cfRule type="containsText" dxfId="29" priority="35" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G31))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="36">
       <colorScale>
@@ -19490,9 +19839,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9:G14">
-    <cfRule type="containsText" dxfId="22" priority="33" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
+  <conditionalFormatting sqref="G89:H89">
+    <cfRule type="containsText" dxfId="28" priority="33" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G89))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="34">
       <colorScale>
@@ -19505,10 +19854,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9:H14">
-    <cfRule type="containsText" dxfId="21" priority="31" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="H89">
+    <cfRule type="containsText" dxfId="27" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H89))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H89">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -19520,9 +19871,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G87:H87">
-    <cfRule type="containsText" dxfId="20" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G87))))</formula>
+  <conditionalFormatting sqref="G90:H90">
+    <cfRule type="containsText" dxfId="26" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G90))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
       <colorScale>
@@ -19535,12 +19886,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H87">
-    <cfRule type="containsText" dxfId="19" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H87))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H87">
+  <conditionalFormatting sqref="H90">
+    <cfRule type="containsText" dxfId="25" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H90))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H90">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -19552,10 +19903,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G88:H88">
-    <cfRule type="containsText" dxfId="18" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G88))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="G90">
+    <cfRule type="containsText" dxfId="24" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G90))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G90">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -19567,12 +19920,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H88">
-    <cfRule type="containsText" dxfId="17" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H88))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H88">
+  <conditionalFormatting sqref="H91:H94">
+    <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H91))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -19584,12 +19935,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G88">
-    <cfRule type="containsText" dxfId="16" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G88))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G88">
+  <conditionalFormatting sqref="H91:H94">
+    <cfRule type="containsText" dxfId="22" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H91))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H91:H94">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -19601,9 +19952,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G31">
-    <cfRule type="containsText" dxfId="15" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G31))))</formula>
+  <conditionalFormatting sqref="H95">
+    <cfRule type="containsText" dxfId="21" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H95))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
       <colorScale>
@@ -19616,10 +19967,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G89:H89">
-    <cfRule type="containsText" dxfId="14" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G89))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="H95">
+    <cfRule type="containsText" dxfId="20" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H95))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H95">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -19631,27 +19984,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H89">
-    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H89))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H89">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G90:H90">
-    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G90))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="G30">
+    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -19663,12 +20001,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H90">
-    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H90))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H90">
+  <conditionalFormatting sqref="G91">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G91))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G91">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -19680,12 +20018,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G90">
-    <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G90))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G90">
+  <conditionalFormatting sqref="G92">
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G92))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G92">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -19697,10 +20035,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G91:H94">
-    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G91))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="G93">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G93))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G93">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -19712,27 +20052,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H91:H94">
-    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H91))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H91:H94">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G95:H95">
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G95))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="G94">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G94))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G94">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -19744,12 +20069,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H95">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H95))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H95">
+  <conditionalFormatting sqref="G95">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G95))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G95">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -19769,13 +20094,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C57CF2B-0362-4150-B984-EA810BF4014E}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:F2"/>
+      <selection pane="bottomRight" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -19789,27 +20114,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="55" t="s">
+      <c r="A1" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="55" t="s">
+      <c r="D1" s="55"/>
+      <c r="E1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="60"/>
-      <c r="G1" s="61" t="s">
+      <c r="F1" s="59"/>
+      <c r="G1" s="60" t="s">
         <v>383</v>
       </c>
-      <c r="H1" s="62"/>
+      <c r="H1" s="61"/>
       <c r="I1" s="25"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="54"/>
-      <c r="B2" s="52" t="s">
+      <c r="A2" s="53"/>
+      <c r="B2" s="51" t="s">
         <v>339</v>
       </c>
       <c r="C2" s="42" t="s">
@@ -20627,7 +20952,7 @@
       <c r="F29" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="G29" s="44">
+      <c r="G29" s="62">
         <v>1</v>
       </c>
       <c r="H29" s="11" t="s">
@@ -20635,6 +20960,32 @@
       </c>
       <c r="I29" s="32" t="str">
         <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>399</v>
+      </c>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="38" t="s">
+        <v>275</v>
+      </c>
+      <c r="F30" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" s="44">
+        <v>1</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="I30" s="32" t="str">
+        <f t="shared" ref="I30" si="2">IF(OR(AND(G30&gt;1,G30&lt;&gt;"-"),AND(H30&gt;1,H30&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -20647,10 +20998,10 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H28">
-    <cfRule type="containsText" dxfId="5" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="22">
+    <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -20661,11 +21012,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29:H29">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="H29">
+    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -20677,11 +21028,75 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="containsText" dxfId="12" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30">
+    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H30))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G30))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -20704,7 +21119,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/Collections/Russia/#Russia#Russian_Federation#Commemorative#[1999-present]#circulation_quality.xlsx
+++ b/Collections/Russia/#Russia#Russian_Federation#Commemorative#[1999-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Russia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E66A2B4-7EF6-4B1A-8927-49D3C869D355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845850A4-0C75-4969-BE4D-3043E5C5C3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2620" yWindow="2620" windowWidth="33150" windowHeight="17700" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1₽ " sheetId="1" r:id="rId1"/>
@@ -2282,6 +2282,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2310,23 +2313,21 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="204">
+  <dxfs count="200">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -2399,39 +2400,6 @@
           <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -3967,9 +3935,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="14" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -4258,26 +4226,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="50"/>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="56" t="s">
+      <c r="D1" s="56"/>
+      <c r="E1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="55"/>
-      <c r="G1" s="57" t="s">
+      <c r="F1" s="56"/>
+      <c r="G1" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="58"/>
+      <c r="H1" s="59"/>
       <c r="I1" s="32"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="53"/>
+      <c r="A2" s="54"/>
       <c r="B2" s="51" t="s">
         <v>339</v>
       </c>
@@ -5036,7 +5004,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H3">
-    <cfRule type="containsText" dxfId="203" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="199" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5053,7 +5021,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="202" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="198" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5070,7 +5038,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="containsText" dxfId="201" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="197" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5087,7 +5055,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="200" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="196" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5104,7 +5072,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="199" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="195" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5121,7 +5089,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:H18">
-    <cfRule type="containsText" dxfId="198" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="194" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5138,7 +5106,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G17">
-    <cfRule type="containsText" dxfId="197" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="193" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5155,7 +5123,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H17">
-    <cfRule type="containsText" dxfId="196" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="192" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5172,7 +5140,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:G29">
-    <cfRule type="containsText" dxfId="195" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="191" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5189,7 +5157,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19:H29">
-    <cfRule type="containsText" dxfId="194" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="190" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5233,26 +5201,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="50"/>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="54" t="s">
+      <c r="D1" s="56"/>
+      <c r="E1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="59"/>
-      <c r="G1" s="60" t="s">
+      <c r="F1" s="60"/>
+      <c r="G1" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="61"/>
+      <c r="H1" s="62"/>
       <c r="I1" s="25"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="53"/>
+      <c r="A2" s="54"/>
       <c r="B2" s="51" t="s">
         <v>339</v>
       </c>
@@ -6330,7 +6298,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:H31">
-    <cfRule type="containsText" dxfId="193" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="189" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -6345,7 +6313,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="192" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="188" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -6360,7 +6328,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="191" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="187" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -6375,7 +6343,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:G39">
-    <cfRule type="containsText" dxfId="190" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="186" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -6390,7 +6358,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:H39">
-    <cfRule type="containsText" dxfId="189" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="185" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -6432,26 +6400,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="50"/>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="54" t="s">
+      <c r="D1" s="56"/>
+      <c r="E1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="59"/>
-      <c r="G1" s="60" t="s">
+      <c r="F1" s="60"/>
+      <c r="G1" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="61"/>
+      <c r="H1" s="62"/>
       <c r="I1" s="25"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="53"/>
+      <c r="A2" s="54"/>
       <c r="B2" s="51" t="s">
         <v>339</v>
       </c>
@@ -8474,7 +8442,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G16:H65 G3:H8">
-    <cfRule type="containsText" dxfId="188" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="184" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -8489,7 +8457,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66">
-    <cfRule type="containsText" dxfId="187" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="183" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H66))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -8504,7 +8472,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:G15">
-    <cfRule type="containsText" dxfId="186" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="182" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -8519,7 +8487,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H15">
-    <cfRule type="containsText" dxfId="185" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="181" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -8534,7 +8502,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G67:G72">
-    <cfRule type="containsText" dxfId="184" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="180" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G67))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -8549,7 +8517,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H67:H72">
-    <cfRule type="containsText" dxfId="183" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="179" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H67))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -8564,7 +8532,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G66">
-    <cfRule type="containsText" dxfId="182" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="178" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G66))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8591,10 +8559,10 @@
   <dimension ref="A1:I207"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J173" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J143" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D208" sqref="D208"/>
+      <selection pane="bottomRight" activeCell="J207" sqref="J207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8609,26 +8577,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="50"/>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="54" t="s">
+      <c r="D1" s="56"/>
+      <c r="E1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="59"/>
-      <c r="G1" s="60" t="s">
+      <c r="F1" s="60"/>
+      <c r="G1" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="H1" s="61"/>
+      <c r="H1" s="62"/>
       <c r="I1" s="25"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="53"/>
+      <c r="A2" s="54"/>
       <c r="B2" s="51" t="s">
         <v>339</v>
       </c>
@@ -14617,14 +14585,14 @@
         <v>0</v>
       </c>
       <c r="G202" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H202" s="13" t="s">
         <v>0</v>
       </c>
       <c r="I202" s="32" t="str">
         <f t="shared" ref="I202:I203" si="20">IF(OR(AND(G202&gt;1,G202&lt;&gt;"-"),AND(H202&gt;1,H202&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="203" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -14687,7 +14655,7 @@
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="G110:H167 G109 G4:H108">
-    <cfRule type="containsText" dxfId="181" priority="75" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="177" priority="75" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="76">
@@ -14702,7 +14670,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G168:H168">
-    <cfRule type="containsText" dxfId="180" priority="73" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="176" priority="73" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G168))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="74">
@@ -14717,7 +14685,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G169:H169">
-    <cfRule type="containsText" dxfId="179" priority="71" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="175" priority="71" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G169))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="72">
@@ -14732,7 +14700,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G170:H170">
-    <cfRule type="containsText" dxfId="178" priority="69" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="174" priority="69" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G170))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="70">
@@ -14747,7 +14715,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G171:H171">
-    <cfRule type="containsText" dxfId="177" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="173" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G171))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="68">
@@ -14762,7 +14730,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G172:H172">
-    <cfRule type="containsText" dxfId="176" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="172" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G172))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="66">
@@ -14777,7 +14745,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G173:H173">
-    <cfRule type="containsText" dxfId="175" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="171" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G173))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="64">
@@ -14792,7 +14760,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G174:H174">
-    <cfRule type="containsText" dxfId="174" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="170" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G174))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="62">
@@ -14807,7 +14775,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G175:H175">
-    <cfRule type="containsText" dxfId="173" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="169" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G175))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="60">
@@ -14822,7 +14790,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G176:H176">
-    <cfRule type="containsText" dxfId="172" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="168" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G176))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="58">
@@ -14837,7 +14805,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G177:H177">
-    <cfRule type="containsText" dxfId="171" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="167" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G177))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="56">
@@ -14852,7 +14820,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G178:H178">
-    <cfRule type="containsText" dxfId="170" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="166" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G178))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="54">
@@ -14867,7 +14835,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G179:H179">
-    <cfRule type="containsText" dxfId="169" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="165" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G179))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="52">
@@ -14882,7 +14850,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G180:H180">
-    <cfRule type="containsText" dxfId="168" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="164" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G180))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="50">
@@ -14897,7 +14865,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G181:H181">
-    <cfRule type="containsText" dxfId="167" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="163" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G181))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="48">
@@ -14912,7 +14880,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G182:H182">
-    <cfRule type="containsText" dxfId="166" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="162" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G182))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
@@ -14927,7 +14895,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G183:H183">
-    <cfRule type="containsText" dxfId="165" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="161" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G183))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="42">
@@ -14942,7 +14910,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G184:H184">
-    <cfRule type="containsText" dxfId="164" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="160" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G184))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
@@ -14957,7 +14925,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G186:H186">
-    <cfRule type="containsText" dxfId="163" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="159" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G186))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="36">
@@ -14972,7 +14940,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G187:H187">
-    <cfRule type="containsText" dxfId="162" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="158" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G187))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="34">
@@ -14987,7 +14955,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G188:H188">
-    <cfRule type="containsText" dxfId="161" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="157" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G188))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="32">
@@ -15002,7 +14970,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G185:H185">
-    <cfRule type="containsText" dxfId="160" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="156" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G185))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -15017,7 +14985,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G189:H189">
-    <cfRule type="containsText" dxfId="159" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="155" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G189))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="28">
@@ -15032,7 +15000,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G190:H190">
-    <cfRule type="containsText" dxfId="158" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="154" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G190))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="26">
@@ -15047,7 +15015,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G191:H191">
-    <cfRule type="containsText" dxfId="157" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="153" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G191))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
@@ -15062,7 +15030,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H109">
-    <cfRule type="containsText" dxfId="156" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="152" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H109))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15079,7 +15047,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H3">
-    <cfRule type="containsText" dxfId="155" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="151" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -15094,7 +15062,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G192">
-    <cfRule type="containsText" dxfId="154" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="150" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G192))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -15109,7 +15077,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H192">
-    <cfRule type="containsText" dxfId="153" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="149" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H192))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -15124,7 +15092,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G193:H193 G195:H195 G197:H197">
-    <cfRule type="containsText" dxfId="152" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="148" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G193))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -15139,7 +15107,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G194:H194 G196:H196">
-    <cfRule type="containsText" dxfId="151" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="147" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G194))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -15154,7 +15122,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G200 G198">
-    <cfRule type="containsText" dxfId="150" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="146" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G198))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -15169,7 +15137,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H200 H198">
-    <cfRule type="containsText" dxfId="149" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="145" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H198))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -15184,7 +15152,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G199:H199 G201:H201">
-    <cfRule type="containsText" dxfId="148" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="144" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G199))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -15199,7 +15167,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G202:H202">
-    <cfRule type="containsText" dxfId="147" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="143" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G202))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -15214,7 +15182,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G203:H203">
-    <cfRule type="containsText" dxfId="146" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="142" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G203))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -15239,10 +15207,10 @@
   <dimension ref="A1:I95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G30" sqref="G30"/>
+      <selection pane="bottomRight" activeCell="G96" sqref="G96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -15256,26 +15224,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="50"/>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="54" t="s">
+      <c r="D1" s="56"/>
+      <c r="E1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="59"/>
-      <c r="G1" s="60" t="s">
+      <c r="F1" s="60"/>
+      <c r="G1" s="61" t="s">
         <v>304</v>
       </c>
-      <c r="H1" s="61"/>
+      <c r="H1" s="62"/>
       <c r="I1" s="25"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="53"/>
+      <c r="A2" s="54"/>
       <c r="B2" s="51" t="s">
         <v>339</v>
       </c>
@@ -16097,7 +16065,7 @@
       <c r="F30" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="G30" s="62">
+      <c r="G30" s="52">
         <v>1</v>
       </c>
       <c r="H30" s="11" t="s">
@@ -17822,8 +17790,8 @@
       <c r="F91" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="G91" s="62">
-        <v>0</v>
+      <c r="G91" s="52">
+        <v>1</v>
       </c>
       <c r="H91" s="11" t="s">
         <v>0</v>
@@ -17852,8 +17820,8 @@
       <c r="F92" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="G92" s="62">
-        <v>0</v>
+      <c r="G92" s="52">
+        <v>1</v>
       </c>
       <c r="H92" s="11" t="s">
         <v>0</v>
@@ -17882,8 +17850,8 @@
       <c r="F93" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="G93" s="62">
-        <v>0</v>
+      <c r="G93" s="52">
+        <v>1</v>
       </c>
       <c r="H93" s="11" t="s">
         <v>0</v>
@@ -17912,8 +17880,8 @@
       <c r="F94" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="G94" s="62">
-        <v>0</v>
+      <c r="G94" s="52">
+        <v>1</v>
       </c>
       <c r="H94" s="11" t="s">
         <v>0</v>
@@ -17942,8 +17910,8 @@
       <c r="F95" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="G95" s="62">
-        <v>0</v>
+      <c r="G95" s="52">
+        <v>1</v>
       </c>
       <c r="H95" s="11" t="s">
         <v>0</v>
@@ -17963,7 +17931,7 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="G15:H15 G17:H17 G26:H26 G19:H20 G22:H24">
-    <cfRule type="containsText" dxfId="145" priority="402" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="141" priority="402" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="403">
@@ -17978,7 +17946,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="144" priority="383" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="140" priority="383" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17995,7 +17963,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:H28">
-    <cfRule type="containsText" dxfId="143" priority="381" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="139" priority="381" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G28))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="382">
@@ -18010,7 +17978,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="142" priority="379" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="138" priority="379" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18027,7 +17995,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="containsText" dxfId="141" priority="377" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="137" priority="377" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H30))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="378">
@@ -18042,7 +18010,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="containsText" dxfId="140" priority="375" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="136" priority="375" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18059,7 +18027,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:H32">
-    <cfRule type="containsText" dxfId="139" priority="369" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="135" priority="369" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="370">
@@ -18074,7 +18042,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="containsText" dxfId="138" priority="367" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="134" priority="367" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18091,7 +18059,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:H34 G38:H38">
-    <cfRule type="containsText" dxfId="137" priority="365" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="133" priority="365" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G34))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="366">
@@ -18106,7 +18074,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34 H38">
-    <cfRule type="containsText" dxfId="136" priority="363" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="132" priority="363" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H34))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18123,7 +18091,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33:H33 G36:H36 G40:H40">
-    <cfRule type="containsText" dxfId="135" priority="361" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="131" priority="361" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G33))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="362">
@@ -18138,7 +18106,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33 H36 H40">
-    <cfRule type="containsText" dxfId="134" priority="359" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="130" priority="359" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H33))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18155,7 +18123,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42:H42">
-    <cfRule type="containsText" dxfId="133" priority="357" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="129" priority="357" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G42))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="358">
@@ -18170,7 +18138,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="containsText" dxfId="132" priority="355" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="128" priority="355" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H42))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18187,7 +18155,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43:H43">
-    <cfRule type="containsText" dxfId="131" priority="353" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="127" priority="353" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G43))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="354">
@@ -18202,7 +18170,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="containsText" dxfId="130" priority="351" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="126" priority="351" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H43))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18219,7 +18187,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45:H45">
-    <cfRule type="containsText" dxfId="129" priority="349" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="125" priority="349" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G45))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="350">
@@ -18234,7 +18202,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="containsText" dxfId="128" priority="347" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="124" priority="347" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H45))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18251,7 +18219,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47:H47 G49:H49 G51:H51 G53:H53 G55:H56 G54">
-    <cfRule type="containsText" dxfId="127" priority="345" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="123" priority="345" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G47))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="346">
@@ -18266,7 +18234,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47 H49 H51 H53 H55:H56">
-    <cfRule type="containsText" dxfId="126" priority="343" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="122" priority="343" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H47))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18283,7 +18251,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G48:H48 G50:H50 G52:H52 H54">
-    <cfRule type="containsText" dxfId="125" priority="341" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="121" priority="341" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G48))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="342">
@@ -18298,7 +18266,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48 H50 H52 H54">
-    <cfRule type="containsText" dxfId="124" priority="339" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="120" priority="339" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H48))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18315,7 +18283,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G61:H61 G63:H63 G65:H65 G67:H67 G69:H69">
-    <cfRule type="containsText" dxfId="123" priority="317" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="119" priority="317" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G61))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="318">
@@ -18330,7 +18298,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61 H63 H65 H67 H69">
-    <cfRule type="containsText" dxfId="122" priority="315" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="118" priority="315" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H61))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18347,7 +18315,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G60:H60 G62:H62 G64:H64 G66:H66 G68:H68 G70:H70 G73:H73">
-    <cfRule type="containsText" dxfId="121" priority="313" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="117" priority="313" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G60))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="314">
@@ -18362,7 +18330,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60 H62 H64 H66 H68 H70 H73">
-    <cfRule type="containsText" dxfId="120" priority="311" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="116" priority="311" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H60))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18379,7 +18347,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G58:H58">
-    <cfRule type="containsText" dxfId="119" priority="309" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="115" priority="309" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G58))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="310">
@@ -18394,7 +18362,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="containsText" dxfId="118" priority="307" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="114" priority="307" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H58))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18411,7 +18379,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G71:H71">
-    <cfRule type="containsText" dxfId="117" priority="305" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="113" priority="305" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G71))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="306">
@@ -18426,7 +18394,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="containsText" dxfId="116" priority="303" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="112" priority="303" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H71))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18443,7 +18411,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="containsText" dxfId="115" priority="289" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="111" priority="289" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="290">
@@ -18458,7 +18426,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="containsText" dxfId="114" priority="287" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="110" priority="287" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="288">
@@ -18473,7 +18441,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="containsText" dxfId="113" priority="285" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="109" priority="285" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G25))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="286">
@@ -18488,7 +18456,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:H27">
-    <cfRule type="containsText" dxfId="112" priority="277" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="108" priority="277" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="278">
@@ -18503,7 +18471,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="111" priority="275" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="107" priority="275" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18520,7 +18488,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G75:H75">
-    <cfRule type="containsText" dxfId="110" priority="225" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="106" priority="225" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G75))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="226">
@@ -18535,7 +18503,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H75">
-    <cfRule type="containsText" dxfId="109" priority="223" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="105" priority="223" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H75))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18552,7 +18520,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G77:H77">
-    <cfRule type="containsText" dxfId="108" priority="217" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="104" priority="217" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G77))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="218">
@@ -18567,7 +18535,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H77">
-    <cfRule type="containsText" dxfId="107" priority="215" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="103" priority="215" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H77))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18584,7 +18552,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G79:H79">
-    <cfRule type="containsText" dxfId="106" priority="209" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="102" priority="209" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G79))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="210">
@@ -18599,7 +18567,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H79">
-    <cfRule type="containsText" dxfId="105" priority="207" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="101" priority="207" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H79))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18616,7 +18584,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G81:H81">
-    <cfRule type="containsText" dxfId="104" priority="205" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="100" priority="205" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G81))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="206">
@@ -18631,7 +18599,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H81">
-    <cfRule type="containsText" dxfId="103" priority="203" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="99" priority="203" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H81))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18648,7 +18616,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G83:H83">
-    <cfRule type="containsText" dxfId="102" priority="201" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="98" priority="201" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G83))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="202">
@@ -18663,7 +18631,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H83">
-    <cfRule type="containsText" dxfId="101" priority="199" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="97" priority="199" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H83))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18680,7 +18648,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G85:H85">
-    <cfRule type="containsText" dxfId="100" priority="197" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="96" priority="197" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G85))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="198">
@@ -18695,7 +18663,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H85">
-    <cfRule type="containsText" dxfId="99" priority="195" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="95" priority="195" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H85))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18712,7 +18680,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="containsText" dxfId="98" priority="177" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="94" priority="177" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18729,7 +18697,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:H29">
-    <cfRule type="containsText" dxfId="97" priority="175" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="93" priority="175" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="176">
@@ -18744,7 +18712,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="96" priority="173" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="92" priority="173" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18761,7 +18729,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="containsText" dxfId="95" priority="171" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="91" priority="171" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18778,7 +18746,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35:H35">
-    <cfRule type="containsText" dxfId="94" priority="169" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="90" priority="169" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G35))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="170">
@@ -18793,7 +18761,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="containsText" dxfId="93" priority="167" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="89" priority="167" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18810,7 +18778,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="containsText" dxfId="92" priority="165" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="88" priority="165" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18827,7 +18795,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44:H44">
-    <cfRule type="containsText" dxfId="91" priority="163" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="87" priority="163" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G44))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="164">
@@ -18842,7 +18810,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="containsText" dxfId="90" priority="161" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="86" priority="161" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H44))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18859,7 +18827,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="containsText" dxfId="89" priority="159" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="85" priority="159" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G44))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18876,7 +18844,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46:H46">
-    <cfRule type="containsText" dxfId="88" priority="157" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="84" priority="157" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G46))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="158">
@@ -18891,7 +18859,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="containsText" dxfId="87" priority="155" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="83" priority="155" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H46))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18908,7 +18876,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46">
-    <cfRule type="containsText" dxfId="86" priority="153" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="82" priority="153" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G46))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18925,7 +18893,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G59:H59">
-    <cfRule type="containsText" dxfId="85" priority="151" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="81" priority="151" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G59))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="152">
@@ -18940,7 +18908,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="containsText" dxfId="84" priority="149" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="80" priority="149" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H59))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18957,7 +18925,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G59">
-    <cfRule type="containsText" dxfId="83" priority="147" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="79" priority="147" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G59))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18974,7 +18942,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G57:H57">
-    <cfRule type="containsText" dxfId="82" priority="145" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="78" priority="145" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G57))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="146">
@@ -18989,7 +18957,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57">
-    <cfRule type="containsText" dxfId="81" priority="143" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="77" priority="143" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H57))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19006,7 +18974,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G57">
-    <cfRule type="containsText" dxfId="80" priority="141" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="76" priority="141" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G57))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19023,7 +18991,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G80:H80">
-    <cfRule type="containsText" dxfId="79" priority="139" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="75" priority="139" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G80))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="140">
@@ -19038,7 +19006,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H80">
-    <cfRule type="containsText" dxfId="78" priority="137" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="74" priority="137" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H80))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19055,7 +19023,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G80">
-    <cfRule type="containsText" dxfId="77" priority="135" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="73" priority="135" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G80))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19072,7 +19040,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G78:H78">
-    <cfRule type="containsText" dxfId="76" priority="133" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="72" priority="133" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G78))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="134">
@@ -19087,7 +19055,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H78">
-    <cfRule type="containsText" dxfId="75" priority="131" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="71" priority="131" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H78))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19104,7 +19072,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G78">
-    <cfRule type="containsText" dxfId="74" priority="129" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="70" priority="129" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G78))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19121,7 +19089,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G76:H76">
-    <cfRule type="containsText" dxfId="73" priority="127" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="69" priority="127" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G76))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="128">
@@ -19136,7 +19104,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H76">
-    <cfRule type="containsText" dxfId="72" priority="125" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="68" priority="125" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H76))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19153,7 +19121,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G76">
-    <cfRule type="containsText" dxfId="71" priority="123" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="67" priority="123" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G76))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19170,7 +19138,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G74:H74">
-    <cfRule type="containsText" dxfId="70" priority="121" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="66" priority="121" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G74))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="122">
@@ -19185,7 +19153,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H74">
-    <cfRule type="containsText" dxfId="69" priority="119" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="65" priority="119" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H74))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19202,7 +19170,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G74">
-    <cfRule type="containsText" dxfId="68" priority="117" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="64" priority="117" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G74))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19219,7 +19187,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G72:H72">
-    <cfRule type="containsText" dxfId="67" priority="115" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="63" priority="115" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G72))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="116">
@@ -19234,7 +19202,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H72">
-    <cfRule type="containsText" dxfId="66" priority="113" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="62" priority="113" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H72))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19251,7 +19219,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G72">
-    <cfRule type="containsText" dxfId="65" priority="111" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="61" priority="111" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G72))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19268,7 +19236,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G82:H82">
-    <cfRule type="containsText" dxfId="64" priority="109" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="60" priority="109" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G82))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="110">
@@ -19283,7 +19251,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H82">
-    <cfRule type="containsText" dxfId="63" priority="107" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="107" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H82))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19300,7 +19268,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G82">
-    <cfRule type="containsText" dxfId="62" priority="105" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="105" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G82))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19317,7 +19285,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G86:H86">
-    <cfRule type="containsText" dxfId="61" priority="103" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="103" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G86))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="104">
@@ -19332,7 +19300,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H86">
-    <cfRule type="containsText" dxfId="60" priority="101" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="101" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H86))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19349,7 +19317,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G86">
-    <cfRule type="containsText" dxfId="59" priority="99" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="99" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G86))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19366,7 +19334,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G84:H84">
-    <cfRule type="containsText" dxfId="58" priority="97" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="97" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G84))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="98">
@@ -19381,7 +19349,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H84">
-    <cfRule type="containsText" dxfId="57" priority="95" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="95" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H84))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19398,7 +19366,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G84">
-    <cfRule type="containsText" dxfId="56" priority="93" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="93" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G84))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19415,7 +19383,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G37:H37">
-    <cfRule type="containsText" dxfId="55" priority="91" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="91" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G37))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="92">
@@ -19430,7 +19398,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="containsText" dxfId="54" priority="89" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="89" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H37))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19447,7 +19415,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G37">
-    <cfRule type="containsText" dxfId="53" priority="87" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="87" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G37))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19464,7 +19432,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41:H41">
-    <cfRule type="containsText" dxfId="52" priority="85" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="85" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G41))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="86">
@@ -19479,7 +19447,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="containsText" dxfId="51" priority="83" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="83" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H41))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19496,7 +19464,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="containsText" dxfId="50" priority="81" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="81" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G41))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19513,7 +19481,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G39:H39">
-    <cfRule type="containsText" dxfId="49" priority="79" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="79" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G39))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="80">
@@ -19528,7 +19496,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="containsText" dxfId="48" priority="77" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="77" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H39))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19545,7 +19513,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G39">
-    <cfRule type="containsText" dxfId="47" priority="75" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="75" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G39))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19562,7 +19530,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="containsText" dxfId="46" priority="73" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="73" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H25))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="74">
@@ -19577,7 +19545,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="containsText" dxfId="45" priority="71" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="71" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="72">
@@ -19592,7 +19560,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="containsText" dxfId="44" priority="69" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="69" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="70">
@@ -19607,7 +19575,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="containsText" dxfId="43" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G18))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="68">
@@ -19622,7 +19590,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="containsText" dxfId="42" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="66">
@@ -19637,7 +19605,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="containsText" dxfId="41" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="64">
@@ -19652,7 +19620,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="40" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="62">
@@ -19667,7 +19635,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="containsText" dxfId="39" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H31))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="58">
@@ -19682,7 +19650,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="containsText" dxfId="38" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H31))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19699,7 +19667,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H8">
-    <cfRule type="containsText" dxfId="37" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="52">
@@ -19714,7 +19682,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:G14">
-    <cfRule type="containsText" dxfId="36" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="50">
@@ -19729,7 +19697,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H14">
-    <cfRule type="containsText" dxfId="35" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="48">
@@ -19744,7 +19712,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G87:H87">
-    <cfRule type="containsText" dxfId="34" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G87))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="46">
@@ -19759,7 +19727,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H87">
-    <cfRule type="containsText" dxfId="33" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H87))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19776,7 +19744,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G88:H88">
-    <cfRule type="containsText" dxfId="32" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G88))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="42">
@@ -19791,7 +19759,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H88">
-    <cfRule type="containsText" dxfId="31" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H88))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19808,7 +19776,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G88">
-    <cfRule type="containsText" dxfId="30" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G88))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19825,7 +19793,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="containsText" dxfId="29" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G31))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="36">
@@ -19840,7 +19808,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G89:H89">
-    <cfRule type="containsText" dxfId="28" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G89))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="34">
@@ -19855,7 +19823,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H89">
-    <cfRule type="containsText" dxfId="27" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H89))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19872,7 +19840,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G90:H90">
-    <cfRule type="containsText" dxfId="26" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G90))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -19887,7 +19855,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H90">
-    <cfRule type="containsText" dxfId="25" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H90))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19904,7 +19872,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G90">
-    <cfRule type="containsText" dxfId="24" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G90))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19921,7 +19889,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H91:H94">
-    <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H91))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
@@ -19936,7 +19904,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H91:H94">
-    <cfRule type="containsText" dxfId="22" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H91))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19953,7 +19921,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H95">
-    <cfRule type="containsText" dxfId="21" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H95))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -19968,7 +19936,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H95">
-    <cfRule type="containsText" dxfId="20" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H95))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19985,7 +19953,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20002,7 +19970,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G91">
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G91))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20019,7 +19987,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G92">
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G92))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20036,7 +20004,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G93">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G93))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20053,7 +20021,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G94">
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G94))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20070,7 +20038,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G95">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G95))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20114,26 +20082,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="50"/>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="54" t="s">
+      <c r="D1" s="56"/>
+      <c r="E1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="59"/>
-      <c r="G1" s="60" t="s">
+      <c r="F1" s="60"/>
+      <c r="G1" s="61" t="s">
         <v>383</v>
       </c>
-      <c r="H1" s="61"/>
+      <c r="H1" s="62"/>
       <c r="I1" s="25"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="53"/>
+      <c r="A2" s="54"/>
       <c r="B2" s="51" t="s">
         <v>339</v>
       </c>
@@ -20952,7 +20920,7 @@
       <c r="F29" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="G29" s="62">
+      <c r="G29" s="52">
         <v>1</v>
       </c>
       <c r="H29" s="11" t="s">
@@ -20998,7 +20966,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H28">
-    <cfRule type="containsText" dxfId="18" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="34">
@@ -21013,7 +20981,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -21028,7 +20996,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="16" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21045,7 +21013,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="containsText" dxfId="12" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21062,7 +21030,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H30))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -21077,7 +21045,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21094,7 +21062,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G30))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">

--- a/Collections/Russia/#Russia#Russian_Federation#Commemorative#[1999-present]#circulation_quality.xlsx
+++ b/Collections/Russia/#Russia#Russian_Federation#Commemorative#[1999-present]#circulation_quality.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Russia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845850A4-0C75-4969-BE4D-3043E5C5C3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E696C393-A089-40C7-9561-AED18E78CDFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -636,7 +636,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2642" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2641" uniqueCount="400">
   <si>
     <t>-</t>
   </si>
@@ -1796,9 +1796,6 @@
     <t>Smolensk Region</t>
   </si>
   <si>
-    <t>A Kitten named Woof</t>
-  </si>
-  <si>
     <t>Agricultural and processing industry worker</t>
   </si>
   <si>
@@ -1836,6 +1833,9 @@
   </si>
   <si>
     <t>Year of the Defender of the Fatherland - Savur-Mohyla</t>
+  </si>
+  <si>
+    <t>The Fixies</t>
   </si>
 </sst>
 </file>
@@ -2319,7 +2319,15 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="200">
+  <dxfs count="201">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -3935,9 +3943,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -4250,10 +4258,10 @@
         <v>339</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E2" s="27" t="s">
         <v>5</v>
@@ -5004,7 +5012,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H3">
-    <cfRule type="containsText" dxfId="199" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="200" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5021,7 +5029,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="198" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="199" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5038,7 +5046,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="containsText" dxfId="197" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="198" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5055,7 +5063,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="196" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="197" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5072,7 +5080,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="195" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="196" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5089,7 +5097,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:H18">
-    <cfRule type="containsText" dxfId="194" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="195" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5106,7 +5114,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G17">
-    <cfRule type="containsText" dxfId="193" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="194" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5123,7 +5131,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H17">
-    <cfRule type="containsText" dxfId="192" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="193" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5140,7 +5148,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:G29">
-    <cfRule type="containsText" dxfId="191" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="192" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5157,7 +5165,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19:H29">
-    <cfRule type="containsText" dxfId="190" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="191" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5225,10 +5233,10 @@
         <v>339</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E2" s="27" t="s">
         <v>5</v>
@@ -6298,7 +6306,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:H31">
-    <cfRule type="containsText" dxfId="189" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="190" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -6313,7 +6321,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="188" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="189" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -6328,7 +6336,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="187" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="188" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -6343,7 +6351,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:G39">
-    <cfRule type="containsText" dxfId="186" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="187" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -6358,7 +6366,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:H39">
-    <cfRule type="containsText" dxfId="185" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="186" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -6424,10 +6432,10 @@
         <v>339</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E2" s="27" t="s">
         <v>5</v>
@@ -8442,7 +8450,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G16:H65 G3:H8">
-    <cfRule type="containsText" dxfId="184" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="185" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -8457,7 +8465,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66">
-    <cfRule type="containsText" dxfId="183" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="184" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H66))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -8472,7 +8480,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:G15">
-    <cfRule type="containsText" dxfId="182" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="183" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -8487,7 +8495,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H15">
-    <cfRule type="containsText" dxfId="181" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="182" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -8502,7 +8510,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G67:G72">
-    <cfRule type="containsText" dxfId="180" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="181" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G67))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -8517,7 +8525,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H67:H72">
-    <cfRule type="containsText" dxfId="179" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="180" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H67))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -8532,7 +8540,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G66">
-    <cfRule type="containsText" dxfId="178" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="179" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G66))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8559,10 +8567,10 @@
   <dimension ref="A1:I207"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J143" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J164" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J207" sqref="J207"/>
+      <selection pane="bottomRight" activeCell="F211" sqref="F211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8601,10 +8609,10 @@
         <v>339</v>
       </c>
       <c r="C2" s="42" t="s">
+        <v>392</v>
+      </c>
+      <c r="D2" s="26" t="s">
         <v>393</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>394</v>
       </c>
       <c r="E2" s="27" t="s">
         <v>5</v>
@@ -14600,7 +14608,7 @@
         <v>2025</v>
       </c>
       <c r="B203" s="36" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C203" s="37" t="s">
         <v>257</v>
@@ -14615,7 +14623,7 @@
         <v>0</v>
       </c>
       <c r="G203" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H203" s="13" t="s">
         <v>0</v>
@@ -14655,7 +14663,7 @@
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="G110:H167 G109 G4:H108">
-    <cfRule type="containsText" dxfId="177" priority="75" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="178" priority="75" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="76">
@@ -14670,7 +14678,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G168:H168">
-    <cfRule type="containsText" dxfId="176" priority="73" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="177" priority="73" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G168))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="74">
@@ -14685,7 +14693,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G169:H169">
-    <cfRule type="containsText" dxfId="175" priority="71" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="176" priority="71" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G169))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="72">
@@ -14700,7 +14708,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G170:H170">
-    <cfRule type="containsText" dxfId="174" priority="69" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="175" priority="69" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G170))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="70">
@@ -14715,7 +14723,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G171:H171">
-    <cfRule type="containsText" dxfId="173" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="174" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G171))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="68">
@@ -14730,7 +14738,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G172:H172">
-    <cfRule type="containsText" dxfId="172" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="173" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G172))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="66">
@@ -14745,7 +14753,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G173:H173">
-    <cfRule type="containsText" dxfId="171" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="172" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G173))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="64">
@@ -14760,7 +14768,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G174:H174">
-    <cfRule type="containsText" dxfId="170" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="171" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G174))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="62">
@@ -14775,7 +14783,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G175:H175">
-    <cfRule type="containsText" dxfId="169" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="170" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G175))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="60">
@@ -14790,7 +14798,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G176:H176">
-    <cfRule type="containsText" dxfId="168" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="169" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G176))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="58">
@@ -14805,7 +14813,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G177:H177">
-    <cfRule type="containsText" dxfId="167" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="168" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G177))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="56">
@@ -14820,7 +14828,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G178:H178">
-    <cfRule type="containsText" dxfId="166" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="167" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G178))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="54">
@@ -14835,7 +14843,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G179:H179">
-    <cfRule type="containsText" dxfId="165" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="166" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G179))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="52">
@@ -14850,7 +14858,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G180:H180">
-    <cfRule type="containsText" dxfId="164" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="165" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G180))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="50">
@@ -14865,7 +14873,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G181:H181">
-    <cfRule type="containsText" dxfId="163" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="164" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G181))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="48">
@@ -14880,7 +14888,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G182:H182">
-    <cfRule type="containsText" dxfId="162" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="163" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G182))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
@@ -14895,7 +14903,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G183:H183">
-    <cfRule type="containsText" dxfId="161" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="162" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G183))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="42">
@@ -14910,7 +14918,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G184:H184">
-    <cfRule type="containsText" dxfId="160" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="161" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G184))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
@@ -14925,7 +14933,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G186:H186">
-    <cfRule type="containsText" dxfId="159" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="160" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G186))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="36">
@@ -14940,7 +14948,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G187:H187">
-    <cfRule type="containsText" dxfId="158" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="159" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G187))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="34">
@@ -14955,7 +14963,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G188:H188">
-    <cfRule type="containsText" dxfId="157" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="158" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G188))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="32">
@@ -14970,7 +14978,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G185:H185">
-    <cfRule type="containsText" dxfId="156" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="157" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G185))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -14985,7 +14993,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G189:H189">
-    <cfRule type="containsText" dxfId="155" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="156" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G189))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="28">
@@ -15000,7 +15008,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G190:H190">
-    <cfRule type="containsText" dxfId="154" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="155" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G190))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="26">
@@ -15015,7 +15023,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G191:H191">
-    <cfRule type="containsText" dxfId="153" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="154" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G191))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
@@ -15030,7 +15038,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H109">
-    <cfRule type="containsText" dxfId="152" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="153" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H109))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15047,7 +15055,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H3">
-    <cfRule type="containsText" dxfId="151" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="152" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -15062,7 +15070,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G192">
-    <cfRule type="containsText" dxfId="150" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="151" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G192))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -15077,7 +15085,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H192">
-    <cfRule type="containsText" dxfId="149" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="150" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H192))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -15092,7 +15100,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G193:H193 G195:H195 G197:H197">
-    <cfRule type="containsText" dxfId="148" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="149" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G193))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -15107,7 +15115,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G194:H194 G196:H196">
-    <cfRule type="containsText" dxfId="147" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="148" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G194))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -15121,8 +15129,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G200 G198">
-    <cfRule type="containsText" dxfId="146" priority="9" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G198 G200">
+    <cfRule type="containsText" dxfId="147" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G198))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -15136,8 +15144,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H200 H198">
-    <cfRule type="containsText" dxfId="145" priority="7" operator="containsText" text="*-">
+  <conditionalFormatting sqref="H198 H200">
+    <cfRule type="containsText" dxfId="146" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H198))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -15152,7 +15160,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G199:H199 G201:H201">
-    <cfRule type="containsText" dxfId="144" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="145" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G199))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -15167,7 +15175,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G202:H202">
-    <cfRule type="containsText" dxfId="143" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="144" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G202))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -15182,7 +15190,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G203:H203">
-    <cfRule type="containsText" dxfId="142" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="143" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G203))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -15207,10 +15215,10 @@
   <dimension ref="A1:I95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G96" sqref="G96"/>
+      <selection pane="bottomRight" activeCell="J91" sqref="J91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -15248,10 +15256,10 @@
         <v>339</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E2" s="27" t="s">
         <v>5</v>
@@ -17718,7 +17726,7 @@
         <v>2025</v>
       </c>
       <c r="B89" s="36" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="C89" s="37" t="s">
         <v>266</v>
@@ -17731,7 +17739,7 @@
         <v>0</v>
       </c>
       <c r="G89" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" s="11" t="s">
         <v>0</v>
@@ -17746,7 +17754,7 @@
         <v>2025</v>
       </c>
       <c r="B90" s="36" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="C90" s="37" t="s">
         <v>266</v>
@@ -17760,8 +17768,8 @@
       <c r="F90" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="G90" s="11" t="s">
-        <v>0</v>
+      <c r="G90" s="52">
+        <v>1</v>
       </c>
       <c r="H90" s="11" t="s">
         <v>0</v>
@@ -17776,10 +17784,10 @@
         <v>2025</v>
       </c>
       <c r="B91" s="36" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C91" s="37" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D91" s="37" t="s">
         <v>331</v>
@@ -17806,10 +17814,10 @@
         <v>2025</v>
       </c>
       <c r="B92" s="36" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C92" s="37" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D92" s="37" t="s">
         <v>331</v>
@@ -17836,10 +17844,10 @@
         <v>2025</v>
       </c>
       <c r="B93" s="36" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C93" s="37" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D93" s="37" t="s">
         <v>331</v>
@@ -17866,10 +17874,10 @@
         <v>2025</v>
       </c>
       <c r="B94" s="36" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C94" s="37" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D94" s="37" t="s">
         <v>331</v>
@@ -17896,10 +17904,10 @@
         <v>2025</v>
       </c>
       <c r="B95" s="36" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C95" s="37" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D95" s="37" t="s">
         <v>331</v>
@@ -17931,10 +17939,10 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="G15:H15 G17:H17 G26:H26 G19:H20 G22:H24">
-    <cfRule type="containsText" dxfId="141" priority="402" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="142" priority="404" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="403">
+    <cfRule type="colorScale" priority="405">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -17946,11 +17954,26 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
+    <cfRule type="containsText" dxfId="141" priority="385" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H26))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26">
+    <cfRule type="colorScale" priority="386">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28:H28">
     <cfRule type="containsText" dxfId="140" priority="383" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H26))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G28))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="384">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17962,10 +17985,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28:H28">
+  <conditionalFormatting sqref="H28">
     <cfRule type="containsText" dxfId="139" priority="381" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G28))))</formula>
-    </cfRule>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28">
     <cfRule type="colorScale" priority="382">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17977,12 +18002,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
+  <conditionalFormatting sqref="H30">
     <cfRule type="containsText" dxfId="138" priority="379" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H28))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H30))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="380">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17998,6 +18021,8 @@
     <cfRule type="containsText" dxfId="137" priority="377" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H30))))</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30">
     <cfRule type="colorScale" priority="378">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18009,13 +18034,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
-    <cfRule type="containsText" dxfId="136" priority="375" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
-    <cfRule type="colorScale" priority="376">
+  <conditionalFormatting sqref="G32:H32">
+    <cfRule type="containsText" dxfId="136" priority="371" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="372">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -18026,10 +18049,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G32:H32">
+  <conditionalFormatting sqref="H32">
     <cfRule type="containsText" dxfId="135" priority="369" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
-    </cfRule>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32">
     <cfRule type="colorScale" priority="370">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18041,12 +18066,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
+  <conditionalFormatting sqref="G34:H34 G38:H38">
     <cfRule type="containsText" dxfId="134" priority="367" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G34))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="368">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18058,10 +18081,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G34:H34 G38:H38">
+  <conditionalFormatting sqref="H34 H38">
     <cfRule type="containsText" dxfId="133" priority="365" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G34))))</formula>
-    </cfRule>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38 H34">
     <cfRule type="colorScale" priority="366">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18073,12 +18098,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H34 H38">
+  <conditionalFormatting sqref="G33:H33 G36:H36 G40:H40">
     <cfRule type="containsText" dxfId="132" priority="363" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34 H38">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G33))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="364">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18090,10 +18113,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G33:H33 G36:H36 G40:H40">
+  <conditionalFormatting sqref="H33 H36 H40">
     <cfRule type="containsText" dxfId="131" priority="361" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G33))))</formula>
-    </cfRule>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H33))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36 H33 H40">
     <cfRule type="colorScale" priority="362">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18105,12 +18130,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H33 H36 H40">
+  <conditionalFormatting sqref="G42:H42">
     <cfRule type="containsText" dxfId="130" priority="359" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H33))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H33 H36 H40">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G42))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="360">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18122,10 +18145,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G42:H42">
+  <conditionalFormatting sqref="H42">
     <cfRule type="containsText" dxfId="129" priority="357" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G42))))</formula>
-    </cfRule>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H42))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H42">
     <cfRule type="colorScale" priority="358">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18137,12 +18162,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H42">
+  <conditionalFormatting sqref="G43:H43">
     <cfRule type="containsText" dxfId="128" priority="355" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H42))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H42">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G43))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="356">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18154,10 +18177,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G43:H43">
+  <conditionalFormatting sqref="H43">
     <cfRule type="containsText" dxfId="127" priority="353" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G43))))</formula>
-    </cfRule>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H43))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H43">
     <cfRule type="colorScale" priority="354">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18169,12 +18194,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
+  <conditionalFormatting sqref="G45:H45">
     <cfRule type="containsText" dxfId="126" priority="351" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H43))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G45))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="352">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18186,10 +18209,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G45:H45">
+  <conditionalFormatting sqref="H45">
     <cfRule type="containsText" dxfId="125" priority="349" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G45))))</formula>
-    </cfRule>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H45))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H45">
     <cfRule type="colorSca